--- a/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
+++ b/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangx60\OneDrive - Queensland University of Technology\Desktop\Dataset QUTZS23\github\QUT-ZSS-2023\Datasets\GOOSE attack dataset\Raw dataset (network traffic)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BFEB67F-AC91-428C-BA01-6E6E6C55AB5D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,9 +927,6 @@
     <t>Attacks</t>
   </si>
   <si>
-    <t>Time sections of successive behaviours (second)</t>
-  </si>
-  <si>
     <t>Emergency&amp;Attacks</t>
   </si>
   <si>
@@ -955,6 +952,9 @@
   </si>
   <si>
     <t>Em&amp;Attack</t>
+  </si>
+  <si>
+    <t>Time sections of successive behaviours in seconds</t>
   </si>
 </sst>
 </file>
@@ -1415,6 +1415,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,17 +1454,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,6 +1487,72 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,164 +1562,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6D2FFF-64FD-4790-BE66-86F2381ADCA2}">
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,27 +1953,27 @@
       <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="K1" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="62">
         <v>811</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1985,7 +1985,7 @@
       <c r="F2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="83" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1995,24 +1995,24 @@
         <v>8111</v>
       </c>
       <c r="J2" s="21"/>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="L2" s="95"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="95"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="95"/>
+      <c r="R2" s="71"/>
       <c r="S2" s="33" t="s">
         <v>182</v>
       </c>
@@ -2021,9 +2021,9 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="F3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="93"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="5" t="s">
         <v>139</v>
       </c>
@@ -2041,35 +2041,35 @@
         <v>8111</v>
       </c>
       <c r="J3" s="21"/>
-      <c r="K3" s="58">
+      <c r="K3" s="70">
         <v>60</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59">
+      <c r="L3" s="70"/>
+      <c r="M3" s="74">
         <v>20</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="70">
         <v>60</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59">
+      <c r="O3" s="70"/>
+      <c r="P3" s="74">
         <v>20</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="70">
         <v>60</v>
       </c>
-      <c r="R3" s="58"/>
-      <c r="S3" s="59">
+      <c r="R3" s="70"/>
+      <c r="S3" s="74">
         <v>20</v>
       </c>
-      <c r="T3" s="57">
+      <c r="T3" s="52">
         <f>SUM(K3:S5)</f>
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="10">
         <v>812</v>
       </c>
@@ -2082,28 +2082,28 @@
       <c r="F4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="80" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="104" t="s">
         <v>140</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J4" s="21"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="57"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="52"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="2">
         <v>813</v>
       </c>
@@ -2116,27 +2116,27 @@
       <c r="F5" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="80"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="24" t="s">
         <v>112</v>
       </c>
       <c r="J5" s="21"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="57"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="52"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="61">
+      <c r="A6" s="110"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="98">
         <v>811</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2148,7 +2148,7 @@
       <c r="F6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="86" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2157,24 +2157,24 @@
       <c r="I6" s="19">
         <v>8112</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="L6" s="95"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N6" s="95" t="s">
+      <c r="N6" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="71"/>
       <c r="P6" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q6" s="95" t="s">
+      <c r="Q6" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="R6" s="95"/>
+      <c r="R6" s="71"/>
       <c r="S6" s="33" t="s">
         <v>182</v>
       </c>
@@ -2183,9 +2183,9 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2195,42 +2195,42 @@
       <c r="F7" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I7" s="19">
         <v>8112</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="70">
         <v>60</v>
       </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59">
+      <c r="L7" s="70"/>
+      <c r="M7" s="74">
         <v>10</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="70">
         <v>60</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59">
+      <c r="O7" s="70"/>
+      <c r="P7" s="74">
         <v>10</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="70">
         <v>60</v>
       </c>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59">
+      <c r="R7" s="70"/>
+      <c r="S7" s="74">
         <v>10</v>
       </c>
-      <c r="T7" s="57">
+      <c r="T7" s="52">
         <f>SUM(K7:S9)</f>
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="23">
         <v>812</v>
       </c>
@@ -2243,27 +2243,27 @@
       <c r="F8" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="64" t="s">
+      <c r="G8" s="87"/>
+      <c r="H8" s="105" t="s">
         <v>140</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="57"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="52"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="11">
         <v>813</v>
       </c>
@@ -2276,26 +2276,26 @@
       <c r="F9" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="64"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="105"/>
       <c r="I9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="57"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="52"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="52">
+      <c r="A10" s="110"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="62">
         <v>811</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2307,7 +2307,7 @@
       <c r="F10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2316,24 +2316,24 @@
       <c r="I10" s="18">
         <v>8113</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="L10" s="95"/>
+      <c r="L10" s="71"/>
       <c r="M10" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N10" s="95" t="s">
+      <c r="N10" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="95"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="95" t="s">
+      <c r="Q10" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="R10" s="95"/>
+      <c r="R10" s="71"/>
       <c r="S10" s="33" t="s">
         <v>182</v>
       </c>
@@ -2342,9 +2342,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
@@ -2354,42 +2354,42 @@
       <c r="F11" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="93"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="5" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="18">
         <v>8113</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="70">
         <v>60</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59">
+      <c r="L11" s="70"/>
+      <c r="M11" s="74">
         <v>10</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="70">
         <v>60</v>
       </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59">
+      <c r="O11" s="70"/>
+      <c r="P11" s="74">
         <v>10</v>
       </c>
-      <c r="Q11" s="58">
+      <c r="Q11" s="70">
         <v>60</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="59">
+      <c r="R11" s="70"/>
+      <c r="S11" s="74">
         <v>10</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="52">
         <f>SUM(K11:S13)</f>
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="10">
         <v>812</v>
       </c>
@@ -2402,27 +2402,27 @@
       <c r="F12" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="80" t="s">
+      <c r="G12" s="84"/>
+      <c r="H12" s="104" t="s">
         <v>140</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="57"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="52"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="2">
         <v>813</v>
       </c>
@@ -2435,26 +2435,26 @@
       <c r="F13" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="80"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="104"/>
       <c r="I13" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="57"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="61">
+      <c r="A14" s="110"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="98">
         <v>811</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2466,7 +2466,7 @@
       <c r="F14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="86" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2475,24 +2475,24 @@
       <c r="I14" s="19">
         <v>8114</v>
       </c>
-      <c r="K14" s="95" t="s">
+      <c r="K14" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="95"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N14" s="95" t="s">
+      <c r="N14" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="95"/>
+      <c r="O14" s="71"/>
       <c r="P14" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q14" s="95" t="s">
+      <c r="Q14" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="R14" s="95"/>
+      <c r="R14" s="71"/>
       <c r="S14" s="33" t="s">
         <v>182</v>
       </c>
@@ -2501,9 +2501,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="63"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
@@ -2513,42 +2513,42 @@
       <c r="F15" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I15" s="19">
         <v>8114</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="70">
         <v>60</v>
       </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59">
+      <c r="L15" s="70"/>
+      <c r="M15" s="74">
         <v>5</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="70">
         <v>60</v>
       </c>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59">
+      <c r="O15" s="70"/>
+      <c r="P15" s="74">
         <v>5</v>
       </c>
-      <c r="Q15" s="58">
+      <c r="Q15" s="70">
         <v>60</v>
       </c>
-      <c r="R15" s="58"/>
-      <c r="S15" s="59">
+      <c r="R15" s="70"/>
+      <c r="S15" s="74">
         <v>5</v>
       </c>
-      <c r="T15" s="57">
+      <c r="T15" s="52">
         <f>SUM(K15:S17)</f>
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="23">
         <v>812</v>
       </c>
@@ -2561,27 +2561,27 @@
       <c r="F16" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="64" t="s">
+      <c r="G16" s="87"/>
+      <c r="H16" s="105" t="s">
         <v>140</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="57"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="52"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="11">
         <v>813</v>
       </c>
@@ -2594,28 +2594,28 @@
       <c r="F17" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="64"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="57"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="52"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="88" t="s">
+      <c r="A18" s="110"/>
+      <c r="B18" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="62">
         <v>821</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2627,7 +2627,7 @@
       <c r="F18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="92" t="s">
+      <c r="G18" s="83" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -2636,24 +2636,24 @@
       <c r="I18" s="18">
         <v>8211</v>
       </c>
-      <c r="K18" s="95" t="s">
+      <c r="K18" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="L18" s="95"/>
+      <c r="L18" s="71"/>
       <c r="M18" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N18" s="95" t="s">
+      <c r="N18" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="O18" s="95"/>
+      <c r="O18" s="71"/>
       <c r="P18" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q18" s="95" t="s">
+      <c r="Q18" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="R18" s="95"/>
+      <c r="R18" s="71"/>
       <c r="S18" s="33" t="s">
         <v>182</v>
       </c>
@@ -2662,9 +2662,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
@@ -2674,42 +2674,42 @@
       <c r="F19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="5" t="s">
         <v>139</v>
       </c>
       <c r="I19" s="18">
         <v>8211</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="70">
         <v>60</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59">
+      <c r="L19" s="70"/>
+      <c r="M19" s="74">
         <v>10</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="70">
         <v>60</v>
       </c>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59">
+      <c r="O19" s="70"/>
+      <c r="P19" s="74">
         <v>10</v>
       </c>
-      <c r="Q19" s="58">
+      <c r="Q19" s="70">
         <v>60</v>
       </c>
-      <c r="R19" s="58"/>
-      <c r="S19" s="59">
+      <c r="R19" s="70"/>
+      <c r="S19" s="74">
         <v>10</v>
       </c>
-      <c r="T19" s="57">
+      <c r="T19" s="52">
         <f>SUM(K19:S21)</f>
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="2">
         <v>822</v>
       </c>
@@ -2722,27 +2722,27 @@
       <c r="F20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="80" t="s">
+      <c r="G20" s="84"/>
+      <c r="H20" s="104" t="s">
         <v>140</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="57"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="52"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="2">
         <v>823</v>
       </c>
@@ -2755,26 +2755,26 @@
       <c r="F21" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="80"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="104"/>
       <c r="I21" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="57"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="52"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="61">
+      <c r="A22" s="110"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="98">
         <v>821</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2786,7 +2786,7 @@
       <c r="F22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="77" t="s">
+      <c r="G22" s="86" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -2795,24 +2795,24 @@
       <c r="I22" s="19">
         <v>8212</v>
       </c>
-      <c r="K22" s="95" t="s">
+      <c r="K22" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="95"/>
+      <c r="L22" s="71"/>
       <c r="M22" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N22" s="95" t="s">
+      <c r="N22" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="O22" s="95"/>
+      <c r="O22" s="71"/>
       <c r="P22" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q22" s="95" t="s">
+      <c r="Q22" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="R22" s="95"/>
+      <c r="R22" s="71"/>
       <c r="S22" s="33" t="s">
         <v>182</v>
       </c>
@@ -2821,9 +2821,9 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="63"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="7" t="s">
         <v>11</v>
       </c>
@@ -2833,42 +2833,42 @@
       <c r="F23" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="78"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I23" s="19">
         <v>8212</v>
       </c>
-      <c r="K23" s="58">
+      <c r="K23" s="70">
         <v>60</v>
       </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59">
+      <c r="L23" s="70"/>
+      <c r="M23" s="74">
         <v>5</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="70">
         <v>60</v>
       </c>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59">
+      <c r="O23" s="70"/>
+      <c r="P23" s="74">
         <v>5</v>
       </c>
-      <c r="Q23" s="58">
+      <c r="Q23" s="70">
         <v>60</v>
       </c>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59">
+      <c r="R23" s="70"/>
+      <c r="S23" s="74">
         <v>5</v>
       </c>
-      <c r="T23" s="57">
+      <c r="T23" s="52">
         <f>SUM(K23:S25)</f>
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="11">
         <v>822</v>
       </c>
@@ -2881,27 +2881,27 @@
       <c r="F24" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="64" t="s">
+      <c r="G24" s="87"/>
+      <c r="H24" s="105" t="s">
         <v>140</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="57"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="52"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="28">
         <v>823</v>
       </c>
@@ -2914,46 +2914,46 @@
       <c r="F25" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="64"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="57"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="52"/>
     </row>
     <row r="26" spans="1:22" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="51"/>
       <c r="N26" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="O26" s="113" t="s">
-        <v>189</v>
-      </c>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
+        <v>185</v>
+      </c>
+      <c r="O26" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
     </row>
     <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="62">
         <v>831</v>
       </c>
       <c r="D27" s="30" t="s">
@@ -2965,10 +2965,10 @@
       <c r="F27" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="80" t="s">
+      <c r="H27" s="104" t="s">
         <v>138</v>
       </c>
       <c r="I27" s="81" t="s">
@@ -2977,36 +2977,36 @@
       <c r="K27" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="L27" s="108" t="s">
-        <v>184</v>
-      </c>
-      <c r="M27" s="108"/>
+      <c r="L27" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="79"/>
       <c r="N27" s="50">
         <v>30</v>
       </c>
       <c r="O27" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="P27" s="108" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q27" s="108"/>
+      <c r="P27" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q27" s="79"/>
       <c r="R27" s="38" t="s">
         <v>23</v>
       </c>
       <c r="S27" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="T27" s="114" t="s">
-        <v>190</v>
-      </c>
-      <c r="U27" s="115"/>
-      <c r="V27" s="115"/>
+        <v>185</v>
+      </c>
+      <c r="T27" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
     </row>
     <row r="28" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="53"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="5" t="s">
         <v>148</v>
       </c>
@@ -3016,44 +3016,44 @@
       <c r="F28" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="93"/>
-      <c r="H28" s="80"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="81"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="58">
-        <v>30</v>
-      </c>
-      <c r="L28" s="59">
+      <c r="K28" s="70">
+        <v>30</v>
+      </c>
+      <c r="L28" s="74">
         <v>60</v>
       </c>
-      <c r="M28" s="59"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="35">
         <v>30</v>
       </c>
-      <c r="O28" s="58">
-        <v>30</v>
-      </c>
-      <c r="P28" s="59">
+      <c r="O28" s="70">
+        <v>30</v>
+      </c>
+      <c r="P28" s="74">
         <v>60</v>
       </c>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="57">
+      <c r="Q28" s="74"/>
+      <c r="R28" s="52">
         <f>SUM(K28:Q28)</f>
         <v>210</v>
       </c>
       <c r="S28" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="T28" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
+        <v>185</v>
+      </c>
+      <c r="T28" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
     </row>
     <row r="29" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="53"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="5" t="s">
         <v>150</v>
       </c>
@@ -3063,28 +3063,28 @@
       <c r="F29" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="80" t="s">
+      <c r="G29" s="84"/>
+      <c r="H29" s="104" t="s">
         <v>139</v>
       </c>
       <c r="I29" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
       <c r="N29" s="35">
         <v>30</v>
       </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="57"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="52"/>
     </row>
     <row r="30" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="5" t="s">
         <v>149</v>
       </c>
@@ -3094,23 +3094,23 @@
       <c r="F30" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="80"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="81"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
       <c r="N30" s="35">
         <v>30</v>
       </c>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="57"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="52"/>
     </row>
     <row r="31" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="90"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="10">
         <v>832</v>
       </c>
@@ -3123,27 +3123,27 @@
       <c r="F31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="93"/>
-      <c r="H31" s="80" t="s">
+      <c r="G31" s="84"/>
+      <c r="H31" s="104" t="s">
         <v>140</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="34">
         <v>30</v>
       </c>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="57"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="52"/>
     </row>
     <row r="32" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
-      <c r="B32" s="90"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="2">
         <v>833</v>
       </c>
@@ -3156,31 +3156,31 @@
       <c r="F32" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="94"/>
-      <c r="H32" s="80"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="104"/>
       <c r="I32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="57" t="s">
+      <c r="K32" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="34">
+        <v>30</v>
+      </c>
+      <c r="O32" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="34">
-        <v>30</v>
-      </c>
-      <c r="O32" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
     </row>
     <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="61">
+      <c r="A33" s="110"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="98">
         <v>831</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3192,23 +3192,23 @@
       <c r="F33" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="96" t="s">
+      <c r="G33" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="H33" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="I33" s="76" t="s">
+      <c r="I33" s="80" t="s">
         <v>41</v>
       </c>
       <c r="K33" s="32" t="s">
         <v>181</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N33" s="34">
         <v>30</v>
@@ -3217,19 +3217,19 @@
         <v>181</v>
       </c>
       <c r="P33" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R33" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="7" t="s">
         <v>148</v>
       </c>
@@ -3239,39 +3239,39 @@
       <c r="F34" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="96"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="76"/>
-      <c r="K34" s="67">
-        <v>30</v>
-      </c>
-      <c r="L34" s="70">
+      <c r="G34" s="106"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="80"/>
+      <c r="K34" s="53">
+        <v>30</v>
+      </c>
+      <c r="L34" s="56">
         <v>20</v>
       </c>
-      <c r="M34" s="73">
+      <c r="M34" s="59">
         <v>40</v>
       </c>
       <c r="N34" s="34">
         <v>30</v>
       </c>
-      <c r="O34" s="67">
-        <v>30</v>
-      </c>
-      <c r="P34" s="70">
+      <c r="O34" s="53">
+        <v>30</v>
+      </c>
+      <c r="P34" s="56">
         <v>20</v>
       </c>
-      <c r="Q34" s="73">
+      <c r="Q34" s="59">
         <v>40</v>
       </c>
-      <c r="R34" s="52">
+      <c r="R34" s="62">
         <f>SUM(K34:Q34)</f>
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="7" t="s">
         <v>150</v>
       </c>
@@ -3281,28 +3281,28 @@
       <c r="F35" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="96"/>
-      <c r="H35" s="64" t="s">
+      <c r="G35" s="106"/>
+      <c r="H35" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="I35" s="76" t="s">
+      <c r="I35" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="68"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="74"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="60"/>
       <c r="N35" s="34">
         <v>30</v>
       </c>
-      <c r="O35" s="68"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="53"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="63"/>
     </row>
     <row r="36" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="7" t="s">
         <v>149</v>
       </c>
@@ -3312,23 +3312,23 @@
       <c r="F36" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="76"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="74"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="80"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="60"/>
       <c r="N36" s="34">
         <v>30</v>
       </c>
-      <c r="O36" s="68"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="53"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="63"/>
     </row>
     <row r="37" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="90"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="23">
         <v>832</v>
       </c>
@@ -3341,27 +3341,27 @@
       <c r="F37" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="96"/>
-      <c r="H37" s="64" t="s">
+      <c r="G37" s="106"/>
+      <c r="H37" s="105" t="s">
         <v>140</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="69"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="75"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="61"/>
       <c r="N37" s="34">
         <v>30</v>
       </c>
-      <c r="O37" s="69"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="54"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="64"/>
     </row>
     <row r="38" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="90"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="11">
         <v>833</v>
       </c>
@@ -3374,30 +3374,30 @@
       <c r="F38" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="96"/>
-      <c r="H38" s="64"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="55" t="s">
+      <c r="K38" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="34">
+        <v>30</v>
+      </c>
+      <c r="O38" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="34">
-        <v>30</v>
-      </c>
-      <c r="O38" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
       <c r="R38" s="44"/>
     </row>
     <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="52">
+      <c r="A39" s="110"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="62">
         <v>831</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -3409,10 +3409,10 @@
       <c r="F39" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="97" t="s">
+      <c r="G39" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="80" t="s">
+      <c r="H39" s="104" t="s">
         <v>138</v>
       </c>
       <c r="I39" s="81" t="s">
@@ -3421,28 +3421,28 @@
       <c r="K39" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="L39" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="M39" s="60"/>
+      <c r="L39" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="M39" s="75"/>
       <c r="N39" s="31">
         <v>30</v>
       </c>
       <c r="O39" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P39" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q39" s="60"/>
+      <c r="P39" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q39" s="75"/>
       <c r="R39" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="53"/>
+      <c r="A40" s="110"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="5" t="s">
         <v>148</v>
       </c>
@@ -3452,35 +3452,35 @@
       <c r="F40" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="97"/>
-      <c r="H40" s="80"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="104"/>
       <c r="I40" s="81"/>
-      <c r="K40" s="58">
-        <v>30</v>
-      </c>
-      <c r="L40" s="59">
+      <c r="K40" s="70">
+        <v>30</v>
+      </c>
+      <c r="L40" s="74">
         <v>60</v>
       </c>
-      <c r="M40" s="59"/>
+      <c r="M40" s="74"/>
       <c r="N40" s="35">
         <v>30</v>
       </c>
-      <c r="O40" s="58">
-        <v>30</v>
-      </c>
-      <c r="P40" s="59">
+      <c r="O40" s="70">
+        <v>30</v>
+      </c>
+      <c r="P40" s="74">
         <v>60</v>
       </c>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="57">
+      <c r="Q40" s="74"/>
+      <c r="R40" s="52">
         <f>SUM(K40:Q40)</f>
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="53"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="5" t="s">
         <v>150</v>
       </c>
@@ -3490,28 +3490,28 @@
       <c r="F41" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="97"/>
-      <c r="H41" s="80" t="s">
+      <c r="G41" s="95"/>
+      <c r="H41" s="104" t="s">
         <v>139</v>
       </c>
       <c r="I41" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
       <c r="N41" s="35">
         <v>30</v>
       </c>
-      <c r="O41" s="58"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="57"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="52"/>
     </row>
     <row r="42" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="110"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="5" t="s">
         <v>149</v>
       </c>
@@ -3521,23 +3521,23 @@
       <c r="F42" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G42" s="97"/>
-      <c r="H42" s="80"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="104"/>
       <c r="I42" s="81"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
       <c r="N42" s="35">
         <v>30</v>
       </c>
-      <c r="O42" s="58"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="57"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="52"/>
     </row>
     <row r="43" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
-      <c r="B43" s="90"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="10">
         <v>832</v>
       </c>
@@ -3550,27 +3550,27 @@
       <c r="F43" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="97"/>
-      <c r="H43" s="80" t="s">
+      <c r="G43" s="95"/>
+      <c r="H43" s="104" t="s">
         <v>140</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
       <c r="N43" s="34">
         <v>30</v>
       </c>
-      <c r="O43" s="58"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="57"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="52"/>
     </row>
     <row r="44" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
-      <c r="B44" s="90"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="2">
         <v>833</v>
       </c>
@@ -3583,30 +3583,30 @@
       <c r="F44" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="97"/>
-      <c r="H44" s="80"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="104"/>
       <c r="I44" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K44" s="57" t="s">
+      <c r="K44" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="34">
+        <v>30</v>
+      </c>
+      <c r="O44" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="34">
-        <v>30</v>
-      </c>
-      <c r="O44" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
       <c r="R44" s="44"/>
     </row>
     <row r="45" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="61">
+      <c r="A45" s="110"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="98">
         <v>831</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -3618,23 +3618,23 @@
       <c r="F45" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="96" t="s">
+      <c r="G45" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="64" t="s">
+      <c r="H45" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="I45" s="76" t="s">
+      <c r="I45" s="80" t="s">
         <v>47</v>
       </c>
       <c r="K45" s="32" t="s">
         <v>181</v>
       </c>
       <c r="L45" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M45" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N45" s="34">
         <v>30</v>
@@ -3643,19 +3643,19 @@
         <v>181</v>
       </c>
       <c r="P45" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R45" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="110"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="7" t="s">
         <v>148</v>
       </c>
@@ -3665,39 +3665,39 @@
       <c r="F46" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="96"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="76"/>
-      <c r="K46" s="67">
-        <v>30</v>
-      </c>
-      <c r="L46" s="70">
+      <c r="G46" s="106"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="80"/>
+      <c r="K46" s="53">
+        <v>30</v>
+      </c>
+      <c r="L46" s="56">
         <v>25</v>
       </c>
-      <c r="M46" s="73">
+      <c r="M46" s="59">
         <v>35</v>
       </c>
       <c r="N46" s="34">
         <v>30</v>
       </c>
-      <c r="O46" s="67">
-        <v>30</v>
-      </c>
-      <c r="P46" s="70">
+      <c r="O46" s="53">
+        <v>30</v>
+      </c>
+      <c r="P46" s="56">
         <v>25</v>
       </c>
-      <c r="Q46" s="73">
+      <c r="Q46" s="59">
         <v>35</v>
       </c>
-      <c r="R46" s="52">
+      <c r="R46" s="62">
         <f>SUM(K46:Q46)</f>
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="62"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="7" t="s">
         <v>150</v>
       </c>
@@ -3707,28 +3707,28 @@
       <c r="F47" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="96"/>
-      <c r="H47" s="64" t="s">
+      <c r="G47" s="106"/>
+      <c r="H47" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="I47" s="76" t="s">
+      <c r="I47" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="K47" s="68"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="74"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="60"/>
       <c r="N47" s="34">
         <v>30</v>
       </c>
-      <c r="O47" s="68"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="53"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="63"/>
     </row>
     <row r="48" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="110"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="7" t="s">
         <v>149</v>
       </c>
@@ -3738,23 +3738,23 @@
       <c r="F48" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="96"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="76"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="74"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="80"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="60"/>
       <c r="N48" s="34">
         <v>30</v>
       </c>
-      <c r="O48" s="68"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="53"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="63"/>
     </row>
     <row r="49" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="90"/>
+      <c r="A49" s="110"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="23">
         <v>832</v>
       </c>
@@ -3767,27 +3767,27 @@
       <c r="F49" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="96"/>
-      <c r="H49" s="64" t="s">
+      <c r="G49" s="106"/>
+      <c r="H49" s="105" t="s">
         <v>140</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K49" s="69"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="75"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="61"/>
       <c r="N49" s="34">
         <v>30</v>
       </c>
-      <c r="O49" s="69"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="54"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="91"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="11">
         <v>833</v>
       </c>
@@ -3800,32 +3800,32 @@
       <c r="F50" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="96"/>
-      <c r="H50" s="64"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="105"/>
       <c r="I50" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="55" t="s">
+      <c r="K50" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="34">
+        <v>30</v>
+      </c>
+      <c r="O50" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="34">
-        <v>30</v>
-      </c>
-      <c r="O50" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
       <c r="R50" s="44"/>
     </row>
     <row r="51" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="85" t="s">
+      <c r="A51" s="110"/>
+      <c r="B51" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C51" s="62">
         <v>841</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3837,10 +3837,10 @@
       <c r="F51" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="98" t="s">
+      <c r="G51" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="80" t="s">
+      <c r="H51" s="104" t="s">
         <v>138</v>
       </c>
       <c r="I51" s="81" t="s">
@@ -3849,28 +3849,28 @@
       <c r="K51" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="M51" s="60"/>
+      <c r="L51" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="M51" s="75"/>
       <c r="N51" s="34">
         <v>30</v>
       </c>
       <c r="O51" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P51" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q51" s="60"/>
+      <c r="P51" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q51" s="75"/>
       <c r="R51" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="53"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="5" t="s">
         <v>148</v>
       </c>
@@ -3880,35 +3880,35 @@
       <c r="F52" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="98"/>
-      <c r="H52" s="80"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="104"/>
       <c r="I52" s="81"/>
-      <c r="K52" s="58">
-        <v>30</v>
-      </c>
-      <c r="L52" s="59">
+      <c r="K52" s="70">
+        <v>30</v>
+      </c>
+      <c r="L52" s="74">
         <v>60</v>
       </c>
-      <c r="M52" s="59"/>
+      <c r="M52" s="74"/>
       <c r="N52" s="34">
         <v>30</v>
       </c>
-      <c r="O52" s="58">
-        <v>30</v>
-      </c>
-      <c r="P52" s="59">
+      <c r="O52" s="70">
+        <v>30</v>
+      </c>
+      <c r="P52" s="74">
         <v>60</v>
       </c>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="57">
+      <c r="Q52" s="74"/>
+      <c r="R52" s="52">
         <f>SUM(K52:Q52)</f>
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="53"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="5" t="s">
         <v>150</v>
       </c>
@@ -3918,28 +3918,28 @@
       <c r="F53" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G53" s="98"/>
-      <c r="H53" s="80" t="s">
+      <c r="G53" s="107"/>
+      <c r="H53" s="104" t="s">
         <v>139</v>
       </c>
       <c r="I53" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K53" s="58"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
       <c r="N53" s="34">
         <v>30</v>
       </c>
-      <c r="O53" s="58"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="57"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="52"/>
     </row>
     <row r="54" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="5" t="s">
         <v>149</v>
       </c>
@@ -3949,23 +3949,23 @@
       <c r="F54" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G54" s="97"/>
-      <c r="H54" s="80"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="104"/>
       <c r="I54" s="81"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
       <c r="N54" s="34">
         <v>30</v>
       </c>
-      <c r="O54" s="58"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="57"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="52"/>
     </row>
     <row r="55" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="2">
         <v>842</v>
       </c>
@@ -3978,27 +3978,27 @@
       <c r="F55" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G55" s="97"/>
-      <c r="H55" s="80" t="s">
+      <c r="G55" s="95"/>
+      <c r="H55" s="104" t="s">
         <v>140</v>
       </c>
       <c r="I55" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K55" s="58"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
       <c r="N55" s="34">
         <v>30</v>
       </c>
-      <c r="O55" s="58"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="57"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="52"/>
     </row>
     <row r="56" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66"/>
-      <c r="B56" s="86"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="113"/>
       <c r="C56" s="2">
         <v>843</v>
       </c>
@@ -4011,30 +4011,30 @@
       <c r="F56" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G56" s="97"/>
-      <c r="H56" s="80"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="104"/>
       <c r="I56" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="K56" s="57" t="s">
+      <c r="K56" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="34">
+        <v>30</v>
+      </c>
+      <c r="O56" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="34">
-        <v>30</v>
-      </c>
-      <c r="O56" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
       <c r="R56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="61">
+      <c r="A57" s="110"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="98">
         <v>841</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -4046,23 +4046,23 @@
       <c r="F57" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G57" s="99" t="s">
+      <c r="G57" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="64" t="s">
+      <c r="H57" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="I57" s="76" t="s">
+      <c r="I57" s="80" t="s">
         <v>53</v>
       </c>
       <c r="K57" s="32" t="s">
         <v>181</v>
       </c>
       <c r="L57" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M57" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N57" s="34">
         <v>30</v>
@@ -4071,19 +4071,19 @@
         <v>181</v>
       </c>
       <c r="P57" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q57" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R57" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="62"/>
+      <c r="A58" s="110"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="99"/>
       <c r="D58" s="7" t="s">
         <v>148</v>
       </c>
@@ -4093,39 +4093,39 @@
       <c r="F58" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="99"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="76"/>
-      <c r="K58" s="67">
-        <v>30</v>
-      </c>
-      <c r="L58" s="70">
+      <c r="G58" s="108"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="80"/>
+      <c r="K58" s="53">
+        <v>30</v>
+      </c>
+      <c r="L58" s="56">
         <v>25</v>
       </c>
-      <c r="M58" s="73">
+      <c r="M58" s="59">
         <v>35</v>
       </c>
       <c r="N58" s="34">
         <v>30</v>
       </c>
-      <c r="O58" s="67">
-        <v>30</v>
-      </c>
-      <c r="P58" s="70">
+      <c r="O58" s="53">
+        <v>30</v>
+      </c>
+      <c r="P58" s="56">
         <v>25</v>
       </c>
-      <c r="Q58" s="73">
+      <c r="Q58" s="59">
         <v>35</v>
       </c>
-      <c r="R58" s="52">
+      <c r="R58" s="62">
         <f>SUM(K58:Q58)</f>
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="62"/>
+      <c r="A59" s="110"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="7" t="s">
         <v>150</v>
       </c>
@@ -4135,28 +4135,28 @@
       <c r="F59" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G59" s="99"/>
-      <c r="H59" s="64" t="s">
+      <c r="G59" s="108"/>
+      <c r="H59" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="I59" s="76" t="s">
+      <c r="I59" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="K59" s="68"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="74"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="60"/>
       <c r="N59" s="34">
         <v>30</v>
       </c>
-      <c r="O59" s="68"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="53"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="63"/>
     </row>
     <row r="60" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="63"/>
+      <c r="A60" s="110"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="100"/>
       <c r="D60" s="7" t="s">
         <v>149</v>
       </c>
@@ -4166,23 +4166,23 @@
       <c r="F60" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G60" s="96"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="76"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="74"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="80"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="60"/>
       <c r="N60" s="34">
         <v>30</v>
       </c>
-      <c r="O60" s="68"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="74"/>
-      <c r="R60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="63"/>
     </row>
     <row r="61" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
-      <c r="B61" s="86"/>
+      <c r="A61" s="110"/>
+      <c r="B61" s="113"/>
       <c r="C61" s="11">
         <v>842</v>
       </c>
@@ -4195,27 +4195,27 @@
       <c r="F61" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G61" s="96"/>
-      <c r="H61" s="64" t="s">
+      <c r="G61" s="106"/>
+      <c r="H61" s="105" t="s">
         <v>140</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K61" s="69"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="75"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="61"/>
       <c r="N61" s="34">
         <v>30</v>
       </c>
-      <c r="O61" s="69"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="54"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="64"/>
     </row>
     <row r="62" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="87"/>
+      <c r="A62" s="111"/>
+      <c r="B62" s="114"/>
       <c r="C62" s="11">
         <v>843</v>
       </c>
@@ -4228,56 +4228,56 @@
       <c r="F62" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G62" s="96"/>
-      <c r="H62" s="64"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="105"/>
       <c r="I62" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K62" s="55" t="s">
+      <c r="K62" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="34">
+        <v>30</v>
+      </c>
+      <c r="O62" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="34">
-        <v>30</v>
-      </c>
-      <c r="O62" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
       <c r="R62" s="44"/>
     </row>
-    <row r="63" spans="1:20" s="66" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
-      <c r="T63" s="65"/>
+    <row r="63" spans="1:20" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="116"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="116"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="89" t="s">
+      <c r="B64" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="52">
+      <c r="C64" s="62">
         <v>851</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4289,10 +4289,10 @@
       <c r="F64" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="92" t="s">
+      <c r="G64" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="H64" s="80" t="s">
+      <c r="H64" s="104" t="s">
         <v>138</v>
       </c>
       <c r="I64" s="81" t="s">
@@ -4301,28 +4301,28 @@
       <c r="K64" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="L64" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="M64" s="60"/>
+      <c r="L64" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="M64" s="75"/>
       <c r="N64" s="34">
         <v>30</v>
       </c>
       <c r="O64" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P64" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q64" s="60"/>
+      <c r="P64" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q64" s="75"/>
       <c r="R64" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="53"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="5" t="s">
         <v>148</v>
       </c>
@@ -4332,35 +4332,35 @@
       <c r="F65" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G65" s="93"/>
-      <c r="H65" s="80"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="104"/>
       <c r="I65" s="81"/>
-      <c r="K65" s="58">
-        <v>30</v>
-      </c>
-      <c r="L65" s="59">
+      <c r="K65" s="70">
+        <v>30</v>
+      </c>
+      <c r="L65" s="74">
         <v>60</v>
       </c>
-      <c r="M65" s="59"/>
+      <c r="M65" s="74"/>
       <c r="N65" s="34">
         <v>30</v>
       </c>
-      <c r="O65" s="58">
-        <v>30</v>
-      </c>
-      <c r="P65" s="59">
+      <c r="O65" s="70">
+        <v>30</v>
+      </c>
+      <c r="P65" s="74">
         <v>60</v>
       </c>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="57">
+      <c r="Q65" s="74"/>
+      <c r="R65" s="52">
         <f>SUM(K65:Q65)</f>
         <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="66"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="53"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="5" t="s">
         <v>150</v>
       </c>
@@ -4370,28 +4370,28 @@
       <c r="F66" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G66" s="93"/>
-      <c r="H66" s="80" t="s">
+      <c r="G66" s="84"/>
+      <c r="H66" s="104" t="s">
         <v>139</v>
       </c>
       <c r="I66" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="K66" s="58"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
       <c r="N66" s="34">
         <v>30</v>
       </c>
-      <c r="O66" s="58"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="57"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="74"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="52"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="66"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="54"/>
+      <c r="A67" s="110"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="5" t="s">
         <v>149</v>
       </c>
@@ -4401,23 +4401,23 @@
       <c r="F67" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G67" s="93"/>
-      <c r="H67" s="80"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="104"/>
       <c r="I67" s="81"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
       <c r="N67" s="34">
         <v>30</v>
       </c>
-      <c r="O67" s="58"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="57"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="74"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="52"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
-      <c r="B68" s="90"/>
+      <c r="A68" s="110"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="10">
         <v>852</v>
       </c>
@@ -4430,27 +4430,27 @@
       <c r="F68" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G68" s="93"/>
-      <c r="H68" s="80" t="s">
+      <c r="G68" s="84"/>
+      <c r="H68" s="104" t="s">
         <v>140</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="K68" s="58"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
       <c r="N68" s="34">
         <v>30</v>
       </c>
-      <c r="O68" s="58"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="57"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="74"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="52"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
-      <c r="B69" s="90"/>
+      <c r="A69" s="110"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="2">
         <v>853</v>
       </c>
@@ -4463,30 +4463,30 @@
       <c r="F69" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="94"/>
-      <c r="H69" s="80"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="104"/>
       <c r="I69" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="K69" s="57" t="s">
+      <c r="K69" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="34">
+        <v>30</v>
+      </c>
+      <c r="O69" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="34">
-        <v>30</v>
-      </c>
-      <c r="O69" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="57"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
       <c r="R69" s="44"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="61">
+      <c r="A70" s="110"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="98">
         <v>851</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -4498,23 +4498,23 @@
       <c r="F70" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G70" s="77" t="s">
+      <c r="G70" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="H70" s="64" t="s">
+      <c r="H70" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="I70" s="76" t="s">
+      <c r="I70" s="80" t="s">
         <v>132</v>
       </c>
       <c r="K70" s="32" t="s">
         <v>181</v>
       </c>
       <c r="L70" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M70" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N70" s="34">
         <v>30</v>
@@ -4523,19 +4523,19 @@
         <v>181</v>
       </c>
       <c r="P70" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q70" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R70" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="62"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="99"/>
       <c r="D71" s="7" t="s">
         <v>148</v>
       </c>
@@ -4545,39 +4545,39 @@
       <c r="F71" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="78"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="76"/>
-      <c r="K71" s="67">
-        <v>30</v>
-      </c>
-      <c r="L71" s="70">
+      <c r="G71" s="87"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="80"/>
+      <c r="K71" s="53">
+        <v>30</v>
+      </c>
+      <c r="L71" s="56">
         <v>20</v>
       </c>
-      <c r="M71" s="73">
+      <c r="M71" s="59">
         <v>40</v>
       </c>
       <c r="N71" s="34">
         <v>30</v>
       </c>
-      <c r="O71" s="67">
-        <v>30</v>
-      </c>
-      <c r="P71" s="70">
+      <c r="O71" s="53">
+        <v>30</v>
+      </c>
+      <c r="P71" s="56">
         <v>20</v>
       </c>
-      <c r="Q71" s="73">
+      <c r="Q71" s="59">
         <v>40</v>
       </c>
-      <c r="R71" s="52">
+      <c r="R71" s="62">
         <f>SUM(K71:Q71)</f>
         <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="62"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="99"/>
       <c r="D72" s="7" t="s">
         <v>150</v>
       </c>
@@ -4587,28 +4587,28 @@
       <c r="F72" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G72" s="78"/>
-      <c r="H72" s="64" t="s">
+      <c r="G72" s="87"/>
+      <c r="H72" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="I72" s="76" t="s">
+      <c r="I72" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="K72" s="68"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="74"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="60"/>
       <c r="N72" s="34">
         <v>30</v>
       </c>
-      <c r="O72" s="68"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="74"/>
-      <c r="R72" s="53"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="57"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="63"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="63"/>
+      <c r="A73" s="110"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="7" t="s">
         <v>149</v>
       </c>
@@ -4618,23 +4618,23 @@
       <c r="F73" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G73" s="78"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="76"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="74"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="80"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="60"/>
       <c r="N73" s="34">
         <v>30</v>
       </c>
-      <c r="O73" s="68"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="74"/>
-      <c r="R73" s="53"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="63"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
-      <c r="B74" s="90"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="102"/>
       <c r="C74" s="23">
         <v>852</v>
       </c>
@@ -4647,27 +4647,27 @@
       <c r="F74" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G74" s="78"/>
-      <c r="H74" s="64" t="s">
+      <c r="G74" s="87"/>
+      <c r="H74" s="105" t="s">
         <v>140</v>
       </c>
       <c r="I74" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="K74" s="69"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="75"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="61"/>
       <c r="N74" s="34">
         <v>30</v>
       </c>
-      <c r="O74" s="69"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="54"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="58"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="64"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
-      <c r="B75" s="90"/>
+      <c r="A75" s="110"/>
+      <c r="B75" s="102"/>
       <c r="C75" s="11">
         <v>853</v>
       </c>
@@ -4680,30 +4680,30 @@
       <c r="F75" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G75" s="79"/>
-      <c r="H75" s="64"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="105"/>
       <c r="I75" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="K75" s="55" t="s">
+      <c r="K75" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="L75" s="68"/>
+      <c r="M75" s="68"/>
+      <c r="N75" s="34">
+        <v>30</v>
+      </c>
+      <c r="O75" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="34">
-        <v>30</v>
-      </c>
-      <c r="O75" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="57"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
       <c r="R75" s="44"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="52">
+      <c r="A76" s="110"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="62">
         <v>851</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4715,10 +4715,10 @@
       <c r="F76" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="92" t="s">
+      <c r="G76" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="H76" s="80" t="s">
+      <c r="H76" s="104" t="s">
         <v>138</v>
       </c>
       <c r="I76" s="81" t="s">
@@ -4727,28 +4727,28 @@
       <c r="K76" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="M76" s="60"/>
+      <c r="L76" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="M76" s="75"/>
       <c r="N76" s="34">
         <v>30</v>
       </c>
       <c r="O76" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P76" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q76" s="60"/>
+      <c r="P76" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q76" s="75"/>
       <c r="R76" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="53"/>
+      <c r="A77" s="110"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="5" t="s">
         <v>148</v>
       </c>
@@ -4758,35 +4758,35 @@
       <c r="F77" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G77" s="93"/>
-      <c r="H77" s="80"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="104"/>
       <c r="I77" s="81"/>
-      <c r="K77" s="58">
-        <v>30</v>
-      </c>
-      <c r="L77" s="59">
+      <c r="K77" s="70">
+        <v>30</v>
+      </c>
+      <c r="L77" s="74">
         <v>60</v>
       </c>
-      <c r="M77" s="59"/>
+      <c r="M77" s="74"/>
       <c r="N77" s="34">
         <v>30</v>
       </c>
-      <c r="O77" s="58">
-        <v>30</v>
-      </c>
-      <c r="P77" s="59">
+      <c r="O77" s="70">
+        <v>30</v>
+      </c>
+      <c r="P77" s="74">
         <v>60</v>
       </c>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="57">
+      <c r="Q77" s="74"/>
+      <c r="R77" s="52">
         <f>SUM(K77:Q77)</f>
         <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="53"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="5" t="s">
         <v>150</v>
       </c>
@@ -4796,28 +4796,28 @@
       <c r="F78" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G78" s="93"/>
-      <c r="H78" s="80" t="s">
+      <c r="G78" s="84"/>
+      <c r="H78" s="104" t="s">
         <v>139</v>
       </c>
       <c r="I78" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="K78" s="58"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
       <c r="N78" s="34">
         <v>30</v>
       </c>
-      <c r="O78" s="58"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="57"/>
+      <c r="O78" s="70"/>
+      <c r="P78" s="74"/>
+      <c r="Q78" s="74"/>
+      <c r="R78" s="52"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="66"/>
-      <c r="B79" s="90"/>
-      <c r="C79" s="54"/>
+      <c r="A79" s="110"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="5" t="s">
         <v>149</v>
       </c>
@@ -4827,23 +4827,23 @@
       <c r="F79" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G79" s="93"/>
-      <c r="H79" s="80"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="104"/>
       <c r="I79" s="81"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
+      <c r="K79" s="70"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
       <c r="N79" s="34">
         <v>30</v>
       </c>
-      <c r="O79" s="58"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="57"/>
+      <c r="O79" s="70"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="52"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="66"/>
-      <c r="B80" s="90"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="102"/>
       <c r="C80" s="10">
         <v>852</v>
       </c>
@@ -4856,27 +4856,27 @@
       <c r="F80" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G80" s="93"/>
-      <c r="H80" s="80" t="s">
+      <c r="G80" s="84"/>
+      <c r="H80" s="104" t="s">
         <v>140</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="K80" s="58"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
       <c r="N80" s="34">
         <v>30</v>
       </c>
-      <c r="O80" s="58"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="57"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="74"/>
+      <c r="Q80" s="74"/>
+      <c r="R80" s="52"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
-      <c r="B81" s="90"/>
+      <c r="A81" s="110"/>
+      <c r="B81" s="102"/>
       <c r="C81" s="2">
         <v>853</v>
       </c>
@@ -4889,30 +4889,30 @@
       <c r="F81" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G81" s="94"/>
-      <c r="H81" s="80"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="104"/>
       <c r="I81" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="K81" s="57" t="s">
+      <c r="K81" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="L81" s="52"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="34">
+        <v>30</v>
+      </c>
+      <c r="O81" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L81" s="57"/>
-      <c r="M81" s="57"/>
-      <c r="N81" s="34">
-        <v>30</v>
-      </c>
-      <c r="O81" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P81" s="57"/>
-      <c r="Q81" s="57"/>
+      <c r="P81" s="52"/>
+      <c r="Q81" s="52"/>
       <c r="R81" s="44"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="61">
+      <c r="A82" s="110"/>
+      <c r="B82" s="102"/>
+      <c r="C82" s="98">
         <v>851</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -4924,23 +4924,23 @@
       <c r="F82" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G82" s="77" t="s">
+      <c r="G82" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="H82" s="64" t="s">
+      <c r="H82" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="I82" s="76" t="s">
+      <c r="I82" s="80" t="s">
         <v>134</v>
       </c>
       <c r="K82" s="32" t="s">
         <v>181</v>
       </c>
       <c r="L82" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M82" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N82" s="34">
         <v>30</v>
@@ -4949,19 +4949,19 @@
         <v>181</v>
       </c>
       <c r="P82" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q82" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R82" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="66"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="62"/>
+      <c r="A83" s="110"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="99"/>
       <c r="D83" s="7" t="s">
         <v>148</v>
       </c>
@@ -4971,39 +4971,39 @@
       <c r="F83" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G83" s="78"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="76"/>
-      <c r="K83" s="67">
-        <v>30</v>
-      </c>
-      <c r="L83" s="70">
+      <c r="G83" s="87"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="80"/>
+      <c r="K83" s="53">
+        <v>30</v>
+      </c>
+      <c r="L83" s="56">
         <v>25</v>
       </c>
-      <c r="M83" s="73">
+      <c r="M83" s="59">
         <v>35</v>
       </c>
       <c r="N83" s="34">
         <v>30</v>
       </c>
-      <c r="O83" s="67">
-        <v>30</v>
-      </c>
-      <c r="P83" s="70">
+      <c r="O83" s="53">
+        <v>30</v>
+      </c>
+      <c r="P83" s="56">
         <v>25</v>
       </c>
-      <c r="Q83" s="73">
+      <c r="Q83" s="59">
         <v>35</v>
       </c>
-      <c r="R83" s="52">
+      <c r="R83" s="62">
         <f>SUM(K83:Q83)</f>
         <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="66"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="62"/>
+      <c r="A84" s="110"/>
+      <c r="B84" s="102"/>
+      <c r="C84" s="99"/>
       <c r="D84" s="7" t="s">
         <v>150</v>
       </c>
@@ -5013,28 +5013,28 @@
       <c r="F84" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G84" s="78"/>
-      <c r="H84" s="64" t="s">
+      <c r="G84" s="87"/>
+      <c r="H84" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="I84" s="76" t="s">
+      <c r="I84" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="K84" s="68"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="74"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="60"/>
       <c r="N84" s="34">
         <v>30</v>
       </c>
-      <c r="O84" s="68"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="74"/>
-      <c r="R84" s="53"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="63"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
-      <c r="B85" s="90"/>
-      <c r="C85" s="63"/>
+      <c r="A85" s="110"/>
+      <c r="B85" s="102"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="7" t="s">
         <v>149</v>
       </c>
@@ -5044,23 +5044,23 @@
       <c r="F85" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="G85" s="78"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="76"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="74"/>
+      <c r="G85" s="87"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="80"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="60"/>
       <c r="N85" s="34">
         <v>30</v>
       </c>
-      <c r="O85" s="68"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="74"/>
-      <c r="R85" s="53"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="63"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="66"/>
-      <c r="B86" s="90"/>
+      <c r="A86" s="110"/>
+      <c r="B86" s="102"/>
       <c r="C86" s="23">
         <v>852</v>
       </c>
@@ -5073,27 +5073,27 @@
       <c r="F86" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G86" s="78"/>
-      <c r="H86" s="64" t="s">
+      <c r="G86" s="87"/>
+      <c r="H86" s="105" t="s">
         <v>140</v>
       </c>
       <c r="I86" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="K86" s="69"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="75"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="61"/>
       <c r="N86" s="34">
         <v>30</v>
       </c>
-      <c r="O86" s="69"/>
-      <c r="P86" s="72"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="54"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="64"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="66"/>
-      <c r="B87" s="91"/>
+      <c r="A87" s="110"/>
+      <c r="B87" s="103"/>
       <c r="C87" s="11">
         <v>853</v>
       </c>
@@ -5106,32 +5106,32 @@
       <c r="F87" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G87" s="79"/>
-      <c r="H87" s="64"/>
+      <c r="G87" s="88"/>
+      <c r="H87" s="105"/>
       <c r="I87" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="K87" s="55" t="s">
+      <c r="K87" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="L87" s="68"/>
+      <c r="M87" s="68"/>
+      <c r="N87" s="34">
+        <v>30</v>
+      </c>
+      <c r="O87" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="34">
-        <v>30</v>
-      </c>
-      <c r="O87" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P87" s="57"/>
-      <c r="Q87" s="57"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52"/>
       <c r="R87" s="44"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
-      <c r="B88" s="89" t="s">
+      <c r="A88" s="110"/>
+      <c r="B88" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="52">
+      <c r="C88" s="62">
         <v>861</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5143,10 +5143,10 @@
       <c r="F88" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G88" s="101" t="s">
+      <c r="G88" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="H88" s="80" t="s">
+      <c r="H88" s="104" t="s">
         <v>138</v>
       </c>
       <c r="I88" s="81" t="s">
@@ -5155,28 +5155,28 @@
       <c r="K88" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="M88" s="60"/>
+      <c r="L88" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="M88" s="75"/>
       <c r="N88" s="34">
         <v>30</v>
       </c>
       <c r="O88" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P88" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q88" s="60"/>
+      <c r="P88" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q88" s="75"/>
       <c r="R88" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="53"/>
+      <c r="A89" s="110"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="5" t="s">
         <v>148</v>
       </c>
@@ -5186,35 +5186,35 @@
       <c r="F89" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="102"/>
-      <c r="H89" s="80"/>
+      <c r="G89" s="90"/>
+      <c r="H89" s="104"/>
       <c r="I89" s="81"/>
-      <c r="K89" s="58">
-        <v>30</v>
-      </c>
-      <c r="L89" s="59">
+      <c r="K89" s="70">
+        <v>30</v>
+      </c>
+      <c r="L89" s="74">
         <v>60</v>
       </c>
-      <c r="M89" s="59"/>
+      <c r="M89" s="74"/>
       <c r="N89" s="34">
         <v>30</v>
       </c>
-      <c r="O89" s="58">
-        <v>30</v>
-      </c>
-      <c r="P89" s="59">
+      <c r="O89" s="70">
+        <v>30</v>
+      </c>
+      <c r="P89" s="74">
         <v>60</v>
       </c>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="57">
+      <c r="Q89" s="74"/>
+      <c r="R89" s="52">
         <f>SUM(K89:Q89)</f>
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="66"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="53"/>
+      <c r="A90" s="110"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="5" t="s">
         <v>150</v>
       </c>
@@ -5224,28 +5224,28 @@
       <c r="F90" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G90" s="102"/>
-      <c r="H90" s="80" t="s">
+      <c r="G90" s="90"/>
+      <c r="H90" s="104" t="s">
         <v>139</v>
       </c>
       <c r="I90" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="K90" s="58"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="59"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="74"/>
       <c r="N90" s="34">
         <v>30</v>
       </c>
-      <c r="O90" s="58"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="57"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="74"/>
+      <c r="Q90" s="74"/>
+      <c r="R90" s="52"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
-      <c r="B91" s="90"/>
-      <c r="C91" s="54"/>
+      <c r="A91" s="110"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="5" t="s">
         <v>149</v>
       </c>
@@ -5255,23 +5255,23 @@
       <c r="F91" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G91" s="102"/>
-      <c r="H91" s="80"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="104"/>
       <c r="I91" s="81"/>
-      <c r="K91" s="58"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="59"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
       <c r="N91" s="34">
         <v>30</v>
       </c>
-      <c r="O91" s="58"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="57"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="74"/>
+      <c r="R91" s="52"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="66"/>
-      <c r="B92" s="90"/>
+      <c r="A92" s="110"/>
+      <c r="B92" s="102"/>
       <c r="C92" s="2">
         <v>862</v>
       </c>
@@ -5284,27 +5284,27 @@
       <c r="F92" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G92" s="102"/>
-      <c r="H92" s="80" t="s">
+      <c r="G92" s="90"/>
+      <c r="H92" s="104" t="s">
         <v>140</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="K92" s="58"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="74"/>
       <c r="N92" s="34">
         <v>30</v>
       </c>
-      <c r="O92" s="58"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="57"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="74"/>
+      <c r="Q92" s="74"/>
+      <c r="R92" s="52"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="66"/>
-      <c r="B93" s="90"/>
+      <c r="A93" s="110"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="2">
         <v>863</v>
       </c>
@@ -5317,30 +5317,30 @@
       <c r="F93" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G93" s="103"/>
-      <c r="H93" s="80"/>
+      <c r="G93" s="91"/>
+      <c r="H93" s="104"/>
       <c r="I93" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="K93" s="57" t="s">
+      <c r="K93" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="L93" s="52"/>
+      <c r="M93" s="52"/>
+      <c r="N93" s="34">
+        <v>30</v>
+      </c>
+      <c r="O93" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L93" s="57"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="34">
-        <v>30</v>
-      </c>
-      <c r="O93" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P93" s="57"/>
-      <c r="Q93" s="57"/>
+      <c r="P93" s="52"/>
+      <c r="Q93" s="52"/>
       <c r="R93" s="44"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="66"/>
-      <c r="B94" s="90"/>
-      <c r="C94" s="61">
+      <c r="A94" s="110"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="98">
         <v>861</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -5352,23 +5352,23 @@
       <c r="F94" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="104" t="s">
+      <c r="G94" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="H94" s="64" t="s">
+      <c r="H94" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="I94" s="76" t="s">
+      <c r="I94" s="80" t="s">
         <v>136</v>
       </c>
       <c r="K94" s="32" t="s">
         <v>181</v>
       </c>
       <c r="L94" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M94" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N94" s="34">
         <v>30</v>
@@ -5377,19 +5377,19 @@
         <v>181</v>
       </c>
       <c r="P94" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q94" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R94" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="66"/>
-      <c r="B95" s="90"/>
-      <c r="C95" s="62"/>
+      <c r="A95" s="110"/>
+      <c r="B95" s="102"/>
+      <c r="C95" s="99"/>
       <c r="D95" s="7" t="s">
         <v>148</v>
       </c>
@@ -5399,39 +5399,39 @@
       <c r="F95" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="105"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="76"/>
-      <c r="K95" s="67">
-        <v>30</v>
-      </c>
-      <c r="L95" s="70">
+      <c r="G95" s="93"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="80"/>
+      <c r="K95" s="53">
+        <v>30</v>
+      </c>
+      <c r="L95" s="56">
         <v>25</v>
       </c>
-      <c r="M95" s="73">
+      <c r="M95" s="59">
         <v>35</v>
       </c>
       <c r="N95" s="34">
         <v>30</v>
       </c>
-      <c r="O95" s="67">
-        <v>30</v>
-      </c>
-      <c r="P95" s="70">
+      <c r="O95" s="53">
+        <v>30</v>
+      </c>
+      <c r="P95" s="56">
         <v>25</v>
       </c>
-      <c r="Q95" s="73">
+      <c r="Q95" s="59">
         <v>35</v>
       </c>
-      <c r="R95" s="52">
+      <c r="R95" s="62">
         <f>SUM(K95:Q95)</f>
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="66"/>
-      <c r="B96" s="90"/>
-      <c r="C96" s="62"/>
+      <c r="A96" s="110"/>
+      <c r="B96" s="102"/>
+      <c r="C96" s="99"/>
       <c r="D96" s="7" t="s">
         <v>150</v>
       </c>
@@ -5441,28 +5441,28 @@
       <c r="F96" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G96" s="105"/>
-      <c r="H96" s="64" t="s">
+      <c r="G96" s="93"/>
+      <c r="H96" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="I96" s="76" t="s">
+      <c r="I96" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="K96" s="68"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="74"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="60"/>
       <c r="N96" s="34">
         <v>30</v>
       </c>
-      <c r="O96" s="68"/>
-      <c r="P96" s="71"/>
-      <c r="Q96" s="74"/>
-      <c r="R96" s="53"/>
+      <c r="O96" s="54"/>
+      <c r="P96" s="57"/>
+      <c r="Q96" s="60"/>
+      <c r="R96" s="63"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="66"/>
-      <c r="B97" s="90"/>
-      <c r="C97" s="63"/>
+      <c r="A97" s="110"/>
+      <c r="B97" s="102"/>
+      <c r="C97" s="100"/>
       <c r="D97" s="7" t="s">
         <v>149</v>
       </c>
@@ -5472,23 +5472,23 @@
       <c r="F97" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G97" s="105"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="76"/>
-      <c r="K97" s="68"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="74"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="80"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="57"/>
+      <c r="M97" s="60"/>
       <c r="N97" s="34">
         <v>30</v>
       </c>
-      <c r="O97" s="68"/>
-      <c r="P97" s="71"/>
-      <c r="Q97" s="74"/>
-      <c r="R97" s="53"/>
+      <c r="O97" s="54"/>
+      <c r="P97" s="57"/>
+      <c r="Q97" s="60"/>
+      <c r="R97" s="63"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="66"/>
-      <c r="B98" s="90"/>
+      <c r="A98" s="110"/>
+      <c r="B98" s="102"/>
       <c r="C98" s="11">
         <v>862</v>
       </c>
@@ -5501,27 +5501,27 @@
       <c r="F98" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G98" s="105"/>
-      <c r="H98" s="64" t="s">
+      <c r="G98" s="93"/>
+      <c r="H98" s="105" t="s">
         <v>140</v>
       </c>
       <c r="I98" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="K98" s="69"/>
-      <c r="L98" s="72"/>
-      <c r="M98" s="75"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="61"/>
       <c r="N98" s="34">
         <v>30</v>
       </c>
-      <c r="O98" s="69"/>
-      <c r="P98" s="72"/>
-      <c r="Q98" s="75"/>
-      <c r="R98" s="54"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="58"/>
+      <c r="Q98" s="61"/>
+      <c r="R98" s="64"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
-      <c r="B99" s="91"/>
+      <c r="A99" s="110"/>
+      <c r="B99" s="103"/>
       <c r="C99" s="11">
         <v>863</v>
       </c>
@@ -5534,33 +5534,33 @@
       <c r="F99" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G99" s="106"/>
-      <c r="H99" s="64"/>
+      <c r="G99" s="94"/>
+      <c r="H99" s="105"/>
       <c r="I99" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="K99" s="55" t="s">
+      <c r="K99" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="L99" s="68"/>
+      <c r="M99" s="68"/>
+      <c r="N99" s="34">
+        <v>30</v>
+      </c>
+      <c r="O99" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="L99" s="56"/>
-      <c r="M99" s="56"/>
-      <c r="N99" s="34">
-        <v>30</v>
-      </c>
-      <c r="O99" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="P99" s="57"/>
-      <c r="Q99" s="57"/>
+      <c r="P99" s="52"/>
+      <c r="Q99" s="52"/>
       <c r="R99" s="44"/>
     </row>
     <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="100" t="s">
+      <c r="A100" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="100"/>
-      <c r="C100" s="100"/>
-      <c r="D100" s="100"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
       <c r="E100" s="17">
         <f>SUM(E2:E99)</f>
         <v>168</v>
@@ -5571,13 +5571,13 @@
       <c r="H100" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="107" t="s">
+      <c r="A102" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B102" s="88" t="s">
+      <c r="B102" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="57">
+      <c r="C102" s="52">
         <v>871</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -5589,23 +5589,23 @@
       <c r="F102" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G102" s="97" t="s">
+      <c r="G102" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="H102" s="80" t="s">
+      <c r="H102" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="I102" s="82">
+      <c r="I102" s="115">
         <v>871</v>
       </c>
       <c r="K102" s="32" t="s">
         <v>181</v>
       </c>
       <c r="L102" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M102" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N102" s="34">
         <v>30</v>
@@ -5614,19 +5614,19 @@
         <v>181</v>
       </c>
       <c r="P102" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q102" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R102" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="107"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="57"/>
+      <c r="A103" s="97"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="5" t="s">
         <v>148</v>
       </c>
@@ -5636,39 +5636,39 @@
       <c r="F103" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G103" s="97"/>
-      <c r="H103" s="80"/>
-      <c r="I103" s="82"/>
-      <c r="K103" s="67">
-        <v>30</v>
-      </c>
-      <c r="L103" s="70">
+      <c r="G103" s="95"/>
+      <c r="H103" s="104"/>
+      <c r="I103" s="115"/>
+      <c r="K103" s="53">
+        <v>30</v>
+      </c>
+      <c r="L103" s="56">
         <v>35</v>
       </c>
-      <c r="M103" s="73">
+      <c r="M103" s="59">
         <v>55</v>
       </c>
       <c r="N103" s="34">
         <v>30</v>
       </c>
-      <c r="O103" s="67">
-        <v>30</v>
-      </c>
-      <c r="P103" s="109">
+      <c r="O103" s="53">
+        <v>30</v>
+      </c>
+      <c r="P103" s="76">
         <v>35</v>
       </c>
-      <c r="Q103" s="73">
+      <c r="Q103" s="59">
         <v>25</v>
       </c>
-      <c r="R103" s="52">
+      <c r="R103" s="62">
         <f>SUM(K103:Q103)</f>
         <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="107"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="57"/>
+      <c r="A104" s="97"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="52"/>
       <c r="D104" s="5" t="s">
         <v>150</v>
       </c>
@@ -5678,28 +5678,28 @@
       <c r="F104" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G104" s="97"/>
-      <c r="H104" s="80" t="s">
+      <c r="G104" s="95"/>
+      <c r="H104" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="I104" s="82">
+      <c r="I104" s="115">
         <v>871</v>
       </c>
-      <c r="K104" s="68"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="74"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="57"/>
+      <c r="M104" s="60"/>
       <c r="N104" s="34">
         <v>30</v>
       </c>
-      <c r="O104" s="68"/>
-      <c r="P104" s="110"/>
-      <c r="Q104" s="74"/>
-      <c r="R104" s="53"/>
+      <c r="O104" s="54"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="60"/>
+      <c r="R104" s="63"/>
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="107"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="57"/>
+      <c r="A105" s="97"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="52"/>
       <c r="D105" s="5" t="s">
         <v>149</v>
       </c>
@@ -5709,23 +5709,23 @@
       <c r="F105" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G105" s="97"/>
-      <c r="H105" s="80"/>
-      <c r="I105" s="82"/>
-      <c r="K105" s="68"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="74"/>
+      <c r="G105" s="95"/>
+      <c r="H105" s="104"/>
+      <c r="I105" s="115"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="60"/>
       <c r="N105" s="34">
         <v>30</v>
       </c>
-      <c r="O105" s="68"/>
-      <c r="P105" s="110"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="53"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="60"/>
+      <c r="R105" s="63"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="107"/>
-      <c r="B106" s="88"/>
+      <c r="A106" s="97"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="2">
         <v>872</v>
       </c>
@@ -5738,27 +5738,27 @@
       <c r="F106" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G106" s="97"/>
-      <c r="H106" s="80" t="s">
+      <c r="G106" s="95"/>
+      <c r="H106" s="104" t="s">
         <v>140</v>
       </c>
       <c r="I106" s="18">
         <v>872</v>
       </c>
-      <c r="K106" s="69"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="75"/>
+      <c r="K106" s="55"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="61"/>
       <c r="N106" s="34">
         <v>30</v>
       </c>
-      <c r="O106" s="69"/>
-      <c r="P106" s="111"/>
-      <c r="Q106" s="75"/>
-      <c r="R106" s="54"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="78"/>
+      <c r="Q106" s="61"/>
+      <c r="R106" s="64"/>
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="107"/>
-      <c r="B107" s="88"/>
+      <c r="A107" s="97"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="2">
         <v>873</v>
       </c>
@@ -5771,33 +5771,33 @@
       <c r="F107" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G107" s="97"/>
-      <c r="H107" s="80"/>
+      <c r="G107" s="95"/>
+      <c r="H107" s="104"/>
       <c r="I107" s="18">
         <v>873</v>
       </c>
-      <c r="K107" s="55" t="s">
+      <c r="K107" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="L107" s="68"/>
+      <c r="M107" s="68"/>
+      <c r="N107" s="34">
+        <v>30</v>
+      </c>
+      <c r="O107" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="34">
-        <v>30</v>
-      </c>
-      <c r="O107" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="116"/>
+      <c r="P107" s="68"/>
+      <c r="Q107" s="69"/>
       <c r="R107" s="44"/>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="100" t="s">
+      <c r="A108" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="B108" s="100"/>
-      <c r="C108" s="100"/>
-      <c r="D108" s="100"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
       <c r="E108" s="17">
         <f>SUM(E102:E107)</f>
         <v>10</v>
@@ -5866,16 +5866,276 @@
     </row>
   </sheetData>
   <mergeCells count="304">
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="O95:O98"/>
-    <mergeCell ref="P95:P98"/>
-    <mergeCell ref="Q95:Q98"/>
-    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="R83:R86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="O65:O68"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="L65:M68"/>
+    <mergeCell ref="P65:Q68"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L77:M80"/>
+    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="P77:Q80"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="R34:R37"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="P46:P49"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="R58:R61"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A64:A99"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B64:B87"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="A27:A62"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="G76:G81"/>
+    <mergeCell ref="G82:G87"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="L52:M55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L28:M31"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="P103:P106"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="P58:P61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="O58:O61"/>
+    <mergeCell ref="Q58:Q61"/>
+    <mergeCell ref="K83:K86"/>
+    <mergeCell ref="L83:L86"/>
+    <mergeCell ref="M83:M86"/>
+    <mergeCell ref="O83:O86"/>
+    <mergeCell ref="P83:P86"/>
+    <mergeCell ref="Q83:Q86"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:M92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:Q92"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="L40:M43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:Q43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="Q46:Q49"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R25"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L13"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="T28:V28"/>
     <mergeCell ref="L103:L106"/>
     <mergeCell ref="M103:M106"/>
@@ -5900,276 +6160,16 @@
     <mergeCell ref="N23:O25"/>
     <mergeCell ref="Q34:Q37"/>
     <mergeCell ref="L46:L49"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R25"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="L40:M43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:Q43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="P103:P106"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="P58:P61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="O58:O61"/>
-    <mergeCell ref="Q58:Q61"/>
-    <mergeCell ref="K83:K86"/>
-    <mergeCell ref="L83:L86"/>
-    <mergeCell ref="M83:M86"/>
-    <mergeCell ref="O83:O86"/>
-    <mergeCell ref="P83:P86"/>
-    <mergeCell ref="Q83:Q86"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:M92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:Q92"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="L52:M55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L28:M31"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="G76:G81"/>
-    <mergeCell ref="G82:G87"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="G102:G107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G64:G69"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A64:A99"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B64:B87"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="A27:A62"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="R34:R37"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="P46:P49"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="R58:R61"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="R83:R86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="O65:O68"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="L65:M68"/>
-    <mergeCell ref="P65:Q68"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:M80"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="P77:Q80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="K95:K98"/>
+    <mergeCell ref="L95:L98"/>
+    <mergeCell ref="M95:M98"/>
+    <mergeCell ref="O95:O98"/>
+    <mergeCell ref="P95:P98"/>
+    <mergeCell ref="Q95:Q98"/>
+    <mergeCell ref="R95:R98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
+++ b/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
@@ -1415,9 +1415,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,14 +1487,119 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1460,155 +1607,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,6 +1632,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1899,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6D2FFF-64FD-4790-BE66-86F2381ADCA2}">
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,27 +1957,27 @@
       <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="52">
         <v>811</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1985,7 +1989,7 @@
       <c r="F2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="92" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1995,24 +1999,24 @@
         <v>8111</v>
       </c>
       <c r="J2" s="21"/>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="L2" s="71"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="95"/>
       <c r="P2" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="71"/>
+      <c r="R2" s="95"/>
       <c r="S2" s="33" t="s">
         <v>182</v>
       </c>
@@ -2021,9 +2025,9 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2033,7 +2037,7 @@
       <c r="F3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="5" t="s">
         <v>139</v>
       </c>
@@ -2041,35 +2045,35 @@
         <v>8111</v>
       </c>
       <c r="J3" s="21"/>
-      <c r="K3" s="70">
+      <c r="K3" s="58">
         <v>60</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="74">
+      <c r="L3" s="58"/>
+      <c r="M3" s="59">
         <v>20</v>
       </c>
-      <c r="N3" s="70">
+      <c r="N3" s="58">
         <v>60</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="74">
+      <c r="O3" s="58"/>
+      <c r="P3" s="59">
         <v>20</v>
       </c>
-      <c r="Q3" s="70">
+      <c r="Q3" s="58">
         <v>60</v>
       </c>
-      <c r="R3" s="70"/>
-      <c r="S3" s="74">
+      <c r="R3" s="58"/>
+      <c r="S3" s="59">
         <v>20</v>
       </c>
-      <c r="T3" s="52">
+      <c r="T3" s="57">
         <f>SUM(K3:S5)</f>
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="10">
         <v>812</v>
       </c>
@@ -2082,28 +2086,28 @@
       <c r="F4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="104" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="80" t="s">
         <v>140</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J4" s="21"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="52"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="57"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="2">
         <v>813</v>
       </c>
@@ -2116,27 +2120,27 @@
       <c r="F5" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="104"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="24" t="s">
         <v>112</v>
       </c>
       <c r="J5" s="21"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="52"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="57"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="98">
+      <c r="A6" s="66"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="61">
         <v>811</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2148,7 +2152,7 @@
       <c r="F6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="77" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2157,24 +2161,24 @@
       <c r="I6" s="19">
         <v>8112</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="L6" s="71"/>
+      <c r="L6" s="95"/>
       <c r="M6" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="71"/>
+      <c r="O6" s="95"/>
       <c r="P6" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q6" s="71" t="s">
+      <c r="Q6" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="R6" s="71"/>
+      <c r="R6" s="95"/>
       <c r="S6" s="33" t="s">
         <v>182</v>
       </c>
@@ -2183,9 +2187,9 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="100"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2195,42 +2199,42 @@
       <c r="F7" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I7" s="19">
         <v>8112</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="58">
         <v>60</v>
       </c>
-      <c r="L7" s="70"/>
-      <c r="M7" s="74">
+      <c r="L7" s="58"/>
+      <c r="M7" s="59">
         <v>10</v>
       </c>
-      <c r="N7" s="70">
+      <c r="N7" s="58">
         <v>60</v>
       </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="74">
+      <c r="O7" s="58"/>
+      <c r="P7" s="59">
         <v>10</v>
       </c>
-      <c r="Q7" s="70">
+      <c r="Q7" s="58">
         <v>60</v>
       </c>
-      <c r="R7" s="70"/>
-      <c r="S7" s="74">
+      <c r="R7" s="58"/>
+      <c r="S7" s="59">
         <v>10</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="57">
         <f>SUM(K7:S9)</f>
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="23">
         <v>812</v>
       </c>
@@ -2243,27 +2247,27 @@
       <c r="F8" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="105" t="s">
+      <c r="G8" s="78"/>
+      <c r="H8" s="64" t="s">
         <v>140</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="52"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="57"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="11">
         <v>813</v>
       </c>
@@ -2276,26 +2280,26 @@
       <c r="F9" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="105"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="52"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="57"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="62">
+      <c r="A10" s="66"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="52">
         <v>811</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2307,7 +2311,7 @@
       <c r="F10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="92" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2316,24 +2320,24 @@
       <c r="I10" s="18">
         <v>8113</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="L10" s="71"/>
+      <c r="L10" s="95"/>
       <c r="M10" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="N10" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="71"/>
+      <c r="O10" s="95"/>
       <c r="P10" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="71" t="s">
+      <c r="Q10" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="R10" s="71"/>
+      <c r="R10" s="95"/>
       <c r="S10" s="33" t="s">
         <v>182</v>
       </c>
@@ -2342,9 +2346,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
@@ -2354,42 +2358,42 @@
       <c r="F11" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="84"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="5" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="18">
         <v>8113</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="58">
         <v>60</v>
       </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="74">
+      <c r="L11" s="58"/>
+      <c r="M11" s="59">
         <v>10</v>
       </c>
-      <c r="N11" s="70">
+      <c r="N11" s="58">
         <v>60</v>
       </c>
-      <c r="O11" s="70"/>
-      <c r="P11" s="74">
+      <c r="O11" s="58"/>
+      <c r="P11" s="59">
         <v>10</v>
       </c>
-      <c r="Q11" s="70">
+      <c r="Q11" s="58">
         <v>60</v>
       </c>
-      <c r="R11" s="70"/>
-      <c r="S11" s="74">
+      <c r="R11" s="58"/>
+      <c r="S11" s="59">
         <v>10</v>
       </c>
-      <c r="T11" s="52">
+      <c r="T11" s="57">
         <f>SUM(K11:S13)</f>
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="10">
         <v>812</v>
       </c>
@@ -2402,27 +2406,27 @@
       <c r="F12" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="104" t="s">
+      <c r="G12" s="93"/>
+      <c r="H12" s="80" t="s">
         <v>140</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="52"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="57"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="2">
         <v>813</v>
       </c>
@@ -2435,26 +2439,26 @@
       <c r="F13" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="104"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="52"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="57"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="98">
+      <c r="A14" s="66"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="61">
         <v>811</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2466,7 +2470,7 @@
       <c r="F14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="77" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2475,24 +2479,24 @@
       <c r="I14" s="19">
         <v>8114</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="71"/>
+      <c r="L14" s="95"/>
       <c r="M14" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N14" s="71" t="s">
+      <c r="N14" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="71"/>
+      <c r="O14" s="95"/>
       <c r="P14" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q14" s="71" t="s">
+      <c r="Q14" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="R14" s="71"/>
+      <c r="R14" s="95"/>
       <c r="S14" s="33" t="s">
         <v>182</v>
       </c>
@@ -2501,9 +2505,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="100"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
@@ -2513,42 +2517,42 @@
       <c r="F15" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="87"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I15" s="19">
         <v>8114</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="58">
         <v>60</v>
       </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="74">
+      <c r="L15" s="58"/>
+      <c r="M15" s="59">
         <v>5</v>
       </c>
-      <c r="N15" s="70">
+      <c r="N15" s="58">
         <v>60</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="74">
+      <c r="O15" s="58"/>
+      <c r="P15" s="59">
         <v>5</v>
       </c>
-      <c r="Q15" s="70">
+      <c r="Q15" s="58">
         <v>60</v>
       </c>
-      <c r="R15" s="70"/>
-      <c r="S15" s="74">
+      <c r="R15" s="58"/>
+      <c r="S15" s="59">
         <v>5</v>
       </c>
-      <c r="T15" s="52">
+      <c r="T15" s="57">
         <f>SUM(K15:S17)</f>
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="23">
         <v>812</v>
       </c>
@@ -2561,27 +2565,27 @@
       <c r="F16" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="105" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="64" t="s">
         <v>140</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="52"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="57"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="11">
         <v>813</v>
       </c>
@@ -2594,28 +2598,28 @@
       <c r="F17" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="105"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="52"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="57"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="96" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="52">
         <v>821</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2627,7 +2631,7 @@
       <c r="F18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="92" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -2636,24 +2640,24 @@
       <c r="I18" s="18">
         <v>8211</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="L18" s="71"/>
+      <c r="L18" s="95"/>
       <c r="M18" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="O18" s="71"/>
+      <c r="O18" s="95"/>
       <c r="P18" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q18" s="71" t="s">
+      <c r="Q18" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="R18" s="71"/>
+      <c r="R18" s="95"/>
       <c r="S18" s="33" t="s">
         <v>182</v>
       </c>
@@ -2662,9 +2666,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
@@ -2674,42 +2678,42 @@
       <c r="F19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="84"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="5" t="s">
         <v>139</v>
       </c>
       <c r="I19" s="18">
         <v>8211</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="58">
         <v>60</v>
       </c>
-      <c r="L19" s="70"/>
-      <c r="M19" s="74">
+      <c r="L19" s="58"/>
+      <c r="M19" s="59">
         <v>10</v>
       </c>
-      <c r="N19" s="70">
+      <c r="N19" s="58">
         <v>60</v>
       </c>
-      <c r="O19" s="70"/>
-      <c r="P19" s="74">
+      <c r="O19" s="58"/>
+      <c r="P19" s="59">
         <v>10</v>
       </c>
-      <c r="Q19" s="70">
+      <c r="Q19" s="58">
         <v>60</v>
       </c>
-      <c r="R19" s="70"/>
-      <c r="S19" s="74">
+      <c r="R19" s="58"/>
+      <c r="S19" s="59">
         <v>10</v>
       </c>
-      <c r="T19" s="52">
+      <c r="T19" s="57">
         <f>SUM(K19:S21)</f>
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="2">
         <v>822</v>
       </c>
@@ -2722,27 +2726,27 @@
       <c r="F20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="104" t="s">
+      <c r="G20" s="93"/>
+      <c r="H20" s="80" t="s">
         <v>140</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="52"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="57"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="2">
         <v>823</v>
       </c>
@@ -2755,26 +2759,26 @@
       <c r="F21" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="85"/>
-      <c r="H21" s="104"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="52"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="57"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="98">
+      <c r="A22" s="66"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="61">
         <v>821</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2786,7 +2790,7 @@
       <c r="F22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="77" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -2795,24 +2799,24 @@
       <c r="I22" s="19">
         <v>8212</v>
       </c>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="71"/>
+      <c r="L22" s="95"/>
       <c r="M22" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N22" s="71" t="s">
+      <c r="N22" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="O22" s="71"/>
+      <c r="O22" s="95"/>
       <c r="P22" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q22" s="71" t="s">
+      <c r="Q22" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="R22" s="71"/>
+      <c r="R22" s="95"/>
       <c r="S22" s="33" t="s">
         <v>182</v>
       </c>
@@ -2821,9 +2825,9 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="100"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="7" t="s">
         <v>11</v>
       </c>
@@ -2833,42 +2837,42 @@
       <c r="F23" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="87"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I23" s="19">
         <v>8212</v>
       </c>
-      <c r="K23" s="70">
+      <c r="K23" s="58">
         <v>60</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="74">
+      <c r="L23" s="58"/>
+      <c r="M23" s="59">
         <v>5</v>
       </c>
-      <c r="N23" s="70">
+      <c r="N23" s="58">
         <v>60</v>
       </c>
-      <c r="O23" s="70"/>
-      <c r="P23" s="74">
+      <c r="O23" s="58"/>
+      <c r="P23" s="59">
         <v>5</v>
       </c>
-      <c r="Q23" s="70">
+      <c r="Q23" s="58">
         <v>60</v>
       </c>
-      <c r="R23" s="70"/>
-      <c r="S23" s="74">
+      <c r="R23" s="58"/>
+      <c r="S23" s="59">
         <v>5</v>
       </c>
-      <c r="T23" s="52">
+      <c r="T23" s="57">
         <f>SUM(K23:S25)</f>
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="96"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="11">
         <v>822</v>
       </c>
@@ -2881,27 +2885,27 @@
       <c r="F24" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="105" t="s">
+      <c r="G24" s="78"/>
+      <c r="H24" s="64" t="s">
         <v>140</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="52"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="57"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="96"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="28">
         <v>823</v>
       </c>
@@ -2914,46 +2918,46 @@
       <c r="F25" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="105"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="64"/>
       <c r="I25" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="52"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="57"/>
     </row>
     <row r="26" spans="1:22" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="51"/>
       <c r="N26" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="O26" s="73" t="s">
+      <c r="O26" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
     </row>
     <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="52">
         <v>831</v>
       </c>
       <c r="D27" s="30" t="s">
@@ -2965,10 +2969,10 @@
       <c r="F27" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="104" t="s">
+      <c r="H27" s="80" t="s">
         <v>138</v>
       </c>
       <c r="I27" s="81" t="s">
@@ -2977,36 +2981,36 @@
       <c r="K27" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="L27" s="79" t="s">
+      <c r="L27" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="M27" s="79"/>
+      <c r="M27" s="108"/>
       <c r="N27" s="50">
         <v>30</v>
       </c>
       <c r="O27" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="P27" s="79" t="s">
+      <c r="P27" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="Q27" s="79"/>
+      <c r="Q27" s="108"/>
       <c r="R27" s="38" t="s">
         <v>23</v>
       </c>
       <c r="S27" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="T27" s="65" t="s">
+      <c r="T27" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="115"/>
     </row>
     <row r="28" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="5" t="s">
         <v>148</v>
       </c>
@@ -3016,44 +3020,44 @@
       <c r="F28" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="104"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="80"/>
       <c r="I28" s="81"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="70">
-        <v>30</v>
-      </c>
-      <c r="L28" s="74">
+      <c r="K28" s="58">
+        <v>30</v>
+      </c>
+      <c r="L28" s="59">
         <v>60</v>
       </c>
-      <c r="M28" s="74"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="35">
         <v>30</v>
       </c>
-      <c r="O28" s="70">
-        <v>30</v>
-      </c>
-      <c r="P28" s="74">
+      <c r="O28" s="58">
+        <v>30</v>
+      </c>
+      <c r="P28" s="59">
         <v>60</v>
       </c>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="52">
+      <c r="Q28" s="59"/>
+      <c r="R28" s="57">
         <f>SUM(K28:Q28)</f>
         <v>210</v>
       </c>
       <c r="S28" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="T28" s="65" t="s">
+      <c r="T28" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
     </row>
     <row r="29" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="5" t="s">
         <v>150</v>
       </c>
@@ -3063,28 +3067,28 @@
       <c r="F29" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="104" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="80" t="s">
         <v>139</v>
       </c>
       <c r="I29" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="70"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="35">
         <v>30</v>
       </c>
-      <c r="O29" s="70"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="52"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="57"/>
     </row>
     <row r="30" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="5" t="s">
         <v>149</v>
       </c>
@@ -3094,23 +3098,23 @@
       <c r="F30" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="104"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="81"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="35">
         <v>30</v>
       </c>
-      <c r="O30" s="70"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="52"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="57"/>
     </row>
     <row r="31" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="10">
         <v>832</v>
       </c>
@@ -3123,27 +3127,27 @@
       <c r="F31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="104" t="s">
+      <c r="G31" s="93"/>
+      <c r="H31" s="80" t="s">
         <v>140</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="70"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="34">
         <v>30</v>
       </c>
-      <c r="O31" s="70"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="52"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="57"/>
     </row>
     <row r="32" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="2">
         <v>833</v>
       </c>
@@ -3156,31 +3160,31 @@
       <c r="F32" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="104"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="80"/>
       <c r="I32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="52" t="s">
+      <c r="K32" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
       <c r="N32" s="34">
         <v>30</v>
       </c>
-      <c r="O32" s="52" t="s">
+      <c r="O32" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
     </row>
     <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="98">
+      <c r="A33" s="66"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="61">
         <v>831</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3192,13 +3196,13 @@
       <c r="F33" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="106" t="s">
+      <c r="G33" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="105" t="s">
+      <c r="H33" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="I33" s="80" t="s">
+      <c r="I33" s="76" t="s">
         <v>41</v>
       </c>
       <c r="K33" s="32" t="s">
@@ -3227,9 +3231,9 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="99"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="7" t="s">
         <v>148</v>
       </c>
@@ -3239,39 +3243,39 @@
       <c r="F34" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="106"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="80"/>
-      <c r="K34" s="53">
-        <v>30</v>
-      </c>
-      <c r="L34" s="56">
+      <c r="G34" s="96"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="76"/>
+      <c r="K34" s="67">
+        <v>30</v>
+      </c>
+      <c r="L34" s="70">
         <v>20</v>
       </c>
-      <c r="M34" s="59">
+      <c r="M34" s="73">
         <v>40</v>
       </c>
       <c r="N34" s="34">
         <v>30</v>
       </c>
-      <c r="O34" s="53">
-        <v>30</v>
-      </c>
-      <c r="P34" s="56">
+      <c r="O34" s="67">
+        <v>30</v>
+      </c>
+      <c r="P34" s="70">
         <v>20</v>
       </c>
-      <c r="Q34" s="59">
+      <c r="Q34" s="73">
         <v>40</v>
       </c>
-      <c r="R34" s="62">
+      <c r="R34" s="52">
         <f>SUM(K34:Q34)</f>
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="99"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="7" t="s">
         <v>150</v>
       </c>
@@ -3281,28 +3285,28 @@
       <c r="F35" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="106"/>
-      <c r="H35" s="105" t="s">
+      <c r="G35" s="96"/>
+      <c r="H35" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="I35" s="80" t="s">
+      <c r="I35" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="54"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="60"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="74"/>
       <c r="N35" s="34">
         <v>30</v>
       </c>
-      <c r="O35" s="54"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="63"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="53"/>
     </row>
     <row r="36" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="100"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="7" t="s">
         <v>149</v>
       </c>
@@ -3312,23 +3316,23 @@
       <c r="F36" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="106"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="80"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="60"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="76"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="74"/>
       <c r="N36" s="34">
         <v>30</v>
       </c>
-      <c r="O36" s="54"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="63"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="53"/>
     </row>
     <row r="37" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
-      <c r="B37" s="102"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="23">
         <v>832</v>
       </c>
@@ -3341,27 +3345,27 @@
       <c r="F37" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="106"/>
-      <c r="H37" s="105" t="s">
+      <c r="G37" s="96"/>
+      <c r="H37" s="64" t="s">
         <v>140</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="55"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="61"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="75"/>
       <c r="N37" s="34">
         <v>30</v>
       </c>
-      <c r="O37" s="55"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="64"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="54"/>
     </row>
     <row r="38" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="110"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="11">
         <v>833</v>
       </c>
@@ -3374,30 +3378,30 @@
       <c r="F38" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="106"/>
-      <c r="H38" s="105"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="64"/>
       <c r="I38" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
       <c r="N38" s="34">
         <v>30</v>
       </c>
-      <c r="O38" s="52" t="s">
+      <c r="O38" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
       <c r="R38" s="44"/>
     </row>
     <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="110"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="62">
+      <c r="A39" s="66"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="52">
         <v>831</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -3409,10 +3413,10 @@
       <c r="F39" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="95" t="s">
+      <c r="G39" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="104" t="s">
+      <c r="H39" s="80" t="s">
         <v>138</v>
       </c>
       <c r="I39" s="81" t="s">
@@ -3421,28 +3425,28 @@
       <c r="K39" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="L39" s="75" t="s">
+      <c r="L39" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="M39" s="75"/>
+      <c r="M39" s="60"/>
       <c r="N39" s="31">
         <v>30</v>
       </c>
       <c r="O39" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P39" s="75" t="s">
+      <c r="P39" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="Q39" s="75"/>
+      <c r="Q39" s="60"/>
       <c r="R39" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="110"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="5" t="s">
         <v>148</v>
       </c>
@@ -3452,35 +3456,35 @@
       <c r="F40" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="95"/>
-      <c r="H40" s="104"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="80"/>
       <c r="I40" s="81"/>
-      <c r="K40" s="70">
-        <v>30</v>
-      </c>
-      <c r="L40" s="74">
+      <c r="K40" s="58">
+        <v>30</v>
+      </c>
+      <c r="L40" s="59">
         <v>60</v>
       </c>
-      <c r="M40" s="74"/>
+      <c r="M40" s="59"/>
       <c r="N40" s="35">
         <v>30</v>
       </c>
-      <c r="O40" s="70">
-        <v>30</v>
-      </c>
-      <c r="P40" s="74">
+      <c r="O40" s="58">
+        <v>30</v>
+      </c>
+      <c r="P40" s="59">
         <v>60</v>
       </c>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="52">
+      <c r="Q40" s="59"/>
+      <c r="R40" s="57">
         <f>SUM(K40:Q40)</f>
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="5" t="s">
         <v>150</v>
       </c>
@@ -3490,28 +3494,28 @@
       <c r="F41" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="95"/>
-      <c r="H41" s="104" t="s">
+      <c r="G41" s="97"/>
+      <c r="H41" s="80" t="s">
         <v>139</v>
       </c>
       <c r="I41" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="70"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
       <c r="N41" s="35">
         <v>30</v>
       </c>
-      <c r="O41" s="70"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="52"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="57"/>
     </row>
     <row r="42" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="64"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="5" t="s">
         <v>149</v>
       </c>
@@ -3521,23 +3525,23 @@
       <c r="F42" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G42" s="95"/>
-      <c r="H42" s="104"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="80"/>
       <c r="I42" s="81"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
       <c r="N42" s="35">
         <v>30</v>
       </c>
-      <c r="O42" s="70"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="52"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="57"/>
     </row>
     <row r="43" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="102"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="10">
         <v>832</v>
       </c>
@@ -3550,27 +3554,27 @@
       <c r="F43" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="95"/>
-      <c r="H43" s="104" t="s">
+      <c r="G43" s="97"/>
+      <c r="H43" s="80" t="s">
         <v>140</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="70"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
       <c r="N43" s="34">
         <v>30</v>
       </c>
-      <c r="O43" s="70"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="52"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="57"/>
     </row>
     <row r="44" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
-      <c r="B44" s="102"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="2">
         <v>833</v>
       </c>
@@ -3583,30 +3587,30 @@
       <c r="F44" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="95"/>
-      <c r="H44" s="104"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="80"/>
       <c r="I44" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K44" s="52" t="s">
+      <c r="K44" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
       <c r="N44" s="34">
         <v>30</v>
       </c>
-      <c r="O44" s="52" t="s">
+      <c r="O44" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
       <c r="R44" s="44"/>
     </row>
     <row r="45" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="110"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="98">
+      <c r="A45" s="66"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="61">
         <v>831</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -3618,13 +3622,13 @@
       <c r="F45" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="106" t="s">
+      <c r="G45" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="105" t="s">
+      <c r="H45" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="I45" s="80" t="s">
+      <c r="I45" s="76" t="s">
         <v>47</v>
       </c>
       <c r="K45" s="32" t="s">
@@ -3653,9 +3657,9 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="110"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="99"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="7" t="s">
         <v>148</v>
       </c>
@@ -3665,39 +3669,39 @@
       <c r="F46" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="106"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="80"/>
-      <c r="K46" s="53">
-        <v>30</v>
-      </c>
-      <c r="L46" s="56">
+      <c r="G46" s="96"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="76"/>
+      <c r="K46" s="67">
+        <v>30</v>
+      </c>
+      <c r="L46" s="70">
         <v>25</v>
       </c>
-      <c r="M46" s="59">
+      <c r="M46" s="73">
         <v>35</v>
       </c>
       <c r="N46" s="34">
         <v>30</v>
       </c>
-      <c r="O46" s="53">
-        <v>30</v>
-      </c>
-      <c r="P46" s="56">
+      <c r="O46" s="67">
+        <v>30</v>
+      </c>
+      <c r="P46" s="70">
         <v>25</v>
       </c>
-      <c r="Q46" s="59">
+      <c r="Q46" s="73">
         <v>35</v>
       </c>
-      <c r="R46" s="62">
+      <c r="R46" s="52">
         <f>SUM(K46:Q46)</f>
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="99"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="7" t="s">
         <v>150</v>
       </c>
@@ -3707,28 +3711,28 @@
       <c r="F47" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="106"/>
-      <c r="H47" s="105" t="s">
+      <c r="G47" s="96"/>
+      <c r="H47" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="I47" s="80" t="s">
+      <c r="I47" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="K47" s="54"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="60"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="74"/>
       <c r="N47" s="34">
         <v>30</v>
       </c>
-      <c r="O47" s="54"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="63"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="53"/>
     </row>
     <row r="48" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="110"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="100"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="7" t="s">
         <v>149</v>
       </c>
@@ -3738,23 +3742,23 @@
       <c r="F48" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="106"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="80"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="60"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="76"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="74"/>
       <c r="N48" s="34">
         <v>30</v>
       </c>
-      <c r="O48" s="54"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="63"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="53"/>
     </row>
     <row r="49" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="110"/>
-      <c r="B49" s="102"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="23">
         <v>832</v>
       </c>
@@ -3767,27 +3771,27 @@
       <c r="F49" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="106"/>
-      <c r="H49" s="105" t="s">
+      <c r="G49" s="96"/>
+      <c r="H49" s="64" t="s">
         <v>140</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K49" s="55"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="61"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="75"/>
       <c r="N49" s="34">
         <v>30</v>
       </c>
-      <c r="O49" s="55"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="64"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="54"/>
     </row>
     <row r="50" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="103"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="11">
         <v>833</v>
       </c>
@@ -3800,32 +3804,32 @@
       <c r="F50" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="106"/>
-      <c r="H50" s="105"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="64"/>
       <c r="I50" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
       <c r="N50" s="34">
         <v>30</v>
       </c>
-      <c r="O50" s="52" t="s">
+      <c r="O50" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
       <c r="R50" s="44"/>
     </row>
     <row r="51" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="110"/>
-      <c r="B51" s="112" t="s">
+      <c r="A51" s="66"/>
+      <c r="B51" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="62">
+      <c r="C51" s="52">
         <v>841</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3837,10 +3841,10 @@
       <c r="F51" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="107" t="s">
+      <c r="G51" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="104" t="s">
+      <c r="H51" s="80" t="s">
         <v>138</v>
       </c>
       <c r="I51" s="81" t="s">
@@ -3849,28 +3853,28 @@
       <c r="K51" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="75" t="s">
+      <c r="L51" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="M51" s="75"/>
+      <c r="M51" s="60"/>
       <c r="N51" s="34">
         <v>30</v>
       </c>
       <c r="O51" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P51" s="75" t="s">
+      <c r="P51" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="Q51" s="75"/>
+      <c r="Q51" s="60"/>
       <c r="R51" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="110"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="5" t="s">
         <v>148</v>
       </c>
@@ -3880,35 +3884,35 @@
       <c r="F52" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="107"/>
-      <c r="H52" s="104"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="80"/>
       <c r="I52" s="81"/>
-      <c r="K52" s="70">
-        <v>30</v>
-      </c>
-      <c r="L52" s="74">
+      <c r="K52" s="58">
+        <v>30</v>
+      </c>
+      <c r="L52" s="59">
         <v>60</v>
       </c>
-      <c r="M52" s="74"/>
+      <c r="M52" s="59"/>
       <c r="N52" s="34">
         <v>30</v>
       </c>
-      <c r="O52" s="70">
-        <v>30</v>
-      </c>
-      <c r="P52" s="74">
+      <c r="O52" s="58">
+        <v>30</v>
+      </c>
+      <c r="P52" s="59">
         <v>60</v>
       </c>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="52">
+      <c r="Q52" s="59"/>
+      <c r="R52" s="57">
         <f>SUM(K52:Q52)</f>
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="5" t="s">
         <v>150</v>
       </c>
@@ -3918,28 +3922,28 @@
       <c r="F53" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G53" s="107"/>
-      <c r="H53" s="104" t="s">
+      <c r="G53" s="98"/>
+      <c r="H53" s="80" t="s">
         <v>139</v>
       </c>
       <c r="I53" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K53" s="70"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
       <c r="N53" s="34">
         <v>30</v>
       </c>
-      <c r="O53" s="70"/>
-      <c r="P53" s="74"/>
-      <c r="Q53" s="74"/>
-      <c r="R53" s="52"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="57"/>
     </row>
     <row r="54" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="110"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="64"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="5" t="s">
         <v>149</v>
       </c>
@@ -3949,23 +3953,23 @@
       <c r="F54" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="104"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="80"/>
       <c r="I54" s="81"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="74"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
       <c r="N54" s="34">
         <v>30</v>
       </c>
-      <c r="O54" s="70"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="74"/>
-      <c r="R54" s="52"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="57"/>
     </row>
     <row r="55" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="110"/>
-      <c r="B55" s="113"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="2">
         <v>842</v>
       </c>
@@ -3978,27 +3982,27 @@
       <c r="F55" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G55" s="95"/>
-      <c r="H55" s="104" t="s">
+      <c r="G55" s="97"/>
+      <c r="H55" s="80" t="s">
         <v>140</v>
       </c>
       <c r="I55" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K55" s="70"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
       <c r="N55" s="34">
         <v>30</v>
       </c>
-      <c r="O55" s="70"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="52"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="57"/>
     </row>
     <row r="56" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="113"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="2">
         <v>843</v>
       </c>
@@ -4011,30 +4015,30 @@
       <c r="F56" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G56" s="95"/>
-      <c r="H56" s="104"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="80"/>
       <c r="I56" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="K56" s="52" t="s">
+      <c r="K56" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
       <c r="N56" s="34">
         <v>30</v>
       </c>
-      <c r="O56" s="52" t="s">
+      <c r="O56" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
       <c r="R56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="110"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="98">
+      <c r="A57" s="66"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="61">
         <v>841</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -4046,13 +4050,13 @@
       <c r="F57" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G57" s="108" t="s">
+      <c r="G57" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="105" t="s">
+      <c r="H57" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="I57" s="80" t="s">
+      <c r="I57" s="76" t="s">
         <v>53</v>
       </c>
       <c r="K57" s="32" t="s">
@@ -4081,9 +4085,9 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="99"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="7" t="s">
         <v>148</v>
       </c>
@@ -4093,39 +4097,39 @@
       <c r="F58" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="108"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="80"/>
-      <c r="K58" s="53">
-        <v>30</v>
-      </c>
-      <c r="L58" s="56">
+      <c r="G58" s="99"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="76"/>
+      <c r="K58" s="67">
+        <v>30</v>
+      </c>
+      <c r="L58" s="70">
         <v>25</v>
       </c>
-      <c r="M58" s="59">
+      <c r="M58" s="73">
         <v>35</v>
       </c>
       <c r="N58" s="34">
         <v>30</v>
       </c>
-      <c r="O58" s="53">
-        <v>30</v>
-      </c>
-      <c r="P58" s="56">
+      <c r="O58" s="67">
+        <v>30</v>
+      </c>
+      <c r="P58" s="70">
         <v>25</v>
       </c>
-      <c r="Q58" s="59">
+      <c r="Q58" s="73">
         <v>35</v>
       </c>
-      <c r="R58" s="62">
+      <c r="R58" s="52">
         <f>SUM(K58:Q58)</f>
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="99"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="7" t="s">
         <v>150</v>
       </c>
@@ -4135,28 +4139,28 @@
       <c r="F59" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G59" s="108"/>
-      <c r="H59" s="105" t="s">
+      <c r="G59" s="99"/>
+      <c r="H59" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="I59" s="80" t="s">
+      <c r="I59" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="K59" s="54"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="60"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="74"/>
       <c r="N59" s="34">
         <v>30</v>
       </c>
-      <c r="O59" s="54"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="63"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="53"/>
     </row>
     <row r="60" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="110"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="100"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="7" t="s">
         <v>149</v>
       </c>
@@ -4166,23 +4170,23 @@
       <c r="F60" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G60" s="106"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="80"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="60"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="76"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="74"/>
       <c r="N60" s="34">
         <v>30</v>
       </c>
-      <c r="O60" s="54"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="63"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="53"/>
     </row>
     <row r="61" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="110"/>
-      <c r="B61" s="113"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="11">
         <v>842</v>
       </c>
@@ -4195,27 +4199,27 @@
       <c r="F61" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G61" s="106"/>
-      <c r="H61" s="105" t="s">
+      <c r="G61" s="96"/>
+      <c r="H61" s="64" t="s">
         <v>140</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K61" s="55"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="61"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="75"/>
       <c r="N61" s="34">
         <v>30</v>
       </c>
-      <c r="O61" s="55"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="64"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="75"/>
+      <c r="R61" s="54"/>
     </row>
     <row r="62" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="111"/>
-      <c r="B62" s="114"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="11">
         <v>843</v>
       </c>
@@ -4228,56 +4232,56 @@
       <c r="F62" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G62" s="106"/>
-      <c r="H62" s="105"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="64"/>
       <c r="I62" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K62" s="67" t="s">
+      <c r="K62" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
       <c r="N62" s="34">
         <v>30</v>
       </c>
-      <c r="O62" s="52" t="s">
+      <c r="O62" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
       <c r="R62" s="44"/>
     </row>
-    <row r="63" spans="1:20" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="116"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="116"/>
-      <c r="P63" s="116"/>
-      <c r="Q63" s="116"/>
-      <c r="R63" s="116"/>
-      <c r="S63" s="116"/>
-      <c r="T63" s="116"/>
+    <row r="63" spans="1:20" s="66" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
+      <c r="T63" s="65"/>
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109" t="s">
+      <c r="A64" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="101" t="s">
+      <c r="B64" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C64" s="52">
         <v>851</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4289,10 +4293,10 @@
       <c r="F64" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="83" t="s">
+      <c r="G64" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="H64" s="104" t="s">
+      <c r="H64" s="80" t="s">
         <v>138</v>
       </c>
       <c r="I64" s="81" t="s">
@@ -4301,28 +4305,28 @@
       <c r="K64" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="L64" s="75" t="s">
+      <c r="L64" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="M64" s="75"/>
+      <c r="M64" s="60"/>
       <c r="N64" s="34">
         <v>30</v>
       </c>
       <c r="O64" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P64" s="75" t="s">
+      <c r="P64" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="Q64" s="75"/>
+      <c r="Q64" s="60"/>
       <c r="R64" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
-      <c r="B65" s="102"/>
-      <c r="C65" s="63"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="5" t="s">
         <v>148</v>
       </c>
@@ -4332,35 +4336,35 @@
       <c r="F65" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G65" s="84"/>
-      <c r="H65" s="104"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="80"/>
       <c r="I65" s="81"/>
-      <c r="K65" s="70">
-        <v>30</v>
-      </c>
-      <c r="L65" s="74">
+      <c r="K65" s="58">
+        <v>30</v>
+      </c>
+      <c r="L65" s="59">
         <v>60</v>
       </c>
-      <c r="M65" s="74"/>
+      <c r="M65" s="59"/>
       <c r="N65" s="34">
         <v>30</v>
       </c>
-      <c r="O65" s="70">
-        <v>30</v>
-      </c>
-      <c r="P65" s="74">
+      <c r="O65" s="58">
+        <v>30</v>
+      </c>
+      <c r="P65" s="59">
         <v>60</v>
       </c>
-      <c r="Q65" s="74"/>
-      <c r="R65" s="52">
+      <c r="Q65" s="59"/>
+      <c r="R65" s="57">
         <f>SUM(K65:Q65)</f>
         <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="110"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="63"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="5" t="s">
         <v>150</v>
       </c>
@@ -4370,28 +4374,28 @@
       <c r="F66" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G66" s="84"/>
-      <c r="H66" s="104" t="s">
+      <c r="G66" s="93"/>
+      <c r="H66" s="80" t="s">
         <v>139</v>
       </c>
       <c r="I66" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="K66" s="70"/>
-      <c r="L66" s="74"/>
-      <c r="M66" s="74"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
       <c r="N66" s="34">
         <v>30</v>
       </c>
-      <c r="O66" s="70"/>
-      <c r="P66" s="74"/>
-      <c r="Q66" s="74"/>
-      <c r="R66" s="52"/>
+      <c r="O66" s="58"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="57"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="110"/>
-      <c r="B67" s="102"/>
-      <c r="C67" s="64"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="5" t="s">
         <v>149</v>
       </c>
@@ -4401,23 +4405,23 @@
       <c r="F67" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G67" s="84"/>
-      <c r="H67" s="104"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="80"/>
       <c r="I67" s="81"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="74"/>
-      <c r="M67" s="74"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
       <c r="N67" s="34">
         <v>30</v>
       </c>
-      <c r="O67" s="70"/>
-      <c r="P67" s="74"/>
-      <c r="Q67" s="74"/>
-      <c r="R67" s="52"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="57"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="110"/>
-      <c r="B68" s="102"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="10">
         <v>852</v>
       </c>
@@ -4430,27 +4434,27 @@
       <c r="F68" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G68" s="84"/>
-      <c r="H68" s="104" t="s">
+      <c r="G68" s="93"/>
+      <c r="H68" s="80" t="s">
         <v>140</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="K68" s="70"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="74"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
       <c r="N68" s="34">
         <v>30</v>
       </c>
-      <c r="O68" s="70"/>
-      <c r="P68" s="74"/>
-      <c r="Q68" s="74"/>
-      <c r="R68" s="52"/>
+      <c r="O68" s="58"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="57"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="110"/>
-      <c r="B69" s="102"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="2">
         <v>853</v>
       </c>
@@ -4463,30 +4467,30 @@
       <c r="F69" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="85"/>
-      <c r="H69" s="104"/>
+      <c r="G69" s="94"/>
+      <c r="H69" s="80"/>
       <c r="I69" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="K69" s="52" t="s">
+      <c r="K69" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
       <c r="N69" s="34">
         <v>30</v>
       </c>
-      <c r="O69" s="52" t="s">
+      <c r="O69" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
       <c r="R69" s="44"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
-      <c r="B70" s="102"/>
-      <c r="C70" s="98">
+      <c r="A70" s="66"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="61">
         <v>851</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -4498,13 +4502,13 @@
       <c r="F70" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G70" s="86" t="s">
+      <c r="G70" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H70" s="105" t="s">
+      <c r="H70" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="I70" s="80" t="s">
+      <c r="I70" s="76" t="s">
         <v>132</v>
       </c>
       <c r="K70" s="32" t="s">
@@ -4533,9 +4537,9 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
-      <c r="B71" s="102"/>
-      <c r="C71" s="99"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="7" t="s">
         <v>148</v>
       </c>
@@ -4545,39 +4549,39 @@
       <c r="F71" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="87"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="80"/>
-      <c r="K71" s="53">
-        <v>30</v>
-      </c>
-      <c r="L71" s="56">
+      <c r="G71" s="78"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="76"/>
+      <c r="K71" s="67">
+        <v>30</v>
+      </c>
+      <c r="L71" s="70">
         <v>20</v>
       </c>
-      <c r="M71" s="59">
+      <c r="M71" s="73">
         <v>40</v>
       </c>
       <c r="N71" s="34">
         <v>30</v>
       </c>
-      <c r="O71" s="53">
-        <v>30</v>
-      </c>
-      <c r="P71" s="56">
+      <c r="O71" s="67">
+        <v>30</v>
+      </c>
+      <c r="P71" s="70">
         <v>20</v>
       </c>
-      <c r="Q71" s="59">
+      <c r="Q71" s="73">
         <v>40</v>
       </c>
-      <c r="R71" s="62">
+      <c r="R71" s="52">
         <f>SUM(K71:Q71)</f>
         <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="110"/>
-      <c r="B72" s="102"/>
-      <c r="C72" s="99"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="7" t="s">
         <v>150</v>
       </c>
@@ -4587,28 +4591,28 @@
       <c r="F72" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G72" s="87"/>
-      <c r="H72" s="105" t="s">
+      <c r="G72" s="78"/>
+      <c r="H72" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="I72" s="80" t="s">
+      <c r="I72" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="K72" s="54"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="60"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="74"/>
       <c r="N72" s="34">
         <v>30</v>
       </c>
-      <c r="O72" s="54"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="63"/>
+      <c r="O72" s="68"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="74"/>
+      <c r="R72" s="53"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
-      <c r="B73" s="102"/>
-      <c r="C73" s="100"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="7" t="s">
         <v>149</v>
       </c>
@@ -4618,23 +4622,23 @@
       <c r="F73" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G73" s="87"/>
-      <c r="H73" s="105"/>
-      <c r="I73" s="80"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="60"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="76"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="71"/>
+      <c r="M73" s="74"/>
       <c r="N73" s="34">
         <v>30</v>
       </c>
-      <c r="O73" s="54"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="63"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="74"/>
+      <c r="R73" s="53"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
-      <c r="B74" s="102"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="23">
         <v>852</v>
       </c>
@@ -4647,27 +4651,27 @@
       <c r="F74" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G74" s="87"/>
-      <c r="H74" s="105" t="s">
+      <c r="G74" s="78"/>
+      <c r="H74" s="64" t="s">
         <v>140</v>
       </c>
       <c r="I74" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="K74" s="55"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="61"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="75"/>
       <c r="N74" s="34">
         <v>30</v>
       </c>
-      <c r="O74" s="55"/>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="64"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="75"/>
+      <c r="R74" s="54"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="110"/>
-      <c r="B75" s="102"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="11">
         <v>853</v>
       </c>
@@ -4680,30 +4684,30 @@
       <c r="F75" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G75" s="88"/>
-      <c r="H75" s="105"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="64"/>
       <c r="I75" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="K75" s="67" t="s">
+      <c r="K75" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="L75" s="68"/>
-      <c r="M75" s="68"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
       <c r="N75" s="34">
         <v>30</v>
       </c>
-      <c r="O75" s="52" t="s">
+      <c r="O75" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
       <c r="R75" s="44"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="110"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="62">
+      <c r="A76" s="66"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="52">
         <v>851</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4715,10 +4719,10 @@
       <c r="F76" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="83" t="s">
+      <c r="G76" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="H76" s="104" t="s">
+      <c r="H76" s="80" t="s">
         <v>138</v>
       </c>
       <c r="I76" s="81" t="s">
@@ -4727,28 +4731,28 @@
       <c r="K76" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="75" t="s">
+      <c r="L76" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="M76" s="75"/>
+      <c r="M76" s="60"/>
       <c r="N76" s="34">
         <v>30</v>
       </c>
       <c r="O76" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P76" s="75" t="s">
+      <c r="P76" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="Q76" s="75"/>
+      <c r="Q76" s="60"/>
       <c r="R76" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="110"/>
-      <c r="B77" s="102"/>
-      <c r="C77" s="63"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="5" t="s">
         <v>148</v>
       </c>
@@ -4758,35 +4762,35 @@
       <c r="F77" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G77" s="84"/>
-      <c r="H77" s="104"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="80"/>
       <c r="I77" s="81"/>
-      <c r="K77" s="70">
-        <v>30</v>
-      </c>
-      <c r="L77" s="74">
+      <c r="K77" s="58">
+        <v>30</v>
+      </c>
+      <c r="L77" s="59">
         <v>60</v>
       </c>
-      <c r="M77" s="74"/>
+      <c r="M77" s="59"/>
       <c r="N77" s="34">
         <v>30</v>
       </c>
-      <c r="O77" s="70">
-        <v>30</v>
-      </c>
-      <c r="P77" s="74">
+      <c r="O77" s="58">
+        <v>30</v>
+      </c>
+      <c r="P77" s="59">
         <v>60</v>
       </c>
-      <c r="Q77" s="74"/>
-      <c r="R77" s="52">
+      <c r="Q77" s="59"/>
+      <c r="R77" s="57">
         <f>SUM(K77:Q77)</f>
         <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="110"/>
-      <c r="B78" s="102"/>
-      <c r="C78" s="63"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="5" t="s">
         <v>150</v>
       </c>
@@ -4796,28 +4800,28 @@
       <c r="F78" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G78" s="84"/>
-      <c r="H78" s="104" t="s">
+      <c r="G78" s="93"/>
+      <c r="H78" s="80" t="s">
         <v>139</v>
       </c>
       <c r="I78" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="K78" s="70"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="74"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="59"/>
       <c r="N78" s="34">
         <v>30</v>
       </c>
-      <c r="O78" s="70"/>
-      <c r="P78" s="74"/>
-      <c r="Q78" s="74"/>
-      <c r="R78" s="52"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="59"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="57"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
-      <c r="B79" s="102"/>
-      <c r="C79" s="64"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="5" t="s">
         <v>149</v>
       </c>
@@ -4827,23 +4831,23 @@
       <c r="F79" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G79" s="84"/>
-      <c r="H79" s="104"/>
+      <c r="G79" s="93"/>
+      <c r="H79" s="80"/>
       <c r="I79" s="81"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="59"/>
       <c r="N79" s="34">
         <v>30</v>
       </c>
-      <c r="O79" s="70"/>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="52"/>
+      <c r="O79" s="58"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="57"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
-      <c r="B80" s="102"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="10">
         <v>852</v>
       </c>
@@ -4856,27 +4860,27 @@
       <c r="F80" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G80" s="84"/>
-      <c r="H80" s="104" t="s">
+      <c r="G80" s="93"/>
+      <c r="H80" s="80" t="s">
         <v>140</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="K80" s="70"/>
-      <c r="L80" s="74"/>
-      <c r="M80" s="74"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="59"/>
+      <c r="M80" s="59"/>
       <c r="N80" s="34">
         <v>30</v>
       </c>
-      <c r="O80" s="70"/>
-      <c r="P80" s="74"/>
-      <c r="Q80" s="74"/>
-      <c r="R80" s="52"/>
+      <c r="O80" s="58"/>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="57"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
-      <c r="B81" s="102"/>
+      <c r="A81" s="66"/>
+      <c r="B81" s="90"/>
       <c r="C81" s="2">
         <v>853</v>
       </c>
@@ -4889,30 +4893,30 @@
       <c r="F81" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G81" s="85"/>
-      <c r="H81" s="104"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="80"/>
       <c r="I81" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="K81" s="52" t="s">
+      <c r="K81" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
       <c r="N81" s="34">
         <v>30</v>
       </c>
-      <c r="O81" s="52" t="s">
+      <c r="O81" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
       <c r="R81" s="44"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="110"/>
-      <c r="B82" s="102"/>
-      <c r="C82" s="98">
+      <c r="A82" s="66"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="61">
         <v>851</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -4924,13 +4928,13 @@
       <c r="F82" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G82" s="86" t="s">
+      <c r="G82" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="H82" s="105" t="s">
+      <c r="H82" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="I82" s="80" t="s">
+      <c r="I82" s="76" t="s">
         <v>134</v>
       </c>
       <c r="K82" s="32" t="s">
@@ -4959,9 +4963,9 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="110"/>
-      <c r="B83" s="102"/>
-      <c r="C83" s="99"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="7" t="s">
         <v>148</v>
       </c>
@@ -4971,39 +4975,39 @@
       <c r="F83" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G83" s="87"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="80"/>
-      <c r="K83" s="53">
-        <v>30</v>
-      </c>
-      <c r="L83" s="56">
+      <c r="G83" s="78"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="76"/>
+      <c r="K83" s="67">
+        <v>30</v>
+      </c>
+      <c r="L83" s="70">
         <v>25</v>
       </c>
-      <c r="M83" s="59">
+      <c r="M83" s="73">
         <v>35</v>
       </c>
       <c r="N83" s="34">
         <v>30</v>
       </c>
-      <c r="O83" s="53">
-        <v>30</v>
-      </c>
-      <c r="P83" s="56">
+      <c r="O83" s="67">
+        <v>30</v>
+      </c>
+      <c r="P83" s="70">
         <v>25</v>
       </c>
-      <c r="Q83" s="59">
+      <c r="Q83" s="73">
         <v>35</v>
       </c>
-      <c r="R83" s="62">
+      <c r="R83" s="52">
         <f>SUM(K83:Q83)</f>
         <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="110"/>
-      <c r="B84" s="102"/>
-      <c r="C84" s="99"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="7" t="s">
         <v>150</v>
       </c>
@@ -5013,28 +5017,28 @@
       <c r="F84" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G84" s="87"/>
-      <c r="H84" s="105" t="s">
+      <c r="G84" s="78"/>
+      <c r="H84" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="I84" s="80" t="s">
+      <c r="I84" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="K84" s="54"/>
-      <c r="L84" s="57"/>
-      <c r="M84" s="60"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="74"/>
       <c r="N84" s="34">
         <v>30</v>
       </c>
-      <c r="O84" s="54"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="60"/>
-      <c r="R84" s="63"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="53"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
-      <c r="B85" s="102"/>
-      <c r="C85" s="100"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="63"/>
       <c r="D85" s="7" t="s">
         <v>149</v>
       </c>
@@ -5044,23 +5048,23 @@
       <c r="F85" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="G85" s="87"/>
-      <c r="H85" s="105"/>
-      <c r="I85" s="80"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="60"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="76"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="74"/>
       <c r="N85" s="34">
         <v>30</v>
       </c>
-      <c r="O85" s="54"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="63"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="74"/>
+      <c r="R85" s="53"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="110"/>
-      <c r="B86" s="102"/>
+      <c r="A86" s="66"/>
+      <c r="B86" s="90"/>
       <c r="C86" s="23">
         <v>852</v>
       </c>
@@ -5073,27 +5077,27 @@
       <c r="F86" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G86" s="87"/>
-      <c r="H86" s="105" t="s">
+      <c r="G86" s="78"/>
+      <c r="H86" s="64" t="s">
         <v>140</v>
       </c>
       <c r="I86" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="K86" s="55"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="61"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="72"/>
+      <c r="M86" s="75"/>
       <c r="N86" s="34">
         <v>30</v>
       </c>
-      <c r="O86" s="55"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="64"/>
+      <c r="O86" s="69"/>
+      <c r="P86" s="72"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="54"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="110"/>
-      <c r="B87" s="103"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="91"/>
       <c r="C87" s="11">
         <v>853</v>
       </c>
@@ -5106,32 +5110,32 @@
       <c r="F87" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G87" s="88"/>
-      <c r="H87" s="105"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="64"/>
       <c r="I87" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="K87" s="67" t="s">
+      <c r="K87" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="L87" s="68"/>
-      <c r="M87" s="68"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
       <c r="N87" s="34">
         <v>30</v>
       </c>
-      <c r="O87" s="52" t="s">
+      <c r="O87" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52"/>
+      <c r="P87" s="57"/>
+      <c r="Q87" s="57"/>
       <c r="R87" s="44"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="110"/>
-      <c r="B88" s="101" t="s">
+      <c r="A88" s="66"/>
+      <c r="B88" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="62">
+      <c r="C88" s="52">
         <v>861</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5143,10 +5147,10 @@
       <c r="F88" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G88" s="89" t="s">
+      <c r="G88" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="H88" s="104" t="s">
+      <c r="H88" s="80" t="s">
         <v>138</v>
       </c>
       <c r="I88" s="81" t="s">
@@ -5155,28 +5159,28 @@
       <c r="K88" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="75" t="s">
+      <c r="L88" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="M88" s="75"/>
+      <c r="M88" s="60"/>
       <c r="N88" s="34">
         <v>30</v>
       </c>
       <c r="O88" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P88" s="75" t="s">
+      <c r="P88" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="Q88" s="75"/>
+      <c r="Q88" s="60"/>
       <c r="R88" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="110"/>
-      <c r="B89" s="102"/>
-      <c r="C89" s="63"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="53"/>
       <c r="D89" s="5" t="s">
         <v>148</v>
       </c>
@@ -5186,35 +5190,35 @@
       <c r="F89" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="90"/>
-      <c r="H89" s="104"/>
+      <c r="G89" s="102"/>
+      <c r="H89" s="80"/>
       <c r="I89" s="81"/>
-      <c r="K89" s="70">
-        <v>30</v>
-      </c>
-      <c r="L89" s="74">
+      <c r="K89" s="58">
+        <v>30</v>
+      </c>
+      <c r="L89" s="59">
         <v>60</v>
       </c>
-      <c r="M89" s="74"/>
+      <c r="M89" s="59"/>
       <c r="N89" s="34">
         <v>30</v>
       </c>
-      <c r="O89" s="70">
-        <v>30</v>
-      </c>
-      <c r="P89" s="74">
+      <c r="O89" s="58">
+        <v>30</v>
+      </c>
+      <c r="P89" s="59">
         <v>60</v>
       </c>
-      <c r="Q89" s="74"/>
-      <c r="R89" s="52">
+      <c r="Q89" s="59"/>
+      <c r="R89" s="57">
         <f>SUM(K89:Q89)</f>
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="110"/>
-      <c r="B90" s="102"/>
-      <c r="C90" s="63"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="53"/>
       <c r="D90" s="5" t="s">
         <v>150</v>
       </c>
@@ -5224,28 +5228,28 @@
       <c r="F90" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G90" s="90"/>
-      <c r="H90" s="104" t="s">
+      <c r="G90" s="102"/>
+      <c r="H90" s="80" t="s">
         <v>139</v>
       </c>
       <c r="I90" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="K90" s="70"/>
-      <c r="L90" s="74"/>
-      <c r="M90" s="74"/>
+      <c r="K90" s="58"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
       <c r="N90" s="34">
         <v>30</v>
       </c>
-      <c r="O90" s="70"/>
-      <c r="P90" s="74"/>
-      <c r="Q90" s="74"/>
-      <c r="R90" s="52"/>
+      <c r="O90" s="58"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="57"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="110"/>
-      <c r="B91" s="102"/>
-      <c r="C91" s="64"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="5" t="s">
         <v>149</v>
       </c>
@@ -5255,23 +5259,23 @@
       <c r="F91" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G91" s="90"/>
-      <c r="H91" s="104"/>
+      <c r="G91" s="102"/>
+      <c r="H91" s="80"/>
       <c r="I91" s="81"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="74"/>
-      <c r="M91" s="74"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="59"/>
       <c r="N91" s="34">
         <v>30</v>
       </c>
-      <c r="O91" s="70"/>
-      <c r="P91" s="74"/>
-      <c r="Q91" s="74"/>
-      <c r="R91" s="52"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="57"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="110"/>
-      <c r="B92" s="102"/>
+      <c r="A92" s="66"/>
+      <c r="B92" s="90"/>
       <c r="C92" s="2">
         <v>862</v>
       </c>
@@ -5284,27 +5288,27 @@
       <c r="F92" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G92" s="90"/>
-      <c r="H92" s="104" t="s">
+      <c r="G92" s="102"/>
+      <c r="H92" s="80" t="s">
         <v>140</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="K92" s="70"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="59"/>
       <c r="N92" s="34">
         <v>30</v>
       </c>
-      <c r="O92" s="70"/>
-      <c r="P92" s="74"/>
-      <c r="Q92" s="74"/>
-      <c r="R92" s="52"/>
+      <c r="O92" s="58"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="57"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="110"/>
-      <c r="B93" s="102"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="90"/>
       <c r="C93" s="2">
         <v>863</v>
       </c>
@@ -5317,30 +5321,30 @@
       <c r="F93" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G93" s="91"/>
-      <c r="H93" s="104"/>
+      <c r="G93" s="103"/>
+      <c r="H93" s="80"/>
       <c r="I93" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="K93" s="52" t="s">
+      <c r="K93" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="L93" s="52"/>
-      <c r="M93" s="52"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="57"/>
       <c r="N93" s="34">
         <v>30</v>
       </c>
-      <c r="O93" s="52" t="s">
+      <c r="O93" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="52"/>
+      <c r="P93" s="57"/>
+      <c r="Q93" s="57"/>
       <c r="R93" s="44"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="110"/>
-      <c r="B94" s="102"/>
-      <c r="C94" s="98">
+      <c r="A94" s="66"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="61">
         <v>861</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -5352,13 +5356,13 @@
       <c r="F94" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="92" t="s">
+      <c r="G94" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H94" s="105" t="s">
+      <c r="H94" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="I94" s="80" t="s">
+      <c r="I94" s="76" t="s">
         <v>136</v>
       </c>
       <c r="K94" s="32" t="s">
@@ -5387,9 +5391,9 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="110"/>
-      <c r="B95" s="102"/>
-      <c r="C95" s="99"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="62"/>
       <c r="D95" s="7" t="s">
         <v>148</v>
       </c>
@@ -5399,39 +5403,39 @@
       <c r="F95" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="93"/>
-      <c r="H95" s="105"/>
-      <c r="I95" s="80"/>
-      <c r="K95" s="53">
-        <v>30</v>
-      </c>
-      <c r="L95" s="56">
+      <c r="G95" s="105"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="76"/>
+      <c r="K95" s="67">
+        <v>30</v>
+      </c>
+      <c r="L95" s="70">
         <v>25</v>
       </c>
-      <c r="M95" s="59">
+      <c r="M95" s="73">
         <v>35</v>
       </c>
       <c r="N95" s="34">
         <v>30</v>
       </c>
-      <c r="O95" s="53">
-        <v>30</v>
-      </c>
-      <c r="P95" s="56">
+      <c r="O95" s="67">
+        <v>30</v>
+      </c>
+      <c r="P95" s="70">
         <v>25</v>
       </c>
-      <c r="Q95" s="59">
+      <c r="Q95" s="73">
         <v>35</v>
       </c>
-      <c r="R95" s="62">
+      <c r="R95" s="52">
         <f>SUM(K95:Q95)</f>
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="110"/>
-      <c r="B96" s="102"/>
-      <c r="C96" s="99"/>
+      <c r="A96" s="66"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="62"/>
       <c r="D96" s="7" t="s">
         <v>150</v>
       </c>
@@ -5441,28 +5445,28 @@
       <c r="F96" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G96" s="93"/>
-      <c r="H96" s="105" t="s">
+      <c r="G96" s="105"/>
+      <c r="H96" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="I96" s="80" t="s">
+      <c r="I96" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="K96" s="54"/>
-      <c r="L96" s="57"/>
-      <c r="M96" s="60"/>
+      <c r="K96" s="68"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="74"/>
       <c r="N96" s="34">
         <v>30</v>
       </c>
-      <c r="O96" s="54"/>
-      <c r="P96" s="57"/>
-      <c r="Q96" s="60"/>
-      <c r="R96" s="63"/>
+      <c r="O96" s="68"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="74"/>
+      <c r="R96" s="53"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="110"/>
-      <c r="B97" s="102"/>
-      <c r="C97" s="100"/>
+      <c r="A97" s="66"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="63"/>
       <c r="D97" s="7" t="s">
         <v>149</v>
       </c>
@@ -5472,23 +5476,23 @@
       <c r="F97" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G97" s="93"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="80"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="57"/>
-      <c r="M97" s="60"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="76"/>
+      <c r="K97" s="68"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="74"/>
       <c r="N97" s="34">
         <v>30</v>
       </c>
-      <c r="O97" s="54"/>
-      <c r="P97" s="57"/>
-      <c r="Q97" s="60"/>
-      <c r="R97" s="63"/>
+      <c r="O97" s="68"/>
+      <c r="P97" s="71"/>
+      <c r="Q97" s="74"/>
+      <c r="R97" s="53"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="110"/>
-      <c r="B98" s="102"/>
+      <c r="A98" s="66"/>
+      <c r="B98" s="90"/>
       <c r="C98" s="11">
         <v>862</v>
       </c>
@@ -5501,27 +5505,27 @@
       <c r="F98" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G98" s="93"/>
-      <c r="H98" s="105" t="s">
+      <c r="G98" s="105"/>
+      <c r="H98" s="64" t="s">
         <v>140</v>
       </c>
       <c r="I98" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="K98" s="55"/>
-      <c r="L98" s="58"/>
-      <c r="M98" s="61"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="72"/>
+      <c r="M98" s="75"/>
       <c r="N98" s="34">
         <v>30</v>
       </c>
-      <c r="O98" s="55"/>
-      <c r="P98" s="58"/>
-      <c r="Q98" s="61"/>
-      <c r="R98" s="64"/>
+      <c r="O98" s="69"/>
+      <c r="P98" s="72"/>
+      <c r="Q98" s="75"/>
+      <c r="R98" s="54"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="110"/>
-      <c r="B99" s="103"/>
+      <c r="A99" s="66"/>
+      <c r="B99" s="91"/>
       <c r="C99" s="11">
         <v>863</v>
       </c>
@@ -5534,33 +5538,33 @@
       <c r="F99" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G99" s="94"/>
-      <c r="H99" s="105"/>
+      <c r="G99" s="106"/>
+      <c r="H99" s="64"/>
       <c r="I99" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="K99" s="67" t="s">
+      <c r="K99" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="L99" s="68"/>
-      <c r="M99" s="68"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="56"/>
       <c r="N99" s="34">
         <v>30</v>
       </c>
-      <c r="O99" s="52" t="s">
+      <c r="O99" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
+      <c r="P99" s="57"/>
+      <c r="Q99" s="57"/>
       <c r="R99" s="44"/>
     </row>
     <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="82"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="82"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="100"/>
+      <c r="D100" s="100"/>
       <c r="E100" s="17">
         <f>SUM(E2:E99)</f>
         <v>168</v>
@@ -5571,13 +5575,13 @@
       <c r="H100" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="97" t="s">
+      <c r="A102" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B102" s="96" t="s">
+      <c r="B102" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="52">
+      <c r="C102" s="57">
         <v>871</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -5589,13 +5593,13 @@
       <c r="F102" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G102" s="95" t="s">
+      <c r="G102" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="H102" s="104" t="s">
+      <c r="H102" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="I102" s="115">
+      <c r="I102" s="82">
         <v>871</v>
       </c>
       <c r="K102" s="32" t="s">
@@ -5624,9 +5628,9 @@
       </c>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="97"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="52"/>
+      <c r="A103" s="107"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="57"/>
       <c r="D103" s="5" t="s">
         <v>148</v>
       </c>
@@ -5636,39 +5640,39 @@
       <c r="F103" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G103" s="95"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="115"/>
-      <c r="K103" s="53">
-        <v>30</v>
-      </c>
-      <c r="L103" s="56">
+      <c r="G103" s="97"/>
+      <c r="H103" s="80"/>
+      <c r="I103" s="82"/>
+      <c r="K103" s="67">
+        <v>30</v>
+      </c>
+      <c r="L103" s="70">
         <v>35</v>
       </c>
-      <c r="M103" s="59">
+      <c r="M103" s="73">
         <v>55</v>
       </c>
       <c r="N103" s="34">
         <v>30</v>
       </c>
-      <c r="O103" s="53">
-        <v>30</v>
-      </c>
-      <c r="P103" s="76">
+      <c r="O103" s="67">
+        <v>30</v>
+      </c>
+      <c r="P103" s="109">
         <v>35</v>
       </c>
-      <c r="Q103" s="59">
+      <c r="Q103" s="73">
         <v>25</v>
       </c>
-      <c r="R103" s="62">
+      <c r="R103" s="52">
         <f>SUM(K103:Q103)</f>
         <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="97"/>
-      <c r="B104" s="96"/>
-      <c r="C104" s="52"/>
+      <c r="A104" s="107"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="57"/>
       <c r="D104" s="5" t="s">
         <v>150</v>
       </c>
@@ -5678,28 +5682,28 @@
       <c r="F104" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G104" s="95"/>
-      <c r="H104" s="104" t="s">
+      <c r="G104" s="97"/>
+      <c r="H104" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="I104" s="115">
+      <c r="I104" s="82">
         <v>871</v>
       </c>
-      <c r="K104" s="54"/>
-      <c r="L104" s="57"/>
-      <c r="M104" s="60"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="71"/>
+      <c r="M104" s="74"/>
       <c r="N104" s="34">
         <v>30</v>
       </c>
-      <c r="O104" s="54"/>
-      <c r="P104" s="77"/>
-      <c r="Q104" s="60"/>
-      <c r="R104" s="63"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="110"/>
+      <c r="Q104" s="74"/>
+      <c r="R104" s="53"/>
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="97"/>
-      <c r="B105" s="96"/>
-      <c r="C105" s="52"/>
+      <c r="A105" s="107"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="57"/>
       <c r="D105" s="5" t="s">
         <v>149</v>
       </c>
@@ -5709,23 +5713,23 @@
       <c r="F105" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G105" s="95"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="115"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="60"/>
+      <c r="G105" s="97"/>
+      <c r="H105" s="80"/>
+      <c r="I105" s="82"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="71"/>
+      <c r="M105" s="74"/>
       <c r="N105" s="34">
         <v>30</v>
       </c>
-      <c r="O105" s="54"/>
-      <c r="P105" s="77"/>
-      <c r="Q105" s="60"/>
-      <c r="R105" s="63"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="110"/>
+      <c r="Q105" s="74"/>
+      <c r="R105" s="53"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="97"/>
-      <c r="B106" s="96"/>
+      <c r="A106" s="107"/>
+      <c r="B106" s="88"/>
       <c r="C106" s="2">
         <v>872</v>
       </c>
@@ -5738,27 +5742,27 @@
       <c r="F106" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G106" s="95"/>
-      <c r="H106" s="104" t="s">
+      <c r="G106" s="97"/>
+      <c r="H106" s="80" t="s">
         <v>140</v>
       </c>
       <c r="I106" s="18">
         <v>872</v>
       </c>
-      <c r="K106" s="55"/>
-      <c r="L106" s="58"/>
-      <c r="M106" s="61"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="75"/>
       <c r="N106" s="34">
         <v>30</v>
       </c>
-      <c r="O106" s="55"/>
-      <c r="P106" s="78"/>
-      <c r="Q106" s="61"/>
-      <c r="R106" s="64"/>
+      <c r="O106" s="69"/>
+      <c r="P106" s="111"/>
+      <c r="Q106" s="75"/>
+      <c r="R106" s="54"/>
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="97"/>
-      <c r="B107" s="96"/>
+      <c r="A107" s="107"/>
+      <c r="B107" s="88"/>
       <c r="C107" s="2">
         <v>873</v>
       </c>
@@ -5771,33 +5775,33 @@
       <c r="F107" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G107" s="95"/>
-      <c r="H107" s="104"/>
+      <c r="G107" s="97"/>
+      <c r="H107" s="80"/>
       <c r="I107" s="18">
         <v>873</v>
       </c>
-      <c r="K107" s="67" t="s">
+      <c r="K107" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="L107" s="68"/>
-      <c r="M107" s="68"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
       <c r="N107" s="34">
         <v>30</v>
       </c>
-      <c r="O107" s="67" t="s">
+      <c r="O107" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="P107" s="68"/>
-      <c r="Q107" s="69"/>
+      <c r="P107" s="56"/>
+      <c r="Q107" s="116"/>
       <c r="R107" s="44"/>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="82" t="s">
+      <c r="A108" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="B108" s="82"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="100"/>
       <c r="E108" s="17">
         <f>SUM(E102:E107)</f>
         <v>10</v>
@@ -5866,27 +5870,265 @@
     </row>
   </sheetData>
   <mergeCells count="304">
-    <mergeCell ref="R83:R86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="O65:O68"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="L65:M68"/>
-    <mergeCell ref="P65:Q68"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:M80"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="P77:Q80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="K95:K98"/>
+    <mergeCell ref="L95:L98"/>
+    <mergeCell ref="M95:M98"/>
+    <mergeCell ref="O95:O98"/>
+    <mergeCell ref="P95:P98"/>
+    <mergeCell ref="Q95:Q98"/>
+    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="M103:M106"/>
+    <mergeCell ref="O103:O106"/>
+    <mergeCell ref="Q103:Q106"/>
+    <mergeCell ref="R103:R106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L25"/>
+    <mergeCell ref="N19:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O25"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R25"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="L40:M43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:Q43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="Q46:Q49"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="P103:P106"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="P58:P61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="O58:O61"/>
+    <mergeCell ref="Q58:Q61"/>
+    <mergeCell ref="K83:K86"/>
+    <mergeCell ref="L83:L86"/>
+    <mergeCell ref="M83:M86"/>
+    <mergeCell ref="O83:O86"/>
+    <mergeCell ref="P83:P86"/>
+    <mergeCell ref="Q83:Q86"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:M92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:Q92"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="L52:M55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L28:M31"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="G76:G81"/>
+    <mergeCell ref="G82:G87"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A64:A99"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B64:B87"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="A27:A62"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H88:H89"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="P64:Q64"/>
     <mergeCell ref="C57:C60"/>
@@ -5911,265 +6153,27 @@
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="R58:R61"/>
     <mergeCell ref="K52:K55"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A64:A99"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B64:B87"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="A27:A62"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G64:G69"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="G76:G81"/>
-    <mergeCell ref="G82:G87"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="G102:G107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="L52:M55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L28:M31"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="P103:P106"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="P58:P61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="O58:O61"/>
-    <mergeCell ref="Q58:Q61"/>
-    <mergeCell ref="K83:K86"/>
-    <mergeCell ref="L83:L86"/>
-    <mergeCell ref="M83:M86"/>
-    <mergeCell ref="O83:O86"/>
-    <mergeCell ref="P83:P86"/>
-    <mergeCell ref="Q83:Q86"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:M92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:Q92"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="L40:M43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:Q43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R25"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="M103:M106"/>
-    <mergeCell ref="O103:O106"/>
-    <mergeCell ref="Q103:Q106"/>
-    <mergeCell ref="R103:R106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="O107:Q107"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="T15:T17"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L25"/>
-    <mergeCell ref="N19:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O25"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="O95:O98"/>
-    <mergeCell ref="P95:P98"/>
-    <mergeCell ref="Q95:Q98"/>
-    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="R83:R86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="O65:O68"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="L65:M68"/>
+    <mergeCell ref="P65:Q68"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L77:M80"/>
+    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="P77:Q80"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="O75:Q75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
+++ b/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BFEB67F-AC91-428C-BA01-6E6E6C55AB5D}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{171E8725-7E96-49CD-A58D-E1905BAFCC62}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,12 +58,6 @@
     <t>Alter</t>
   </si>
   <si>
-    <t>When faults happen, mislead associated CBs with fake closing signals to disable protection</t>
-  </si>
-  <si>
-    <t>When faults happen, mislead non-realted CBs with fake opening signals to trigger unnecessary protection</t>
-  </si>
-  <si>
     <t>No. of datasets</t>
   </si>
   <si>
@@ -190,52 +184,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8512, 8522, 8532)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject 40 messages (500ms HB) to mislead other non-related CBs with fake opening signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8612, 8622, 8632)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alter the first 30 messages to mislead other non-related CBs with fake opening signals</t>
-    </r>
-  </si>
-  <si>
-    <t>When faults happen, delete trip messages</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -335,50 +283,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(8513, 8523, 8533)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject messages with 1,4,16,64,256,1000ms HB to mislead other non-related CBs with fake opening signals until the related CBs start to reset.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8514, 8524, 8534)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject 30 messages with 1,4,16,64,256,1000ms HB to mislead other non-related CBs with fake opening signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>(8114, 8124, 8134)</t>
     </r>
     <r>
@@ -834,6 +738,149 @@
     <t>8511d</t>
   </si>
   <si>
+    <t>8512c</t>
+  </si>
+  <si>
+    <t>8512d</t>
+  </si>
+  <si>
+    <t>8513c</t>
+  </si>
+  <si>
+    <t>8513d</t>
+  </si>
+  <si>
+    <t>8514c</t>
+  </si>
+  <si>
+    <t>8514d</t>
+  </si>
+  <si>
+    <t>8612c</t>
+  </si>
+  <si>
+    <t>8612d</t>
+  </si>
+  <si>
+    <t>8611c</t>
+  </si>
+  <si>
+    <t>8611d</t>
+  </si>
+  <si>
+    <t>871c</t>
+  </si>
+  <si>
+    <t>871d</t>
+  </si>
+  <si>
+    <t>8632ab, 8632cd</t>
+  </si>
+  <si>
+    <t>8631ab, 8631cd</t>
+  </si>
+  <si>
+    <t>Fault-free</t>
+  </si>
+  <si>
+    <t>Attacks</t>
+  </si>
+  <si>
+    <t>Emergency&amp;Attacks</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>1st attack cycle</t>
+  </si>
+  <si>
+    <t>2nd attack cycle (start from 120th)</t>
+  </si>
+  <si>
+    <t>It is a buffer between the 1st attack cycle and the 2nd attack cycle, with two types in two colours.</t>
+  </si>
+  <si>
+    <t>means outliers (non valid data) due to attacks</t>
+  </si>
+  <si>
+    <t>means system recovery behaviour (valid data)</t>
+  </si>
+  <si>
+    <t>Em&amp;Attack</t>
+  </si>
+  <si>
+    <t>Time sections of successive behaviours in seconds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8512, 8522, 8532)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject 40 messages (500ms HB) to mislead other irrelevant CBs with fake opening signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8514, 8524, 8534)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject 30 messages with 1,4,16,64,256,1000ms HB to mislead other irrelevant CBs with fake opening signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8612, 8622, 8632)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alter the first 30 messages to mislead other irrelevant CBs with fake opening signals</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -852,27 +899,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Inject messages (500ms HB) to mislead other non-related CBs with fake opening signals until the related CBs start to reset.
+      <t xml:space="preserve"> Inject messages (500ms HB) to mislead other irrelevant CBs with fake opening signals until the associated CBs start to reset (the fault is eliminated and the systems recover).
 66bus1-66bus2 (2),   XFMR1-XFMR2 (2),   22bus1-22bus2 (2),   FDR1-FDR2 (2),    FDR3-FDR4 (2) </t>
     </r>
   </si>
   <si>
-    <t>8512c</t>
-  </si>
-  <si>
-    <t>8512d</t>
-  </si>
-  <si>
-    <t>8513c</t>
-  </si>
-  <si>
-    <t>8513d</t>
-  </si>
-  <si>
-    <t>8514c</t>
-  </si>
-  <si>
-    <t>8514d</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8513, 8523, 8533)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject messages with 1,4,16,64,256,1000ms HB to mislead other irrelevant CBs with fake opening signals until the associated CBs start to reset (the fault is eliminated and the systems recover).</t>
+    </r>
   </si>
   <si>
     <r>
@@ -892,69 +943,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Alter all messages to mislead other non-related CBs with fake opening signals until the related CBs start to reset
+      <t xml:space="preserve"> Alter all messages to mislead other irrelevant CBs with fake opening signals until the associated CBs start to reset (the fault is eliminated and the systems recover).
 66bus1-66bus2 (2),   XFMR1-XFMR2 (2),   22bus1-22bus2 (2),   FDR1-FDR2 (2),    FDR3-FDR4 (2) </t>
     </r>
   </si>
   <si>
-    <t>8612c</t>
-  </si>
-  <si>
-    <t>8612d</t>
-  </si>
-  <si>
-    <t>8611c</t>
-  </si>
-  <si>
-    <t>8611d</t>
-  </si>
-  <si>
-    <t>871c</t>
-  </si>
-  <si>
-    <t>871d</t>
-  </si>
-  <si>
-    <t>8632ab, 8632cd</t>
-  </si>
-  <si>
-    <t>8631ab, 8631cd</t>
-  </si>
-  <si>
-    <t>Fault-free</t>
-  </si>
-  <si>
-    <t>Attacks</t>
-  </si>
-  <si>
-    <t>Emergency&amp;Attacks</t>
-  </si>
-  <si>
-    <t>Emergency</t>
-  </si>
-  <si>
-    <t>DMZ</t>
-  </si>
-  <si>
-    <t>1st attack cycle</t>
-  </si>
-  <si>
-    <t>2nd attack cycle (start from 120th)</t>
-  </si>
-  <si>
-    <t>It is a buffer between the 1st attack cycle and the 2nd attack cycle, with two types in two colours.</t>
-  </si>
-  <si>
-    <t>means outliers (non valid data) due to attacks</t>
-  </si>
-  <si>
-    <t>means system recovery behaviour (valid data)</t>
-  </si>
-  <si>
-    <t>Em&amp;Attack</t>
-  </si>
-  <si>
-    <t>Time sections of successive behaviours in seconds</t>
+    <t>When short-circuit faults happen, mislead irrelevant CBs with fake opening signals to trigger unnecessary protection, and thus deteriorate the impacts of the short-circuit faults.</t>
+  </si>
+  <si>
+    <t>When short-circuit faults happen, mislead associated CBs with fake closing signals to disable safety protection</t>
+  </si>
+  <si>
+    <t>When short-circuit faults happen, delete trip messages</t>
   </si>
 </sst>
 </file>
@@ -1415,6 +1415,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,17 +1454,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,6 +1487,72 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,164 +1562,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1903,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6D2FFF-64FD-4790-BE66-86F2381ADCA2}">
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39:G44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68:H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,3874 +1940,3874 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+        <v>29</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="62">
         <v>811</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I2" s="24">
         <v>8111</v>
       </c>
       <c r="J2" s="21"/>
-      <c r="K2" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="95"/>
+      <c r="K2" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="71"/>
       <c r="M2" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="N2" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="N2" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2" s="71"/>
       <c r="P2" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="Q2" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="71"/>
       <c r="S2" s="33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="93"/>
+        <v>68</v>
+      </c>
+      <c r="G3" s="84"/>
       <c r="H3" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I3" s="24">
         <v>8111</v>
       </c>
       <c r="J3" s="21"/>
-      <c r="K3" s="58">
+      <c r="K3" s="70">
         <v>60</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59">
+      <c r="L3" s="70"/>
+      <c r="M3" s="74">
         <v>20</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="70">
         <v>60</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59">
+      <c r="O3" s="70"/>
+      <c r="P3" s="74">
         <v>20</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="70">
         <v>60</v>
       </c>
-      <c r="R3" s="58"/>
-      <c r="S3" s="59">
+      <c r="R3" s="70"/>
+      <c r="S3" s="74">
         <v>20</v>
       </c>
-      <c r="T3" s="57">
+      <c r="T3" s="52">
         <f>SUM(K3:S5)</f>
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="10">
         <v>812</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="80" t="s">
-        <v>140</v>
+        <v>69</v>
+      </c>
+      <c r="G4" s="84"/>
+      <c r="H4" s="104" t="s">
+        <v>133</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J4" s="21"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="57"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="52"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="2">
         <v>813</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="80"/>
+        <v>105</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="24" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J5" s="21"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="57"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="52"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="61">
+      <c r="A6" s="110"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="98">
         <v>811</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="77" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I6" s="19">
         <v>8112</v>
       </c>
-      <c r="K6" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="L6" s="95"/>
+      <c r="K6" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="71"/>
       <c r="M6" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="N6" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="O6" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="N6" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="O6" s="71"/>
       <c r="P6" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q6" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="R6" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="R6" s="71"/>
       <c r="S6" s="33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="78"/>
+        <v>70</v>
+      </c>
+      <c r="G7" s="87"/>
       <c r="H7" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I7" s="19">
         <v>8112</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="70">
         <v>60</v>
       </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59">
+      <c r="L7" s="70"/>
+      <c r="M7" s="74">
         <v>10</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="70">
         <v>60</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59">
+      <c r="O7" s="70"/>
+      <c r="P7" s="74">
         <v>10</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="70">
         <v>60</v>
       </c>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59">
+      <c r="R7" s="70"/>
+      <c r="S7" s="74">
         <v>10</v>
       </c>
-      <c r="T7" s="57">
+      <c r="T7" s="52">
         <f>SUM(K7:S9)</f>
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="23">
         <v>812</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8">
         <v>2</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="64" t="s">
-        <v>140</v>
+        <v>71</v>
+      </c>
+      <c r="G8" s="87"/>
+      <c r="H8" s="105" t="s">
+        <v>133</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="57"/>
+        <v>71</v>
+      </c>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="52"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="11">
         <v>813</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="8">
         <v>4</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="64"/>
+        <v>106</v>
+      </c>
+      <c r="G9" s="88"/>
+      <c r="H9" s="105"/>
       <c r="I9" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="57"/>
+        <v>106</v>
+      </c>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="52"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="52">
+      <c r="A10" s="110"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="62">
         <v>811</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="92" t="s">
-        <v>25</v>
+        <v>51</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I10" s="18">
         <v>8113</v>
       </c>
-      <c r="K10" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="95"/>
+      <c r="K10" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="71"/>
       <c r="M10" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="N10" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="O10" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="N10" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="O10" s="71"/>
       <c r="P10" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q10" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="R10" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="Q10" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="R10" s="71"/>
       <c r="S10" s="33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="93"/>
+        <v>72</v>
+      </c>
+      <c r="G11" s="84"/>
       <c r="H11" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I11" s="18">
         <v>8113</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="70">
         <v>60</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59">
+      <c r="L11" s="70"/>
+      <c r="M11" s="74">
         <v>10</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="70">
         <v>60</v>
       </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59">
+      <c r="O11" s="70"/>
+      <c r="P11" s="74">
         <v>10</v>
       </c>
-      <c r="Q11" s="58">
+      <c r="Q11" s="70">
         <v>60</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="59">
+      <c r="R11" s="70"/>
+      <c r="S11" s="74">
         <v>10</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="52">
         <f>SUM(K11:S13)</f>
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="10">
         <v>812</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="80" t="s">
-        <v>140</v>
+        <v>73</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="104" t="s">
+        <v>133</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="57"/>
+        <v>73</v>
+      </c>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="52"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="2">
         <v>813</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="6">
         <v>4</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="80"/>
+        <v>107</v>
+      </c>
+      <c r="G13" s="85"/>
+      <c r="H13" s="104"/>
       <c r="I13" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="57"/>
+        <v>107</v>
+      </c>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="61">
+      <c r="A14" s="110"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="98">
         <v>811</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="G14" s="86" t="s">
+        <v>23</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I14" s="19">
         <v>8114</v>
       </c>
-      <c r="K14" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14" s="95"/>
+      <c r="K14" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="71"/>
       <c r="M14" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="N14" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="O14" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="O14" s="71"/>
       <c r="P14" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="R14" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="Q14" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="R14" s="71"/>
       <c r="S14" s="33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="63"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="78"/>
+        <v>74</v>
+      </c>
+      <c r="G15" s="87"/>
       <c r="H15" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I15" s="19">
         <v>8114</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="70">
         <v>60</v>
       </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59">
+      <c r="L15" s="70"/>
+      <c r="M15" s="74">
         <v>5</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="70">
         <v>60</v>
       </c>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59">
+      <c r="O15" s="70"/>
+      <c r="P15" s="74">
         <v>5</v>
       </c>
-      <c r="Q15" s="58">
+      <c r="Q15" s="70">
         <v>60</v>
       </c>
-      <c r="R15" s="58"/>
-      <c r="S15" s="59">
+      <c r="R15" s="70"/>
+      <c r="S15" s="74">
         <v>5</v>
       </c>
-      <c r="T15" s="57">
+      <c r="T15" s="52">
         <f>SUM(K15:S17)</f>
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="23">
         <v>812</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="64" t="s">
-        <v>140</v>
+        <v>75</v>
+      </c>
+      <c r="G16" s="87"/>
+      <c r="H16" s="105" t="s">
+        <v>133</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="57"/>
+        <v>75</v>
+      </c>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="52"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="11">
         <v>813</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" s="8">
         <v>4</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="64"/>
+        <v>108</v>
+      </c>
+      <c r="G17" s="88"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="57"/>
+        <v>108</v>
+      </c>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="52"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="88" t="s">
+      <c r="A18" s="110"/>
+      <c r="B18" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="62">
         <v>821</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="92" t="s">
-        <v>31</v>
+        <v>53</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>24</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I18" s="18">
         <v>8211</v>
       </c>
-      <c r="K18" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" s="95"/>
+      <c r="K18" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="71"/>
       <c r="M18" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="N18" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="O18" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="N18" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" s="71"/>
       <c r="P18" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q18" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="R18" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="Q18" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="R18" s="71"/>
       <c r="S18" s="33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="93"/>
+        <v>76</v>
+      </c>
+      <c r="G19" s="84"/>
       <c r="H19" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I19" s="18">
         <v>8211</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="70">
         <v>60</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59">
+      <c r="L19" s="70"/>
+      <c r="M19" s="74">
         <v>10</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="70">
         <v>60</v>
       </c>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59">
+      <c r="O19" s="70"/>
+      <c r="P19" s="74">
         <v>10</v>
       </c>
-      <c r="Q19" s="58">
+      <c r="Q19" s="70">
         <v>60</v>
       </c>
-      <c r="R19" s="58"/>
-      <c r="S19" s="59">
+      <c r="R19" s="70"/>
+      <c r="S19" s="74">
         <v>10</v>
       </c>
-      <c r="T19" s="57">
+      <c r="T19" s="52">
         <f>SUM(K19:S21)</f>
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="2">
         <v>822</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="80" t="s">
-        <v>140</v>
+        <v>77</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="104" t="s">
+        <v>133</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="57"/>
+        <v>77</v>
+      </c>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="52"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="2">
         <v>823</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="6">
         <v>4</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="80"/>
+        <v>109</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="104"/>
       <c r="I21" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="57"/>
+        <v>109</v>
+      </c>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="52"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="61">
+      <c r="A22" s="110"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="98">
         <v>821</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>25</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I22" s="19">
         <v>8212</v>
       </c>
-      <c r="K22" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="L22" s="95"/>
+      <c r="K22" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="71"/>
       <c r="M22" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="N22" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="O22" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="N22" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" s="71"/>
       <c r="P22" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q22" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="R22" s="95"/>
+        <v>173</v>
+      </c>
+      <c r="Q22" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="R22" s="71"/>
       <c r="S22" s="33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="63"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="78"/>
+        <v>78</v>
+      </c>
+      <c r="G23" s="87"/>
       <c r="H23" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I23" s="19">
         <v>8212</v>
       </c>
-      <c r="K23" s="58">
+      <c r="K23" s="70">
         <v>60</v>
       </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59">
+      <c r="L23" s="70"/>
+      <c r="M23" s="74">
         <v>5</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="70">
         <v>60</v>
       </c>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59">
+      <c r="O23" s="70"/>
+      <c r="P23" s="74">
         <v>5</v>
       </c>
-      <c r="Q23" s="58">
+      <c r="Q23" s="70">
         <v>60</v>
       </c>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59">
+      <c r="R23" s="70"/>
+      <c r="S23" s="74">
         <v>5</v>
       </c>
-      <c r="T23" s="57">
+      <c r="T23" s="52">
         <f>SUM(K23:S25)</f>
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="11">
         <v>822</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24" s="8">
         <v>2</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="64" t="s">
-        <v>140</v>
+        <v>79</v>
+      </c>
+      <c r="G24" s="87"/>
+      <c r="H24" s="105" t="s">
+        <v>133</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="57"/>
+        <v>79</v>
+      </c>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="52"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="28">
         <v>823</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="45">
         <v>4</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="64"/>
+        <v>110</v>
+      </c>
+      <c r="G25" s="88"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="57"/>
+        <v>110</v>
+      </c>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="52"/>
     </row>
     <row r="26" spans="1:22" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="51"/>
       <c r="N26" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="O26" s="113" t="s">
-        <v>188</v>
-      </c>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
+        <v>176</v>
+      </c>
+      <c r="O26" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
     </row>
     <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="89" t="s">
+      <c r="A27" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="62">
         <v>831</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E27" s="48">
         <v>1</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="80" t="s">
-        <v>138</v>
+        <v>55</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="104" t="s">
+        <v>131</v>
       </c>
       <c r="I27" s="81" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="L27" s="108" t="s">
-        <v>183</v>
-      </c>
-      <c r="M27" s="108"/>
+        <v>172</v>
+      </c>
+      <c r="L27" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="M27" s="79"/>
       <c r="N27" s="50">
         <v>30</v>
       </c>
       <c r="O27" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="P27" s="108" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q27" s="108"/>
+        <v>172</v>
+      </c>
+      <c r="P27" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q27" s="79"/>
       <c r="R27" s="38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S27" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="T27" s="114" t="s">
-        <v>189</v>
-      </c>
-      <c r="U27" s="115"/>
-      <c r="V27" s="115"/>
+        <v>176</v>
+      </c>
+      <c r="T27" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
     </row>
     <row r="28" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="53"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="93"/>
-      <c r="H28" s="80"/>
+        <v>80</v>
+      </c>
+      <c r="G28" s="84"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="81"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="58">
-        <v>30</v>
-      </c>
-      <c r="L28" s="59">
+      <c r="K28" s="70">
+        <v>30</v>
+      </c>
+      <c r="L28" s="74">
         <v>60</v>
       </c>
-      <c r="M28" s="59"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="35">
         <v>30</v>
       </c>
-      <c r="O28" s="58">
-        <v>30</v>
-      </c>
-      <c r="P28" s="59">
+      <c r="O28" s="70">
+        <v>30</v>
+      </c>
+      <c r="P28" s="74">
         <v>60</v>
       </c>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="57">
+      <c r="Q28" s="74"/>
+      <c r="R28" s="52">
         <f>SUM(K28:Q28)</f>
         <v>210</v>
       </c>
       <c r="S28" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="T28" s="114" t="s">
-        <v>190</v>
-      </c>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
+        <v>176</v>
+      </c>
+      <c r="T28" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
     </row>
     <row r="29" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="53"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="80" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="G29" s="84"/>
+      <c r="H29" s="104" t="s">
+        <v>132</v>
       </c>
       <c r="I29" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
+        <v>31</v>
+      </c>
+      <c r="K29" s="70"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
       <c r="N29" s="35">
         <v>30</v>
       </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="57"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="52"/>
     </row>
     <row r="30" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="80"/>
+        <v>145</v>
+      </c>
+      <c r="G30" s="84"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="81"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
       <c r="N30" s="35">
         <v>30</v>
       </c>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="57"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="52"/>
     </row>
     <row r="31" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="90"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="10">
         <v>832</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="93"/>
-      <c r="H31" s="80" t="s">
-        <v>140</v>
+        <v>81</v>
+      </c>
+      <c r="G31" s="84"/>
+      <c r="H31" s="104" t="s">
+        <v>133</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
+        <v>32</v>
+      </c>
+      <c r="K31" s="70"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="34">
         <v>30</v>
       </c>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="57"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="52"/>
     </row>
     <row r="32" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
-      <c r="B32" s="90"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="2">
         <v>833</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32" s="6">
         <v>4</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="94"/>
-      <c r="H32" s="80"/>
+        <v>111</v>
+      </c>
+      <c r="G32" s="85"/>
+      <c r="H32" s="104"/>
       <c r="I32" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
+        <v>33</v>
+      </c>
+      <c r="K32" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="34">
         <v>30</v>
       </c>
-      <c r="O32" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
+      <c r="O32" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
     </row>
     <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="61">
+      <c r="A33" s="110"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="98">
         <v>831</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" s="76" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="80" t="s">
+        <v>34</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N33" s="34">
         <v>30</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P33" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R33" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E34" s="8">
         <v>1</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="96"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="76"/>
-      <c r="K34" s="67">
-        <v>30</v>
-      </c>
-      <c r="L34" s="70">
+        <v>82</v>
+      </c>
+      <c r="G34" s="106"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="80"/>
+      <c r="K34" s="53">
+        <v>30</v>
+      </c>
+      <c r="L34" s="56">
         <v>20</v>
       </c>
-      <c r="M34" s="73">
+      <c r="M34" s="59">
         <v>40</v>
       </c>
       <c r="N34" s="34">
         <v>30</v>
       </c>
-      <c r="O34" s="67">
-        <v>30</v>
-      </c>
-      <c r="P34" s="70">
+      <c r="O34" s="53">
+        <v>30</v>
+      </c>
+      <c r="P34" s="56">
         <v>20</v>
       </c>
-      <c r="Q34" s="73">
+      <c r="Q34" s="59">
         <v>40</v>
       </c>
-      <c r="R34" s="52">
+      <c r="R34" s="62">
         <f>SUM(K34:Q34)</f>
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E35" s="8">
         <v>1</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" s="96"/>
-      <c r="H35" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I35" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="68"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="74"/>
+        <v>146</v>
+      </c>
+      <c r="G35" s="106"/>
+      <c r="H35" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="54"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="60"/>
       <c r="N35" s="34">
         <v>30</v>
       </c>
-      <c r="O35" s="68"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="53"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="63"/>
     </row>
     <row r="36" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E36" s="8">
         <v>1</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="76"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="74"/>
+        <v>147</v>
+      </c>
+      <c r="G36" s="106"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="80"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="60"/>
       <c r="N36" s="34">
         <v>30</v>
       </c>
-      <c r="O36" s="68"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="53"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="63"/>
     </row>
     <row r="37" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="90"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="23">
         <v>832</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37" s="8">
         <v>2</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="96"/>
-      <c r="H37" s="64" t="s">
-        <v>140</v>
+        <v>83</v>
+      </c>
+      <c r="G37" s="106"/>
+      <c r="H37" s="105" t="s">
+        <v>133</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="69"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="75"/>
+        <v>35</v>
+      </c>
+      <c r="K37" s="55"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="61"/>
       <c r="N37" s="34">
         <v>30</v>
       </c>
-      <c r="O37" s="69"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="54"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="64"/>
     </row>
     <row r="38" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="90"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="11">
         <v>833</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38" s="8">
         <v>4</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="96"/>
-      <c r="H38" s="64"/>
+        <v>112</v>
+      </c>
+      <c r="G38" s="106"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
+        <v>36</v>
+      </c>
+      <c r="K38" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
       <c r="N38" s="34">
         <v>30</v>
       </c>
-      <c r="O38" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
+      <c r="O38" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
       <c r="R38" s="44"/>
     </row>
     <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="52">
+      <c r="A39" s="110"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="62">
         <v>831</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="80" t="s">
-        <v>138</v>
+        <v>57</v>
+      </c>
+      <c r="G39" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="104" t="s">
+        <v>131</v>
       </c>
       <c r="I39" s="81" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="L39" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="M39" s="60"/>
+        <v>172</v>
+      </c>
+      <c r="L39" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="M39" s="75"/>
       <c r="N39" s="31">
         <v>30</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="P39" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q39" s="60"/>
+        <v>172</v>
+      </c>
+      <c r="P39" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q39" s="75"/>
       <c r="R39" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="53"/>
+      <c r="A40" s="110"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="97"/>
-      <c r="H40" s="80"/>
+        <v>84</v>
+      </c>
+      <c r="G40" s="95"/>
+      <c r="H40" s="104"/>
       <c r="I40" s="81"/>
-      <c r="K40" s="58">
-        <v>30</v>
-      </c>
-      <c r="L40" s="59">
+      <c r="K40" s="70">
+        <v>30</v>
+      </c>
+      <c r="L40" s="74">
         <v>60</v>
       </c>
-      <c r="M40" s="59"/>
+      <c r="M40" s="74"/>
       <c r="N40" s="35">
         <v>30</v>
       </c>
-      <c r="O40" s="58">
-        <v>30</v>
-      </c>
-      <c r="P40" s="59">
+      <c r="O40" s="70">
+        <v>30</v>
+      </c>
+      <c r="P40" s="74">
         <v>60</v>
       </c>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="57">
+      <c r="Q40" s="74"/>
+      <c r="R40" s="52">
         <f>SUM(K40:Q40)</f>
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="53"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="97"/>
-      <c r="H41" s="80" t="s">
-        <v>139</v>
+        <v>148</v>
+      </c>
+      <c r="G41" s="95"/>
+      <c r="H41" s="104" t="s">
+        <v>132</v>
       </c>
       <c r="I41" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
+        <v>37</v>
+      </c>
+      <c r="K41" s="70"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
       <c r="N41" s="35">
         <v>30</v>
       </c>
-      <c r="O41" s="58"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="57"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="52"/>
     </row>
     <row r="42" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="110"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="97"/>
-      <c r="H42" s="80"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="104"/>
       <c r="I42" s="81"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
       <c r="N42" s="35">
         <v>30</v>
       </c>
-      <c r="O42" s="58"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="57"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="52"/>
     </row>
     <row r="43" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
-      <c r="B43" s="90"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="10">
         <v>832</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" s="97"/>
-      <c r="H43" s="80" t="s">
-        <v>140</v>
+        <v>85</v>
+      </c>
+      <c r="G43" s="95"/>
+      <c r="H43" s="104" t="s">
+        <v>133</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+        <v>38</v>
+      </c>
+      <c r="K43" s="70"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
       <c r="N43" s="34">
         <v>30</v>
       </c>
-      <c r="O43" s="58"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="57"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="52"/>
     </row>
     <row r="44" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
-      <c r="B44" s="90"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="2">
         <v>833</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E44" s="6">
         <v>4</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G44" s="97"/>
-      <c r="H44" s="80"/>
+        <v>113</v>
+      </c>
+      <c r="G44" s="95"/>
+      <c r="H44" s="104"/>
       <c r="I44" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
+        <v>39</v>
+      </c>
+      <c r="K44" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
       <c r="N44" s="34">
         <v>30</v>
       </c>
-      <c r="O44" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
+      <c r="O44" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
       <c r="R44" s="44"/>
     </row>
     <row r="45" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="61">
+      <c r="A45" s="110"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="98">
         <v>831</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E45" s="8">
         <v>1</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="I45" s="76" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="G45" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" s="80" t="s">
+        <v>40</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L45" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M45" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N45" s="34">
         <v>30</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P45" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R45" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="110"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E46" s="8">
         <v>1</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" s="96"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="76"/>
-      <c r="K46" s="67">
-        <v>30</v>
-      </c>
-      <c r="L46" s="70">
+        <v>86</v>
+      </c>
+      <c r="G46" s="106"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="80"/>
+      <c r="K46" s="53">
+        <v>30</v>
+      </c>
+      <c r="L46" s="56">
         <v>25</v>
       </c>
-      <c r="M46" s="73">
+      <c r="M46" s="59">
         <v>35</v>
       </c>
       <c r="N46" s="34">
         <v>30</v>
       </c>
-      <c r="O46" s="67">
-        <v>30</v>
-      </c>
-      <c r="P46" s="70">
+      <c r="O46" s="53">
+        <v>30</v>
+      </c>
+      <c r="P46" s="56">
         <v>25</v>
       </c>
-      <c r="Q46" s="73">
+      <c r="Q46" s="59">
         <v>35</v>
       </c>
-      <c r="R46" s="52">
+      <c r="R46" s="62">
         <f>SUM(K46:Q46)</f>
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="62"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="8">
+        <v>1</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E47" s="8">
-        <v>1</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="96"/>
-      <c r="H47" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I47" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="K47" s="68"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="74"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47" s="54"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="60"/>
       <c r="N47" s="34">
         <v>30</v>
       </c>
-      <c r="O47" s="68"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="53"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="63"/>
     </row>
     <row r="48" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="110"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="96"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="76"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="74"/>
+        <v>151</v>
+      </c>
+      <c r="G48" s="106"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="80"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="60"/>
       <c r="N48" s="34">
         <v>30</v>
       </c>
-      <c r="O48" s="68"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="53"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="63"/>
     </row>
     <row r="49" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="90"/>
+      <c r="A49" s="110"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="23">
         <v>832</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" s="8">
         <v>2</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="96"/>
-      <c r="H49" s="64" t="s">
-        <v>140</v>
+        <v>87</v>
+      </c>
+      <c r="G49" s="106"/>
+      <c r="H49" s="105" t="s">
+        <v>133</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="K49" s="69"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="75"/>
+        <v>41</v>
+      </c>
+      <c r="K49" s="55"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="61"/>
       <c r="N49" s="34">
         <v>30</v>
       </c>
-      <c r="O49" s="69"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="54"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="91"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="11">
         <v>833</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E50" s="8">
         <v>4</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" s="96"/>
-      <c r="H50" s="64"/>
+        <v>114</v>
+      </c>
+      <c r="G50" s="106"/>
+      <c r="H50" s="105"/>
       <c r="I50" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="K50" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
+        <v>42</v>
+      </c>
+      <c r="K50" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
       <c r="N50" s="34">
         <v>30</v>
       </c>
-      <c r="O50" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
+      <c r="O50" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
       <c r="R50" s="44"/>
     </row>
     <row r="51" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="85" t="s">
+      <c r="A51" s="110"/>
+      <c r="B51" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C51" s="62">
         <v>841</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="L51" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="M51" s="75"/>
+      <c r="N51" s="34">
+        <v>30</v>
+      </c>
+      <c r="O51" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="P51" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q51" s="75"/>
+      <c r="R51" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="I51" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="K51" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="L51" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="M51" s="60"/>
-      <c r="N51" s="34">
-        <v>30</v>
-      </c>
-      <c r="O51" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="P51" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="26" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="52" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="53"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" s="98"/>
-      <c r="H52" s="80"/>
+        <v>88</v>
+      </c>
+      <c r="G52" s="107"/>
+      <c r="H52" s="104"/>
       <c r="I52" s="81"/>
-      <c r="K52" s="58">
-        <v>30</v>
-      </c>
-      <c r="L52" s="59">
+      <c r="K52" s="70">
+        <v>30</v>
+      </c>
+      <c r="L52" s="74">
         <v>60</v>
       </c>
-      <c r="M52" s="59"/>
+      <c r="M52" s="74"/>
       <c r="N52" s="34">
         <v>30</v>
       </c>
-      <c r="O52" s="58">
-        <v>30</v>
-      </c>
-      <c r="P52" s="59">
+      <c r="O52" s="70">
+        <v>30</v>
+      </c>
+      <c r="P52" s="74">
         <v>60</v>
       </c>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="57">
+      <c r="Q52" s="74"/>
+      <c r="R52" s="52">
         <f>SUM(K52:Q52)</f>
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="53"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="G53" s="98"/>
-      <c r="H53" s="80" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+      <c r="G53" s="107"/>
+      <c r="H53" s="104" t="s">
+        <v>132</v>
       </c>
       <c r="I53" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="K53" s="58"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
+        <v>43</v>
+      </c>
+      <c r="K53" s="70"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
       <c r="N53" s="34">
         <v>30</v>
       </c>
-      <c r="O53" s="58"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="57"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="52"/>
     </row>
     <row r="54" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="97"/>
-      <c r="H54" s="80"/>
+        <v>153</v>
+      </c>
+      <c r="G54" s="95"/>
+      <c r="H54" s="104"/>
       <c r="I54" s="81"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
       <c r="N54" s="34">
         <v>30</v>
       </c>
-      <c r="O54" s="58"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="57"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="52"/>
     </row>
     <row r="55" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="2">
         <v>842</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55" s="6">
         <v>2</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G55" s="97"/>
-      <c r="H55" s="80" t="s">
-        <v>140</v>
+        <v>89</v>
+      </c>
+      <c r="G55" s="95"/>
+      <c r="H55" s="104" t="s">
+        <v>133</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K55" s="58"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
+        <v>44</v>
+      </c>
+      <c r="K55" s="70"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
       <c r="N55" s="34">
         <v>30</v>
       </c>
-      <c r="O55" s="58"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="57"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="52"/>
     </row>
     <row r="56" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66"/>
-      <c r="B56" s="86"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="113"/>
       <c r="C56" s="2">
         <v>843</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E56" s="6">
         <v>4</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="97"/>
-      <c r="H56" s="80"/>
+        <v>115</v>
+      </c>
+      <c r="G56" s="95"/>
+      <c r="H56" s="104"/>
       <c r="I56" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K56" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
+        <v>45</v>
+      </c>
+      <c r="K56" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
       <c r="N56" s="34">
         <v>30</v>
       </c>
-      <c r="O56" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
+      <c r="O56" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
       <c r="R56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="61">
+      <c r="A57" s="110"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="98">
         <v>841</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E57" s="8">
         <v>1</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="I57" s="76" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="G57" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="I57" s="80" t="s">
+        <v>46</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L57" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M57" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N57" s="34">
         <v>30</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P57" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q57" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R57" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="62"/>
+      <c r="A58" s="110"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="99"/>
       <c r="D58" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E58" s="8">
         <v>1</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" s="99"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="76"/>
-      <c r="K58" s="67">
-        <v>30</v>
-      </c>
-      <c r="L58" s="70">
+        <v>90</v>
+      </c>
+      <c r="G58" s="108"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="80"/>
+      <c r="K58" s="53">
+        <v>30</v>
+      </c>
+      <c r="L58" s="56">
         <v>25</v>
       </c>
-      <c r="M58" s="73">
+      <c r="M58" s="59">
         <v>35</v>
       </c>
       <c r="N58" s="34">
         <v>30</v>
       </c>
-      <c r="O58" s="67">
-        <v>30</v>
-      </c>
-      <c r="P58" s="70">
+      <c r="O58" s="53">
+        <v>30</v>
+      </c>
+      <c r="P58" s="56">
         <v>25</v>
       </c>
-      <c r="Q58" s="73">
+      <c r="Q58" s="59">
         <v>35</v>
       </c>
-      <c r="R58" s="52">
+      <c r="R58" s="62">
         <f>SUM(K58:Q58)</f>
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="62"/>
+      <c r="A59" s="110"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E59" s="8">
         <v>1</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="G59" s="99"/>
-      <c r="H59" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I59" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59" s="68"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="74"/>
+        <v>154</v>
+      </c>
+      <c r="G59" s="108"/>
+      <c r="H59" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="54"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="60"/>
       <c r="N59" s="34">
         <v>30</v>
       </c>
-      <c r="O59" s="68"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="53"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="63"/>
     </row>
     <row r="60" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="63"/>
+      <c r="A60" s="110"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="100"/>
       <c r="D60" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E60" s="8">
         <v>1</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G60" s="96"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="76"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="74"/>
+        <v>155</v>
+      </c>
+      <c r="G60" s="106"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="80"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="60"/>
       <c r="N60" s="34">
         <v>30</v>
       </c>
-      <c r="O60" s="68"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="74"/>
-      <c r="R60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="63"/>
     </row>
     <row r="61" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
-      <c r="B61" s="86"/>
+      <c r="A61" s="110"/>
+      <c r="B61" s="113"/>
       <c r="C61" s="11">
         <v>842</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61" s="8">
         <v>2</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="96"/>
-      <c r="H61" s="64" t="s">
-        <v>140</v>
+        <v>91</v>
+      </c>
+      <c r="G61" s="106"/>
+      <c r="H61" s="105" t="s">
+        <v>133</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="K61" s="69"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="75"/>
+        <v>47</v>
+      </c>
+      <c r="K61" s="55"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="61"/>
       <c r="N61" s="34">
         <v>30</v>
       </c>
-      <c r="O61" s="69"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="54"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="64"/>
     </row>
     <row r="62" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="87"/>
+      <c r="A62" s="111"/>
+      <c r="B62" s="114"/>
       <c r="C62" s="11">
         <v>843</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E62" s="8">
         <v>4</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="96"/>
-      <c r="H62" s="64"/>
+        <v>116</v>
+      </c>
+      <c r="G62" s="106"/>
+      <c r="H62" s="105"/>
       <c r="I62" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="K62" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
+        <v>48</v>
+      </c>
+      <c r="K62" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
       <c r="N62" s="34">
         <v>30</v>
       </c>
-      <c r="O62" s="57" t="s">
+      <c r="O62" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="44"/>
+    </row>
+    <row r="63" spans="1:20" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="116"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="116"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
+    </row>
+    <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="109" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="62">
+        <v>851</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="44"/>
-    </row>
-    <row r="63" spans="1:20" s="66" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
-      <c r="T63" s="65"/>
-    </row>
-    <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="52">
-        <v>851</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64" s="6">
-        <v>1</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="H64" s="80" t="s">
-        <v>138</v>
+      <c r="H64" s="104" t="s">
+        <v>131</v>
       </c>
       <c r="I64" s="81" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="L64" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="M64" s="60"/>
+        <v>172</v>
+      </c>
+      <c r="L64" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="M64" s="75"/>
       <c r="N64" s="34">
         <v>30</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="P64" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q64" s="60"/>
+        <v>172</v>
+      </c>
+      <c r="P64" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q64" s="75"/>
       <c r="R64" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="53"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" s="93"/>
-      <c r="H65" s="80"/>
+        <v>92</v>
+      </c>
+      <c r="G65" s="84"/>
+      <c r="H65" s="104"/>
       <c r="I65" s="81"/>
-      <c r="K65" s="58">
-        <v>30</v>
-      </c>
-      <c r="L65" s="59">
+      <c r="K65" s="70">
+        <v>30</v>
+      </c>
+      <c r="L65" s="74">
         <v>60</v>
       </c>
-      <c r="M65" s="59"/>
+      <c r="M65" s="74"/>
       <c r="N65" s="34">
         <v>30</v>
       </c>
-      <c r="O65" s="58">
-        <v>30</v>
-      </c>
-      <c r="P65" s="59">
+      <c r="O65" s="70">
+        <v>30</v>
+      </c>
+      <c r="P65" s="74">
         <v>60</v>
       </c>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="57">
+      <c r="Q65" s="74"/>
+      <c r="R65" s="52">
         <f>SUM(K65:Q65)</f>
         <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="66"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="53"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="93"/>
-      <c r="H66" s="80" t="s">
-        <v>139</v>
+        <v>156</v>
+      </c>
+      <c r="G66" s="84"/>
+      <c r="H66" s="104" t="s">
+        <v>132</v>
       </c>
       <c r="I66" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="K66" s="58"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
+        <v>124</v>
+      </c>
+      <c r="K66" s="70"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
       <c r="N66" s="34">
         <v>30</v>
       </c>
-      <c r="O66" s="58"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="57"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="74"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="52"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="66"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="54"/>
+      <c r="A67" s="110"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G67" s="93"/>
-      <c r="H67" s="80"/>
+        <v>157</v>
+      </c>
+      <c r="G67" s="84"/>
+      <c r="H67" s="104"/>
       <c r="I67" s="81"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
       <c r="N67" s="34">
         <v>30</v>
       </c>
-      <c r="O67" s="58"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="57"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="74"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="52"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
-      <c r="B68" s="90"/>
+      <c r="A68" s="110"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="10">
         <v>852</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G68" s="93"/>
-      <c r="H68" s="80" t="s">
-        <v>140</v>
+        <v>93</v>
+      </c>
+      <c r="G68" s="84"/>
+      <c r="H68" s="104" t="s">
+        <v>133</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="K68" s="58"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
+        <v>93</v>
+      </c>
+      <c r="K68" s="70"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
       <c r="N68" s="34">
         <v>30</v>
       </c>
-      <c r="O68" s="58"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="57"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="74"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="52"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
-      <c r="B69" s="90"/>
+      <c r="A69" s="110"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="2">
         <v>853</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E69" s="6">
         <v>4</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G69" s="94"/>
-      <c r="H69" s="80"/>
+        <v>117</v>
+      </c>
+      <c r="G69" s="85"/>
+      <c r="H69" s="104"/>
       <c r="I69" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="K69" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
+        <v>117</v>
+      </c>
+      <c r="K69" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
       <c r="N69" s="34">
         <v>30</v>
       </c>
-      <c r="O69" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="57"/>
+      <c r="O69" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
       <c r="R69" s="44"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="61">
+      <c r="A70" s="110"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="98">
         <v>851</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E70" s="8">
         <v>1</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G70" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="G70" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="H70" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="I70" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="K70" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="L70" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="M70" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="N70" s="34">
+        <v>30</v>
+      </c>
+      <c r="O70" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="P70" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q70" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="R70" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="110"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="8">
+        <v>1</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" s="87"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="80"/>
+      <c r="K71" s="53">
+        <v>30</v>
+      </c>
+      <c r="L71" s="56">
         <v>20</v>
       </c>
-      <c r="H70" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="I70" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K70" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="L70" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="M70" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="N70" s="34">
-        <v>30</v>
-      </c>
-      <c r="O70" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="P70" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q70" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="R70" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="8">
-        <v>1</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G71" s="78"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="76"/>
-      <c r="K71" s="67">
-        <v>30</v>
-      </c>
-      <c r="L71" s="70">
+      <c r="M71" s="59">
+        <v>40</v>
+      </c>
+      <c r="N71" s="34">
+        <v>30</v>
+      </c>
+      <c r="O71" s="53">
+        <v>30</v>
+      </c>
+      <c r="P71" s="56">
         <v>20</v>
       </c>
-      <c r="M71" s="73">
+      <c r="Q71" s="59">
         <v>40</v>
       </c>
-      <c r="N71" s="34">
-        <v>30</v>
-      </c>
-      <c r="O71" s="67">
-        <v>30</v>
-      </c>
-      <c r="P71" s="70">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="73">
-        <v>40</v>
-      </c>
-      <c r="R71" s="52">
+      <c r="R71" s="62">
         <f>SUM(K71:Q71)</f>
         <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="62"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="99"/>
       <c r="D72" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E72" s="8">
         <v>1</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G72" s="78"/>
-      <c r="H72" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I72" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72" s="87"/>
+      <c r="H72" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="K72" s="68"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="74"/>
+      <c r="I72" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="K72" s="54"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="60"/>
       <c r="N72" s="34">
         <v>30</v>
       </c>
-      <c r="O72" s="68"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="74"/>
-      <c r="R72" s="53"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="57"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="63"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="63"/>
+      <c r="A73" s="110"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E73" s="8">
         <v>1</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="G73" s="78"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="76"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="74"/>
+        <v>159</v>
+      </c>
+      <c r="G73" s="87"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="80"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="60"/>
       <c r="N73" s="34">
         <v>30</v>
       </c>
-      <c r="O73" s="68"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="74"/>
-      <c r="R73" s="53"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="63"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
-      <c r="B74" s="90"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="102"/>
       <c r="C74" s="23">
         <v>852</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E74" s="8">
         <v>2</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G74" s="78"/>
-      <c r="H74" s="64" t="s">
-        <v>140</v>
+        <v>95</v>
+      </c>
+      <c r="G74" s="87"/>
+      <c r="H74" s="105" t="s">
+        <v>133</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="K74" s="69"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="75"/>
+        <v>95</v>
+      </c>
+      <c r="K74" s="55"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="61"/>
       <c r="N74" s="34">
         <v>30</v>
       </c>
-      <c r="O74" s="69"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="54"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="58"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="64"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
-      <c r="B75" s="90"/>
+      <c r="A75" s="110"/>
+      <c r="B75" s="102"/>
       <c r="C75" s="11">
         <v>853</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E75" s="8">
         <v>4</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G75" s="79"/>
-      <c r="H75" s="64"/>
+        <v>118</v>
+      </c>
+      <c r="G75" s="88"/>
+      <c r="H75" s="105"/>
       <c r="I75" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="K75" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
+        <v>118</v>
+      </c>
+      <c r="K75" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="L75" s="68"/>
+      <c r="M75" s="68"/>
       <c r="N75" s="34">
         <v>30</v>
       </c>
-      <c r="O75" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="57"/>
+      <c r="O75" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
       <c r="R75" s="44"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="52">
+      <c r="A76" s="110"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="62">
         <v>851</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E76" s="6">
         <v>1</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" s="80" t="s">
-        <v>138</v>
+        <v>63</v>
+      </c>
+      <c r="G76" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="H76" s="104" t="s">
+        <v>131</v>
       </c>
       <c r="I76" s="81" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="L76" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="M76" s="60"/>
+        <v>172</v>
+      </c>
+      <c r="L76" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="M76" s="75"/>
       <c r="N76" s="34">
         <v>30</v>
       </c>
       <c r="O76" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="P76" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q76" s="60"/>
+        <v>172</v>
+      </c>
+      <c r="P76" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q76" s="75"/>
       <c r="R76" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="53"/>
+      <c r="A77" s="110"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G77" s="93"/>
-      <c r="H77" s="80"/>
+        <v>96</v>
+      </c>
+      <c r="G77" s="84"/>
+      <c r="H77" s="104"/>
       <c r="I77" s="81"/>
-      <c r="K77" s="58">
-        <v>30</v>
-      </c>
-      <c r="L77" s="59">
+      <c r="K77" s="70">
+        <v>30</v>
+      </c>
+      <c r="L77" s="74">
         <v>60</v>
       </c>
-      <c r="M77" s="59"/>
+      <c r="M77" s="74"/>
       <c r="N77" s="34">
         <v>30</v>
       </c>
-      <c r="O77" s="58">
-        <v>30</v>
-      </c>
-      <c r="P77" s="59">
+      <c r="O77" s="70">
+        <v>30</v>
+      </c>
+      <c r="P77" s="74">
         <v>60</v>
       </c>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="57">
+      <c r="Q77" s="74"/>
+      <c r="R77" s="52">
         <f>SUM(K77:Q77)</f>
         <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="53"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G78" s="93"/>
-      <c r="H78" s="80" t="s">
-        <v>139</v>
+        <v>160</v>
+      </c>
+      <c r="G78" s="84"/>
+      <c r="H78" s="104" t="s">
+        <v>132</v>
       </c>
       <c r="I78" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="K78" s="58"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
+        <v>126</v>
+      </c>
+      <c r="K78" s="70"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
       <c r="N78" s="34">
         <v>30</v>
       </c>
-      <c r="O78" s="58"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="57"/>
+      <c r="O78" s="70"/>
+      <c r="P78" s="74"/>
+      <c r="Q78" s="74"/>
+      <c r="R78" s="52"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="66"/>
-      <c r="B79" s="90"/>
-      <c r="C79" s="54"/>
+      <c r="A79" s="110"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G79" s="93"/>
-      <c r="H79" s="80"/>
+        <v>161</v>
+      </c>
+      <c r="G79" s="84"/>
+      <c r="H79" s="104"/>
       <c r="I79" s="81"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
+      <c r="K79" s="70"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
       <c r="N79" s="34">
         <v>30</v>
       </c>
-      <c r="O79" s="58"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="57"/>
+      <c r="O79" s="70"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="52"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="66"/>
-      <c r="B80" s="90"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="102"/>
       <c r="C80" s="10">
         <v>852</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E80" s="6">
         <v>2</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G80" s="93"/>
-      <c r="H80" s="80" t="s">
-        <v>140</v>
+        <v>97</v>
+      </c>
+      <c r="G80" s="84"/>
+      <c r="H80" s="104" t="s">
+        <v>133</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="K80" s="58"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
+        <v>97</v>
+      </c>
+      <c r="K80" s="70"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
       <c r="N80" s="34">
         <v>30</v>
       </c>
-      <c r="O80" s="58"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="57"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="74"/>
+      <c r="Q80" s="74"/>
+      <c r="R80" s="52"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
-      <c r="B81" s="90"/>
+      <c r="A81" s="110"/>
+      <c r="B81" s="102"/>
       <c r="C81" s="2">
         <v>853</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E81" s="6">
         <v>4</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G81" s="94"/>
-      <c r="H81" s="80"/>
+        <v>119</v>
+      </c>
+      <c r="G81" s="85"/>
+      <c r="H81" s="104"/>
       <c r="I81" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="K81" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="L81" s="57"/>
-      <c r="M81" s="57"/>
+        <v>119</v>
+      </c>
+      <c r="K81" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="L81" s="52"/>
+      <c r="M81" s="52"/>
       <c r="N81" s="34">
         <v>30</v>
       </c>
-      <c r="O81" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P81" s="57"/>
-      <c r="Q81" s="57"/>
+      <c r="O81" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P81" s="52"/>
+      <c r="Q81" s="52"/>
       <c r="R81" s="44"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="61">
+      <c r="A82" s="110"/>
+      <c r="B82" s="102"/>
+      <c r="C82" s="98">
         <v>851</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E82" s="8">
         <v>1</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G82" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="I82" s="76" t="s">
-        <v>134</v>
+        <v>64</v>
+      </c>
+      <c r="G82" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="H82" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="I82" s="80" t="s">
+        <v>127</v>
       </c>
       <c r="K82" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L82" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M82" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N82" s="34">
         <v>30</v>
       </c>
       <c r="O82" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P82" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q82" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R82" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="66"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="62"/>
+      <c r="A83" s="110"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="99"/>
       <c r="D83" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E83" s="8">
         <v>1</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" s="78"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="76"/>
-      <c r="K83" s="67">
-        <v>30</v>
-      </c>
-      <c r="L83" s="70">
+        <v>98</v>
+      </c>
+      <c r="G83" s="87"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="80"/>
+      <c r="K83" s="53">
+        <v>30</v>
+      </c>
+      <c r="L83" s="56">
         <v>25</v>
       </c>
-      <c r="M83" s="73">
+      <c r="M83" s="59">
         <v>35</v>
       </c>
       <c r="N83" s="34">
         <v>30</v>
       </c>
-      <c r="O83" s="67">
-        <v>30</v>
-      </c>
-      <c r="P83" s="70">
+      <c r="O83" s="53">
+        <v>30</v>
+      </c>
+      <c r="P83" s="56">
         <v>25</v>
       </c>
-      <c r="Q83" s="73">
+      <c r="Q83" s="59">
         <v>35</v>
       </c>
-      <c r="R83" s="52">
+      <c r="R83" s="62">
         <f>SUM(K83:Q83)</f>
         <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="66"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="62"/>
+      <c r="A84" s="110"/>
+      <c r="B84" s="102"/>
+      <c r="C84" s="99"/>
       <c r="D84" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E84" s="8">
         <v>1</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G84" s="78"/>
-      <c r="H84" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I84" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="K84" s="68"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="74"/>
+        <v>162</v>
+      </c>
+      <c r="G84" s="87"/>
+      <c r="H84" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="I84" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="K84" s="54"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="60"/>
       <c r="N84" s="34">
         <v>30</v>
       </c>
-      <c r="O84" s="68"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="74"/>
-      <c r="R84" s="53"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="63"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
-      <c r="B85" s="90"/>
-      <c r="C85" s="63"/>
+      <c r="A85" s="110"/>
+      <c r="B85" s="102"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E85" s="8">
         <v>1</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G85" s="78"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="76"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="G85" s="87"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="80"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="60"/>
       <c r="N85" s="34">
         <v>30</v>
       </c>
-      <c r="O85" s="68"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="74"/>
-      <c r="R85" s="53"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="63"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="66"/>
-      <c r="B86" s="90"/>
+      <c r="A86" s="110"/>
+      <c r="B86" s="102"/>
       <c r="C86" s="23">
         <v>852</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E86" s="8">
         <v>2</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G86" s="78"/>
-      <c r="H86" s="64" t="s">
-        <v>140</v>
+        <v>99</v>
+      </c>
+      <c r="G86" s="87"/>
+      <c r="H86" s="105" t="s">
+        <v>133</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="K86" s="69"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="75"/>
+        <v>99</v>
+      </c>
+      <c r="K86" s="55"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="61"/>
       <c r="N86" s="34">
         <v>30</v>
       </c>
-      <c r="O86" s="69"/>
-      <c r="P86" s="72"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="54"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="64"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="66"/>
-      <c r="B87" s="91"/>
+      <c r="A87" s="110"/>
+      <c r="B87" s="103"/>
       <c r="C87" s="11">
         <v>853</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E87" s="8">
         <v>4</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G87" s="79"/>
-      <c r="H87" s="64"/>
+        <v>120</v>
+      </c>
+      <c r="G87" s="88"/>
+      <c r="H87" s="105"/>
       <c r="I87" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K87" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
+        <v>120</v>
+      </c>
+      <c r="K87" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="L87" s="68"/>
+      <c r="M87" s="68"/>
       <c r="N87" s="34">
         <v>30</v>
       </c>
-      <c r="O87" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P87" s="57"/>
-      <c r="Q87" s="57"/>
+      <c r="O87" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52"/>
       <c r="R87" s="44"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
-      <c r="B88" s="89" t="s">
+      <c r="A88" s="110"/>
+      <c r="B88" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="52">
+      <c r="C88" s="62">
         <v>861</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E88" s="6">
         <v>1</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G88" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="H88" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="I88" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="K88" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="H88" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="I88" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="K88" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="L88" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="M88" s="60"/>
+      <c r="L88" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="M88" s="75"/>
       <c r="N88" s="34">
         <v>30</v>
       </c>
       <c r="O88" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="P88" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q88" s="60"/>
+        <v>172</v>
+      </c>
+      <c r="P88" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q88" s="75"/>
       <c r="R88" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="53"/>
+      <c r="A89" s="110"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" s="102"/>
-      <c r="H89" s="80"/>
+        <v>100</v>
+      </c>
+      <c r="G89" s="90"/>
+      <c r="H89" s="104"/>
       <c r="I89" s="81"/>
-      <c r="K89" s="58">
-        <v>30</v>
-      </c>
-      <c r="L89" s="59">
+      <c r="K89" s="70">
+        <v>30</v>
+      </c>
+      <c r="L89" s="74">
         <v>60</v>
       </c>
-      <c r="M89" s="59"/>
+      <c r="M89" s="74"/>
       <c r="N89" s="34">
         <v>30</v>
       </c>
-      <c r="O89" s="58">
-        <v>30</v>
-      </c>
-      <c r="P89" s="59">
+      <c r="O89" s="70">
+        <v>30</v>
+      </c>
+      <c r="P89" s="74">
         <v>60</v>
       </c>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="57">
+      <c r="Q89" s="74"/>
+      <c r="R89" s="52">
         <f>SUM(K89:Q89)</f>
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="66"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="53"/>
+      <c r="A90" s="110"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E90" s="6">
         <v>1</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G90" s="102"/>
-      <c r="H90" s="80" t="s">
-        <v>139</v>
+        <v>166</v>
+      </c>
+      <c r="G90" s="90"/>
+      <c r="H90" s="104" t="s">
+        <v>132</v>
       </c>
       <c r="I90" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="K90" s="58"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="59"/>
+        <v>128</v>
+      </c>
+      <c r="K90" s="70"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="74"/>
       <c r="N90" s="34">
         <v>30</v>
       </c>
-      <c r="O90" s="58"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="57"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="74"/>
+      <c r="Q90" s="74"/>
+      <c r="R90" s="52"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
-      <c r="B91" s="90"/>
-      <c r="C91" s="54"/>
+      <c r="A91" s="110"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G91" s="102"/>
-      <c r="H91" s="80"/>
+        <v>167</v>
+      </c>
+      <c r="G91" s="90"/>
+      <c r="H91" s="104"/>
       <c r="I91" s="81"/>
-      <c r="K91" s="58"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="59"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
       <c r="N91" s="34">
         <v>30</v>
       </c>
-      <c r="O91" s="58"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="57"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="74"/>
+      <c r="R91" s="52"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="66"/>
-      <c r="B92" s="90"/>
+      <c r="A92" s="110"/>
+      <c r="B92" s="102"/>
       <c r="C92" s="2">
         <v>862</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E92" s="6">
         <v>2</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G92" s="102"/>
-      <c r="H92" s="80" t="s">
-        <v>140</v>
+        <v>101</v>
+      </c>
+      <c r="G92" s="90"/>
+      <c r="H92" s="104" t="s">
+        <v>133</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="K92" s="58"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
+        <v>134</v>
+      </c>
+      <c r="K92" s="70"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="74"/>
       <c r="N92" s="34">
         <v>30</v>
       </c>
-      <c r="O92" s="58"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="57"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="74"/>
+      <c r="Q92" s="74"/>
+      <c r="R92" s="52"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="66"/>
-      <c r="B93" s="90"/>
+      <c r="A93" s="110"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="2">
         <v>863</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E93" s="6">
         <v>4</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G93" s="103"/>
-      <c r="H93" s="80"/>
+        <v>121</v>
+      </c>
+      <c r="G93" s="91"/>
+      <c r="H93" s="104"/>
       <c r="I93" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="K93" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="K93" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="L93" s="52"/>
+      <c r="M93" s="52"/>
+      <c r="N93" s="34">
+        <v>30</v>
+      </c>
+      <c r="O93" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P93" s="52"/>
+      <c r="Q93" s="52"/>
+      <c r="R93" s="44"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="110"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="98">
+        <v>861</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E94" s="8">
+        <v>1</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G94" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="L93" s="57"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="34">
-        <v>30</v>
-      </c>
-      <c r="O93" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P93" s="57"/>
-      <c r="Q93" s="57"/>
-      <c r="R93" s="44"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="66"/>
-      <c r="B94" s="90"/>
-      <c r="C94" s="61">
-        <v>861</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E94" s="8">
-        <v>1</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G94" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="I94" s="76" t="s">
-        <v>136</v>
+      <c r="H94" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="I94" s="80" t="s">
+        <v>129</v>
       </c>
       <c r="K94" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L94" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M94" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N94" s="34">
         <v>30</v>
       </c>
       <c r="O94" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P94" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q94" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R94" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="66"/>
-      <c r="B95" s="90"/>
-      <c r="C95" s="62"/>
+      <c r="A95" s="110"/>
+      <c r="B95" s="102"/>
+      <c r="C95" s="99"/>
       <c r="D95" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E95" s="8">
         <v>1</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" s="105"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="76"/>
-      <c r="K95" s="67">
-        <v>30</v>
-      </c>
-      <c r="L95" s="70">
+        <v>102</v>
+      </c>
+      <c r="G95" s="93"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="80"/>
+      <c r="K95" s="53">
+        <v>30</v>
+      </c>
+      <c r="L95" s="56">
         <v>25</v>
       </c>
-      <c r="M95" s="73">
+      <c r="M95" s="59">
         <v>35</v>
       </c>
       <c r="N95" s="34">
         <v>30</v>
       </c>
-      <c r="O95" s="67">
-        <v>30</v>
-      </c>
-      <c r="P95" s="70">
+      <c r="O95" s="53">
+        <v>30</v>
+      </c>
+      <c r="P95" s="56">
         <v>25</v>
       </c>
-      <c r="Q95" s="73">
+      <c r="Q95" s="59">
         <v>35</v>
       </c>
-      <c r="R95" s="52">
+      <c r="R95" s="62">
         <f>SUM(K95:Q95)</f>
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="66"/>
-      <c r="B96" s="90"/>
-      <c r="C96" s="62"/>
+      <c r="A96" s="110"/>
+      <c r="B96" s="102"/>
+      <c r="C96" s="99"/>
       <c r="D96" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E96" s="8">
         <v>1</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G96" s="105"/>
-      <c r="H96" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I96" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="K96" s="68"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="74"/>
+        <v>164</v>
+      </c>
+      <c r="G96" s="93"/>
+      <c r="H96" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="I96" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="K96" s="54"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="60"/>
       <c r="N96" s="34">
         <v>30</v>
       </c>
-      <c r="O96" s="68"/>
-      <c r="P96" s="71"/>
-      <c r="Q96" s="74"/>
-      <c r="R96" s="53"/>
+      <c r="O96" s="54"/>
+      <c r="P96" s="57"/>
+      <c r="Q96" s="60"/>
+      <c r="R96" s="63"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="66"/>
-      <c r="B97" s="90"/>
-      <c r="C97" s="63"/>
+      <c r="A97" s="110"/>
+      <c r="B97" s="102"/>
+      <c r="C97" s="100"/>
       <c r="D97" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E97" s="8">
         <v>1</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G97" s="105"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="76"/>
-      <c r="K97" s="68"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="74"/>
+        <v>165</v>
+      </c>
+      <c r="G97" s="93"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="80"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="57"/>
+      <c r="M97" s="60"/>
       <c r="N97" s="34">
         <v>30</v>
       </c>
-      <c r="O97" s="68"/>
-      <c r="P97" s="71"/>
-      <c r="Q97" s="74"/>
-      <c r="R97" s="53"/>
+      <c r="O97" s="54"/>
+      <c r="P97" s="57"/>
+      <c r="Q97" s="60"/>
+      <c r="R97" s="63"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="66"/>
-      <c r="B98" s="90"/>
+      <c r="A98" s="110"/>
+      <c r="B98" s="102"/>
       <c r="C98" s="11">
         <v>862</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E98" s="8">
         <v>2</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G98" s="105"/>
-      <c r="H98" s="64" t="s">
-        <v>140</v>
+        <v>103</v>
+      </c>
+      <c r="G98" s="93"/>
+      <c r="H98" s="105" t="s">
+        <v>133</v>
       </c>
       <c r="I98" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="K98" s="69"/>
-      <c r="L98" s="72"/>
-      <c r="M98" s="75"/>
+        <v>135</v>
+      </c>
+      <c r="K98" s="55"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="61"/>
       <c r="N98" s="34">
         <v>30</v>
       </c>
-      <c r="O98" s="69"/>
-      <c r="P98" s="72"/>
-      <c r="Q98" s="75"/>
-      <c r="R98" s="54"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="58"/>
+      <c r="Q98" s="61"/>
+      <c r="R98" s="64"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
-      <c r="B99" s="91"/>
+      <c r="A99" s="110"/>
+      <c r="B99" s="103"/>
       <c r="C99" s="11">
         <v>863</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E99" s="8">
         <v>4</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G99" s="106"/>
-      <c r="H99" s="64"/>
+        <v>122</v>
+      </c>
+      <c r="G99" s="94"/>
+      <c r="H99" s="105"/>
       <c r="I99" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="K99" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="L99" s="56"/>
-      <c r="M99" s="56"/>
+        <v>170</v>
+      </c>
+      <c r="K99" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="L99" s="68"/>
+      <c r="M99" s="68"/>
       <c r="N99" s="34">
         <v>30</v>
       </c>
-      <c r="O99" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P99" s="57"/>
-      <c r="Q99" s="57"/>
+      <c r="O99" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P99" s="52"/>
+      <c r="Q99" s="52"/>
       <c r="R99" s="44"/>
     </row>
     <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" s="100"/>
-      <c r="C100" s="100"/>
-      <c r="D100" s="100"/>
+      <c r="A100" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="82"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
       <c r="E100" s="17">
         <f>SUM(E2:E99)</f>
         <v>168</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H100" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="57">
+      <c r="A102" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="52">
         <v>871</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E102" s="6">
         <v>1</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G102" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="I102" s="82">
+        <v>67</v>
+      </c>
+      <c r="G102" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="I102" s="115">
         <v>871</v>
       </c>
       <c r="K102" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L102" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M102" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N102" s="34">
         <v>30</v>
       </c>
       <c r="O102" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P102" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q102" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R102" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="107"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="57"/>
+      <c r="A103" s="97"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E103" s="6">
         <v>1</v>
       </c>
       <c r="F103" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="95"/>
+      <c r="H103" s="104"/>
+      <c r="I103" s="115"/>
+      <c r="K103" s="53">
+        <v>30</v>
+      </c>
+      <c r="L103" s="56">
         <v>35</v>
       </c>
-      <c r="G103" s="97"/>
-      <c r="H103" s="80"/>
-      <c r="I103" s="82"/>
-      <c r="K103" s="67">
-        <v>30</v>
-      </c>
-      <c r="L103" s="70">
+      <c r="M103" s="59">
+        <v>55</v>
+      </c>
+      <c r="N103" s="34">
+        <v>30</v>
+      </c>
+      <c r="O103" s="53">
+        <v>30</v>
+      </c>
+      <c r="P103" s="76">
         <v>35</v>
       </c>
-      <c r="M103" s="73">
-        <v>55</v>
-      </c>
-      <c r="N103" s="34">
-        <v>30</v>
-      </c>
-      <c r="O103" s="67">
-        <v>30</v>
-      </c>
-      <c r="P103" s="109">
-        <v>35</v>
-      </c>
-      <c r="Q103" s="73">
+      <c r="Q103" s="59">
         <v>25</v>
       </c>
-      <c r="R103" s="52">
+      <c r="R103" s="62">
         <f>SUM(K103:Q103)</f>
         <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="107"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="57"/>
+      <c r="A104" s="97"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="52"/>
       <c r="D104" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E104" s="6">
         <v>1</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="G104" s="97"/>
-      <c r="H104" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="I104" s="82">
+        <v>168</v>
+      </c>
+      <c r="G104" s="95"/>
+      <c r="H104" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="I104" s="115">
         <v>871</v>
       </c>
-      <c r="K104" s="68"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="74"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="57"/>
+      <c r="M104" s="60"/>
       <c r="N104" s="34">
         <v>30</v>
       </c>
-      <c r="O104" s="68"/>
-      <c r="P104" s="110"/>
-      <c r="Q104" s="74"/>
-      <c r="R104" s="53"/>
+      <c r="O104" s="54"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="60"/>
+      <c r="R104" s="63"/>
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="107"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="57"/>
+      <c r="A105" s="97"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="52"/>
       <c r="D105" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E105" s="6">
         <v>1</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G105" s="97"/>
-      <c r="H105" s="80"/>
-      <c r="I105" s="82"/>
-      <c r="K105" s="68"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="74"/>
+        <v>169</v>
+      </c>
+      <c r="G105" s="95"/>
+      <c r="H105" s="104"/>
+      <c r="I105" s="115"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="60"/>
       <c r="N105" s="34">
         <v>30</v>
       </c>
-      <c r="O105" s="68"/>
-      <c r="P105" s="110"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="53"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="60"/>
+      <c r="R105" s="63"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="107"/>
-      <c r="B106" s="88"/>
+      <c r="A106" s="97"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="2">
         <v>872</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E106" s="6">
         <v>2</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G106" s="97"/>
-      <c r="H106" s="80" t="s">
-        <v>140</v>
+        <v>104</v>
+      </c>
+      <c r="G106" s="95"/>
+      <c r="H106" s="104" t="s">
+        <v>133</v>
       </c>
       <c r="I106" s="18">
         <v>872</v>
       </c>
-      <c r="K106" s="69"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="75"/>
+      <c r="K106" s="55"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="61"/>
       <c r="N106" s="34">
         <v>30</v>
       </c>
-      <c r="O106" s="69"/>
-      <c r="P106" s="111"/>
-      <c r="Q106" s="75"/>
-      <c r="R106" s="54"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="78"/>
+      <c r="Q106" s="61"/>
+      <c r="R106" s="64"/>
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="107"/>
-      <c r="B107" s="88"/>
+      <c r="A107" s="97"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="2">
         <v>873</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E107" s="6">
         <v>4</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G107" s="97"/>
-      <c r="H107" s="80"/>
+        <v>123</v>
+      </c>
+      <c r="G107" s="95"/>
+      <c r="H107" s="104"/>
       <c r="I107" s="18">
         <v>873</v>
       </c>
-      <c r="K107" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
+      <c r="K107" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="L107" s="68"/>
+      <c r="M107" s="68"/>
       <c r="N107" s="34">
         <v>30</v>
       </c>
-      <c r="O107" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="116"/>
+      <c r="O107" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="P107" s="68"/>
+      <c r="Q107" s="69"/>
       <c r="R107" s="44"/>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="B108" s="100"/>
-      <c r="C108" s="100"/>
-      <c r="D108" s="100"/>
+      <c r="A108" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" s="82"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
       <c r="E108" s="17">
         <f>SUM(E102:E107)</f>
         <v>10</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H108" s="9"/>
     </row>
@@ -5870,16 +5870,276 @@
     </row>
   </sheetData>
   <mergeCells count="304">
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="O95:O98"/>
-    <mergeCell ref="P95:P98"/>
-    <mergeCell ref="Q95:Q98"/>
-    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="R83:R86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="O65:O68"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="L65:M68"/>
+    <mergeCell ref="P65:Q68"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L77:M80"/>
+    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="P77:Q80"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="R34:R37"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="P46:P49"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="R58:R61"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A64:A99"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B64:B87"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="A27:A62"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="G76:G81"/>
+    <mergeCell ref="G82:G87"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="L52:M55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L28:M31"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="P103:P106"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="P58:P61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="O58:O61"/>
+    <mergeCell ref="Q58:Q61"/>
+    <mergeCell ref="K83:K86"/>
+    <mergeCell ref="L83:L86"/>
+    <mergeCell ref="M83:M86"/>
+    <mergeCell ref="O83:O86"/>
+    <mergeCell ref="P83:P86"/>
+    <mergeCell ref="Q83:Q86"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:M92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:Q92"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="L40:M43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:Q43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="Q46:Q49"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R25"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L13"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="T28:V28"/>
     <mergeCell ref="L103:L106"/>
     <mergeCell ref="M103:M106"/>
@@ -5904,276 +6164,16 @@
     <mergeCell ref="N23:O25"/>
     <mergeCell ref="Q34:Q37"/>
     <mergeCell ref="L46:L49"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R25"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="L40:M43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:Q43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="P103:P106"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="P58:P61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="O58:O61"/>
-    <mergeCell ref="Q58:Q61"/>
-    <mergeCell ref="K83:K86"/>
-    <mergeCell ref="L83:L86"/>
-    <mergeCell ref="M83:M86"/>
-    <mergeCell ref="O83:O86"/>
-    <mergeCell ref="P83:P86"/>
-    <mergeCell ref="Q83:Q86"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:M92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:Q92"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="L52:M55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L28:M31"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="G76:G81"/>
-    <mergeCell ref="G82:G87"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="G102:G107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G64:G69"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A64:A99"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B64:B87"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="A27:A62"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="R34:R37"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="P46:P49"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="R58:R61"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="R83:R86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="O65:O68"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="L65:M68"/>
-    <mergeCell ref="P65:Q68"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:M80"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="P77:Q80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="K95:K98"/>
+    <mergeCell ref="L95:L98"/>
+    <mergeCell ref="M95:M98"/>
+    <mergeCell ref="O95:O98"/>
+    <mergeCell ref="P95:P98"/>
+    <mergeCell ref="Q95:Q98"/>
+    <mergeCell ref="R95:R98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
+++ b/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{171E8725-7E96-49CD-A58D-E1905BAFCC62}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA986F9-9300-4C86-AC91-1952E17F1135}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,27 +868,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(8612, 8622, 8632)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alter the first 30 messages to mislead other irrelevant CBs with fake opening signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>(8511, 8521, 8531)</t>
     </r>
     <r>
@@ -926,6 +905,15 @@
     </r>
   </si>
   <si>
+    <t>When short-circuit faults happen, mislead irrelevant CBs with fake opening signals to trigger unnecessary protection, and thus deteriorate the impacts of the short-circuit faults.</t>
+  </si>
+  <si>
+    <t>When short-circuit faults happen, mislead associated CBs with fake closing signals to disable safety protection</t>
+  </si>
+  <si>
+    <t>When short-circuit faults happen, delete trip messages</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -943,18 +931,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Alter all messages to mislead other irrelevant CBs with fake opening signals until the associated CBs start to reset (the fault is eliminated and the systems recover).
+      <t xml:space="preserve"> when a short-circuit fault happens, an irrelevant IED (compromised with a malicious program) publishes packets containing tripping signals until the fault is eliminated and the systems recover.
 66bus1-66bus2 (2),   XFMR1-XFMR2 (2),   22bus1-22bus2 (2),   FDR1-FDR2 (2),    FDR3-FDR4 (2) </t>
     </r>
   </si>
   <si>
-    <t>When short-circuit faults happen, mislead irrelevant CBs with fake opening signals to trigger unnecessary protection, and thus deteriorate the impacts of the short-circuit faults.</t>
-  </si>
-  <si>
-    <t>When short-circuit faults happen, mislead associated CBs with fake closing signals to disable safety protection</t>
-  </si>
-  <si>
-    <t>When short-circuit faults happen, delete trip messages</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8612, 8622, 8632)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when a short-circuit fault happens, an irrelevant IED (compromised with a malicious program) publishes the first 30 packets containing tripping signals, and the rest packets containing non-tripping signals.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1415,9 +1415,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,14 +1487,119 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1460,155 +1607,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1903,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6D2FFF-64FD-4790-BE66-86F2381ADCA2}">
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68:H69"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88:G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,27 +1957,27 @@
       <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="52">
         <v>811</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1989,7 +1989,7 @@
       <c r="F2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="92" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1999,24 +1999,24 @@
         <v>8111</v>
       </c>
       <c r="J2" s="21"/>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="71"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="95"/>
       <c r="P2" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="71"/>
+      <c r="R2" s="95"/>
       <c r="S2" s="33" t="s">
         <v>173</v>
       </c>
@@ -2025,9 +2025,9 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2037,7 +2037,7 @@
       <c r="F3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="5" t="s">
         <v>132</v>
       </c>
@@ -2045,35 +2045,35 @@
         <v>8111</v>
       </c>
       <c r="J3" s="21"/>
-      <c r="K3" s="70">
+      <c r="K3" s="58">
         <v>60</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="74">
+      <c r="L3" s="58"/>
+      <c r="M3" s="59">
         <v>20</v>
       </c>
-      <c r="N3" s="70">
+      <c r="N3" s="58">
         <v>60</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="74">
+      <c r="O3" s="58"/>
+      <c r="P3" s="59">
         <v>20</v>
       </c>
-      <c r="Q3" s="70">
+      <c r="Q3" s="58">
         <v>60</v>
       </c>
-      <c r="R3" s="70"/>
-      <c r="S3" s="74">
+      <c r="R3" s="58"/>
+      <c r="S3" s="59">
         <v>20</v>
       </c>
-      <c r="T3" s="52">
+      <c r="T3" s="57">
         <f>SUM(K3:S5)</f>
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="10">
         <v>812</v>
       </c>
@@ -2086,28 +2086,28 @@
       <c r="F4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="104" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="80" t="s">
         <v>133</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>69</v>
       </c>
       <c r="J4" s="21"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="52"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="57"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="2">
         <v>813</v>
       </c>
@@ -2120,27 +2120,27 @@
       <c r="F5" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="104"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="24" t="s">
         <v>105</v>
       </c>
       <c r="J5" s="21"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="52"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="57"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="98">
+      <c r="A6" s="66"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="61">
         <v>811</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2152,7 +2152,7 @@
       <c r="F6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="77" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2161,24 +2161,24 @@
       <c r="I6" s="19">
         <v>8112</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="71"/>
+      <c r="L6" s="95"/>
       <c r="M6" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="O6" s="71"/>
+      <c r="O6" s="95"/>
       <c r="P6" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="71" t="s">
+      <c r="Q6" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="R6" s="71"/>
+      <c r="R6" s="95"/>
       <c r="S6" s="33" t="s">
         <v>173</v>
       </c>
@@ -2187,9 +2187,9 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="100"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2199,42 +2199,42 @@
       <c r="F7" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I7" s="19">
         <v>8112</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="58">
         <v>60</v>
       </c>
-      <c r="L7" s="70"/>
-      <c r="M7" s="74">
+      <c r="L7" s="58"/>
+      <c r="M7" s="59">
         <v>10</v>
       </c>
-      <c r="N7" s="70">
+      <c r="N7" s="58">
         <v>60</v>
       </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="74">
+      <c r="O7" s="58"/>
+      <c r="P7" s="59">
         <v>10</v>
       </c>
-      <c r="Q7" s="70">
+      <c r="Q7" s="58">
         <v>60</v>
       </c>
-      <c r="R7" s="70"/>
-      <c r="S7" s="74">
+      <c r="R7" s="58"/>
+      <c r="S7" s="59">
         <v>10</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="57">
         <f>SUM(K7:S9)</f>
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="23">
         <v>812</v>
       </c>
@@ -2247,27 +2247,27 @@
       <c r="F8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="105" t="s">
+      <c r="G8" s="78"/>
+      <c r="H8" s="64" t="s">
         <v>133</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="52"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="57"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="11">
         <v>813</v>
       </c>
@@ -2280,26 +2280,26 @@
       <c r="F9" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="105"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="52"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="57"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="62">
+      <c r="A10" s="66"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="52">
         <v>811</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2311,7 +2311,7 @@
       <c r="F10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="92" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2320,24 +2320,24 @@
       <c r="I10" s="18">
         <v>8113</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="L10" s="71"/>
+      <c r="L10" s="95"/>
       <c r="M10" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="N10" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="71"/>
+      <c r="O10" s="95"/>
       <c r="P10" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" s="71" t="s">
+      <c r="Q10" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="R10" s="71"/>
+      <c r="R10" s="95"/>
       <c r="S10" s="33" t="s">
         <v>173</v>
       </c>
@@ -2346,9 +2346,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2358,42 +2358,42 @@
       <c r="F11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="84"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="5" t="s">
         <v>132</v>
       </c>
       <c r="I11" s="18">
         <v>8113</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="58">
         <v>60</v>
       </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="74">
+      <c r="L11" s="58"/>
+      <c r="M11" s="59">
         <v>10</v>
       </c>
-      <c r="N11" s="70">
+      <c r="N11" s="58">
         <v>60</v>
       </c>
-      <c r="O11" s="70"/>
-      <c r="P11" s="74">
+      <c r="O11" s="58"/>
+      <c r="P11" s="59">
         <v>10</v>
       </c>
-      <c r="Q11" s="70">
+      <c r="Q11" s="58">
         <v>60</v>
       </c>
-      <c r="R11" s="70"/>
-      <c r="S11" s="74">
+      <c r="R11" s="58"/>
+      <c r="S11" s="59">
         <v>10</v>
       </c>
-      <c r="T11" s="52">
+      <c r="T11" s="57">
         <f>SUM(K11:S13)</f>
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="10">
         <v>812</v>
       </c>
@@ -2406,27 +2406,27 @@
       <c r="F12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="104" t="s">
+      <c r="G12" s="93"/>
+      <c r="H12" s="80" t="s">
         <v>133</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="52"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="57"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="2">
         <v>813</v>
       </c>
@@ -2439,26 +2439,26 @@
       <c r="F13" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="104"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="52"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="57"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="98">
+      <c r="A14" s="66"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="61">
         <v>811</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2470,7 +2470,7 @@
       <c r="F14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="77" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2479,24 +2479,24 @@
       <c r="I14" s="19">
         <v>8114</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="L14" s="71"/>
+      <c r="L14" s="95"/>
       <c r="M14" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N14" s="71" t="s">
+      <c r="N14" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="O14" s="71"/>
+      <c r="O14" s="95"/>
       <c r="P14" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q14" s="71" t="s">
+      <c r="Q14" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="R14" s="71"/>
+      <c r="R14" s="95"/>
       <c r="S14" s="33" t="s">
         <v>173</v>
       </c>
@@ -2505,9 +2505,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="100"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
@@ -2517,42 +2517,42 @@
       <c r="F15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="87"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="19">
         <v>8114</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="58">
         <v>60</v>
       </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="74">
+      <c r="L15" s="58"/>
+      <c r="M15" s="59">
         <v>5</v>
       </c>
-      <c r="N15" s="70">
+      <c r="N15" s="58">
         <v>60</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="74">
+      <c r="O15" s="58"/>
+      <c r="P15" s="59">
         <v>5</v>
       </c>
-      <c r="Q15" s="70">
+      <c r="Q15" s="58">
         <v>60</v>
       </c>
-      <c r="R15" s="70"/>
-      <c r="S15" s="74">
+      <c r="R15" s="58"/>
+      <c r="S15" s="59">
         <v>5</v>
       </c>
-      <c r="T15" s="52">
+      <c r="T15" s="57">
         <f>SUM(K15:S17)</f>
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="23">
         <v>812</v>
       </c>
@@ -2565,27 +2565,27 @@
       <c r="F16" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="105" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="64" t="s">
         <v>133</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="52"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="57"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="11">
         <v>813</v>
       </c>
@@ -2598,28 +2598,28 @@
       <c r="F17" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="105"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="52"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="57"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="96" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="52">
         <v>821</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2631,7 +2631,7 @@
       <c r="F18" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="92" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -2640,24 +2640,24 @@
       <c r="I18" s="18">
         <v>8211</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="71"/>
+      <c r="L18" s="95"/>
       <c r="M18" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="O18" s="71"/>
+      <c r="O18" s="95"/>
       <c r="P18" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q18" s="71" t="s">
+      <c r="Q18" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="R18" s="71"/>
+      <c r="R18" s="95"/>
       <c r="S18" s="33" t="s">
         <v>173</v>
       </c>
@@ -2666,9 +2666,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2678,42 +2678,42 @@
       <c r="F19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="84"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="5" t="s">
         <v>132</v>
       </c>
       <c r="I19" s="18">
         <v>8211</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="58">
         <v>60</v>
       </c>
-      <c r="L19" s="70"/>
-      <c r="M19" s="74">
+      <c r="L19" s="58"/>
+      <c r="M19" s="59">
         <v>10</v>
       </c>
-      <c r="N19" s="70">
+      <c r="N19" s="58">
         <v>60</v>
       </c>
-      <c r="O19" s="70"/>
-      <c r="P19" s="74">
+      <c r="O19" s="58"/>
+      <c r="P19" s="59">
         <v>10</v>
       </c>
-      <c r="Q19" s="70">
+      <c r="Q19" s="58">
         <v>60</v>
       </c>
-      <c r="R19" s="70"/>
-      <c r="S19" s="74">
+      <c r="R19" s="58"/>
+      <c r="S19" s="59">
         <v>10</v>
       </c>
-      <c r="T19" s="52">
+      <c r="T19" s="57">
         <f>SUM(K19:S21)</f>
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="2">
         <v>822</v>
       </c>
@@ -2726,27 +2726,27 @@
       <c r="F20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="104" t="s">
+      <c r="G20" s="93"/>
+      <c r="H20" s="80" t="s">
         <v>133</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="52"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="57"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="2">
         <v>823</v>
       </c>
@@ -2759,26 +2759,26 @@
       <c r="F21" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="85"/>
-      <c r="H21" s="104"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="52"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="57"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="98">
+      <c r="A22" s="66"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="61">
         <v>821</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2790,7 +2790,7 @@
       <c r="F22" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="77" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -2799,24 +2799,24 @@
       <c r="I22" s="19">
         <v>8212</v>
       </c>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="L22" s="71"/>
+      <c r="L22" s="95"/>
       <c r="M22" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N22" s="71" t="s">
+      <c r="N22" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="O22" s="71"/>
+      <c r="O22" s="95"/>
       <c r="P22" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q22" s="71" t="s">
+      <c r="Q22" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="R22" s="71"/>
+      <c r="R22" s="95"/>
       <c r="S22" s="33" t="s">
         <v>173</v>
       </c>
@@ -2825,9 +2825,9 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="100"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
@@ -2837,42 +2837,42 @@
       <c r="F23" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="87"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I23" s="19">
         <v>8212</v>
       </c>
-      <c r="K23" s="70">
+      <c r="K23" s="58">
         <v>60</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="74">
+      <c r="L23" s="58"/>
+      <c r="M23" s="59">
         <v>5</v>
       </c>
-      <c r="N23" s="70">
+      <c r="N23" s="58">
         <v>60</v>
       </c>
-      <c r="O23" s="70"/>
-      <c r="P23" s="74">
+      <c r="O23" s="58"/>
+      <c r="P23" s="59">
         <v>5</v>
       </c>
-      <c r="Q23" s="70">
+      <c r="Q23" s="58">
         <v>60</v>
       </c>
-      <c r="R23" s="70"/>
-      <c r="S23" s="74">
+      <c r="R23" s="58"/>
+      <c r="S23" s="59">
         <v>5</v>
       </c>
-      <c r="T23" s="52">
+      <c r="T23" s="57">
         <f>SUM(K23:S25)</f>
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="96"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="11">
         <v>822</v>
       </c>
@@ -2885,27 +2885,27 @@
       <c r="F24" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="105" t="s">
+      <c r="G24" s="78"/>
+      <c r="H24" s="64" t="s">
         <v>133</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="52"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="57"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="96"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="28">
         <v>823</v>
       </c>
@@ -2918,46 +2918,46 @@
       <c r="F25" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="105"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="64"/>
       <c r="I25" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="52"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="57"/>
     </row>
     <row r="26" spans="1:22" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="51"/>
       <c r="N26" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="O26" s="73" t="s">
+      <c r="O26" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
     </row>
     <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="101" t="s">
+      <c r="A27" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="52">
         <v>831</v>
       </c>
       <c r="D27" s="30" t="s">
@@ -2969,10 +2969,10 @@
       <c r="F27" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="104" t="s">
+      <c r="H27" s="80" t="s">
         <v>131</v>
       </c>
       <c r="I27" s="81" t="s">
@@ -2981,36 +2981,36 @@
       <c r="K27" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="79" t="s">
+      <c r="L27" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="79"/>
+      <c r="M27" s="108"/>
       <c r="N27" s="50">
         <v>30</v>
       </c>
       <c r="O27" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="P27" s="79" t="s">
+      <c r="P27" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="79"/>
+      <c r="Q27" s="108"/>
       <c r="R27" s="38" t="s">
         <v>18</v>
       </c>
       <c r="S27" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="T27" s="65" t="s">
+      <c r="T27" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="115"/>
     </row>
     <row r="28" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="5" t="s">
         <v>141</v>
       </c>
@@ -3020,44 +3020,44 @@
       <c r="F28" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="104"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="80"/>
       <c r="I28" s="81"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="70">
-        <v>30</v>
-      </c>
-      <c r="L28" s="74">
+      <c r="K28" s="58">
+        <v>30</v>
+      </c>
+      <c r="L28" s="59">
         <v>60</v>
       </c>
-      <c r="M28" s="74"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="35">
         <v>30</v>
       </c>
-      <c r="O28" s="70">
-        <v>30</v>
-      </c>
-      <c r="P28" s="74">
+      <c r="O28" s="58">
+        <v>30</v>
+      </c>
+      <c r="P28" s="59">
         <v>60</v>
       </c>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="52">
+      <c r="Q28" s="59"/>
+      <c r="R28" s="57">
         <f>SUM(K28:Q28)</f>
         <v>210</v>
       </c>
       <c r="S28" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="T28" s="65" t="s">
+      <c r="T28" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
     </row>
     <row r="29" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="5" t="s">
         <v>143</v>
       </c>
@@ -3067,28 +3067,28 @@
       <c r="F29" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="104" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="80" t="s">
         <v>132</v>
       </c>
       <c r="I29" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="70"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="35">
         <v>30</v>
       </c>
-      <c r="O29" s="70"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="52"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="57"/>
     </row>
     <row r="30" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="5" t="s">
         <v>142</v>
       </c>
@@ -3098,23 +3098,23 @@
       <c r="F30" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="104"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="81"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="35">
         <v>30</v>
       </c>
-      <c r="O30" s="70"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="52"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="57"/>
     </row>
     <row r="31" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="10">
         <v>832</v>
       </c>
@@ -3127,27 +3127,27 @@
       <c r="F31" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="104" t="s">
+      <c r="G31" s="93"/>
+      <c r="H31" s="80" t="s">
         <v>133</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="70"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="34">
         <v>30</v>
       </c>
-      <c r="O31" s="70"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="52"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="57"/>
     </row>
     <row r="32" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="2">
         <v>833</v>
       </c>
@@ -3160,31 +3160,31 @@
       <c r="F32" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="104"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="80"/>
       <c r="I32" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="52" t="s">
+      <c r="K32" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
       <c r="N32" s="34">
         <v>30</v>
       </c>
-      <c r="O32" s="52" t="s">
+      <c r="O32" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
     </row>
     <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="98">
+      <c r="A33" s="66"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="61">
         <v>831</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3196,13 +3196,13 @@
       <c r="F33" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="106" t="s">
+      <c r="G33" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="105" t="s">
+      <c r="H33" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="80" t="s">
+      <c r="I33" s="76" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="32" t="s">
@@ -3231,9 +3231,9 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="99"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="7" t="s">
         <v>141</v>
       </c>
@@ -3243,39 +3243,39 @@
       <c r="F34" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="106"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="80"/>
-      <c r="K34" s="53">
-        <v>30</v>
-      </c>
-      <c r="L34" s="56">
+      <c r="G34" s="96"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="76"/>
+      <c r="K34" s="67">
+        <v>30</v>
+      </c>
+      <c r="L34" s="70">
         <v>20</v>
       </c>
-      <c r="M34" s="59">
+      <c r="M34" s="73">
         <v>40</v>
       </c>
       <c r="N34" s="34">
         <v>30</v>
       </c>
-      <c r="O34" s="53">
-        <v>30</v>
-      </c>
-      <c r="P34" s="56">
+      <c r="O34" s="67">
+        <v>30</v>
+      </c>
+      <c r="P34" s="70">
         <v>20</v>
       </c>
-      <c r="Q34" s="59">
+      <c r="Q34" s="73">
         <v>40</v>
       </c>
-      <c r="R34" s="62">
+      <c r="R34" s="52">
         <f>SUM(K34:Q34)</f>
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="99"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="7" t="s">
         <v>143</v>
       </c>
@@ -3285,28 +3285,28 @@
       <c r="F35" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="106"/>
-      <c r="H35" s="105" t="s">
+      <c r="G35" s="96"/>
+      <c r="H35" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I35" s="80" t="s">
+      <c r="I35" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="54"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="60"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="74"/>
       <c r="N35" s="34">
         <v>30</v>
       </c>
-      <c r="O35" s="54"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="63"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="53"/>
     </row>
     <row r="36" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="100"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="7" t="s">
         <v>142</v>
       </c>
@@ -3316,23 +3316,23 @@
       <c r="F36" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="106"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="80"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="60"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="76"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="74"/>
       <c r="N36" s="34">
         <v>30</v>
       </c>
-      <c r="O36" s="54"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="63"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="53"/>
     </row>
     <row r="37" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
-      <c r="B37" s="102"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="23">
         <v>832</v>
       </c>
@@ -3345,27 +3345,27 @@
       <c r="F37" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="106"/>
-      <c r="H37" s="105" t="s">
+      <c r="G37" s="96"/>
+      <c r="H37" s="64" t="s">
         <v>133</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="55"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="61"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="75"/>
       <c r="N37" s="34">
         <v>30</v>
       </c>
-      <c r="O37" s="55"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="64"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="54"/>
     </row>
     <row r="38" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="110"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="11">
         <v>833</v>
       </c>
@@ -3378,30 +3378,30 @@
       <c r="F38" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="106"/>
-      <c r="H38" s="105"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="64"/>
       <c r="I38" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
       <c r="N38" s="34">
         <v>30</v>
       </c>
-      <c r="O38" s="52" t="s">
+      <c r="O38" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
       <c r="R38" s="44"/>
     </row>
     <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="110"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="62">
+      <c r="A39" s="66"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="52">
         <v>831</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -3413,10 +3413,10 @@
       <c r="F39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="95" t="s">
+      <c r="G39" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="104" t="s">
+      <c r="H39" s="80" t="s">
         <v>131</v>
       </c>
       <c r="I39" s="81" t="s">
@@ -3425,28 +3425,28 @@
       <c r="K39" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L39" s="75" t="s">
+      <c r="L39" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="M39" s="75"/>
+      <c r="M39" s="60"/>
       <c r="N39" s="31">
         <v>30</v>
       </c>
       <c r="O39" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P39" s="75" t="s">
+      <c r="P39" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="Q39" s="75"/>
+      <c r="Q39" s="60"/>
       <c r="R39" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="110"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="5" t="s">
         <v>141</v>
       </c>
@@ -3456,35 +3456,35 @@
       <c r="F40" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="95"/>
-      <c r="H40" s="104"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="80"/>
       <c r="I40" s="81"/>
-      <c r="K40" s="70">
-        <v>30</v>
-      </c>
-      <c r="L40" s="74">
+      <c r="K40" s="58">
+        <v>30</v>
+      </c>
+      <c r="L40" s="59">
         <v>60</v>
       </c>
-      <c r="M40" s="74"/>
+      <c r="M40" s="59"/>
       <c r="N40" s="35">
         <v>30</v>
       </c>
-      <c r="O40" s="70">
-        <v>30</v>
-      </c>
-      <c r="P40" s="74">
+      <c r="O40" s="58">
+        <v>30</v>
+      </c>
+      <c r="P40" s="59">
         <v>60</v>
       </c>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="52">
+      <c r="Q40" s="59"/>
+      <c r="R40" s="57">
         <f>SUM(K40:Q40)</f>
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="5" t="s">
         <v>143</v>
       </c>
@@ -3494,28 +3494,28 @@
       <c r="F41" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="95"/>
-      <c r="H41" s="104" t="s">
+      <c r="G41" s="97"/>
+      <c r="H41" s="80" t="s">
         <v>132</v>
       </c>
       <c r="I41" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="70"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
       <c r="N41" s="35">
         <v>30</v>
       </c>
-      <c r="O41" s="70"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="52"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="57"/>
     </row>
     <row r="42" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="64"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="5" t="s">
         <v>142</v>
       </c>
@@ -3525,23 +3525,23 @@
       <c r="F42" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="95"/>
-      <c r="H42" s="104"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="80"/>
       <c r="I42" s="81"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
       <c r="N42" s="35">
         <v>30</v>
       </c>
-      <c r="O42" s="70"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="52"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="57"/>
     </row>
     <row r="43" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="102"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="10">
         <v>832</v>
       </c>
@@ -3554,27 +3554,27 @@
       <c r="F43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="95"/>
-      <c r="H43" s="104" t="s">
+      <c r="G43" s="97"/>
+      <c r="H43" s="80" t="s">
         <v>133</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="70"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
       <c r="N43" s="34">
         <v>30</v>
       </c>
-      <c r="O43" s="70"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="52"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="57"/>
     </row>
     <row r="44" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
-      <c r="B44" s="102"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="2">
         <v>833</v>
       </c>
@@ -3587,30 +3587,30 @@
       <c r="F44" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="95"/>
-      <c r="H44" s="104"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="80"/>
       <c r="I44" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="52" t="s">
+      <c r="K44" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
       <c r="N44" s="34">
         <v>30</v>
       </c>
-      <c r="O44" s="52" t="s">
+      <c r="O44" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
       <c r="R44" s="44"/>
     </row>
     <row r="45" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="110"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="98">
+      <c r="A45" s="66"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="61">
         <v>831</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -3622,13 +3622,13 @@
       <c r="F45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="106" t="s">
+      <c r="G45" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="105" t="s">
+      <c r="H45" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="I45" s="80" t="s">
+      <c r="I45" s="76" t="s">
         <v>40</v>
       </c>
       <c r="K45" s="32" t="s">
@@ -3657,9 +3657,9 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="110"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="99"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="7" t="s">
         <v>141</v>
       </c>
@@ -3669,39 +3669,39 @@
       <c r="F46" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="106"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="80"/>
-      <c r="K46" s="53">
-        <v>30</v>
-      </c>
-      <c r="L46" s="56">
+      <c r="G46" s="96"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="76"/>
+      <c r="K46" s="67">
+        <v>30</v>
+      </c>
+      <c r="L46" s="70">
         <v>25</v>
       </c>
-      <c r="M46" s="59">
+      <c r="M46" s="73">
         <v>35</v>
       </c>
       <c r="N46" s="34">
         <v>30</v>
       </c>
-      <c r="O46" s="53">
-        <v>30</v>
-      </c>
-      <c r="P46" s="56">
+      <c r="O46" s="67">
+        <v>30</v>
+      </c>
+      <c r="P46" s="70">
         <v>25</v>
       </c>
-      <c r="Q46" s="59">
+      <c r="Q46" s="73">
         <v>35</v>
       </c>
-      <c r="R46" s="62">
+      <c r="R46" s="52">
         <f>SUM(K46:Q46)</f>
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="99"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="7" t="s">
         <v>143</v>
       </c>
@@ -3711,28 +3711,28 @@
       <c r="F47" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="106"/>
-      <c r="H47" s="105" t="s">
+      <c r="G47" s="96"/>
+      <c r="H47" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I47" s="80" t="s">
+      <c r="I47" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="K47" s="54"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="60"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="74"/>
       <c r="N47" s="34">
         <v>30</v>
       </c>
-      <c r="O47" s="54"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="63"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="53"/>
     </row>
     <row r="48" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="110"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="100"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="7" t="s">
         <v>142</v>
       </c>
@@ -3742,23 +3742,23 @@
       <c r="F48" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="106"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="80"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="60"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="76"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="74"/>
       <c r="N48" s="34">
         <v>30</v>
       </c>
-      <c r="O48" s="54"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="63"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="53"/>
     </row>
     <row r="49" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="110"/>
-      <c r="B49" s="102"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="23">
         <v>832</v>
       </c>
@@ -3771,27 +3771,27 @@
       <c r="F49" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="106"/>
-      <c r="H49" s="105" t="s">
+      <c r="G49" s="96"/>
+      <c r="H49" s="64" t="s">
         <v>133</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="K49" s="55"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="61"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="75"/>
       <c r="N49" s="34">
         <v>30</v>
       </c>
-      <c r="O49" s="55"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="64"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="54"/>
     </row>
     <row r="50" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="103"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="11">
         <v>833</v>
       </c>
@@ -3804,32 +3804,32 @@
       <c r="F50" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="106"/>
-      <c r="H50" s="105"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="64"/>
       <c r="I50" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
       <c r="N50" s="34">
         <v>30</v>
       </c>
-      <c r="O50" s="52" t="s">
+      <c r="O50" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
       <c r="R50" s="44"/>
     </row>
     <row r="51" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="110"/>
-      <c r="B51" s="112" t="s">
+      <c r="A51" s="66"/>
+      <c r="B51" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="62">
+      <c r="C51" s="52">
         <v>841</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3841,10 +3841,10 @@
       <c r="F51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="107" t="s">
+      <c r="G51" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="104" t="s">
+      <c r="H51" s="80" t="s">
         <v>131</v>
       </c>
       <c r="I51" s="81" t="s">
@@ -3853,28 +3853,28 @@
       <c r="K51" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L51" s="75" t="s">
+      <c r="L51" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="M51" s="75"/>
+      <c r="M51" s="60"/>
       <c r="N51" s="34">
         <v>30</v>
       </c>
       <c r="O51" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P51" s="75" t="s">
+      <c r="P51" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="Q51" s="75"/>
+      <c r="Q51" s="60"/>
       <c r="R51" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="110"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="5" t="s">
         <v>141</v>
       </c>
@@ -3884,35 +3884,35 @@
       <c r="F52" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="107"/>
-      <c r="H52" s="104"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="80"/>
       <c r="I52" s="81"/>
-      <c r="K52" s="70">
-        <v>30</v>
-      </c>
-      <c r="L52" s="74">
+      <c r="K52" s="58">
+        <v>30</v>
+      </c>
+      <c r="L52" s="59">
         <v>60</v>
       </c>
-      <c r="M52" s="74"/>
+      <c r="M52" s="59"/>
       <c r="N52" s="34">
         <v>30</v>
       </c>
-      <c r="O52" s="70">
-        <v>30</v>
-      </c>
-      <c r="P52" s="74">
+      <c r="O52" s="58">
+        <v>30</v>
+      </c>
+      <c r="P52" s="59">
         <v>60</v>
       </c>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="52">
+      <c r="Q52" s="59"/>
+      <c r="R52" s="57">
         <f>SUM(K52:Q52)</f>
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="5" t="s">
         <v>143</v>
       </c>
@@ -3922,28 +3922,28 @@
       <c r="F53" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="107"/>
-      <c r="H53" s="104" t="s">
+      <c r="G53" s="98"/>
+      <c r="H53" s="80" t="s">
         <v>132</v>
       </c>
       <c r="I53" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="K53" s="70"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
       <c r="N53" s="34">
         <v>30</v>
       </c>
-      <c r="O53" s="70"/>
-      <c r="P53" s="74"/>
-      <c r="Q53" s="74"/>
-      <c r="R53" s="52"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="57"/>
     </row>
     <row r="54" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="110"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="64"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="5" t="s">
         <v>142</v>
       </c>
@@ -3953,23 +3953,23 @@
       <c r="F54" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="104"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="80"/>
       <c r="I54" s="81"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="74"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
       <c r="N54" s="34">
         <v>30</v>
       </c>
-      <c r="O54" s="70"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="74"/>
-      <c r="R54" s="52"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="57"/>
     </row>
     <row r="55" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="110"/>
-      <c r="B55" s="113"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="2">
         <v>842</v>
       </c>
@@ -3982,27 +3982,27 @@
       <c r="F55" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="95"/>
-      <c r="H55" s="104" t="s">
+      <c r="G55" s="97"/>
+      <c r="H55" s="80" t="s">
         <v>133</v>
       </c>
       <c r="I55" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K55" s="70"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
       <c r="N55" s="34">
         <v>30</v>
       </c>
-      <c r="O55" s="70"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="52"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="57"/>
     </row>
     <row r="56" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="113"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="2">
         <v>843</v>
       </c>
@@ -4015,30 +4015,30 @@
       <c r="F56" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="95"/>
-      <c r="H56" s="104"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="80"/>
       <c r="I56" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K56" s="52" t="s">
+      <c r="K56" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
       <c r="N56" s="34">
         <v>30</v>
       </c>
-      <c r="O56" s="52" t="s">
+      <c r="O56" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
       <c r="R56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="110"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="98">
+      <c r="A57" s="66"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="61">
         <v>841</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -4050,13 +4050,13 @@
       <c r="F57" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="108" t="s">
+      <c r="G57" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="105" t="s">
+      <c r="H57" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="I57" s="80" t="s">
+      <c r="I57" s="76" t="s">
         <v>46</v>
       </c>
       <c r="K57" s="32" t="s">
@@ -4085,9 +4085,9 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="99"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="7" t="s">
         <v>141</v>
       </c>
@@ -4097,39 +4097,39 @@
       <c r="F58" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="108"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="80"/>
-      <c r="K58" s="53">
-        <v>30</v>
-      </c>
-      <c r="L58" s="56">
+      <c r="G58" s="99"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="76"/>
+      <c r="K58" s="67">
+        <v>30</v>
+      </c>
+      <c r="L58" s="70">
         <v>25</v>
       </c>
-      <c r="M58" s="59">
+      <c r="M58" s="73">
         <v>35</v>
       </c>
       <c r="N58" s="34">
         <v>30</v>
       </c>
-      <c r="O58" s="53">
-        <v>30</v>
-      </c>
-      <c r="P58" s="56">
+      <c r="O58" s="67">
+        <v>30</v>
+      </c>
+      <c r="P58" s="70">
         <v>25</v>
       </c>
-      <c r="Q58" s="59">
+      <c r="Q58" s="73">
         <v>35</v>
       </c>
-      <c r="R58" s="62">
+      <c r="R58" s="52">
         <f>SUM(K58:Q58)</f>
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="99"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="7" t="s">
         <v>143</v>
       </c>
@@ -4139,28 +4139,28 @@
       <c r="F59" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="108"/>
-      <c r="H59" s="105" t="s">
+      <c r="G59" s="99"/>
+      <c r="H59" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I59" s="80" t="s">
+      <c r="I59" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="54"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="60"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="74"/>
       <c r="N59" s="34">
         <v>30</v>
       </c>
-      <c r="O59" s="54"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="63"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="53"/>
     </row>
     <row r="60" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="110"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="100"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="7" t="s">
         <v>142</v>
       </c>
@@ -4170,23 +4170,23 @@
       <c r="F60" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="106"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="80"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="60"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="76"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="74"/>
       <c r="N60" s="34">
         <v>30</v>
       </c>
-      <c r="O60" s="54"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="63"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="53"/>
     </row>
     <row r="61" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="110"/>
-      <c r="B61" s="113"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="11">
         <v>842</v>
       </c>
@@ -4199,27 +4199,27 @@
       <c r="F61" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G61" s="106"/>
-      <c r="H61" s="105" t="s">
+      <c r="G61" s="96"/>
+      <c r="H61" s="64" t="s">
         <v>133</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K61" s="55"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="61"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="75"/>
       <c r="N61" s="34">
         <v>30</v>
       </c>
-      <c r="O61" s="55"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="64"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="75"/>
+      <c r="R61" s="54"/>
     </row>
     <row r="62" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="111"/>
-      <c r="B62" s="114"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="11">
         <v>843</v>
       </c>
@@ -4232,56 +4232,56 @@
       <c r="F62" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="106"/>
-      <c r="H62" s="105"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="64"/>
       <c r="I62" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K62" s="67" t="s">
+      <c r="K62" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
       <c r="N62" s="34">
         <v>30</v>
       </c>
-      <c r="O62" s="52" t="s">
+      <c r="O62" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
       <c r="R62" s="44"/>
     </row>
-    <row r="63" spans="1:20" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="116"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="116"/>
-      <c r="P63" s="116"/>
-      <c r="Q63" s="116"/>
-      <c r="R63" s="116"/>
-      <c r="S63" s="116"/>
-      <c r="T63" s="116"/>
+    <row r="63" spans="1:20" s="66" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
+      <c r="T63" s="65"/>
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="101" t="s">
+      <c r="A64" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C64" s="52">
         <v>851</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4293,10 +4293,10 @@
       <c r="F64" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="H64" s="104" t="s">
+      <c r="G64" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="H64" s="80" t="s">
         <v>131</v>
       </c>
       <c r="I64" s="81" t="s">
@@ -4305,28 +4305,28 @@
       <c r="K64" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L64" s="75" t="s">
+      <c r="L64" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="M64" s="75"/>
+      <c r="M64" s="60"/>
       <c r="N64" s="34">
         <v>30</v>
       </c>
       <c r="O64" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P64" s="75" t="s">
+      <c r="P64" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="Q64" s="75"/>
+      <c r="Q64" s="60"/>
       <c r="R64" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
-      <c r="B65" s="102"/>
-      <c r="C65" s="63"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="5" t="s">
         <v>141</v>
       </c>
@@ -4336,35 +4336,35 @@
       <c r="F65" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G65" s="84"/>
-      <c r="H65" s="104"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="80"/>
       <c r="I65" s="81"/>
-      <c r="K65" s="70">
-        <v>30</v>
-      </c>
-      <c r="L65" s="74">
+      <c r="K65" s="58">
+        <v>30</v>
+      </c>
+      <c r="L65" s="59">
         <v>60</v>
       </c>
-      <c r="M65" s="74"/>
+      <c r="M65" s="59"/>
       <c r="N65" s="34">
         <v>30</v>
       </c>
-      <c r="O65" s="70">
-        <v>30</v>
-      </c>
-      <c r="P65" s="74">
+      <c r="O65" s="58">
+        <v>30</v>
+      </c>
+      <c r="P65" s="59">
         <v>60</v>
       </c>
-      <c r="Q65" s="74"/>
-      <c r="R65" s="52">
+      <c r="Q65" s="59"/>
+      <c r="R65" s="57">
         <f>SUM(K65:Q65)</f>
         <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="110"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="63"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="5" t="s">
         <v>143</v>
       </c>
@@ -4374,28 +4374,28 @@
       <c r="F66" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G66" s="84"/>
-      <c r="H66" s="104" t="s">
+      <c r="G66" s="93"/>
+      <c r="H66" s="80" t="s">
         <v>132</v>
       </c>
       <c r="I66" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="K66" s="70"/>
-      <c r="L66" s="74"/>
-      <c r="M66" s="74"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
       <c r="N66" s="34">
         <v>30</v>
       </c>
-      <c r="O66" s="70"/>
-      <c r="P66" s="74"/>
-      <c r="Q66" s="74"/>
-      <c r="R66" s="52"/>
+      <c r="O66" s="58"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="57"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="110"/>
-      <c r="B67" s="102"/>
-      <c r="C67" s="64"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="5" t="s">
         <v>142</v>
       </c>
@@ -4405,23 +4405,23 @@
       <c r="F67" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="84"/>
-      <c r="H67" s="104"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="80"/>
       <c r="I67" s="81"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="74"/>
-      <c r="M67" s="74"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
       <c r="N67" s="34">
         <v>30</v>
       </c>
-      <c r="O67" s="70"/>
-      <c r="P67" s="74"/>
-      <c r="Q67" s="74"/>
-      <c r="R67" s="52"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="57"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="110"/>
-      <c r="B68" s="102"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="10">
         <v>852</v>
       </c>
@@ -4434,27 +4434,27 @@
       <c r="F68" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G68" s="84"/>
-      <c r="H68" s="104" t="s">
+      <c r="G68" s="93"/>
+      <c r="H68" s="80" t="s">
         <v>133</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="K68" s="70"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="74"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
       <c r="N68" s="34">
         <v>30</v>
       </c>
-      <c r="O68" s="70"/>
-      <c r="P68" s="74"/>
-      <c r="Q68" s="74"/>
-      <c r="R68" s="52"/>
+      <c r="O68" s="58"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="57"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="110"/>
-      <c r="B69" s="102"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="2">
         <v>853</v>
       </c>
@@ -4467,30 +4467,30 @@
       <c r="F69" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="85"/>
-      <c r="H69" s="104"/>
+      <c r="G69" s="94"/>
+      <c r="H69" s="80"/>
       <c r="I69" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="K69" s="52" t="s">
+      <c r="K69" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
       <c r="N69" s="34">
         <v>30</v>
       </c>
-      <c r="O69" s="52" t="s">
+      <c r="O69" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
       <c r="R69" s="44"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
-      <c r="B70" s="102"/>
-      <c r="C70" s="98">
+      <c r="A70" s="66"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="61">
         <v>851</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -4502,13 +4502,13 @@
       <c r="F70" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G70" s="86" t="s">
+      <c r="G70" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="H70" s="105" t="s">
+      <c r="H70" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="I70" s="80" t="s">
+      <c r="I70" s="76" t="s">
         <v>125</v>
       </c>
       <c r="K70" s="32" t="s">
@@ -4537,9 +4537,9 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
-      <c r="B71" s="102"/>
-      <c r="C71" s="99"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="7" t="s">
         <v>141</v>
       </c>
@@ -4549,39 +4549,39 @@
       <c r="F71" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G71" s="87"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="80"/>
-      <c r="K71" s="53">
-        <v>30</v>
-      </c>
-      <c r="L71" s="56">
+      <c r="G71" s="78"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="76"/>
+      <c r="K71" s="67">
+        <v>30</v>
+      </c>
+      <c r="L71" s="70">
         <v>20</v>
       </c>
-      <c r="M71" s="59">
+      <c r="M71" s="73">
         <v>40</v>
       </c>
       <c r="N71" s="34">
         <v>30</v>
       </c>
-      <c r="O71" s="53">
-        <v>30</v>
-      </c>
-      <c r="P71" s="56">
+      <c r="O71" s="67">
+        <v>30</v>
+      </c>
+      <c r="P71" s="70">
         <v>20</v>
       </c>
-      <c r="Q71" s="59">
+      <c r="Q71" s="73">
         <v>40</v>
       </c>
-      <c r="R71" s="62">
+      <c r="R71" s="52">
         <f>SUM(K71:Q71)</f>
         <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="110"/>
-      <c r="B72" s="102"/>
-      <c r="C72" s="99"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="7" t="s">
         <v>143</v>
       </c>
@@ -4591,28 +4591,28 @@
       <c r="F72" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G72" s="87"/>
-      <c r="H72" s="105" t="s">
+      <c r="G72" s="78"/>
+      <c r="H72" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I72" s="80" t="s">
+      <c r="I72" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="K72" s="54"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="60"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="74"/>
       <c r="N72" s="34">
         <v>30</v>
       </c>
-      <c r="O72" s="54"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="63"/>
+      <c r="O72" s="68"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="74"/>
+      <c r="R72" s="53"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
-      <c r="B73" s="102"/>
-      <c r="C73" s="100"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="7" t="s">
         <v>142</v>
       </c>
@@ -4622,23 +4622,23 @@
       <c r="F73" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G73" s="87"/>
-      <c r="H73" s="105"/>
-      <c r="I73" s="80"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="60"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="76"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="71"/>
+      <c r="M73" s="74"/>
       <c r="N73" s="34">
         <v>30</v>
       </c>
-      <c r="O73" s="54"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="63"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="74"/>
+      <c r="R73" s="53"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
-      <c r="B74" s="102"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="23">
         <v>852</v>
       </c>
@@ -4651,27 +4651,27 @@
       <c r="F74" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G74" s="87"/>
-      <c r="H74" s="105" t="s">
+      <c r="G74" s="78"/>
+      <c r="H74" s="64" t="s">
         <v>133</v>
       </c>
       <c r="I74" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K74" s="55"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="61"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="75"/>
       <c r="N74" s="34">
         <v>30</v>
       </c>
-      <c r="O74" s="55"/>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="64"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="75"/>
+      <c r="R74" s="54"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="110"/>
-      <c r="B75" s="102"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="11">
         <v>853</v>
       </c>
@@ -4684,30 +4684,30 @@
       <c r="F75" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="88"/>
-      <c r="H75" s="105"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="64"/>
       <c r="I75" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K75" s="67" t="s">
+      <c r="K75" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L75" s="68"/>
-      <c r="M75" s="68"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
       <c r="N75" s="34">
         <v>30</v>
       </c>
-      <c r="O75" s="52" t="s">
+      <c r="O75" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
       <c r="R75" s="44"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="110"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="62">
+      <c r="A76" s="66"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="52">
         <v>851</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4719,10 +4719,10 @@
       <c r="F76" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="H76" s="104" t="s">
+      <c r="G76" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="80" t="s">
         <v>131</v>
       </c>
       <c r="I76" s="81" t="s">
@@ -4731,28 +4731,28 @@
       <c r="K76" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L76" s="75" t="s">
+      <c r="L76" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="M76" s="75"/>
+      <c r="M76" s="60"/>
       <c r="N76" s="34">
         <v>30</v>
       </c>
       <c r="O76" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P76" s="75" t="s">
+      <c r="P76" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="Q76" s="75"/>
+      <c r="Q76" s="60"/>
       <c r="R76" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="110"/>
-      <c r="B77" s="102"/>
-      <c r="C77" s="63"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="5" t="s">
         <v>141</v>
       </c>
@@ -4762,35 +4762,35 @@
       <c r="F77" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G77" s="84"/>
-      <c r="H77" s="104"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="80"/>
       <c r="I77" s="81"/>
-      <c r="K77" s="70">
-        <v>30</v>
-      </c>
-      <c r="L77" s="74">
+      <c r="K77" s="58">
+        <v>30</v>
+      </c>
+      <c r="L77" s="59">
         <v>60</v>
       </c>
-      <c r="M77" s="74"/>
+      <c r="M77" s="59"/>
       <c r="N77" s="34">
         <v>30</v>
       </c>
-      <c r="O77" s="70">
-        <v>30</v>
-      </c>
-      <c r="P77" s="74">
+      <c r="O77" s="58">
+        <v>30</v>
+      </c>
+      <c r="P77" s="59">
         <v>60</v>
       </c>
-      <c r="Q77" s="74"/>
-      <c r="R77" s="52">
+      <c r="Q77" s="59"/>
+      <c r="R77" s="57">
         <f>SUM(K77:Q77)</f>
         <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="110"/>
-      <c r="B78" s="102"/>
-      <c r="C78" s="63"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="5" t="s">
         <v>143</v>
       </c>
@@ -4800,28 +4800,28 @@
       <c r="F78" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="84"/>
-      <c r="H78" s="104" t="s">
+      <c r="G78" s="93"/>
+      <c r="H78" s="80" t="s">
         <v>132</v>
       </c>
       <c r="I78" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="K78" s="70"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="74"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="59"/>
       <c r="N78" s="34">
         <v>30</v>
       </c>
-      <c r="O78" s="70"/>
-      <c r="P78" s="74"/>
-      <c r="Q78" s="74"/>
-      <c r="R78" s="52"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="59"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="57"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
-      <c r="B79" s="102"/>
-      <c r="C79" s="64"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="5" t="s">
         <v>142</v>
       </c>
@@ -4831,23 +4831,23 @@
       <c r="F79" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G79" s="84"/>
-      <c r="H79" s="104"/>
+      <c r="G79" s="93"/>
+      <c r="H79" s="80"/>
       <c r="I79" s="81"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="59"/>
       <c r="N79" s="34">
         <v>30</v>
       </c>
-      <c r="O79" s="70"/>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="52"/>
+      <c r="O79" s="58"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="57"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
-      <c r="B80" s="102"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="10">
         <v>852</v>
       </c>
@@ -4860,27 +4860,27 @@
       <c r="F80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="84"/>
-      <c r="H80" s="104" t="s">
+      <c r="G80" s="93"/>
+      <c r="H80" s="80" t="s">
         <v>133</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="K80" s="70"/>
-      <c r="L80" s="74"/>
-      <c r="M80" s="74"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="59"/>
+      <c r="M80" s="59"/>
       <c r="N80" s="34">
         <v>30</v>
       </c>
-      <c r="O80" s="70"/>
-      <c r="P80" s="74"/>
-      <c r="Q80" s="74"/>
-      <c r="R80" s="52"/>
+      <c r="O80" s="58"/>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="57"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
-      <c r="B81" s="102"/>
+      <c r="A81" s="66"/>
+      <c r="B81" s="90"/>
       <c r="C81" s="2">
         <v>853</v>
       </c>
@@ -4893,30 +4893,30 @@
       <c r="F81" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G81" s="85"/>
-      <c r="H81" s="104"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="80"/>
       <c r="I81" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K81" s="52" t="s">
+      <c r="K81" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
       <c r="N81" s="34">
         <v>30</v>
       </c>
-      <c r="O81" s="52" t="s">
+      <c r="O81" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
       <c r="R81" s="44"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="110"/>
-      <c r="B82" s="102"/>
-      <c r="C82" s="98">
+      <c r="A82" s="66"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="61">
         <v>851</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -4928,13 +4928,13 @@
       <c r="F82" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="86" t="s">
+      <c r="G82" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="H82" s="105" t="s">
+      <c r="H82" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="I82" s="80" t="s">
+      <c r="I82" s="76" t="s">
         <v>127</v>
       </c>
       <c r="K82" s="32" t="s">
@@ -4963,9 +4963,9 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="110"/>
-      <c r="B83" s="102"/>
-      <c r="C83" s="99"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="7" t="s">
         <v>141</v>
       </c>
@@ -4975,39 +4975,39 @@
       <c r="F83" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="87"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="80"/>
-      <c r="K83" s="53">
-        <v>30</v>
-      </c>
-      <c r="L83" s="56">
+      <c r="G83" s="78"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="76"/>
+      <c r="K83" s="67">
+        <v>30</v>
+      </c>
+      <c r="L83" s="70">
         <v>25</v>
       </c>
-      <c r="M83" s="59">
+      <c r="M83" s="73">
         <v>35</v>
       </c>
       <c r="N83" s="34">
         <v>30</v>
       </c>
-      <c r="O83" s="53">
-        <v>30</v>
-      </c>
-      <c r="P83" s="56">
+      <c r="O83" s="67">
+        <v>30</v>
+      </c>
+      <c r="P83" s="70">
         <v>25</v>
       </c>
-      <c r="Q83" s="59">
+      <c r="Q83" s="73">
         <v>35</v>
       </c>
-      <c r="R83" s="62">
+      <c r="R83" s="52">
         <f>SUM(K83:Q83)</f>
         <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="110"/>
-      <c r="B84" s="102"/>
-      <c r="C84" s="99"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="7" t="s">
         <v>143</v>
       </c>
@@ -5017,28 +5017,28 @@
       <c r="F84" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G84" s="87"/>
-      <c r="H84" s="105" t="s">
+      <c r="G84" s="78"/>
+      <c r="H84" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I84" s="80" t="s">
+      <c r="I84" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="K84" s="54"/>
-      <c r="L84" s="57"/>
-      <c r="M84" s="60"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="74"/>
       <c r="N84" s="34">
         <v>30</v>
       </c>
-      <c r="O84" s="54"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="60"/>
-      <c r="R84" s="63"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="53"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
-      <c r="B85" s="102"/>
-      <c r="C85" s="100"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="63"/>
       <c r="D85" s="7" t="s">
         <v>142</v>
       </c>
@@ -5048,23 +5048,23 @@
       <c r="F85" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="G85" s="87"/>
-      <c r="H85" s="105"/>
-      <c r="I85" s="80"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="60"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="76"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="74"/>
       <c r="N85" s="34">
         <v>30</v>
       </c>
-      <c r="O85" s="54"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="63"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="74"/>
+      <c r="R85" s="53"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="110"/>
-      <c r="B86" s="102"/>
+      <c r="A86" s="66"/>
+      <c r="B86" s="90"/>
       <c r="C86" s="23">
         <v>852</v>
       </c>
@@ -5077,27 +5077,27 @@
       <c r="F86" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G86" s="87"/>
-      <c r="H86" s="105" t="s">
+      <c r="G86" s="78"/>
+      <c r="H86" s="64" t="s">
         <v>133</v>
       </c>
       <c r="I86" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="K86" s="55"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="61"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="72"/>
+      <c r="M86" s="75"/>
       <c r="N86" s="34">
         <v>30</v>
       </c>
-      <c r="O86" s="55"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="64"/>
+      <c r="O86" s="69"/>
+      <c r="P86" s="72"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="54"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="110"/>
-      <c r="B87" s="103"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="91"/>
       <c r="C87" s="11">
         <v>853</v>
       </c>
@@ -5110,32 +5110,32 @@
       <c r="F87" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G87" s="88"/>
-      <c r="H87" s="105"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="64"/>
       <c r="I87" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="K87" s="67" t="s">
+      <c r="K87" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L87" s="68"/>
-      <c r="M87" s="68"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
       <c r="N87" s="34">
         <v>30</v>
       </c>
-      <c r="O87" s="52" t="s">
+      <c r="O87" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52"/>
+      <c r="P87" s="57"/>
+      <c r="Q87" s="57"/>
       <c r="R87" s="44"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="110"/>
-      <c r="B88" s="101" t="s">
+      <c r="A88" s="66"/>
+      <c r="B88" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="62">
+      <c r="C88" s="52">
         <v>861</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5147,10 +5147,10 @@
       <c r="F88" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="H88" s="104" t="s">
+      <c r="G88" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="H88" s="80" t="s">
         <v>131</v>
       </c>
       <c r="I88" s="81" t="s">
@@ -5159,28 +5159,28 @@
       <c r="K88" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L88" s="75" t="s">
+      <c r="L88" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="M88" s="75"/>
+      <c r="M88" s="60"/>
       <c r="N88" s="34">
         <v>30</v>
       </c>
       <c r="O88" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P88" s="75" t="s">
+      <c r="P88" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="Q88" s="75"/>
+      <c r="Q88" s="60"/>
       <c r="R88" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="110"/>
-      <c r="B89" s="102"/>
-      <c r="C89" s="63"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="53"/>
       <c r="D89" s="5" t="s">
         <v>141</v>
       </c>
@@ -5190,35 +5190,35 @@
       <c r="F89" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G89" s="90"/>
-      <c r="H89" s="104"/>
+      <c r="G89" s="102"/>
+      <c r="H89" s="80"/>
       <c r="I89" s="81"/>
-      <c r="K89" s="70">
-        <v>30</v>
-      </c>
-      <c r="L89" s="74">
+      <c r="K89" s="58">
+        <v>30</v>
+      </c>
+      <c r="L89" s="59">
         <v>60</v>
       </c>
-      <c r="M89" s="74"/>
+      <c r="M89" s="59"/>
       <c r="N89" s="34">
         <v>30</v>
       </c>
-      <c r="O89" s="70">
-        <v>30</v>
-      </c>
-      <c r="P89" s="74">
+      <c r="O89" s="58">
+        <v>30</v>
+      </c>
+      <c r="P89" s="59">
         <v>60</v>
       </c>
-      <c r="Q89" s="74"/>
-      <c r="R89" s="52">
+      <c r="Q89" s="59"/>
+      <c r="R89" s="57">
         <f>SUM(K89:Q89)</f>
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="110"/>
-      <c r="B90" s="102"/>
-      <c r="C90" s="63"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="53"/>
       <c r="D90" s="5" t="s">
         <v>143</v>
       </c>
@@ -5228,28 +5228,28 @@
       <c r="F90" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G90" s="90"/>
-      <c r="H90" s="104" t="s">
+      <c r="G90" s="102"/>
+      <c r="H90" s="80" t="s">
         <v>132</v>
       </c>
       <c r="I90" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="K90" s="70"/>
-      <c r="L90" s="74"/>
-      <c r="M90" s="74"/>
+      <c r="K90" s="58"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
       <c r="N90" s="34">
         <v>30</v>
       </c>
-      <c r="O90" s="70"/>
-      <c r="P90" s="74"/>
-      <c r="Q90" s="74"/>
-      <c r="R90" s="52"/>
+      <c r="O90" s="58"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="57"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="110"/>
-      <c r="B91" s="102"/>
-      <c r="C91" s="64"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="5" t="s">
         <v>142</v>
       </c>
@@ -5259,23 +5259,23 @@
       <c r="F91" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G91" s="90"/>
-      <c r="H91" s="104"/>
+      <c r="G91" s="102"/>
+      <c r="H91" s="80"/>
       <c r="I91" s="81"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="74"/>
-      <c r="M91" s="74"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="59"/>
       <c r="N91" s="34">
         <v>30</v>
       </c>
-      <c r="O91" s="70"/>
-      <c r="P91" s="74"/>
-      <c r="Q91" s="74"/>
-      <c r="R91" s="52"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="57"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="110"/>
-      <c r="B92" s="102"/>
+      <c r="A92" s="66"/>
+      <c r="B92" s="90"/>
       <c r="C92" s="2">
         <v>862</v>
       </c>
@@ -5288,27 +5288,27 @@
       <c r="F92" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="90"/>
-      <c r="H92" s="104" t="s">
+      <c r="G92" s="102"/>
+      <c r="H92" s="80" t="s">
         <v>133</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="K92" s="70"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="59"/>
       <c r="N92" s="34">
         <v>30</v>
       </c>
-      <c r="O92" s="70"/>
-      <c r="P92" s="74"/>
-      <c r="Q92" s="74"/>
-      <c r="R92" s="52"/>
+      <c r="O92" s="58"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="57"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="110"/>
-      <c r="B93" s="102"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="90"/>
       <c r="C93" s="2">
         <v>863</v>
       </c>
@@ -5321,30 +5321,30 @@
       <c r="F93" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G93" s="91"/>
-      <c r="H93" s="104"/>
+      <c r="G93" s="103"/>
+      <c r="H93" s="80"/>
       <c r="I93" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="K93" s="52" t="s">
+      <c r="K93" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="L93" s="52"/>
-      <c r="M93" s="52"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="57"/>
       <c r="N93" s="34">
         <v>30</v>
       </c>
-      <c r="O93" s="52" t="s">
+      <c r="O93" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="52"/>
+      <c r="P93" s="57"/>
+      <c r="Q93" s="57"/>
       <c r="R93" s="44"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="110"/>
-      <c r="B94" s="102"/>
-      <c r="C94" s="98">
+      <c r="A94" s="66"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="61">
         <v>861</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -5356,13 +5356,13 @@
       <c r="F94" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G94" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="H94" s="105" t="s">
+      <c r="G94" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="H94" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="I94" s="80" t="s">
+      <c r="I94" s="76" t="s">
         <v>129</v>
       </c>
       <c r="K94" s="32" t="s">
@@ -5391,9 +5391,9 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="110"/>
-      <c r="B95" s="102"/>
-      <c r="C95" s="99"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="62"/>
       <c r="D95" s="7" t="s">
         <v>141</v>
       </c>
@@ -5403,39 +5403,39 @@
       <c r="F95" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G95" s="93"/>
-      <c r="H95" s="105"/>
-      <c r="I95" s="80"/>
-      <c r="K95" s="53">
-        <v>30</v>
-      </c>
-      <c r="L95" s="56">
+      <c r="G95" s="105"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="76"/>
+      <c r="K95" s="67">
+        <v>30</v>
+      </c>
+      <c r="L95" s="70">
         <v>25</v>
       </c>
-      <c r="M95" s="59">
+      <c r="M95" s="73">
         <v>35</v>
       </c>
       <c r="N95" s="34">
         <v>30</v>
       </c>
-      <c r="O95" s="53">
-        <v>30</v>
-      </c>
-      <c r="P95" s="56">
+      <c r="O95" s="67">
+        <v>30</v>
+      </c>
+      <c r="P95" s="70">
         <v>25</v>
       </c>
-      <c r="Q95" s="59">
+      <c r="Q95" s="73">
         <v>35</v>
       </c>
-      <c r="R95" s="62">
+      <c r="R95" s="52">
         <f>SUM(K95:Q95)</f>
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="110"/>
-      <c r="B96" s="102"/>
-      <c r="C96" s="99"/>
+      <c r="A96" s="66"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="62"/>
       <c r="D96" s="7" t="s">
         <v>143</v>
       </c>
@@ -5445,28 +5445,28 @@
       <c r="F96" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="G96" s="93"/>
-      <c r="H96" s="105" t="s">
+      <c r="G96" s="105"/>
+      <c r="H96" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I96" s="80" t="s">
+      <c r="I96" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="K96" s="54"/>
-      <c r="L96" s="57"/>
-      <c r="M96" s="60"/>
+      <c r="K96" s="68"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="74"/>
       <c r="N96" s="34">
         <v>30</v>
       </c>
-      <c r="O96" s="54"/>
-      <c r="P96" s="57"/>
-      <c r="Q96" s="60"/>
-      <c r="R96" s="63"/>
+      <c r="O96" s="68"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="74"/>
+      <c r="R96" s="53"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="110"/>
-      <c r="B97" s="102"/>
-      <c r="C97" s="100"/>
+      <c r="A97" s="66"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="63"/>
       <c r="D97" s="7" t="s">
         <v>142</v>
       </c>
@@ -5476,23 +5476,23 @@
       <c r="F97" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G97" s="93"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="80"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="57"/>
-      <c r="M97" s="60"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="76"/>
+      <c r="K97" s="68"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="74"/>
       <c r="N97" s="34">
         <v>30</v>
       </c>
-      <c r="O97" s="54"/>
-      <c r="P97" s="57"/>
-      <c r="Q97" s="60"/>
-      <c r="R97" s="63"/>
+      <c r="O97" s="68"/>
+      <c r="P97" s="71"/>
+      <c r="Q97" s="74"/>
+      <c r="R97" s="53"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="110"/>
-      <c r="B98" s="102"/>
+      <c r="A98" s="66"/>
+      <c r="B98" s="90"/>
       <c r="C98" s="11">
         <v>862</v>
       </c>
@@ -5505,27 +5505,27 @@
       <c r="F98" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G98" s="93"/>
-      <c r="H98" s="105" t="s">
+      <c r="G98" s="105"/>
+      <c r="H98" s="64" t="s">
         <v>133</v>
       </c>
       <c r="I98" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="55"/>
-      <c r="L98" s="58"/>
-      <c r="M98" s="61"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="72"/>
+      <c r="M98" s="75"/>
       <c r="N98" s="34">
         <v>30</v>
       </c>
-      <c r="O98" s="55"/>
-      <c r="P98" s="58"/>
-      <c r="Q98" s="61"/>
-      <c r="R98" s="64"/>
+      <c r="O98" s="69"/>
+      <c r="P98" s="72"/>
+      <c r="Q98" s="75"/>
+      <c r="R98" s="54"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="110"/>
-      <c r="B99" s="103"/>
+      <c r="A99" s="66"/>
+      <c r="B99" s="91"/>
       <c r="C99" s="11">
         <v>863</v>
       </c>
@@ -5538,33 +5538,33 @@
       <c r="F99" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G99" s="94"/>
-      <c r="H99" s="105"/>
+      <c r="G99" s="106"/>
+      <c r="H99" s="64"/>
       <c r="I99" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="K99" s="67" t="s">
+      <c r="K99" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L99" s="68"/>
-      <c r="M99" s="68"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="56"/>
       <c r="N99" s="34">
         <v>30</v>
       </c>
-      <c r="O99" s="52" t="s">
+      <c r="O99" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
+      <c r="P99" s="57"/>
+      <c r="Q99" s="57"/>
       <c r="R99" s="44"/>
     </row>
     <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="82"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="82"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="100"/>
+      <c r="D100" s="100"/>
       <c r="E100" s="17">
         <f>SUM(E2:E99)</f>
         <v>168</v>
@@ -5575,13 +5575,13 @@
       <c r="H100" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="97" t="s">
-        <v>192</v>
-      </c>
-      <c r="B102" s="96" t="s">
+      <c r="A102" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="52">
+      <c r="C102" s="57">
         <v>871</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -5593,13 +5593,13 @@
       <c r="F102" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G102" s="95" t="s">
+      <c r="G102" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="H102" s="104" t="s">
+      <c r="H102" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="I102" s="115">
+      <c r="I102" s="82">
         <v>871</v>
       </c>
       <c r="K102" s="32" t="s">
@@ -5628,9 +5628,9 @@
       </c>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="97"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="52"/>
+      <c r="A103" s="107"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="57"/>
       <c r="D103" s="5" t="s">
         <v>141</v>
       </c>
@@ -5640,39 +5640,39 @@
       <c r="F103" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G103" s="95"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="115"/>
-      <c r="K103" s="53">
-        <v>30</v>
-      </c>
-      <c r="L103" s="56">
+      <c r="G103" s="97"/>
+      <c r="H103" s="80"/>
+      <c r="I103" s="82"/>
+      <c r="K103" s="67">
+        <v>30</v>
+      </c>
+      <c r="L103" s="70">
         <v>35</v>
       </c>
-      <c r="M103" s="59">
+      <c r="M103" s="73">
         <v>55</v>
       </c>
       <c r="N103" s="34">
         <v>30</v>
       </c>
-      <c r="O103" s="53">
-        <v>30</v>
-      </c>
-      <c r="P103" s="76">
+      <c r="O103" s="67">
+        <v>30</v>
+      </c>
+      <c r="P103" s="109">
         <v>35</v>
       </c>
-      <c r="Q103" s="59">
+      <c r="Q103" s="73">
         <v>25</v>
       </c>
-      <c r="R103" s="62">
+      <c r="R103" s="52">
         <f>SUM(K103:Q103)</f>
         <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="97"/>
-      <c r="B104" s="96"/>
-      <c r="C104" s="52"/>
+      <c r="A104" s="107"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="57"/>
       <c r="D104" s="5" t="s">
         <v>143</v>
       </c>
@@ -5682,28 +5682,28 @@
       <c r="F104" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G104" s="95"/>
-      <c r="H104" s="104" t="s">
+      <c r="G104" s="97"/>
+      <c r="H104" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="I104" s="115">
+      <c r="I104" s="82">
         <v>871</v>
       </c>
-      <c r="K104" s="54"/>
-      <c r="L104" s="57"/>
-      <c r="M104" s="60"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="71"/>
+      <c r="M104" s="74"/>
       <c r="N104" s="34">
         <v>30</v>
       </c>
-      <c r="O104" s="54"/>
-      <c r="P104" s="77"/>
-      <c r="Q104" s="60"/>
-      <c r="R104" s="63"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="110"/>
+      <c r="Q104" s="74"/>
+      <c r="R104" s="53"/>
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="97"/>
-      <c r="B105" s="96"/>
-      <c r="C105" s="52"/>
+      <c r="A105" s="107"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="57"/>
       <c r="D105" s="5" t="s">
         <v>142</v>
       </c>
@@ -5713,23 +5713,23 @@
       <c r="F105" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G105" s="95"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="115"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="60"/>
+      <c r="G105" s="97"/>
+      <c r="H105" s="80"/>
+      <c r="I105" s="82"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="71"/>
+      <c r="M105" s="74"/>
       <c r="N105" s="34">
         <v>30</v>
       </c>
-      <c r="O105" s="54"/>
-      <c r="P105" s="77"/>
-      <c r="Q105" s="60"/>
-      <c r="R105" s="63"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="110"/>
+      <c r="Q105" s="74"/>
+      <c r="R105" s="53"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="97"/>
-      <c r="B106" s="96"/>
+      <c r="A106" s="107"/>
+      <c r="B106" s="88"/>
       <c r="C106" s="2">
         <v>872</v>
       </c>
@@ -5742,27 +5742,27 @@
       <c r="F106" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G106" s="95"/>
-      <c r="H106" s="104" t="s">
+      <c r="G106" s="97"/>
+      <c r="H106" s="80" t="s">
         <v>133</v>
       </c>
       <c r="I106" s="18">
         <v>872</v>
       </c>
-      <c r="K106" s="55"/>
-      <c r="L106" s="58"/>
-      <c r="M106" s="61"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="75"/>
       <c r="N106" s="34">
         <v>30</v>
       </c>
-      <c r="O106" s="55"/>
-      <c r="P106" s="78"/>
-      <c r="Q106" s="61"/>
-      <c r="R106" s="64"/>
+      <c r="O106" s="69"/>
+      <c r="P106" s="111"/>
+      <c r="Q106" s="75"/>
+      <c r="R106" s="54"/>
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="97"/>
-      <c r="B107" s="96"/>
+      <c r="A107" s="107"/>
+      <c r="B107" s="88"/>
       <c r="C107" s="2">
         <v>873</v>
       </c>
@@ -5775,33 +5775,33 @@
       <c r="F107" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G107" s="95"/>
-      <c r="H107" s="104"/>
+      <c r="G107" s="97"/>
+      <c r="H107" s="80"/>
       <c r="I107" s="18">
         <v>873</v>
       </c>
-      <c r="K107" s="67" t="s">
+      <c r="K107" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L107" s="68"/>
-      <c r="M107" s="68"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
       <c r="N107" s="34">
         <v>30</v>
       </c>
-      <c r="O107" s="67" t="s">
+      <c r="O107" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="P107" s="68"/>
-      <c r="Q107" s="69"/>
+      <c r="P107" s="56"/>
+      <c r="Q107" s="116"/>
       <c r="R107" s="44"/>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="82" t="s">
+      <c r="A108" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="82"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="100"/>
       <c r="E108" s="17">
         <f>SUM(E102:E107)</f>
         <v>10</v>
@@ -5870,27 +5870,265 @@
     </row>
   </sheetData>
   <mergeCells count="304">
-    <mergeCell ref="R83:R86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="O65:O68"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="L65:M68"/>
-    <mergeCell ref="P65:Q68"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:M80"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="P77:Q80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="K95:K98"/>
+    <mergeCell ref="L95:L98"/>
+    <mergeCell ref="M95:M98"/>
+    <mergeCell ref="O95:O98"/>
+    <mergeCell ref="P95:P98"/>
+    <mergeCell ref="Q95:Q98"/>
+    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="M103:M106"/>
+    <mergeCell ref="O103:O106"/>
+    <mergeCell ref="Q103:Q106"/>
+    <mergeCell ref="R103:R106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L25"/>
+    <mergeCell ref="N19:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O25"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R25"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="L40:M43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:Q43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="Q46:Q49"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="P103:P106"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="P58:P61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="O58:O61"/>
+    <mergeCell ref="Q58:Q61"/>
+    <mergeCell ref="K83:K86"/>
+    <mergeCell ref="L83:L86"/>
+    <mergeCell ref="M83:M86"/>
+    <mergeCell ref="O83:O86"/>
+    <mergeCell ref="P83:P86"/>
+    <mergeCell ref="Q83:Q86"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:M92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:Q92"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="L52:M55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L28:M31"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="G76:G81"/>
+    <mergeCell ref="G82:G87"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A64:A99"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B64:B87"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="A27:A62"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H88:H89"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="P64:Q64"/>
     <mergeCell ref="C57:C60"/>
@@ -5915,265 +6153,27 @@
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="R58:R61"/>
     <mergeCell ref="K52:K55"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A64:A99"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B64:B87"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="A27:A62"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G64:G69"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="G76:G81"/>
-    <mergeCell ref="G82:G87"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="G102:G107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="L52:M55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L28:M31"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="P103:P106"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="P58:P61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="O58:O61"/>
-    <mergeCell ref="Q58:Q61"/>
-    <mergeCell ref="K83:K86"/>
-    <mergeCell ref="L83:L86"/>
-    <mergeCell ref="M83:M86"/>
-    <mergeCell ref="O83:O86"/>
-    <mergeCell ref="P83:P86"/>
-    <mergeCell ref="Q83:Q86"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:M92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:Q92"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="L40:M43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:Q43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R25"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="M103:M106"/>
-    <mergeCell ref="O103:O106"/>
-    <mergeCell ref="Q103:Q106"/>
-    <mergeCell ref="R103:R106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="O107:Q107"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="T15:T17"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L25"/>
-    <mergeCell ref="N19:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O25"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="O95:O98"/>
-    <mergeCell ref="P95:P98"/>
-    <mergeCell ref="Q95:Q98"/>
-    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="R83:R86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="O65:O68"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="L65:M68"/>
+    <mergeCell ref="P65:Q68"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L77:M80"/>
+    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="P77:Q80"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="O75:Q75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
+++ b/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
@@ -1415,6 +1415,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,17 +1454,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,6 +1487,72 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,164 +1562,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1904,7 +1904,7 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88:G93"/>
+      <selection activeCell="G102" sqref="G102:G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,27 +1957,27 @@
       <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="62">
         <v>811</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1989,7 +1989,7 @@
       <c r="F2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="83" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1999,24 +1999,24 @@
         <v>8111</v>
       </c>
       <c r="J2" s="21"/>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="95"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="O2" s="95"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="95"/>
+      <c r="R2" s="71"/>
       <c r="S2" s="33" t="s">
         <v>173</v>
       </c>
@@ -2025,9 +2025,9 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2037,7 +2037,7 @@
       <c r="F3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="93"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="5" t="s">
         <v>132</v>
       </c>
@@ -2045,35 +2045,35 @@
         <v>8111</v>
       </c>
       <c r="J3" s="21"/>
-      <c r="K3" s="58">
+      <c r="K3" s="70">
         <v>60</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59">
+      <c r="L3" s="70"/>
+      <c r="M3" s="74">
         <v>20</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="70">
         <v>60</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59">
+      <c r="O3" s="70"/>
+      <c r="P3" s="74">
         <v>20</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="70">
         <v>60</v>
       </c>
-      <c r="R3" s="58"/>
-      <c r="S3" s="59">
+      <c r="R3" s="70"/>
+      <c r="S3" s="74">
         <v>20</v>
       </c>
-      <c r="T3" s="57">
+      <c r="T3" s="52">
         <f>SUM(K3:S5)</f>
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="10">
         <v>812</v>
       </c>
@@ -2086,28 +2086,28 @@
       <c r="F4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="80" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="104" t="s">
         <v>133</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>69</v>
       </c>
       <c r="J4" s="21"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="57"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="52"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="2">
         <v>813</v>
       </c>
@@ -2120,27 +2120,27 @@
       <c r="F5" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="80"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="24" t="s">
         <v>105</v>
       </c>
       <c r="J5" s="21"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="57"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="52"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="61">
+      <c r="A6" s="110"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="98">
         <v>811</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2152,7 +2152,7 @@
       <c r="F6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="86" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2161,24 +2161,24 @@
       <c r="I6" s="19">
         <v>8112</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="95"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N6" s="95" t="s">
+      <c r="N6" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="O6" s="95"/>
+      <c r="O6" s="71"/>
       <c r="P6" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="95" t="s">
+      <c r="Q6" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="R6" s="95"/>
+      <c r="R6" s="71"/>
       <c r="S6" s="33" t="s">
         <v>173</v>
       </c>
@@ -2187,9 +2187,9 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2199,42 +2199,42 @@
       <c r="F7" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I7" s="19">
         <v>8112</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="70">
         <v>60</v>
       </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59">
+      <c r="L7" s="70"/>
+      <c r="M7" s="74">
         <v>10</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="70">
         <v>60</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59">
+      <c r="O7" s="70"/>
+      <c r="P7" s="74">
         <v>10</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="70">
         <v>60</v>
       </c>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59">
+      <c r="R7" s="70"/>
+      <c r="S7" s="74">
         <v>10</v>
       </c>
-      <c r="T7" s="57">
+      <c r="T7" s="52">
         <f>SUM(K7:S9)</f>
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="23">
         <v>812</v>
       </c>
@@ -2247,27 +2247,27 @@
       <c r="F8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="64" t="s">
+      <c r="G8" s="87"/>
+      <c r="H8" s="105" t="s">
         <v>133</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="57"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="52"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="11">
         <v>813</v>
       </c>
@@ -2280,26 +2280,26 @@
       <c r="F9" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="64"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="105"/>
       <c r="I9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="57"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="52"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="52">
+      <c r="A10" s="110"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="62">
         <v>811</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2311,7 +2311,7 @@
       <c r="F10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="83" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2320,24 +2320,24 @@
       <c r="I10" s="18">
         <v>8113</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="L10" s="95"/>
+      <c r="L10" s="71"/>
       <c r="M10" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N10" s="95" t="s">
+      <c r="N10" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="95"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" s="95" t="s">
+      <c r="Q10" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="R10" s="95"/>
+      <c r="R10" s="71"/>
       <c r="S10" s="33" t="s">
         <v>173</v>
       </c>
@@ -2346,9 +2346,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2358,42 +2358,42 @@
       <c r="F11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="93"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="5" t="s">
         <v>132</v>
       </c>
       <c r="I11" s="18">
         <v>8113</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="70">
         <v>60</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59">
+      <c r="L11" s="70"/>
+      <c r="M11" s="74">
         <v>10</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="70">
         <v>60</v>
       </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59">
+      <c r="O11" s="70"/>
+      <c r="P11" s="74">
         <v>10</v>
       </c>
-      <c r="Q11" s="58">
+      <c r="Q11" s="70">
         <v>60</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="59">
+      <c r="R11" s="70"/>
+      <c r="S11" s="74">
         <v>10</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="52">
         <f>SUM(K11:S13)</f>
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="10">
         <v>812</v>
       </c>
@@ -2406,27 +2406,27 @@
       <c r="F12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="80" t="s">
+      <c r="G12" s="84"/>
+      <c r="H12" s="104" t="s">
         <v>133</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="57"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="52"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="2">
         <v>813</v>
       </c>
@@ -2439,26 +2439,26 @@
       <c r="F13" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="80"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="104"/>
       <c r="I13" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="57"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="61">
+      <c r="A14" s="110"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="98">
         <v>811</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2470,7 +2470,7 @@
       <c r="F14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="86" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2479,24 +2479,24 @@
       <c r="I14" s="19">
         <v>8114</v>
       </c>
-      <c r="K14" s="95" t="s">
+      <c r="K14" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="L14" s="95"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N14" s="95" t="s">
+      <c r="N14" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="O14" s="95"/>
+      <c r="O14" s="71"/>
       <c r="P14" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q14" s="95" t="s">
+      <c r="Q14" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="R14" s="95"/>
+      <c r="R14" s="71"/>
       <c r="S14" s="33" t="s">
         <v>173</v>
       </c>
@@ -2505,9 +2505,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="63"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
@@ -2517,42 +2517,42 @@
       <c r="F15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="19">
         <v>8114</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="70">
         <v>60</v>
       </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59">
+      <c r="L15" s="70"/>
+      <c r="M15" s="74">
         <v>5</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="70">
         <v>60</v>
       </c>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59">
+      <c r="O15" s="70"/>
+      <c r="P15" s="74">
         <v>5</v>
       </c>
-      <c r="Q15" s="58">
+      <c r="Q15" s="70">
         <v>60</v>
       </c>
-      <c r="R15" s="58"/>
-      <c r="S15" s="59">
+      <c r="R15" s="70"/>
+      <c r="S15" s="74">
         <v>5</v>
       </c>
-      <c r="T15" s="57">
+      <c r="T15" s="52">
         <f>SUM(K15:S17)</f>
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="23">
         <v>812</v>
       </c>
@@ -2565,27 +2565,27 @@
       <c r="F16" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="64" t="s">
+      <c r="G16" s="87"/>
+      <c r="H16" s="105" t="s">
         <v>133</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="57"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="52"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="11">
         <v>813</v>
       </c>
@@ -2598,28 +2598,28 @@
       <c r="F17" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="64"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="57"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="52"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="88" t="s">
+      <c r="A18" s="110"/>
+      <c r="B18" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="62">
         <v>821</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2631,7 +2631,7 @@
       <c r="F18" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="92" t="s">
+      <c r="G18" s="83" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -2640,24 +2640,24 @@
       <c r="I18" s="18">
         <v>8211</v>
       </c>
-      <c r="K18" s="95" t="s">
+      <c r="K18" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="95"/>
+      <c r="L18" s="71"/>
       <c r="M18" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N18" s="95" t="s">
+      <c r="N18" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="O18" s="95"/>
+      <c r="O18" s="71"/>
       <c r="P18" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q18" s="95" t="s">
+      <c r="Q18" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="R18" s="95"/>
+      <c r="R18" s="71"/>
       <c r="S18" s="33" t="s">
         <v>173</v>
       </c>
@@ -2666,9 +2666,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2678,42 +2678,42 @@
       <c r="F19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="5" t="s">
         <v>132</v>
       </c>
       <c r="I19" s="18">
         <v>8211</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="70">
         <v>60</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59">
+      <c r="L19" s="70"/>
+      <c r="M19" s="74">
         <v>10</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="70">
         <v>60</v>
       </c>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59">
+      <c r="O19" s="70"/>
+      <c r="P19" s="74">
         <v>10</v>
       </c>
-      <c r="Q19" s="58">
+      <c r="Q19" s="70">
         <v>60</v>
       </c>
-      <c r="R19" s="58"/>
-      <c r="S19" s="59">
+      <c r="R19" s="70"/>
+      <c r="S19" s="74">
         <v>10</v>
       </c>
-      <c r="T19" s="57">
+      <c r="T19" s="52">
         <f>SUM(K19:S21)</f>
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="2">
         <v>822</v>
       </c>
@@ -2726,27 +2726,27 @@
       <c r="F20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="80" t="s">
+      <c r="G20" s="84"/>
+      <c r="H20" s="104" t="s">
         <v>133</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="57"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="52"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="2">
         <v>823</v>
       </c>
@@ -2759,26 +2759,26 @@
       <c r="F21" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="80"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="104"/>
       <c r="I21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="57"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="52"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="61">
+      <c r="A22" s="110"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="98">
         <v>821</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2790,7 +2790,7 @@
       <c r="F22" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="77" t="s">
+      <c r="G22" s="86" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -2799,24 +2799,24 @@
       <c r="I22" s="19">
         <v>8212</v>
       </c>
-      <c r="K22" s="95" t="s">
+      <c r="K22" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="L22" s="95"/>
+      <c r="L22" s="71"/>
       <c r="M22" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="N22" s="95" t="s">
+      <c r="N22" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="O22" s="95"/>
+      <c r="O22" s="71"/>
       <c r="P22" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="Q22" s="95" t="s">
+      <c r="Q22" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="R22" s="95"/>
+      <c r="R22" s="71"/>
       <c r="S22" s="33" t="s">
         <v>173</v>
       </c>
@@ -2825,9 +2825,9 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="63"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
@@ -2837,42 +2837,42 @@
       <c r="F23" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="78"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I23" s="19">
         <v>8212</v>
       </c>
-      <c r="K23" s="58">
+      <c r="K23" s="70">
         <v>60</v>
       </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59">
+      <c r="L23" s="70"/>
+      <c r="M23" s="74">
         <v>5</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="70">
         <v>60</v>
       </c>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59">
+      <c r="O23" s="70"/>
+      <c r="P23" s="74">
         <v>5</v>
       </c>
-      <c r="Q23" s="58">
+      <c r="Q23" s="70">
         <v>60</v>
       </c>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59">
+      <c r="R23" s="70"/>
+      <c r="S23" s="74">
         <v>5</v>
       </c>
-      <c r="T23" s="57">
+      <c r="T23" s="52">
         <f>SUM(K23:S25)</f>
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="11">
         <v>822</v>
       </c>
@@ -2885,27 +2885,27 @@
       <c r="F24" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="64" t="s">
+      <c r="G24" s="87"/>
+      <c r="H24" s="105" t="s">
         <v>133</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="57"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="52"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="28">
         <v>823</v>
       </c>
@@ -2918,46 +2918,46 @@
       <c r="F25" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="64"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="57"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="52"/>
     </row>
     <row r="26" spans="1:22" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="51"/>
       <c r="N26" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="O26" s="113" t="s">
+      <c r="O26" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
     </row>
     <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="109" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="62">
         <v>831</v>
       </c>
       <c r="D27" s="30" t="s">
@@ -2969,10 +2969,10 @@
       <c r="F27" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="80" t="s">
+      <c r="H27" s="104" t="s">
         <v>131</v>
       </c>
       <c r="I27" s="81" t="s">
@@ -2981,36 +2981,36 @@
       <c r="K27" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="108" t="s">
+      <c r="L27" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="108"/>
+      <c r="M27" s="79"/>
       <c r="N27" s="50">
         <v>30</v>
       </c>
       <c r="O27" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="P27" s="108" t="s">
+      <c r="P27" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="108"/>
+      <c r="Q27" s="79"/>
       <c r="R27" s="38" t="s">
         <v>18</v>
       </c>
       <c r="S27" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="T27" s="114" t="s">
+      <c r="T27" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="U27" s="115"/>
-      <c r="V27" s="115"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
     </row>
     <row r="28" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="53"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="5" t="s">
         <v>141</v>
       </c>
@@ -3020,44 +3020,44 @@
       <c r="F28" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="93"/>
-      <c r="H28" s="80"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="81"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="58">
-        <v>30</v>
-      </c>
-      <c r="L28" s="59">
+      <c r="K28" s="70">
+        <v>30</v>
+      </c>
+      <c r="L28" s="74">
         <v>60</v>
       </c>
-      <c r="M28" s="59"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="35">
         <v>30</v>
       </c>
-      <c r="O28" s="58">
-        <v>30</v>
-      </c>
-      <c r="P28" s="59">
+      <c r="O28" s="70">
+        <v>30</v>
+      </c>
+      <c r="P28" s="74">
         <v>60</v>
       </c>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="57">
+      <c r="Q28" s="74"/>
+      <c r="R28" s="52">
         <f>SUM(K28:Q28)</f>
         <v>210</v>
       </c>
       <c r="S28" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="T28" s="114" t="s">
+      <c r="T28" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
     </row>
     <row r="29" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="53"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="5" t="s">
         <v>143</v>
       </c>
@@ -3067,28 +3067,28 @@
       <c r="F29" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="80" t="s">
+      <c r="G29" s="84"/>
+      <c r="H29" s="104" t="s">
         <v>132</v>
       </c>
       <c r="I29" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
       <c r="N29" s="35">
         <v>30</v>
       </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="57"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="52"/>
     </row>
     <row r="30" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="5" t="s">
         <v>142</v>
       </c>
@@ -3098,23 +3098,23 @@
       <c r="F30" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="80"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="81"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
       <c r="N30" s="35">
         <v>30</v>
       </c>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="57"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="52"/>
     </row>
     <row r="31" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="90"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="10">
         <v>832</v>
       </c>
@@ -3127,27 +3127,27 @@
       <c r="F31" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="93"/>
-      <c r="H31" s="80" t="s">
+      <c r="G31" s="84"/>
+      <c r="H31" s="104" t="s">
         <v>133</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="34">
         <v>30</v>
       </c>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="57"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="52"/>
     </row>
     <row r="32" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
-      <c r="B32" s="90"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="2">
         <v>833</v>
       </c>
@@ -3160,31 +3160,31 @@
       <c r="F32" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="94"/>
-      <c r="H32" s="80"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="104"/>
       <c r="I32" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="57" t="s">
+      <c r="K32" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="34">
         <v>30</v>
       </c>
-      <c r="O32" s="57" t="s">
+      <c r="O32" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
     </row>
     <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="61">
+      <c r="A33" s="110"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="98">
         <v>831</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3196,13 +3196,13 @@
       <c r="F33" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="96" t="s">
+      <c r="G33" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="H33" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="76" t="s">
+      <c r="I33" s="80" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="32" t="s">
@@ -3231,9 +3231,9 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="7" t="s">
         <v>141</v>
       </c>
@@ -3243,39 +3243,39 @@
       <c r="F34" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="96"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="76"/>
-      <c r="K34" s="67">
-        <v>30</v>
-      </c>
-      <c r="L34" s="70">
+      <c r="G34" s="106"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="80"/>
+      <c r="K34" s="53">
+        <v>30</v>
+      </c>
+      <c r="L34" s="56">
         <v>20</v>
       </c>
-      <c r="M34" s="73">
+      <c r="M34" s="59">
         <v>40</v>
       </c>
       <c r="N34" s="34">
         <v>30</v>
       </c>
-      <c r="O34" s="67">
-        <v>30</v>
-      </c>
-      <c r="P34" s="70">
+      <c r="O34" s="53">
+        <v>30</v>
+      </c>
+      <c r="P34" s="56">
         <v>20</v>
       </c>
-      <c r="Q34" s="73">
+      <c r="Q34" s="59">
         <v>40</v>
       </c>
-      <c r="R34" s="52">
+      <c r="R34" s="62">
         <f>SUM(K34:Q34)</f>
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="7" t="s">
         <v>143</v>
       </c>
@@ -3285,28 +3285,28 @@
       <c r="F35" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="96"/>
-      <c r="H35" s="64" t="s">
+      <c r="G35" s="106"/>
+      <c r="H35" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="I35" s="76" t="s">
+      <c r="I35" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="68"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="74"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="60"/>
       <c r="N35" s="34">
         <v>30</v>
       </c>
-      <c r="O35" s="68"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="53"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="63"/>
     </row>
     <row r="36" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="7" t="s">
         <v>142</v>
       </c>
@@ -3316,23 +3316,23 @@
       <c r="F36" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="76"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="74"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="80"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="60"/>
       <c r="N36" s="34">
         <v>30</v>
       </c>
-      <c r="O36" s="68"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="53"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="63"/>
     </row>
     <row r="37" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="90"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="23">
         <v>832</v>
       </c>
@@ -3345,27 +3345,27 @@
       <c r="F37" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="96"/>
-      <c r="H37" s="64" t="s">
+      <c r="G37" s="106"/>
+      <c r="H37" s="105" t="s">
         <v>133</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="69"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="75"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="61"/>
       <c r="N37" s="34">
         <v>30</v>
       </c>
-      <c r="O37" s="69"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="54"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="64"/>
     </row>
     <row r="38" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="90"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="11">
         <v>833</v>
       </c>
@@ -3378,30 +3378,30 @@
       <c r="F38" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="96"/>
-      <c r="H38" s="64"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="55" t="s">
+      <c r="K38" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
       <c r="N38" s="34">
         <v>30</v>
       </c>
-      <c r="O38" s="57" t="s">
+      <c r="O38" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
       <c r="R38" s="44"/>
     </row>
     <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="52">
+      <c r="A39" s="110"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="62">
         <v>831</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -3413,10 +3413,10 @@
       <c r="F39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="97" t="s">
+      <c r="G39" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="80" t="s">
+      <c r="H39" s="104" t="s">
         <v>131</v>
       </c>
       <c r="I39" s="81" t="s">
@@ -3425,28 +3425,28 @@
       <c r="K39" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L39" s="60" t="s">
+      <c r="L39" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M39" s="60"/>
+      <c r="M39" s="75"/>
       <c r="N39" s="31">
         <v>30</v>
       </c>
       <c r="O39" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P39" s="60" t="s">
+      <c r="P39" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="Q39" s="60"/>
+      <c r="Q39" s="75"/>
       <c r="R39" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="53"/>
+      <c r="A40" s="110"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="5" t="s">
         <v>141</v>
       </c>
@@ -3456,35 +3456,35 @@
       <c r="F40" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="97"/>
-      <c r="H40" s="80"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="104"/>
       <c r="I40" s="81"/>
-      <c r="K40" s="58">
-        <v>30</v>
-      </c>
-      <c r="L40" s="59">
+      <c r="K40" s="70">
+        <v>30</v>
+      </c>
+      <c r="L40" s="74">
         <v>60</v>
       </c>
-      <c r="M40" s="59"/>
+      <c r="M40" s="74"/>
       <c r="N40" s="35">
         <v>30</v>
       </c>
-      <c r="O40" s="58">
-        <v>30</v>
-      </c>
-      <c r="P40" s="59">
+      <c r="O40" s="70">
+        <v>30</v>
+      </c>
+      <c r="P40" s="74">
         <v>60</v>
       </c>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="57">
+      <c r="Q40" s="74"/>
+      <c r="R40" s="52">
         <f>SUM(K40:Q40)</f>
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="53"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="5" t="s">
         <v>143</v>
       </c>
@@ -3494,28 +3494,28 @@
       <c r="F41" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="97"/>
-      <c r="H41" s="80" t="s">
+      <c r="G41" s="95"/>
+      <c r="H41" s="104" t="s">
         <v>132</v>
       </c>
       <c r="I41" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
       <c r="N41" s="35">
         <v>30</v>
       </c>
-      <c r="O41" s="58"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="57"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="52"/>
     </row>
     <row r="42" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="110"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="5" t="s">
         <v>142</v>
       </c>
@@ -3525,23 +3525,23 @@
       <c r="F42" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="97"/>
-      <c r="H42" s="80"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="104"/>
       <c r="I42" s="81"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
       <c r="N42" s="35">
         <v>30</v>
       </c>
-      <c r="O42" s="58"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="57"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="52"/>
     </row>
     <row r="43" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
-      <c r="B43" s="90"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="10">
         <v>832</v>
       </c>
@@ -3554,27 +3554,27 @@
       <c r="F43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="97"/>
-      <c r="H43" s="80" t="s">
+      <c r="G43" s="95"/>
+      <c r="H43" s="104" t="s">
         <v>133</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
       <c r="N43" s="34">
         <v>30</v>
       </c>
-      <c r="O43" s="58"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="57"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="52"/>
     </row>
     <row r="44" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
-      <c r="B44" s="90"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="2">
         <v>833</v>
       </c>
@@ -3587,30 +3587,30 @@
       <c r="F44" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="97"/>
-      <c r="H44" s="80"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="104"/>
       <c r="I44" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="57" t="s">
+      <c r="K44" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
       <c r="N44" s="34">
         <v>30</v>
       </c>
-      <c r="O44" s="57" t="s">
+      <c r="O44" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
       <c r="R44" s="44"/>
     </row>
     <row r="45" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="61">
+      <c r="A45" s="110"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="98">
         <v>831</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -3622,13 +3622,13 @@
       <c r="F45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="96" t="s">
+      <c r="G45" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="64" t="s">
+      <c r="H45" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="I45" s="76" t="s">
+      <c r="I45" s="80" t="s">
         <v>40</v>
       </c>
       <c r="K45" s="32" t="s">
@@ -3657,9 +3657,9 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="110"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="7" t="s">
         <v>141</v>
       </c>
@@ -3669,39 +3669,39 @@
       <c r="F46" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="96"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="76"/>
-      <c r="K46" s="67">
-        <v>30</v>
-      </c>
-      <c r="L46" s="70">
+      <c r="G46" s="106"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="80"/>
+      <c r="K46" s="53">
+        <v>30</v>
+      </c>
+      <c r="L46" s="56">
         <v>25</v>
       </c>
-      <c r="M46" s="73">
+      <c r="M46" s="59">
         <v>35</v>
       </c>
       <c r="N46" s="34">
         <v>30</v>
       </c>
-      <c r="O46" s="67">
-        <v>30</v>
-      </c>
-      <c r="P46" s="70">
+      <c r="O46" s="53">
+        <v>30</v>
+      </c>
+      <c r="P46" s="56">
         <v>25</v>
       </c>
-      <c r="Q46" s="73">
+      <c r="Q46" s="59">
         <v>35</v>
       </c>
-      <c r="R46" s="52">
+      <c r="R46" s="62">
         <f>SUM(K46:Q46)</f>
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="62"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="7" t="s">
         <v>143</v>
       </c>
@@ -3711,28 +3711,28 @@
       <c r="F47" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="96"/>
-      <c r="H47" s="64" t="s">
+      <c r="G47" s="106"/>
+      <c r="H47" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="I47" s="76" t="s">
+      <c r="I47" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="K47" s="68"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="74"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="60"/>
       <c r="N47" s="34">
         <v>30</v>
       </c>
-      <c r="O47" s="68"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="53"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="63"/>
     </row>
     <row r="48" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="110"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="7" t="s">
         <v>142</v>
       </c>
@@ -3742,23 +3742,23 @@
       <c r="F48" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="96"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="76"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="74"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="80"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="60"/>
       <c r="N48" s="34">
         <v>30</v>
       </c>
-      <c r="O48" s="68"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="53"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="63"/>
     </row>
     <row r="49" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="90"/>
+      <c r="A49" s="110"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="23">
         <v>832</v>
       </c>
@@ -3771,27 +3771,27 @@
       <c r="F49" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="96"/>
-      <c r="H49" s="64" t="s">
+      <c r="G49" s="106"/>
+      <c r="H49" s="105" t="s">
         <v>133</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="K49" s="69"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="75"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="61"/>
       <c r="N49" s="34">
         <v>30</v>
       </c>
-      <c r="O49" s="69"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="54"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="91"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="11">
         <v>833</v>
       </c>
@@ -3804,32 +3804,32 @@
       <c r="F50" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="96"/>
-      <c r="H50" s="64"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="105"/>
       <c r="I50" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="55" t="s">
+      <c r="K50" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
       <c r="N50" s="34">
         <v>30</v>
       </c>
-      <c r="O50" s="57" t="s">
+      <c r="O50" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
       <c r="R50" s="44"/>
     </row>
     <row r="51" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="85" t="s">
+      <c r="A51" s="110"/>
+      <c r="B51" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C51" s="62">
         <v>841</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3841,10 +3841,10 @@
       <c r="F51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="98" t="s">
+      <c r="G51" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="80" t="s">
+      <c r="H51" s="104" t="s">
         <v>131</v>
       </c>
       <c r="I51" s="81" t="s">
@@ -3853,28 +3853,28 @@
       <c r="K51" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L51" s="60" t="s">
+      <c r="L51" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M51" s="60"/>
+      <c r="M51" s="75"/>
       <c r="N51" s="34">
         <v>30</v>
       </c>
       <c r="O51" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P51" s="60" t="s">
+      <c r="P51" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="Q51" s="60"/>
+      <c r="Q51" s="75"/>
       <c r="R51" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="53"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="5" t="s">
         <v>141</v>
       </c>
@@ -3884,35 +3884,35 @@
       <c r="F52" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="98"/>
-      <c r="H52" s="80"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="104"/>
       <c r="I52" s="81"/>
-      <c r="K52" s="58">
-        <v>30</v>
-      </c>
-      <c r="L52" s="59">
+      <c r="K52" s="70">
+        <v>30</v>
+      </c>
+      <c r="L52" s="74">
         <v>60</v>
       </c>
-      <c r="M52" s="59"/>
+      <c r="M52" s="74"/>
       <c r="N52" s="34">
         <v>30</v>
       </c>
-      <c r="O52" s="58">
-        <v>30</v>
-      </c>
-      <c r="P52" s="59">
+      <c r="O52" s="70">
+        <v>30</v>
+      </c>
+      <c r="P52" s="74">
         <v>60</v>
       </c>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="57">
+      <c r="Q52" s="74"/>
+      <c r="R52" s="52">
         <f>SUM(K52:Q52)</f>
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="53"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="5" t="s">
         <v>143</v>
       </c>
@@ -3922,28 +3922,28 @@
       <c r="F53" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="98"/>
-      <c r="H53" s="80" t="s">
+      <c r="G53" s="107"/>
+      <c r="H53" s="104" t="s">
         <v>132</v>
       </c>
       <c r="I53" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="K53" s="58"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
       <c r="N53" s="34">
         <v>30</v>
       </c>
-      <c r="O53" s="58"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="57"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="52"/>
     </row>
     <row r="54" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="5" t="s">
         <v>142</v>
       </c>
@@ -3953,23 +3953,23 @@
       <c r="F54" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G54" s="97"/>
-      <c r="H54" s="80"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="104"/>
       <c r="I54" s="81"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
       <c r="N54" s="34">
         <v>30</v>
       </c>
-      <c r="O54" s="58"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="57"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="52"/>
     </row>
     <row r="55" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="2">
         <v>842</v>
       </c>
@@ -3982,27 +3982,27 @@
       <c r="F55" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="97"/>
-      <c r="H55" s="80" t="s">
+      <c r="G55" s="95"/>
+      <c r="H55" s="104" t="s">
         <v>133</v>
       </c>
       <c r="I55" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K55" s="58"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
       <c r="N55" s="34">
         <v>30</v>
       </c>
-      <c r="O55" s="58"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="57"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="52"/>
     </row>
     <row r="56" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66"/>
-      <c r="B56" s="86"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="113"/>
       <c r="C56" s="2">
         <v>843</v>
       </c>
@@ -4015,30 +4015,30 @@
       <c r="F56" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="97"/>
-      <c r="H56" s="80"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="104"/>
       <c r="I56" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K56" s="57" t="s">
+      <c r="K56" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
       <c r="N56" s="34">
         <v>30</v>
       </c>
-      <c r="O56" s="57" t="s">
+      <c r="O56" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
       <c r="R56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="61">
+      <c r="A57" s="110"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="98">
         <v>841</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -4050,13 +4050,13 @@
       <c r="F57" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="99" t="s">
+      <c r="G57" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="64" t="s">
+      <c r="H57" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="I57" s="76" t="s">
+      <c r="I57" s="80" t="s">
         <v>46</v>
       </c>
       <c r="K57" s="32" t="s">
@@ -4085,9 +4085,9 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="62"/>
+      <c r="A58" s="110"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="99"/>
       <c r="D58" s="7" t="s">
         <v>141</v>
       </c>
@@ -4097,39 +4097,39 @@
       <c r="F58" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="99"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="76"/>
-      <c r="K58" s="67">
-        <v>30</v>
-      </c>
-      <c r="L58" s="70">
+      <c r="G58" s="108"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="80"/>
+      <c r="K58" s="53">
+        <v>30</v>
+      </c>
+      <c r="L58" s="56">
         <v>25</v>
       </c>
-      <c r="M58" s="73">
+      <c r="M58" s="59">
         <v>35</v>
       </c>
       <c r="N58" s="34">
         <v>30</v>
       </c>
-      <c r="O58" s="67">
-        <v>30</v>
-      </c>
-      <c r="P58" s="70">
+      <c r="O58" s="53">
+        <v>30</v>
+      </c>
+      <c r="P58" s="56">
         <v>25</v>
       </c>
-      <c r="Q58" s="73">
+      <c r="Q58" s="59">
         <v>35</v>
       </c>
-      <c r="R58" s="52">
+      <c r="R58" s="62">
         <f>SUM(K58:Q58)</f>
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="62"/>
+      <c r="A59" s="110"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="7" t="s">
         <v>143</v>
       </c>
@@ -4139,28 +4139,28 @@
       <c r="F59" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="99"/>
-      <c r="H59" s="64" t="s">
+      <c r="G59" s="108"/>
+      <c r="H59" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="I59" s="76" t="s">
+      <c r="I59" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="68"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="74"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="60"/>
       <c r="N59" s="34">
         <v>30</v>
       </c>
-      <c r="O59" s="68"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="53"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="63"/>
     </row>
     <row r="60" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="63"/>
+      <c r="A60" s="110"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="100"/>
       <c r="D60" s="7" t="s">
         <v>142</v>
       </c>
@@ -4170,23 +4170,23 @@
       <c r="F60" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="96"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="76"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="74"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="80"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="60"/>
       <c r="N60" s="34">
         <v>30</v>
       </c>
-      <c r="O60" s="68"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="74"/>
-      <c r="R60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="63"/>
     </row>
     <row r="61" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
-      <c r="B61" s="86"/>
+      <c r="A61" s="110"/>
+      <c r="B61" s="113"/>
       <c r="C61" s="11">
         <v>842</v>
       </c>
@@ -4199,27 +4199,27 @@
       <c r="F61" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G61" s="96"/>
-      <c r="H61" s="64" t="s">
+      <c r="G61" s="106"/>
+      <c r="H61" s="105" t="s">
         <v>133</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K61" s="69"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="75"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="61"/>
       <c r="N61" s="34">
         <v>30</v>
       </c>
-      <c r="O61" s="69"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="54"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="64"/>
     </row>
     <row r="62" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="87"/>
+      <c r="A62" s="111"/>
+      <c r="B62" s="114"/>
       <c r="C62" s="11">
         <v>843</v>
       </c>
@@ -4232,56 +4232,56 @@
       <c r="F62" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="96"/>
-      <c r="H62" s="64"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="105"/>
       <c r="I62" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K62" s="55" t="s">
+      <c r="K62" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
       <c r="N62" s="34">
         <v>30</v>
       </c>
-      <c r="O62" s="57" t="s">
+      <c r="O62" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
       <c r="R62" s="44"/>
     </row>
-    <row r="63" spans="1:20" s="66" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
-      <c r="T63" s="65"/>
+    <row r="63" spans="1:20" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="116"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="116"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="89" t="s">
+      <c r="B64" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="52">
+      <c r="C64" s="62">
         <v>851</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4293,10 +4293,10 @@
       <c r="F64" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="92" t="s">
+      <c r="G64" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="H64" s="80" t="s">
+      <c r="H64" s="104" t="s">
         <v>131</v>
       </c>
       <c r="I64" s="81" t="s">
@@ -4305,28 +4305,28 @@
       <c r="K64" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L64" s="60" t="s">
+      <c r="L64" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M64" s="60"/>
+      <c r="M64" s="75"/>
       <c r="N64" s="34">
         <v>30</v>
       </c>
       <c r="O64" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P64" s="60" t="s">
+      <c r="P64" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="Q64" s="60"/>
+      <c r="Q64" s="75"/>
       <c r="R64" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="53"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="5" t="s">
         <v>141</v>
       </c>
@@ -4336,35 +4336,35 @@
       <c r="F65" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G65" s="93"/>
-      <c r="H65" s="80"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="104"/>
       <c r="I65" s="81"/>
-      <c r="K65" s="58">
-        <v>30</v>
-      </c>
-      <c r="L65" s="59">
+      <c r="K65" s="70">
+        <v>30</v>
+      </c>
+      <c r="L65" s="74">
         <v>60</v>
       </c>
-      <c r="M65" s="59"/>
+      <c r="M65" s="74"/>
       <c r="N65" s="34">
         <v>30</v>
       </c>
-      <c r="O65" s="58">
-        <v>30</v>
-      </c>
-      <c r="P65" s="59">
+      <c r="O65" s="70">
+        <v>30</v>
+      </c>
+      <c r="P65" s="74">
         <v>60</v>
       </c>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="57">
+      <c r="Q65" s="74"/>
+      <c r="R65" s="52">
         <f>SUM(K65:Q65)</f>
         <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="66"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="53"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="5" t="s">
         <v>143</v>
       </c>
@@ -4374,28 +4374,28 @@
       <c r="F66" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G66" s="93"/>
-      <c r="H66" s="80" t="s">
+      <c r="G66" s="84"/>
+      <c r="H66" s="104" t="s">
         <v>132</v>
       </c>
       <c r="I66" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="K66" s="58"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
       <c r="N66" s="34">
         <v>30</v>
       </c>
-      <c r="O66" s="58"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="57"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="74"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="52"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="66"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="54"/>
+      <c r="A67" s="110"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="5" t="s">
         <v>142</v>
       </c>
@@ -4405,23 +4405,23 @@
       <c r="F67" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="93"/>
-      <c r="H67" s="80"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="104"/>
       <c r="I67" s="81"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
       <c r="N67" s="34">
         <v>30</v>
       </c>
-      <c r="O67" s="58"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="57"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="74"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="52"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
-      <c r="B68" s="90"/>
+      <c r="A68" s="110"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="10">
         <v>852</v>
       </c>
@@ -4434,27 +4434,27 @@
       <c r="F68" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G68" s="93"/>
-      <c r="H68" s="80" t="s">
+      <c r="G68" s="84"/>
+      <c r="H68" s="104" t="s">
         <v>133</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="K68" s="58"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
       <c r="N68" s="34">
         <v>30</v>
       </c>
-      <c r="O68" s="58"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="57"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="74"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="52"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
-      <c r="B69" s="90"/>
+      <c r="A69" s="110"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="2">
         <v>853</v>
       </c>
@@ -4467,30 +4467,30 @@
       <c r="F69" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="94"/>
-      <c r="H69" s="80"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="104"/>
       <c r="I69" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="K69" s="57" t="s">
+      <c r="K69" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
       <c r="N69" s="34">
         <v>30</v>
       </c>
-      <c r="O69" s="57" t="s">
+      <c r="O69" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="57"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
       <c r="R69" s="44"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="61">
+      <c r="A70" s="110"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="98">
         <v>851</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -4502,13 +4502,13 @@
       <c r="F70" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G70" s="77" t="s">
+      <c r="G70" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="H70" s="64" t="s">
+      <c r="H70" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="I70" s="76" t="s">
+      <c r="I70" s="80" t="s">
         <v>125</v>
       </c>
       <c r="K70" s="32" t="s">
@@ -4537,9 +4537,9 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="62"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="99"/>
       <c r="D71" s="7" t="s">
         <v>141</v>
       </c>
@@ -4549,39 +4549,39 @@
       <c r="F71" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G71" s="78"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="76"/>
-      <c r="K71" s="67">
-        <v>30</v>
-      </c>
-      <c r="L71" s="70">
+      <c r="G71" s="87"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="80"/>
+      <c r="K71" s="53">
+        <v>30</v>
+      </c>
+      <c r="L71" s="56">
         <v>20</v>
       </c>
-      <c r="M71" s="73">
+      <c r="M71" s="59">
         <v>40</v>
       </c>
       <c r="N71" s="34">
         <v>30</v>
       </c>
-      <c r="O71" s="67">
-        <v>30</v>
-      </c>
-      <c r="P71" s="70">
+      <c r="O71" s="53">
+        <v>30</v>
+      </c>
+      <c r="P71" s="56">
         <v>20</v>
       </c>
-      <c r="Q71" s="73">
+      <c r="Q71" s="59">
         <v>40</v>
       </c>
-      <c r="R71" s="52">
+      <c r="R71" s="62">
         <f>SUM(K71:Q71)</f>
         <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="62"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="99"/>
       <c r="D72" s="7" t="s">
         <v>143</v>
       </c>
@@ -4591,28 +4591,28 @@
       <c r="F72" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G72" s="78"/>
-      <c r="H72" s="64" t="s">
+      <c r="G72" s="87"/>
+      <c r="H72" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="I72" s="76" t="s">
+      <c r="I72" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="K72" s="68"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="74"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="60"/>
       <c r="N72" s="34">
         <v>30</v>
       </c>
-      <c r="O72" s="68"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="74"/>
-      <c r="R72" s="53"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="57"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="63"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="63"/>
+      <c r="A73" s="110"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="7" t="s">
         <v>142</v>
       </c>
@@ -4622,23 +4622,23 @@
       <c r="F73" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G73" s="78"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="76"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="74"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="80"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="60"/>
       <c r="N73" s="34">
         <v>30</v>
       </c>
-      <c r="O73" s="68"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="74"/>
-      <c r="R73" s="53"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="63"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
-      <c r="B74" s="90"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="102"/>
       <c r="C74" s="23">
         <v>852</v>
       </c>
@@ -4651,27 +4651,27 @@
       <c r="F74" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G74" s="78"/>
-      <c r="H74" s="64" t="s">
+      <c r="G74" s="87"/>
+      <c r="H74" s="105" t="s">
         <v>133</v>
       </c>
       <c r="I74" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K74" s="69"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="75"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="61"/>
       <c r="N74" s="34">
         <v>30</v>
       </c>
-      <c r="O74" s="69"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="54"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="58"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="64"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
-      <c r="B75" s="90"/>
+      <c r="A75" s="110"/>
+      <c r="B75" s="102"/>
       <c r="C75" s="11">
         <v>853</v>
       </c>
@@ -4684,30 +4684,30 @@
       <c r="F75" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="79"/>
-      <c r="H75" s="64"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="105"/>
       <c r="I75" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K75" s="55" t="s">
+      <c r="K75" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
+      <c r="L75" s="68"/>
+      <c r="M75" s="68"/>
       <c r="N75" s="34">
         <v>30</v>
       </c>
-      <c r="O75" s="57" t="s">
+      <c r="O75" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="57"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
       <c r="R75" s="44"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="52">
+      <c r="A76" s="110"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="62">
         <v>851</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4719,10 +4719,10 @@
       <c r="F76" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="92" t="s">
+      <c r="G76" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="H76" s="80" t="s">
+      <c r="H76" s="104" t="s">
         <v>131</v>
       </c>
       <c r="I76" s="81" t="s">
@@ -4731,28 +4731,28 @@
       <c r="K76" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L76" s="60" t="s">
+      <c r="L76" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M76" s="60"/>
+      <c r="M76" s="75"/>
       <c r="N76" s="34">
         <v>30</v>
       </c>
       <c r="O76" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P76" s="60" t="s">
+      <c r="P76" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="Q76" s="60"/>
+      <c r="Q76" s="75"/>
       <c r="R76" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="53"/>
+      <c r="A77" s="110"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="5" t="s">
         <v>141</v>
       </c>
@@ -4762,35 +4762,35 @@
       <c r="F77" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G77" s="93"/>
-      <c r="H77" s="80"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="104"/>
       <c r="I77" s="81"/>
-      <c r="K77" s="58">
-        <v>30</v>
-      </c>
-      <c r="L77" s="59">
+      <c r="K77" s="70">
+        <v>30</v>
+      </c>
+      <c r="L77" s="74">
         <v>60</v>
       </c>
-      <c r="M77" s="59"/>
+      <c r="M77" s="74"/>
       <c r="N77" s="34">
         <v>30</v>
       </c>
-      <c r="O77" s="58">
-        <v>30</v>
-      </c>
-      <c r="P77" s="59">
+      <c r="O77" s="70">
+        <v>30</v>
+      </c>
+      <c r="P77" s="74">
         <v>60</v>
       </c>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="57">
+      <c r="Q77" s="74"/>
+      <c r="R77" s="52">
         <f>SUM(K77:Q77)</f>
         <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="53"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="5" t="s">
         <v>143</v>
       </c>
@@ -4800,28 +4800,28 @@
       <c r="F78" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="93"/>
-      <c r="H78" s="80" t="s">
+      <c r="G78" s="84"/>
+      <c r="H78" s="104" t="s">
         <v>132</v>
       </c>
       <c r="I78" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="K78" s="58"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
       <c r="N78" s="34">
         <v>30</v>
       </c>
-      <c r="O78" s="58"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="57"/>
+      <c r="O78" s="70"/>
+      <c r="P78" s="74"/>
+      <c r="Q78" s="74"/>
+      <c r="R78" s="52"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="66"/>
-      <c r="B79" s="90"/>
-      <c r="C79" s="54"/>
+      <c r="A79" s="110"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="5" t="s">
         <v>142</v>
       </c>
@@ -4831,23 +4831,23 @@
       <c r="F79" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G79" s="93"/>
-      <c r="H79" s="80"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="104"/>
       <c r="I79" s="81"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
+      <c r="K79" s="70"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
       <c r="N79" s="34">
         <v>30</v>
       </c>
-      <c r="O79" s="58"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="57"/>
+      <c r="O79" s="70"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="52"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="66"/>
-      <c r="B80" s="90"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="102"/>
       <c r="C80" s="10">
         <v>852</v>
       </c>
@@ -4860,27 +4860,27 @@
       <c r="F80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="93"/>
-      <c r="H80" s="80" t="s">
+      <c r="G80" s="84"/>
+      <c r="H80" s="104" t="s">
         <v>133</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="K80" s="58"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
       <c r="N80" s="34">
         <v>30</v>
       </c>
-      <c r="O80" s="58"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="57"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="74"/>
+      <c r="Q80" s="74"/>
+      <c r="R80" s="52"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
-      <c r="B81" s="90"/>
+      <c r="A81" s="110"/>
+      <c r="B81" s="102"/>
       <c r="C81" s="2">
         <v>853</v>
       </c>
@@ -4893,30 +4893,30 @@
       <c r="F81" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G81" s="94"/>
-      <c r="H81" s="80"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="104"/>
       <c r="I81" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K81" s="57" t="s">
+      <c r="K81" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L81" s="57"/>
-      <c r="M81" s="57"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="52"/>
       <c r="N81" s="34">
         <v>30</v>
       </c>
-      <c r="O81" s="57" t="s">
+      <c r="O81" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P81" s="57"/>
-      <c r="Q81" s="57"/>
+      <c r="P81" s="52"/>
+      <c r="Q81" s="52"/>
       <c r="R81" s="44"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="61">
+      <c r="A82" s="110"/>
+      <c r="B82" s="102"/>
+      <c r="C82" s="98">
         <v>851</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -4928,13 +4928,13 @@
       <c r="F82" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="77" t="s">
+      <c r="G82" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="H82" s="64" t="s">
+      <c r="H82" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="I82" s="76" t="s">
+      <c r="I82" s="80" t="s">
         <v>127</v>
       </c>
       <c r="K82" s="32" t="s">
@@ -4963,9 +4963,9 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="66"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="62"/>
+      <c r="A83" s="110"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="99"/>
       <c r="D83" s="7" t="s">
         <v>141</v>
       </c>
@@ -4975,39 +4975,39 @@
       <c r="F83" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="78"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="76"/>
-      <c r="K83" s="67">
-        <v>30</v>
-      </c>
-      <c r="L83" s="70">
+      <c r="G83" s="87"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="80"/>
+      <c r="K83" s="53">
+        <v>30</v>
+      </c>
+      <c r="L83" s="56">
         <v>25</v>
       </c>
-      <c r="M83" s="73">
+      <c r="M83" s="59">
         <v>35</v>
       </c>
       <c r="N83" s="34">
         <v>30</v>
       </c>
-      <c r="O83" s="67">
-        <v>30</v>
-      </c>
-      <c r="P83" s="70">
+      <c r="O83" s="53">
+        <v>30</v>
+      </c>
+      <c r="P83" s="56">
         <v>25</v>
       </c>
-      <c r="Q83" s="73">
+      <c r="Q83" s="59">
         <v>35</v>
       </c>
-      <c r="R83" s="52">
+      <c r="R83" s="62">
         <f>SUM(K83:Q83)</f>
         <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="66"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="62"/>
+      <c r="A84" s="110"/>
+      <c r="B84" s="102"/>
+      <c r="C84" s="99"/>
       <c r="D84" s="7" t="s">
         <v>143</v>
       </c>
@@ -5017,28 +5017,28 @@
       <c r="F84" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G84" s="78"/>
-      <c r="H84" s="64" t="s">
+      <c r="G84" s="87"/>
+      <c r="H84" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="I84" s="76" t="s">
+      <c r="I84" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="K84" s="68"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="74"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="60"/>
       <c r="N84" s="34">
         <v>30</v>
       </c>
-      <c r="O84" s="68"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="74"/>
-      <c r="R84" s="53"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="63"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
-      <c r="B85" s="90"/>
-      <c r="C85" s="63"/>
+      <c r="A85" s="110"/>
+      <c r="B85" s="102"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="7" t="s">
         <v>142</v>
       </c>
@@ -5048,23 +5048,23 @@
       <c r="F85" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="G85" s="78"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="76"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="74"/>
+      <c r="G85" s="87"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="80"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="60"/>
       <c r="N85" s="34">
         <v>30</v>
       </c>
-      <c r="O85" s="68"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="74"/>
-      <c r="R85" s="53"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="63"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="66"/>
-      <c r="B86" s="90"/>
+      <c r="A86" s="110"/>
+      <c r="B86" s="102"/>
       <c r="C86" s="23">
         <v>852</v>
       </c>
@@ -5077,27 +5077,27 @@
       <c r="F86" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G86" s="78"/>
-      <c r="H86" s="64" t="s">
+      <c r="G86" s="87"/>
+      <c r="H86" s="105" t="s">
         <v>133</v>
       </c>
       <c r="I86" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="K86" s="69"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="75"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="61"/>
       <c r="N86" s="34">
         <v>30</v>
       </c>
-      <c r="O86" s="69"/>
-      <c r="P86" s="72"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="54"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="64"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="66"/>
-      <c r="B87" s="91"/>
+      <c r="A87" s="110"/>
+      <c r="B87" s="103"/>
       <c r="C87" s="11">
         <v>853</v>
       </c>
@@ -5110,32 +5110,32 @@
       <c r="F87" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G87" s="79"/>
-      <c r="H87" s="64"/>
+      <c r="G87" s="88"/>
+      <c r="H87" s="105"/>
       <c r="I87" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="K87" s="55" t="s">
+      <c r="K87" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
+      <c r="L87" s="68"/>
+      <c r="M87" s="68"/>
       <c r="N87" s="34">
         <v>30</v>
       </c>
-      <c r="O87" s="57" t="s">
+      <c r="O87" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P87" s="57"/>
-      <c r="Q87" s="57"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52"/>
       <c r="R87" s="44"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
-      <c r="B88" s="89" t="s">
+      <c r="A88" s="110"/>
+      <c r="B88" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="52">
+      <c r="C88" s="62">
         <v>861</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5147,10 +5147,10 @@
       <c r="F88" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="101" t="s">
+      <c r="G88" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="H88" s="80" t="s">
+      <c r="H88" s="104" t="s">
         <v>131</v>
       </c>
       <c r="I88" s="81" t="s">
@@ -5159,28 +5159,28 @@
       <c r="K88" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L88" s="60" t="s">
+      <c r="L88" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M88" s="60"/>
+      <c r="M88" s="75"/>
       <c r="N88" s="34">
         <v>30</v>
       </c>
       <c r="O88" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P88" s="60" t="s">
+      <c r="P88" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="Q88" s="60"/>
+      <c r="Q88" s="75"/>
       <c r="R88" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="53"/>
+      <c r="A89" s="110"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="5" t="s">
         <v>141</v>
       </c>
@@ -5190,35 +5190,35 @@
       <c r="F89" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G89" s="102"/>
-      <c r="H89" s="80"/>
+      <c r="G89" s="90"/>
+      <c r="H89" s="104"/>
       <c r="I89" s="81"/>
-      <c r="K89" s="58">
-        <v>30</v>
-      </c>
-      <c r="L89" s="59">
+      <c r="K89" s="70">
+        <v>30</v>
+      </c>
+      <c r="L89" s="74">
         <v>60</v>
       </c>
-      <c r="M89" s="59"/>
+      <c r="M89" s="74"/>
       <c r="N89" s="34">
         <v>30</v>
       </c>
-      <c r="O89" s="58">
-        <v>30</v>
-      </c>
-      <c r="P89" s="59">
+      <c r="O89" s="70">
+        <v>30</v>
+      </c>
+      <c r="P89" s="74">
         <v>60</v>
       </c>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="57">
+      <c r="Q89" s="74"/>
+      <c r="R89" s="52">
         <f>SUM(K89:Q89)</f>
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="66"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="53"/>
+      <c r="A90" s="110"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="5" t="s">
         <v>143</v>
       </c>
@@ -5228,28 +5228,28 @@
       <c r="F90" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G90" s="102"/>
-      <c r="H90" s="80" t="s">
+      <c r="G90" s="90"/>
+      <c r="H90" s="104" t="s">
         <v>132</v>
       </c>
       <c r="I90" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="K90" s="58"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="59"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="74"/>
       <c r="N90" s="34">
         <v>30</v>
       </c>
-      <c r="O90" s="58"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="57"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="74"/>
+      <c r="Q90" s="74"/>
+      <c r="R90" s="52"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
-      <c r="B91" s="90"/>
-      <c r="C91" s="54"/>
+      <c r="A91" s="110"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="5" t="s">
         <v>142</v>
       </c>
@@ -5259,23 +5259,23 @@
       <c r="F91" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G91" s="102"/>
-      <c r="H91" s="80"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="104"/>
       <c r="I91" s="81"/>
-      <c r="K91" s="58"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="59"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
       <c r="N91" s="34">
         <v>30</v>
       </c>
-      <c r="O91" s="58"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="57"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="74"/>
+      <c r="R91" s="52"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="66"/>
-      <c r="B92" s="90"/>
+      <c r="A92" s="110"/>
+      <c r="B92" s="102"/>
       <c r="C92" s="2">
         <v>862</v>
       </c>
@@ -5288,27 +5288,27 @@
       <c r="F92" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="102"/>
-      <c r="H92" s="80" t="s">
+      <c r="G92" s="90"/>
+      <c r="H92" s="104" t="s">
         <v>133</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="K92" s="58"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="74"/>
       <c r="N92" s="34">
         <v>30</v>
       </c>
-      <c r="O92" s="58"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="57"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="74"/>
+      <c r="Q92" s="74"/>
+      <c r="R92" s="52"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="66"/>
-      <c r="B93" s="90"/>
+      <c r="A93" s="110"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="2">
         <v>863</v>
       </c>
@@ -5321,30 +5321,30 @@
       <c r="F93" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G93" s="103"/>
-      <c r="H93" s="80"/>
+      <c r="G93" s="91"/>
+      <c r="H93" s="104"/>
       <c r="I93" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="K93" s="57" t="s">
+      <c r="K93" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L93" s="57"/>
-      <c r="M93" s="57"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="52"/>
       <c r="N93" s="34">
         <v>30</v>
       </c>
-      <c r="O93" s="57" t="s">
+      <c r="O93" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P93" s="57"/>
-      <c r="Q93" s="57"/>
+      <c r="P93" s="52"/>
+      <c r="Q93" s="52"/>
       <c r="R93" s="44"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="66"/>
-      <c r="B94" s="90"/>
-      <c r="C94" s="61">
+      <c r="A94" s="110"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="98">
         <v>861</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -5356,13 +5356,13 @@
       <c r="F94" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G94" s="104" t="s">
+      <c r="G94" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="H94" s="64" t="s">
+      <c r="H94" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="I94" s="76" t="s">
+      <c r="I94" s="80" t="s">
         <v>129</v>
       </c>
       <c r="K94" s="32" t="s">
@@ -5391,9 +5391,9 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="66"/>
-      <c r="B95" s="90"/>
-      <c r="C95" s="62"/>
+      <c r="A95" s="110"/>
+      <c r="B95" s="102"/>
+      <c r="C95" s="99"/>
       <c r="D95" s="7" t="s">
         <v>141</v>
       </c>
@@ -5403,39 +5403,39 @@
       <c r="F95" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G95" s="105"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="76"/>
-      <c r="K95" s="67">
-        <v>30</v>
-      </c>
-      <c r="L95" s="70">
+      <c r="G95" s="93"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="80"/>
+      <c r="K95" s="53">
+        <v>30</v>
+      </c>
+      <c r="L95" s="56">
         <v>25</v>
       </c>
-      <c r="M95" s="73">
+      <c r="M95" s="59">
         <v>35</v>
       </c>
       <c r="N95" s="34">
         <v>30</v>
       </c>
-      <c r="O95" s="67">
-        <v>30</v>
-      </c>
-      <c r="P95" s="70">
+      <c r="O95" s="53">
+        <v>30</v>
+      </c>
+      <c r="P95" s="56">
         <v>25</v>
       </c>
-      <c r="Q95" s="73">
+      <c r="Q95" s="59">
         <v>35</v>
       </c>
-      <c r="R95" s="52">
+      <c r="R95" s="62">
         <f>SUM(K95:Q95)</f>
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="66"/>
-      <c r="B96" s="90"/>
-      <c r="C96" s="62"/>
+      <c r="A96" s="110"/>
+      <c r="B96" s="102"/>
+      <c r="C96" s="99"/>
       <c r="D96" s="7" t="s">
         <v>143</v>
       </c>
@@ -5445,28 +5445,28 @@
       <c r="F96" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="G96" s="105"/>
-      <c r="H96" s="64" t="s">
+      <c r="G96" s="93"/>
+      <c r="H96" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="I96" s="76" t="s">
+      <c r="I96" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="K96" s="68"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="74"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="60"/>
       <c r="N96" s="34">
         <v>30</v>
       </c>
-      <c r="O96" s="68"/>
-      <c r="P96" s="71"/>
-      <c r="Q96" s="74"/>
-      <c r="R96" s="53"/>
+      <c r="O96" s="54"/>
+      <c r="P96" s="57"/>
+      <c r="Q96" s="60"/>
+      <c r="R96" s="63"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="66"/>
-      <c r="B97" s="90"/>
-      <c r="C97" s="63"/>
+      <c r="A97" s="110"/>
+      <c r="B97" s="102"/>
+      <c r="C97" s="100"/>
       <c r="D97" s="7" t="s">
         <v>142</v>
       </c>
@@ -5476,23 +5476,23 @@
       <c r="F97" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G97" s="105"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="76"/>
-      <c r="K97" s="68"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="74"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="80"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="57"/>
+      <c r="M97" s="60"/>
       <c r="N97" s="34">
         <v>30</v>
       </c>
-      <c r="O97" s="68"/>
-      <c r="P97" s="71"/>
-      <c r="Q97" s="74"/>
-      <c r="R97" s="53"/>
+      <c r="O97" s="54"/>
+      <c r="P97" s="57"/>
+      <c r="Q97" s="60"/>
+      <c r="R97" s="63"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="66"/>
-      <c r="B98" s="90"/>
+      <c r="A98" s="110"/>
+      <c r="B98" s="102"/>
       <c r="C98" s="11">
         <v>862</v>
       </c>
@@ -5505,27 +5505,27 @@
       <c r="F98" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G98" s="105"/>
-      <c r="H98" s="64" t="s">
+      <c r="G98" s="93"/>
+      <c r="H98" s="105" t="s">
         <v>133</v>
       </c>
       <c r="I98" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="69"/>
-      <c r="L98" s="72"/>
-      <c r="M98" s="75"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="61"/>
       <c r="N98" s="34">
         <v>30</v>
       </c>
-      <c r="O98" s="69"/>
-      <c r="P98" s="72"/>
-      <c r="Q98" s="75"/>
-      <c r="R98" s="54"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="58"/>
+      <c r="Q98" s="61"/>
+      <c r="R98" s="64"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
-      <c r="B99" s="91"/>
+      <c r="A99" s="110"/>
+      <c r="B99" s="103"/>
       <c r="C99" s="11">
         <v>863</v>
       </c>
@@ -5538,33 +5538,33 @@
       <c r="F99" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G99" s="106"/>
-      <c r="H99" s="64"/>
+      <c r="G99" s="94"/>
+      <c r="H99" s="105"/>
       <c r="I99" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="K99" s="55" t="s">
+      <c r="K99" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="L99" s="56"/>
-      <c r="M99" s="56"/>
+      <c r="L99" s="68"/>
+      <c r="M99" s="68"/>
       <c r="N99" s="34">
         <v>30</v>
       </c>
-      <c r="O99" s="57" t="s">
+      <c r="O99" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P99" s="57"/>
-      <c r="Q99" s="57"/>
+      <c r="P99" s="52"/>
+      <c r="Q99" s="52"/>
       <c r="R99" s="44"/>
     </row>
     <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="100" t="s">
+      <c r="A100" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="100"/>
-      <c r="C100" s="100"/>
-      <c r="D100" s="100"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
       <c r="E100" s="17">
         <f>SUM(E2:E99)</f>
         <v>168</v>
@@ -5575,13 +5575,13 @@
       <c r="H100" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="107" t="s">
+      <c r="A102" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="88" t="s">
+      <c r="B102" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="57">
+      <c r="C102" s="52">
         <v>871</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -5593,13 +5593,13 @@
       <c r="F102" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G102" s="97" t="s">
+      <c r="G102" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="H102" s="80" t="s">
+      <c r="H102" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="I102" s="82">
+      <c r="I102" s="115">
         <v>871</v>
       </c>
       <c r="K102" s="32" t="s">
@@ -5628,9 +5628,9 @@
       </c>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="107"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="57"/>
+      <c r="A103" s="97"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="5" t="s">
         <v>141</v>
       </c>
@@ -5640,39 +5640,39 @@
       <c r="F103" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G103" s="97"/>
-      <c r="H103" s="80"/>
-      <c r="I103" s="82"/>
-      <c r="K103" s="67">
-        <v>30</v>
-      </c>
-      <c r="L103" s="70">
+      <c r="G103" s="95"/>
+      <c r="H103" s="104"/>
+      <c r="I103" s="115"/>
+      <c r="K103" s="53">
+        <v>30</v>
+      </c>
+      <c r="L103" s="56">
         <v>35</v>
       </c>
-      <c r="M103" s="73">
+      <c r="M103" s="59">
         <v>55</v>
       </c>
       <c r="N103" s="34">
         <v>30</v>
       </c>
-      <c r="O103" s="67">
-        <v>30</v>
-      </c>
-      <c r="P103" s="109">
+      <c r="O103" s="53">
+        <v>30</v>
+      </c>
+      <c r="P103" s="76">
         <v>35</v>
       </c>
-      <c r="Q103" s="73">
+      <c r="Q103" s="59">
         <v>25</v>
       </c>
-      <c r="R103" s="52">
+      <c r="R103" s="62">
         <f>SUM(K103:Q103)</f>
         <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="107"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="57"/>
+      <c r="A104" s="97"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="52"/>
       <c r="D104" s="5" t="s">
         <v>143</v>
       </c>
@@ -5682,28 +5682,28 @@
       <c r="F104" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G104" s="97"/>
-      <c r="H104" s="80" t="s">
+      <c r="G104" s="95"/>
+      <c r="H104" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="I104" s="82">
+      <c r="I104" s="115">
         <v>871</v>
       </c>
-      <c r="K104" s="68"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="74"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="57"/>
+      <c r="M104" s="60"/>
       <c r="N104" s="34">
         <v>30</v>
       </c>
-      <c r="O104" s="68"/>
-      <c r="P104" s="110"/>
-      <c r="Q104" s="74"/>
-      <c r="R104" s="53"/>
+      <c r="O104" s="54"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="60"/>
+      <c r="R104" s="63"/>
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="107"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="57"/>
+      <c r="A105" s="97"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="52"/>
       <c r="D105" s="5" t="s">
         <v>142</v>
       </c>
@@ -5713,23 +5713,23 @@
       <c r="F105" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G105" s="97"/>
-      <c r="H105" s="80"/>
-      <c r="I105" s="82"/>
-      <c r="K105" s="68"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="74"/>
+      <c r="G105" s="95"/>
+      <c r="H105" s="104"/>
+      <c r="I105" s="115"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="60"/>
       <c r="N105" s="34">
         <v>30</v>
       </c>
-      <c r="O105" s="68"/>
-      <c r="P105" s="110"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="53"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="60"/>
+      <c r="R105" s="63"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="107"/>
-      <c r="B106" s="88"/>
+      <c r="A106" s="97"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="2">
         <v>872</v>
       </c>
@@ -5742,27 +5742,27 @@
       <c r="F106" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G106" s="97"/>
-      <c r="H106" s="80" t="s">
+      <c r="G106" s="95"/>
+      <c r="H106" s="104" t="s">
         <v>133</v>
       </c>
       <c r="I106" s="18">
         <v>872</v>
       </c>
-      <c r="K106" s="69"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="75"/>
+      <c r="K106" s="55"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="61"/>
       <c r="N106" s="34">
         <v>30</v>
       </c>
-      <c r="O106" s="69"/>
-      <c r="P106" s="111"/>
-      <c r="Q106" s="75"/>
-      <c r="R106" s="54"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="78"/>
+      <c r="Q106" s="61"/>
+      <c r="R106" s="64"/>
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="107"/>
-      <c r="B107" s="88"/>
+      <c r="A107" s="97"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="2">
         <v>873</v>
       </c>
@@ -5775,33 +5775,33 @@
       <c r="F107" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G107" s="97"/>
-      <c r="H107" s="80"/>
+      <c r="G107" s="95"/>
+      <c r="H107" s="104"/>
       <c r="I107" s="18">
         <v>873</v>
       </c>
-      <c r="K107" s="55" t="s">
+      <c r="K107" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
+      <c r="L107" s="68"/>
+      <c r="M107" s="68"/>
       <c r="N107" s="34">
         <v>30</v>
       </c>
-      <c r="O107" s="55" t="s">
+      <c r="O107" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="116"/>
+      <c r="P107" s="68"/>
+      <c r="Q107" s="69"/>
       <c r="R107" s="44"/>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="100" t="s">
+      <c r="A108" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="100"/>
-      <c r="C108" s="100"/>
-      <c r="D108" s="100"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
       <c r="E108" s="17">
         <f>SUM(E102:E107)</f>
         <v>10</v>
@@ -5870,16 +5870,276 @@
     </row>
   </sheetData>
   <mergeCells count="304">
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="O95:O98"/>
-    <mergeCell ref="P95:P98"/>
-    <mergeCell ref="Q95:Q98"/>
-    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="R83:R86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="O65:O68"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="L65:M68"/>
+    <mergeCell ref="P65:Q68"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L77:M80"/>
+    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="P77:Q80"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="R34:R37"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="P46:P49"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="R58:R61"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A64:A99"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B64:B87"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="A27:A62"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="G76:G81"/>
+    <mergeCell ref="G82:G87"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="L52:M55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L28:M31"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="P103:P106"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="P58:P61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="O58:O61"/>
+    <mergeCell ref="Q58:Q61"/>
+    <mergeCell ref="K83:K86"/>
+    <mergeCell ref="L83:L86"/>
+    <mergeCell ref="M83:M86"/>
+    <mergeCell ref="O83:O86"/>
+    <mergeCell ref="P83:P86"/>
+    <mergeCell ref="Q83:Q86"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:M92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:Q92"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="L40:M43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:Q43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="Q46:Q49"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R25"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L13"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="T28:V28"/>
     <mergeCell ref="L103:L106"/>
     <mergeCell ref="M103:M106"/>
@@ -5904,276 +6164,16 @@
     <mergeCell ref="N23:O25"/>
     <mergeCell ref="Q34:Q37"/>
     <mergeCell ref="L46:L49"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R25"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="L40:M43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:Q43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="P103:P106"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="P58:P61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="O58:O61"/>
-    <mergeCell ref="Q58:Q61"/>
-    <mergeCell ref="K83:K86"/>
-    <mergeCell ref="L83:L86"/>
-    <mergeCell ref="M83:M86"/>
-    <mergeCell ref="O83:O86"/>
-    <mergeCell ref="P83:P86"/>
-    <mergeCell ref="Q83:Q86"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:M92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:Q92"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="L52:M55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L28:M31"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="G76:G81"/>
-    <mergeCell ref="G82:G87"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="G102:G107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G64:G69"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A64:A99"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B64:B87"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="A27:A62"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="R34:R37"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="P46:P49"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="R58:R61"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="R83:R86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="O65:O68"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="L65:M68"/>
-    <mergeCell ref="P65:Q68"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:M80"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="P77:Q80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="K95:K98"/>
+    <mergeCell ref="L95:L98"/>
+    <mergeCell ref="M95:M98"/>
+    <mergeCell ref="O95:O98"/>
+    <mergeCell ref="P95:P98"/>
+    <mergeCell ref="Q95:Q98"/>
+    <mergeCell ref="R95:R98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
+++ b/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA986F9-9300-4C86-AC91-1952E17F1135}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{715586D3-2B4A-4BCF-A05B-4327E3BF2C97}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,15 +801,6 @@
     <t>2nd attack cycle (start from 120th)</t>
   </si>
   <si>
-    <t>It is a buffer between the 1st attack cycle and the 2nd attack cycle, with two types in two colours.</t>
-  </si>
-  <si>
-    <t>means outliers (non valid data) due to attacks</t>
-  </si>
-  <si>
-    <t>means system recovery behaviour (valid data)</t>
-  </si>
-  <si>
     <t>Em&amp;Attack</t>
   </si>
   <si>
@@ -955,6 +946,15 @@
       </rPr>
       <t xml:space="preserve"> when a short-circuit fault happens, an irrelevant IED (compromised with a malicious program) publishes the first 30 packets containing tripping signals, and the rest packets containing non-tripping signals.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The DMZ represents a buffer between the 1st attack cycle and the 2nd attack cycle. Two different colours of DMZ indicate two different statuses. </t>
+  </si>
+  <si>
+    <t>means outliers (non valid data) because MATLAB cannot process the physical behaviours of such attacks reasonably (transformers will be damaged physically in the real world). Data was labelled as N/V.</t>
+  </si>
+  <si>
+    <t>means valid data that systems were recovered from a real/fabricated fault. Data was labelled as 0.</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,12 +1306,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1374,23 +1368,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1406,18 +1388,57 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,169 +1466,142 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1903,14 +1897,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6D2FFF-64FD-4790-BE66-86F2381ADCA2}">
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102:G107"/>
+    <sheetView tabSelected="1" topLeftCell="E23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="7" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -1926,7 +1920,7 @@
     <col min="18" max="18" width="11.140625" customWidth="1"/>
     <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.5703125" customWidth="1"/>
-    <col min="22" max="22" width="27.5703125" customWidth="1"/>
+    <col min="22" max="22" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="37.5" x14ac:dyDescent="0.25">
@@ -1957,27 +1951,27 @@
       <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
+      <c r="K1" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="45">
         <v>811</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1986,38 +1980,38 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="85" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="22">
         <v>8111</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="71" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="88"/>
+      <c r="M2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="33" t="s">
+      <c r="O2" s="88"/>
+      <c r="P2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="71"/>
-      <c r="S2" s="33" t="s">
+      <c r="R2" s="88"/>
+      <c r="S2" s="31" t="s">
         <v>173</v>
       </c>
       <c r="T2" s="3" t="s">
@@ -2025,55 +2019,55 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="22">
         <v>8111</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="70">
+      <c r="J3" s="19"/>
+      <c r="K3" s="51">
         <v>60</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="74">
+      <c r="L3" s="51"/>
+      <c r="M3" s="52">
         <v>20</v>
       </c>
-      <c r="N3" s="70">
+      <c r="N3" s="51">
         <v>60</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="74">
+      <c r="O3" s="51"/>
+      <c r="P3" s="52">
         <v>20</v>
       </c>
-      <c r="Q3" s="70">
+      <c r="Q3" s="51">
         <v>60</v>
       </c>
-      <c r="R3" s="70"/>
-      <c r="S3" s="74">
+      <c r="R3" s="51"/>
+      <c r="S3" s="52">
         <v>20</v>
       </c>
-      <c r="T3" s="52">
+      <c r="T3" s="50">
         <f>SUM(K3:S5)</f>
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="10">
         <v>812</v>
       </c>
@@ -2083,31 +2077,31 @@
       <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="104" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="52"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="50"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="2">
         <v>813</v>
       </c>
@@ -2117,30 +2111,30 @@
       <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="24" t="s">
+      <c r="G5" s="87"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="52"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="50"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="98">
+      <c r="A6" s="59"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="54">
         <v>811</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2149,37 +2143,37 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="70" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <v>8112</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="71"/>
-      <c r="M6" s="33" t="s">
+      <c r="L6" s="88"/>
+      <c r="M6" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="O6" s="71"/>
-      <c r="P6" s="33" t="s">
+      <c r="O6" s="88"/>
+      <c r="P6" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="71" t="s">
+      <c r="Q6" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="R6" s="71"/>
-      <c r="S6" s="33" t="s">
+      <c r="R6" s="88"/>
+      <c r="S6" s="31" t="s">
         <v>173</v>
       </c>
       <c r="T6" s="3" t="s">
@@ -2187,55 +2181,55 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="100"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <v>8112</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="51">
         <v>60</v>
       </c>
-      <c r="L7" s="70"/>
-      <c r="M7" s="74">
+      <c r="L7" s="51"/>
+      <c r="M7" s="52">
         <v>10</v>
       </c>
-      <c r="N7" s="70">
+      <c r="N7" s="51">
         <v>60</v>
       </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="74">
+      <c r="O7" s="51"/>
+      <c r="P7" s="52">
         <v>10</v>
       </c>
-      <c r="Q7" s="70">
+      <c r="Q7" s="51">
         <v>60</v>
       </c>
-      <c r="R7" s="70"/>
-      <c r="S7" s="74">
+      <c r="R7" s="51"/>
+      <c r="S7" s="52">
         <v>10</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="50">
         <f>SUM(K7:S9)</f>
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="23">
+      <c r="A8" s="59"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="21">
         <v>812</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -2244,30 +2238,30 @@
       <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="105" t="s">
+      <c r="G8" s="71"/>
+      <c r="H8" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="52"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="50"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="11">
         <v>813</v>
       </c>
@@ -2277,29 +2271,29 @@
       <c r="E9" s="8">
         <v>4</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="19" t="s">
+      <c r="G9" s="72"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="52"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="50"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="62">
+      <c r="A10" s="59"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="45">
         <v>811</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2308,37 +2302,37 @@
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="85" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <v>8113</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="33" t="s">
+      <c r="L10" s="88"/>
+      <c r="M10" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="N10" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="71"/>
-      <c r="P10" s="33" t="s">
+      <c r="O10" s="88"/>
+      <c r="P10" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" s="71" t="s">
+      <c r="Q10" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="R10" s="71"/>
-      <c r="S10" s="33" t="s">
+      <c r="R10" s="88"/>
+      <c r="S10" s="31" t="s">
         <v>173</v>
       </c>
       <c r="T10" s="3" t="s">
@@ -2346,54 +2340,54 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="84"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <v>8113</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="51">
         <v>60</v>
       </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="74">
+      <c r="L11" s="51"/>
+      <c r="M11" s="52">
         <v>10</v>
       </c>
-      <c r="N11" s="70">
+      <c r="N11" s="51">
         <v>60</v>
       </c>
-      <c r="O11" s="70"/>
-      <c r="P11" s="74">
+      <c r="O11" s="51"/>
+      <c r="P11" s="52">
         <v>10</v>
       </c>
-      <c r="Q11" s="70">
+      <c r="Q11" s="51">
         <v>60</v>
       </c>
-      <c r="R11" s="70"/>
-      <c r="S11" s="74">
+      <c r="R11" s="51"/>
+      <c r="S11" s="52">
         <v>10</v>
       </c>
-      <c r="T11" s="52">
+      <c r="T11" s="50">
         <f>SUM(K11:S13)</f>
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="10">
         <v>812</v>
       </c>
@@ -2403,30 +2397,30 @@
       <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="104" t="s">
+      <c r="G12" s="86"/>
+      <c r="H12" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="52"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="50"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="2">
         <v>813</v>
       </c>
@@ -2436,29 +2430,29 @@
       <c r="E13" s="6">
         <v>4</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="18" t="s">
+      <c r="G13" s="87"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="52"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="50"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="98">
+      <c r="A14" s="59"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="54">
         <v>811</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2467,37 +2461,37 @@
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="70" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>8114</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="L14" s="71"/>
-      <c r="M14" s="33" t="s">
+      <c r="L14" s="88"/>
+      <c r="M14" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N14" s="71" t="s">
+      <c r="N14" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="O14" s="71"/>
-      <c r="P14" s="33" t="s">
+      <c r="O14" s="88"/>
+      <c r="P14" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q14" s="71" t="s">
+      <c r="Q14" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="R14" s="71"/>
-      <c r="S14" s="33" t="s">
+      <c r="R14" s="88"/>
+      <c r="S14" s="31" t="s">
         <v>173</v>
       </c>
       <c r="T14" s="3" t="s">
@@ -2505,55 +2499,55 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="100"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="87"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <v>8114</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="51">
         <v>60</v>
       </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="74">
+      <c r="L15" s="51"/>
+      <c r="M15" s="52">
         <v>5</v>
       </c>
-      <c r="N15" s="70">
+      <c r="N15" s="51">
         <v>60</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="74">
+      <c r="O15" s="51"/>
+      <c r="P15" s="52">
         <v>5</v>
       </c>
-      <c r="Q15" s="70">
+      <c r="Q15" s="51">
         <v>60</v>
       </c>
-      <c r="R15" s="70"/>
-      <c r="S15" s="74">
+      <c r="R15" s="51"/>
+      <c r="S15" s="52">
         <v>5</v>
       </c>
-      <c r="T15" s="52">
+      <c r="T15" s="50">
         <f>SUM(K15:S17)</f>
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="23">
+      <c r="A16" s="59"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="21">
         <v>812</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -2562,30 +2556,30 @@
       <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="105" t="s">
+      <c r="G16" s="71"/>
+      <c r="H16" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="52"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="50"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="11">
         <v>813</v>
       </c>
@@ -2595,31 +2589,31 @@
       <c r="E17" s="8">
         <v>4</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="19" t="s">
+      <c r="G17" s="72"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="52"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="50"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="96" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="45">
         <v>821</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2628,37 +2622,37 @@
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="85" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <v>8211</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="71"/>
-      <c r="M18" s="33" t="s">
+      <c r="L18" s="88"/>
+      <c r="M18" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="O18" s="71"/>
-      <c r="P18" s="33" t="s">
+      <c r="O18" s="88"/>
+      <c r="P18" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q18" s="71" t="s">
+      <c r="Q18" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="R18" s="71"/>
-      <c r="S18" s="33" t="s">
+      <c r="R18" s="88"/>
+      <c r="S18" s="31" t="s">
         <v>173</v>
       </c>
       <c r="T18" s="3" t="s">
@@ -2666,54 +2660,54 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="64"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="84"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="16">
         <v>8211</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="51">
         <v>60</v>
       </c>
-      <c r="L19" s="70"/>
-      <c r="M19" s="74">
+      <c r="L19" s="51"/>
+      <c r="M19" s="52">
         <v>10</v>
       </c>
-      <c r="N19" s="70">
+      <c r="N19" s="51">
         <v>60</v>
       </c>
-      <c r="O19" s="70"/>
-      <c r="P19" s="74">
+      <c r="O19" s="51"/>
+      <c r="P19" s="52">
         <v>10</v>
       </c>
-      <c r="Q19" s="70">
+      <c r="Q19" s="51">
         <v>60</v>
       </c>
-      <c r="R19" s="70"/>
-      <c r="S19" s="74">
+      <c r="R19" s="51"/>
+      <c r="S19" s="52">
         <v>10</v>
       </c>
-      <c r="T19" s="52">
+      <c r="T19" s="50">
         <f>SUM(K19:S21)</f>
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="2">
         <v>822</v>
       </c>
@@ -2723,30 +2717,30 @@
       <c r="E20" s="6">
         <v>2</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="104" t="s">
+      <c r="G20" s="86"/>
+      <c r="H20" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="52"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="50"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="2">
         <v>823</v>
       </c>
@@ -2756,29 +2750,29 @@
       <c r="E21" s="6">
         <v>4</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="85"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="18" t="s">
+      <c r="G21" s="87"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="52"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="50"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="98">
+      <c r="A22" s="59"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="54">
         <v>821</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2787,37 +2781,37 @@
       <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="70" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="17">
         <v>8212</v>
       </c>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="33" t="s">
+      <c r="L22" s="88"/>
+      <c r="M22" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N22" s="71" t="s">
+      <c r="N22" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="O22" s="71"/>
-      <c r="P22" s="33" t="s">
+      <c r="O22" s="88"/>
+      <c r="P22" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q22" s="71" t="s">
+      <c r="Q22" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="R22" s="71"/>
-      <c r="S22" s="33" t="s">
+      <c r="R22" s="88"/>
+      <c r="S22" s="31" t="s">
         <v>173</v>
       </c>
       <c r="T22" s="3" t="s">
@@ -2825,54 +2819,54 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="100"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="87"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="17">
         <v>8212</v>
       </c>
-      <c r="K23" s="70">
+      <c r="K23" s="51">
         <v>60</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="74">
+      <c r="L23" s="51"/>
+      <c r="M23" s="52">
         <v>5</v>
       </c>
-      <c r="N23" s="70">
+      <c r="N23" s="51">
         <v>60</v>
       </c>
-      <c r="O23" s="70"/>
-      <c r="P23" s="74">
+      <c r="O23" s="51"/>
+      <c r="P23" s="52">
         <v>5</v>
       </c>
-      <c r="Q23" s="70">
+      <c r="Q23" s="51">
         <v>60</v>
       </c>
-      <c r="R23" s="70"/>
-      <c r="S23" s="74">
+      <c r="R23" s="51"/>
+      <c r="S23" s="52">
         <v>5</v>
       </c>
-      <c r="T23" s="52">
+      <c r="T23" s="50">
         <f>SUM(K23:S25)</f>
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="96"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="11">
         <v>822</v>
       </c>
@@ -2882,239 +2876,243 @@
       <c r="E24" s="8">
         <v>2</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="105" t="s">
+      <c r="G24" s="71"/>
+      <c r="H24" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="52"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="50"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="28">
+      <c r="A25" s="77"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="26">
         <v>823</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="39">
         <v>4</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="47" t="s">
+      <c r="G25" s="72"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="52"/>
-    </row>
-    <row r="26" spans="1:22" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="51"/>
-      <c r="N26" s="43" t="s">
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="45"/>
+    </row>
+    <row r="26" spans="1:22" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="44"/>
+      <c r="N26" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="O26" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
+      <c r="O26" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="114"/>
     </row>
     <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="101" t="s">
+      <c r="A27" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="45">
         <v>831</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="48">
-        <v>1</v>
-      </c>
-      <c r="F27" s="49" t="s">
+      <c r="E27" s="42">
+        <v>1</v>
+      </c>
+      <c r="F27" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="104" t="s">
+      <c r="H27" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I27" s="81" t="s">
+      <c r="I27" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="37" t="s">
+      <c r="K27" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="79" t="s">
+      <c r="L27" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="79"/>
-      <c r="N27" s="50">
-        <v>30</v>
-      </c>
-      <c r="O27" s="37" t="s">
+      <c r="M27" s="101"/>
+      <c r="N27" s="43">
+        <v>30</v>
+      </c>
+      <c r="O27" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="P27" s="79" t="s">
+      <c r="P27" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="38" t="s">
+      <c r="Q27" s="101"/>
+      <c r="R27" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="S27" s="39" t="s">
+      <c r="S27" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="T27" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
+      <c r="T27" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
     </row>
     <row r="28" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="81"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="70">
-        <v>30</v>
-      </c>
-      <c r="L28" s="74">
+      <c r="K28" s="51">
+        <v>30</v>
+      </c>
+      <c r="L28" s="52">
         <v>60</v>
       </c>
-      <c r="M28" s="74"/>
-      <c r="N28" s="35">
-        <v>30</v>
-      </c>
-      <c r="O28" s="70">
-        <v>30</v>
-      </c>
-      <c r="P28" s="74">
+      <c r="M28" s="52"/>
+      <c r="N28" s="33">
+        <v>30</v>
+      </c>
+      <c r="O28" s="51">
+        <v>30</v>
+      </c>
+      <c r="P28" s="52">
         <v>60</v>
       </c>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="52">
+      <c r="Q28" s="52"/>
+      <c r="R28" s="48">
         <f>SUM(K28:Q28)</f>
         <v>210</v>
       </c>
-      <c r="S28" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="T28" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
     </row>
     <row r="29" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="104" t="s">
+      <c r="G29" s="86"/>
+      <c r="H29" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="81" t="s">
+      <c r="I29" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="70"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="35">
-        <v>30</v>
-      </c>
-      <c r="O29" s="70"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="52"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="33">
+        <v>30</v>
+      </c>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
     </row>
     <row r="30" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="81"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="35">
-        <v>30</v>
-      </c>
-      <c r="O30" s="70"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="52"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="33">
+        <v>30</v>
+      </c>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
     </row>
     <row r="31" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="10">
         <v>832</v>
       </c>
@@ -3124,30 +3122,38 @@
       <c r="E31" s="6">
         <v>2</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="104" t="s">
+      <c r="G31" s="86"/>
+      <c r="H31" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="70"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="34">
-        <v>30</v>
-      </c>
-      <c r="O31" s="70"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="52"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="32">
+        <v>30</v>
+      </c>
+      <c r="O31" s="51"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="T31" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
     </row>
     <row r="32" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="2">
         <v>833</v>
       </c>
@@ -3157,34 +3163,37 @@
       <c r="E32" s="6">
         <v>4</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="24" t="s">
+      <c r="G32" s="87"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="52" t="s">
+      <c r="K32" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="34">
-        <v>30</v>
-      </c>
-      <c r="O32" s="52" t="s">
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="32">
+        <v>30</v>
+      </c>
+      <c r="O32" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
     </row>
     <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="98">
+      <c r="A33" s="59"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="54">
         <v>831</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3193,147 +3202,147 @@
       <c r="E33" s="8">
         <v>1</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="106" t="s">
+      <c r="G33" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="105" t="s">
+      <c r="H33" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="80" t="s">
+      <c r="I33" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="M33" s="36" t="s">
+      <c r="L33" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M33" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="N33" s="34">
-        <v>30</v>
-      </c>
-      <c r="O33" s="32" t="s">
+      <c r="N33" s="32">
+        <v>30</v>
+      </c>
+      <c r="O33" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P33" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q33" s="36" t="s">
+      <c r="P33" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q33" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="R33" s="26" t="s">
+      <c r="R33" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="99"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E34" s="8">
         <v>1</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="106"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="80"/>
-      <c r="K34" s="53">
-        <v>30</v>
-      </c>
-      <c r="L34" s="56">
+      <c r="G34" s="89"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="69"/>
+      <c r="K34" s="60">
+        <v>30</v>
+      </c>
+      <c r="L34" s="63">
         <v>20</v>
       </c>
-      <c r="M34" s="59">
+      <c r="M34" s="66">
         <v>40</v>
       </c>
-      <c r="N34" s="34">
-        <v>30</v>
-      </c>
-      <c r="O34" s="53">
-        <v>30</v>
-      </c>
-      <c r="P34" s="56">
+      <c r="N34" s="32">
+        <v>30</v>
+      </c>
+      <c r="O34" s="60">
+        <v>30</v>
+      </c>
+      <c r="P34" s="63">
         <v>20</v>
       </c>
-      <c r="Q34" s="59">
+      <c r="Q34" s="66">
         <v>40</v>
       </c>
-      <c r="R34" s="62">
+      <c r="R34" s="45">
         <f>SUM(K34:Q34)</f>
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="99"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="7" t="s">
         <v>143</v>
       </c>
       <c r="E35" s="8">
         <v>1</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="106"/>
-      <c r="H35" s="105" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="I35" s="80" t="s">
+      <c r="I35" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="54"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="34">
-        <v>30</v>
-      </c>
-      <c r="O35" s="54"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="63"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="32">
+        <v>30</v>
+      </c>
+      <c r="O35" s="61"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="46"/>
     </row>
     <row r="36" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="100"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E36" s="8">
         <v>1</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="106"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="80"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="34">
-        <v>30</v>
-      </c>
-      <c r="O36" s="54"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="63"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="69"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="32">
+        <v>30</v>
+      </c>
+      <c r="O36" s="61"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="46"/>
     </row>
     <row r="37" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="23">
+      <c r="A37" s="59"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="21">
         <v>832</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -3342,30 +3351,30 @@
       <c r="E37" s="8">
         <v>2</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="106"/>
-      <c r="H37" s="105" t="s">
+      <c r="G37" s="89"/>
+      <c r="H37" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="I37" s="25" t="s">
+      <c r="I37" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="55"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="34">
-        <v>30</v>
-      </c>
-      <c r="O37" s="55"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="64"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="32">
+        <v>30</v>
+      </c>
+      <c r="O37" s="62"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="47"/>
     </row>
     <row r="38" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="110"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="11">
         <v>833</v>
       </c>
@@ -3375,33 +3384,33 @@
       <c r="E38" s="8">
         <v>4</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="106"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="25" t="s">
+      <c r="G38" s="89"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="34">
-        <v>30</v>
-      </c>
-      <c r="O38" s="52" t="s">
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="32">
+        <v>30</v>
+      </c>
+      <c r="O38" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="44"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="110"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="62">
+      <c r="A39" s="59"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="45">
         <v>831</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -3410,138 +3419,138 @@
       <c r="E39" s="6">
         <v>1</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="95" t="s">
+      <c r="G39" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="104" t="s">
+      <c r="H39" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="81" t="s">
+      <c r="I39" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="32" t="s">
+      <c r="K39" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L39" s="75" t="s">
+      <c r="L39" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="M39" s="75"/>
-      <c r="N39" s="31">
-        <v>30</v>
-      </c>
-      <c r="O39" s="32" t="s">
+      <c r="M39" s="53"/>
+      <c r="N39" s="29">
+        <v>30</v>
+      </c>
+      <c r="O39" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P39" s="75" t="s">
+      <c r="P39" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="26" t="s">
+      <c r="Q39" s="53"/>
+      <c r="R39" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="110"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="95"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="81"/>
-      <c r="K40" s="70">
-        <v>30</v>
-      </c>
-      <c r="L40" s="74">
+      <c r="G40" s="90"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="74"/>
+      <c r="K40" s="51">
+        <v>30</v>
+      </c>
+      <c r="L40" s="52">
         <v>60</v>
       </c>
-      <c r="M40" s="74"/>
-      <c r="N40" s="35">
-        <v>30</v>
-      </c>
-      <c r="O40" s="70">
-        <v>30</v>
-      </c>
-      <c r="P40" s="74">
+      <c r="M40" s="52"/>
+      <c r="N40" s="33">
+        <v>30</v>
+      </c>
+      <c r="O40" s="51">
+        <v>30</v>
+      </c>
+      <c r="P40" s="52">
         <v>60</v>
       </c>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="52">
+      <c r="Q40" s="52"/>
+      <c r="R40" s="50">
         <f>SUM(K40:Q40)</f>
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="95"/>
-      <c r="H41" s="104" t="s">
+      <c r="G41" s="90"/>
+      <c r="H41" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="81" t="s">
+      <c r="I41" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="70"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="35">
-        <v>30</v>
-      </c>
-      <c r="O41" s="70"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="52"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="33">
+        <v>30</v>
+      </c>
+      <c r="O41" s="51"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="50"/>
     </row>
     <row r="42" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="64"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="95"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="81"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="35">
-        <v>30</v>
-      </c>
-      <c r="O42" s="70"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="52"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="74"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="33">
+        <v>30</v>
+      </c>
+      <c r="O42" s="51"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="50"/>
     </row>
     <row r="43" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="102"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="10">
         <v>832</v>
       </c>
@@ -3551,30 +3560,30 @@
       <c r="E43" s="6">
         <v>2</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="95"/>
-      <c r="H43" s="104" t="s">
+      <c r="G43" s="90"/>
+      <c r="H43" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="70"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="34">
-        <v>30</v>
-      </c>
-      <c r="O43" s="70"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="52"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="32">
+        <v>30</v>
+      </c>
+      <c r="O43" s="51"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="50"/>
     </row>
     <row r="44" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
-      <c r="B44" s="102"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="2">
         <v>833</v>
       </c>
@@ -3584,33 +3593,33 @@
       <c r="E44" s="6">
         <v>4</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="95"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="24" t="s">
+      <c r="G44" s="90"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="52" t="s">
+      <c r="K44" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="34">
-        <v>30</v>
-      </c>
-      <c r="O44" s="52" t="s">
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="32">
+        <v>30</v>
+      </c>
+      <c r="O44" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="44"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="38"/>
     </row>
     <row r="45" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="110"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="98">
+      <c r="A45" s="59"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="54">
         <v>831</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -3619,147 +3628,147 @@
       <c r="E45" s="8">
         <v>1</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="106" t="s">
+      <c r="G45" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="105" t="s">
+      <c r="H45" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="I45" s="80" t="s">
+      <c r="I45" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="32" t="s">
+      <c r="K45" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L45" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="M45" s="36" t="s">
+      <c r="L45" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M45" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="N45" s="34">
-        <v>30</v>
-      </c>
-      <c r="O45" s="32" t="s">
+      <c r="N45" s="32">
+        <v>30</v>
+      </c>
+      <c r="O45" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P45" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q45" s="36" t="s">
+      <c r="P45" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q45" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="R45" s="26" t="s">
+      <c r="R45" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="110"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="99"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E46" s="8">
         <v>1</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="106"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="80"/>
-      <c r="K46" s="53">
-        <v>30</v>
-      </c>
-      <c r="L46" s="56">
+      <c r="G46" s="89"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="69"/>
+      <c r="K46" s="60">
+        <v>30</v>
+      </c>
+      <c r="L46" s="63">
         <v>25</v>
       </c>
-      <c r="M46" s="59">
+      <c r="M46" s="66">
         <v>35</v>
       </c>
-      <c r="N46" s="34">
-        <v>30</v>
-      </c>
-      <c r="O46" s="53">
-        <v>30</v>
-      </c>
-      <c r="P46" s="56">
+      <c r="N46" s="32">
+        <v>30</v>
+      </c>
+      <c r="O46" s="60">
+        <v>30</v>
+      </c>
+      <c r="P46" s="63">
         <v>25</v>
       </c>
-      <c r="Q46" s="59">
+      <c r="Q46" s="66">
         <v>35</v>
       </c>
-      <c r="R46" s="62">
+      <c r="R46" s="45">
         <f>SUM(K46:Q46)</f>
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="99"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="7" t="s">
         <v>143</v>
       </c>
       <c r="E47" s="8">
         <v>1</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="106"/>
-      <c r="H47" s="105" t="s">
+      <c r="G47" s="89"/>
+      <c r="H47" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="I47" s="80" t="s">
+      <c r="I47" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="K47" s="54"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="34">
-        <v>30</v>
-      </c>
-      <c r="O47" s="54"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="63"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="32">
+        <v>30</v>
+      </c>
+      <c r="O47" s="61"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="46"/>
     </row>
     <row r="48" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="110"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="100"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="106"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="80"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="34">
-        <v>30</v>
-      </c>
-      <c r="O48" s="54"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="63"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="69"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="32">
+        <v>30</v>
+      </c>
+      <c r="O48" s="61"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="46"/>
     </row>
     <row r="49" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="110"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="23">
+      <c r="A49" s="59"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="21">
         <v>832</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -3768,30 +3777,30 @@
       <c r="E49" s="8">
         <v>2</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="106"/>
-      <c r="H49" s="105" t="s">
+      <c r="G49" s="89"/>
+      <c r="H49" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="I49" s="25" t="s">
+      <c r="I49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K49" s="55"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="34">
-        <v>30</v>
-      </c>
-      <c r="O49" s="55"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="64"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="32">
+        <v>30</v>
+      </c>
+      <c r="O49" s="62"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="47"/>
     </row>
     <row r="50" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="103"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="84"/>
       <c r="C50" s="11">
         <v>833</v>
       </c>
@@ -3801,35 +3810,35 @@
       <c r="E50" s="8">
         <v>4</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="106"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="25" t="s">
+      <c r="G50" s="89"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="34">
-        <v>30</v>
-      </c>
-      <c r="O50" s="52" t="s">
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="32">
+        <v>30</v>
+      </c>
+      <c r="O50" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="44"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="38"/>
     </row>
     <row r="51" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="110"/>
-      <c r="B51" s="112" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="62">
+      <c r="C51" s="45">
         <v>841</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3838,138 +3847,138 @@
       <c r="E51" s="6">
         <v>1</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="107" t="s">
+      <c r="G51" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="104" t="s">
+      <c r="H51" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I51" s="81" t="s">
+      <c r="I51" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="K51" s="32" t="s">
+      <c r="K51" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L51" s="75" t="s">
+      <c r="L51" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="M51" s="75"/>
-      <c r="N51" s="34">
-        <v>30</v>
-      </c>
-      <c r="O51" s="32" t="s">
+      <c r="M51" s="53"/>
+      <c r="N51" s="32">
+        <v>30</v>
+      </c>
+      <c r="O51" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P51" s="75" t="s">
+      <c r="P51" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="26" t="s">
+      <c r="Q51" s="53"/>
+      <c r="R51" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="110"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="107"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="81"/>
-      <c r="K52" s="70">
-        <v>30</v>
-      </c>
-      <c r="L52" s="74">
+      <c r="G52" s="91"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="74"/>
+      <c r="K52" s="51">
+        <v>30</v>
+      </c>
+      <c r="L52" s="52">
         <v>60</v>
       </c>
-      <c r="M52" s="74"/>
-      <c r="N52" s="34">
-        <v>30</v>
-      </c>
-      <c r="O52" s="70">
-        <v>30</v>
-      </c>
-      <c r="P52" s="74">
+      <c r="M52" s="52"/>
+      <c r="N52" s="32">
+        <v>30</v>
+      </c>
+      <c r="O52" s="51">
+        <v>30</v>
+      </c>
+      <c r="P52" s="52">
         <v>60</v>
       </c>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="52">
+      <c r="Q52" s="52"/>
+      <c r="R52" s="50">
         <f>SUM(K52:Q52)</f>
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="107"/>
-      <c r="H53" s="104" t="s">
+      <c r="G53" s="91"/>
+      <c r="H53" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="I53" s="81" t="s">
+      <c r="I53" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="K53" s="70"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="34">
-        <v>30</v>
-      </c>
-      <c r="O53" s="70"/>
-      <c r="P53" s="74"/>
-      <c r="Q53" s="74"/>
-      <c r="R53" s="52"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="32">
+        <v>30</v>
+      </c>
+      <c r="O53" s="51"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="50"/>
     </row>
     <row r="54" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="110"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="64"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="81"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="74"/>
-      <c r="N54" s="34">
-        <v>30</v>
-      </c>
-      <c r="O54" s="70"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="74"/>
-      <c r="R54" s="52"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="74"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="32">
+        <v>30</v>
+      </c>
+      <c r="O54" s="51"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="50"/>
     </row>
     <row r="55" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="110"/>
-      <c r="B55" s="113"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="79"/>
       <c r="C55" s="2">
         <v>842</v>
       </c>
@@ -3979,30 +3988,30 @@
       <c r="E55" s="6">
         <v>2</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="95"/>
-      <c r="H55" s="104" t="s">
+      <c r="G55" s="90"/>
+      <c r="H55" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="I55" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K55" s="70"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="34">
-        <v>30</v>
-      </c>
-      <c r="O55" s="70"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="52"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="32">
+        <v>30</v>
+      </c>
+      <c r="O55" s="51"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="50"/>
     </row>
     <row r="56" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="113"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="79"/>
       <c r="C56" s="2">
         <v>843</v>
       </c>
@@ -4012,33 +4021,33 @@
       <c r="E56" s="6">
         <v>4</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="95"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="24" t="s">
+      <c r="G56" s="90"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K56" s="52" t="s">
+      <c r="K56" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="34">
-        <v>30</v>
-      </c>
-      <c r="O56" s="52" t="s">
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="32">
+        <v>30</v>
+      </c>
+      <c r="O56" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="44"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="110"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="98">
+      <c r="A57" s="59"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="54">
         <v>841</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -4047,146 +4056,146 @@
       <c r="E57" s="8">
         <v>1</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="108" t="s">
+      <c r="G57" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="105" t="s">
+      <c r="H57" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="I57" s="80" t="s">
+      <c r="I57" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="K57" s="32" t="s">
+      <c r="K57" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L57" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="M57" s="36" t="s">
+      <c r="L57" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M57" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="N57" s="34">
-        <v>30</v>
-      </c>
-      <c r="O57" s="32" t="s">
+      <c r="N57" s="32">
+        <v>30</v>
+      </c>
+      <c r="O57" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P57" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q57" s="36" t="s">
+      <c r="P57" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q57" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="R57" s="26" t="s">
+      <c r="R57" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="99"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="55"/>
       <c r="D58" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E58" s="8">
         <v>1</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="108"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="80"/>
-      <c r="K58" s="53">
-        <v>30</v>
-      </c>
-      <c r="L58" s="56">
+      <c r="G58" s="92"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="69"/>
+      <c r="K58" s="60">
+        <v>30</v>
+      </c>
+      <c r="L58" s="63">
         <v>25</v>
       </c>
-      <c r="M58" s="59">
+      <c r="M58" s="66">
         <v>35</v>
       </c>
-      <c r="N58" s="34">
-        <v>30</v>
-      </c>
-      <c r="O58" s="53">
-        <v>30</v>
-      </c>
-      <c r="P58" s="56">
+      <c r="N58" s="32">
+        <v>30</v>
+      </c>
+      <c r="O58" s="60">
+        <v>30</v>
+      </c>
+      <c r="P58" s="63">
         <v>25</v>
       </c>
-      <c r="Q58" s="59">
+      <c r="Q58" s="66">
         <v>35</v>
       </c>
-      <c r="R58" s="62">
+      <c r="R58" s="45">
         <f>SUM(K58:Q58)</f>
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="99"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="7" t="s">
         <v>143</v>
       </c>
       <c r="E59" s="8">
         <v>1</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="108"/>
-      <c r="H59" s="105" t="s">
+      <c r="G59" s="92"/>
+      <c r="H59" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="I59" s="80" t="s">
+      <c r="I59" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="54"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="34">
-        <v>30</v>
-      </c>
-      <c r="O59" s="54"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="63"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="32">
+        <v>30</v>
+      </c>
+      <c r="O59" s="61"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="46"/>
     </row>
     <row r="60" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="110"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="100"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E60" s="8">
         <v>1</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="106"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="80"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="34">
-        <v>30</v>
-      </c>
-      <c r="O60" s="54"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="63"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="69"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="32">
+        <v>30</v>
+      </c>
+      <c r="O60" s="61"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="46"/>
     </row>
     <row r="61" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="110"/>
-      <c r="B61" s="113"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="79"/>
       <c r="C61" s="11">
         <v>842</v>
       </c>
@@ -4196,30 +4205,30 @@
       <c r="E61" s="8">
         <v>2</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G61" s="106"/>
-      <c r="H61" s="105" t="s">
+      <c r="G61" s="89"/>
+      <c r="H61" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="I61" s="25" t="s">
+      <c r="I61" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K61" s="55"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="34">
-        <v>30</v>
-      </c>
-      <c r="O61" s="55"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="64"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="32">
+        <v>30</v>
+      </c>
+      <c r="O61" s="62"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="47"/>
     </row>
     <row r="62" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="111"/>
-      <c r="B62" s="114"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="80"/>
       <c r="C62" s="11">
         <v>843</v>
       </c>
@@ -4229,59 +4238,59 @@
       <c r="E62" s="8">
         <v>4</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="106"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="25" t="s">
+      <c r="G62" s="89"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K62" s="67" t="s">
+      <c r="K62" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="34">
-        <v>30</v>
-      </c>
-      <c r="O62" s="52" t="s">
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="32">
+        <v>30</v>
+      </c>
+      <c r="O62" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="44"/>
-    </row>
-    <row r="63" spans="1:20" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="116"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="116"/>
-      <c r="P63" s="116"/>
-      <c r="Q63" s="116"/>
-      <c r="R63" s="116"/>
-      <c r="S63" s="116"/>
-      <c r="T63" s="116"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="38"/>
+    </row>
+    <row r="63" spans="1:20" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="58"/>
+      <c r="P63" s="58"/>
+      <c r="Q63" s="58"/>
+      <c r="R63" s="58"/>
+      <c r="S63" s="58"/>
+      <c r="T63" s="58"/>
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="101" t="s">
+      <c r="A64" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C64" s="45">
         <v>851</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4290,138 +4299,138 @@
       <c r="E64" s="6">
         <v>1</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="H64" s="104" t="s">
+      <c r="G64" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I64" s="81" t="s">
+      <c r="I64" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="K64" s="32" t="s">
+      <c r="K64" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L64" s="75" t="s">
+      <c r="L64" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="M64" s="75"/>
-      <c r="N64" s="34">
-        <v>30</v>
-      </c>
-      <c r="O64" s="32" t="s">
+      <c r="M64" s="53"/>
+      <c r="N64" s="32">
+        <v>30</v>
+      </c>
+      <c r="O64" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P64" s="75" t="s">
+      <c r="P64" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="26" t="s">
+      <c r="Q64" s="53"/>
+      <c r="R64" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
-      <c r="B65" s="102"/>
-      <c r="C65" s="63"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G65" s="84"/>
-      <c r="H65" s="104"/>
-      <c r="I65" s="81"/>
-      <c r="K65" s="70">
-        <v>30</v>
-      </c>
-      <c r="L65" s="74">
+      <c r="G65" s="86"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="74"/>
+      <c r="K65" s="51">
+        <v>30</v>
+      </c>
+      <c r="L65" s="52">
         <v>60</v>
       </c>
-      <c r="M65" s="74"/>
-      <c r="N65" s="34">
-        <v>30</v>
-      </c>
-      <c r="O65" s="70">
-        <v>30</v>
-      </c>
-      <c r="P65" s="74">
+      <c r="M65" s="52"/>
+      <c r="N65" s="32">
+        <v>30</v>
+      </c>
+      <c r="O65" s="51">
+        <v>30</v>
+      </c>
+      <c r="P65" s="52">
         <v>60</v>
       </c>
-      <c r="Q65" s="74"/>
-      <c r="R65" s="52">
+      <c r="Q65" s="52"/>
+      <c r="R65" s="50">
         <f>SUM(K65:Q65)</f>
         <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="110"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="63"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="G66" s="84"/>
-      <c r="H66" s="104" t="s">
+      <c r="G66" s="86"/>
+      <c r="H66" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="I66" s="81" t="s">
+      <c r="I66" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="K66" s="70"/>
-      <c r="L66" s="74"/>
-      <c r="M66" s="74"/>
-      <c r="N66" s="34">
-        <v>30</v>
-      </c>
-      <c r="O66" s="70"/>
-      <c r="P66" s="74"/>
-      <c r="Q66" s="74"/>
-      <c r="R66" s="52"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="32">
+        <v>30</v>
+      </c>
+      <c r="O66" s="51"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="50"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="110"/>
-      <c r="B67" s="102"/>
-      <c r="C67" s="64"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="84"/>
-      <c r="H67" s="104"/>
-      <c r="I67" s="81"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="74"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="34">
-        <v>30</v>
-      </c>
-      <c r="O67" s="70"/>
-      <c r="P67" s="74"/>
-      <c r="Q67" s="74"/>
-      <c r="R67" s="52"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="74"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="32">
+        <v>30</v>
+      </c>
+      <c r="O67" s="51"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="50"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="110"/>
-      <c r="B68" s="102"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="83"/>
       <c r="C68" s="10">
         <v>852</v>
       </c>
@@ -4431,30 +4440,30 @@
       <c r="E68" s="6">
         <v>2</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="G68" s="84"/>
-      <c r="H68" s="104" t="s">
+      <c r="G68" s="86"/>
+      <c r="H68" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="I68" s="18" t="s">
+      <c r="I68" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="K68" s="70"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="34">
-        <v>30</v>
-      </c>
-      <c r="O68" s="70"/>
-      <c r="P68" s="74"/>
-      <c r="Q68" s="74"/>
-      <c r="R68" s="52"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="32">
+        <v>30</v>
+      </c>
+      <c r="O68" s="51"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="50"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="110"/>
-      <c r="B69" s="102"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="83"/>
       <c r="C69" s="2">
         <v>853</v>
       </c>
@@ -4464,33 +4473,33 @@
       <c r="E69" s="6">
         <v>4</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="85"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="18" t="s">
+      <c r="G69" s="87"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="K69" s="52" t="s">
+      <c r="K69" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="34">
-        <v>30</v>
-      </c>
-      <c r="O69" s="52" t="s">
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="32">
+        <v>30</v>
+      </c>
+      <c r="O69" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="44"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="38"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
-      <c r="B70" s="102"/>
-      <c r="C70" s="98">
+      <c r="A70" s="59"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="54">
         <v>851</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -4499,147 +4508,147 @@
       <c r="E70" s="8">
         <v>1</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G70" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="H70" s="105" t="s">
+      <c r="G70" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="I70" s="80" t="s">
+      <c r="I70" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="K70" s="32" t="s">
+      <c r="K70" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L70" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="M70" s="36" t="s">
+      <c r="L70" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M70" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="N70" s="34">
-        <v>30</v>
-      </c>
-      <c r="O70" s="32" t="s">
+      <c r="N70" s="32">
+        <v>30</v>
+      </c>
+      <c r="O70" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P70" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q70" s="36" t="s">
+      <c r="P70" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q70" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="R70" s="26" t="s">
+      <c r="R70" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
-      <c r="B71" s="102"/>
-      <c r="C71" s="99"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E71" s="8">
         <v>1</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G71" s="87"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="80"/>
-      <c r="K71" s="53">
-        <v>30</v>
-      </c>
-      <c r="L71" s="56">
+      <c r="G71" s="71"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="69"/>
+      <c r="K71" s="60">
+        <v>30</v>
+      </c>
+      <c r="L71" s="63">
         <v>20</v>
       </c>
-      <c r="M71" s="59">
+      <c r="M71" s="66">
         <v>40</v>
       </c>
-      <c r="N71" s="34">
-        <v>30</v>
-      </c>
-      <c r="O71" s="53">
-        <v>30</v>
-      </c>
-      <c r="P71" s="56">
+      <c r="N71" s="32">
+        <v>30</v>
+      </c>
+      <c r="O71" s="60">
+        <v>30</v>
+      </c>
+      <c r="P71" s="63">
         <v>20</v>
       </c>
-      <c r="Q71" s="59">
+      <c r="Q71" s="66">
         <v>40</v>
       </c>
-      <c r="R71" s="62">
+      <c r="R71" s="45">
         <f>SUM(K71:Q71)</f>
         <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="110"/>
-      <c r="B72" s="102"/>
-      <c r="C72" s="99"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="7" t="s">
         <v>143</v>
       </c>
       <c r="E72" s="8">
         <v>1</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G72" s="87"/>
-      <c r="H72" s="105" t="s">
+      <c r="G72" s="71"/>
+      <c r="H72" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="I72" s="80" t="s">
+      <c r="I72" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="K72" s="54"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="34">
-        <v>30</v>
-      </c>
-      <c r="O72" s="54"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="63"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="32">
+        <v>30</v>
+      </c>
+      <c r="O72" s="61"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="46"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
-      <c r="B73" s="102"/>
-      <c r="C73" s="100"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E73" s="8">
         <v>1</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G73" s="87"/>
-      <c r="H73" s="105"/>
-      <c r="I73" s="80"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="34">
-        <v>30</v>
-      </c>
-      <c r="O73" s="54"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="63"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="69"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="32">
+        <v>30</v>
+      </c>
+      <c r="O73" s="61"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="46"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
-      <c r="B74" s="102"/>
-      <c r="C74" s="23">
+      <c r="A74" s="59"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="21">
         <v>852</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -4648,30 +4657,30 @@
       <c r="E74" s="8">
         <v>2</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G74" s="87"/>
-      <c r="H74" s="105" t="s">
+      <c r="G74" s="71"/>
+      <c r="H74" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="I74" s="19" t="s">
+      <c r="I74" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K74" s="55"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="34">
-        <v>30</v>
-      </c>
-      <c r="O74" s="55"/>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="64"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="68"/>
+      <c r="N74" s="32">
+        <v>30</v>
+      </c>
+      <c r="O74" s="62"/>
+      <c r="P74" s="65"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="47"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="110"/>
-      <c r="B75" s="102"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="83"/>
       <c r="C75" s="11">
         <v>853</v>
       </c>
@@ -4681,33 +4690,33 @@
       <c r="E75" s="8">
         <v>4</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="88"/>
-      <c r="H75" s="105"/>
-      <c r="I75" s="19" t="s">
+      <c r="G75" s="72"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="K75" s="67" t="s">
+      <c r="K75" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="L75" s="68"/>
-      <c r="M75" s="68"/>
-      <c r="N75" s="34">
-        <v>30</v>
-      </c>
-      <c r="O75" s="52" t="s">
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="32">
+        <v>30</v>
+      </c>
+      <c r="O75" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="44"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="38"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="110"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="62">
+      <c r="A76" s="59"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="45">
         <v>851</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4716,138 +4725,138 @@
       <c r="E76" s="6">
         <v>1</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="H76" s="104" t="s">
+      <c r="G76" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="H76" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I76" s="81" t="s">
+      <c r="I76" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="K76" s="32" t="s">
+      <c r="K76" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L76" s="75" t="s">
+      <c r="L76" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="M76" s="75"/>
-      <c r="N76" s="34">
-        <v>30</v>
-      </c>
-      <c r="O76" s="32" t="s">
+      <c r="M76" s="53"/>
+      <c r="N76" s="32">
+        <v>30</v>
+      </c>
+      <c r="O76" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P76" s="75" t="s">
+      <c r="P76" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="26" t="s">
+      <c r="Q76" s="53"/>
+      <c r="R76" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="110"/>
-      <c r="B77" s="102"/>
-      <c r="C77" s="63"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="G77" s="84"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="81"/>
-      <c r="K77" s="70">
-        <v>30</v>
-      </c>
-      <c r="L77" s="74">
+      <c r="G77" s="86"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="74"/>
+      <c r="K77" s="51">
+        <v>30</v>
+      </c>
+      <c r="L77" s="52">
         <v>60</v>
       </c>
-      <c r="M77" s="74"/>
-      <c r="N77" s="34">
-        <v>30</v>
-      </c>
-      <c r="O77" s="70">
-        <v>30</v>
-      </c>
-      <c r="P77" s="74">
+      <c r="M77" s="52"/>
+      <c r="N77" s="32">
+        <v>30</v>
+      </c>
+      <c r="O77" s="51">
+        <v>30</v>
+      </c>
+      <c r="P77" s="52">
         <v>60</v>
       </c>
-      <c r="Q77" s="74"/>
-      <c r="R77" s="52">
+      <c r="Q77" s="52"/>
+      <c r="R77" s="50">
         <f>SUM(K77:Q77)</f>
         <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="110"/>
-      <c r="B78" s="102"/>
-      <c r="C78" s="63"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="84"/>
-      <c r="H78" s="104" t="s">
+      <c r="G78" s="86"/>
+      <c r="H78" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="I78" s="81" t="s">
+      <c r="I78" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="K78" s="70"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="34">
-        <v>30</v>
-      </c>
-      <c r="O78" s="70"/>
-      <c r="P78" s="74"/>
-      <c r="Q78" s="74"/>
-      <c r="R78" s="52"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="32">
+        <v>30</v>
+      </c>
+      <c r="O78" s="51"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="52"/>
+      <c r="R78" s="50"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
-      <c r="B79" s="102"/>
-      <c r="C79" s="64"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="G79" s="84"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="81"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="34">
-        <v>30</v>
-      </c>
-      <c r="O79" s="70"/>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="52"/>
+      <c r="G79" s="86"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="74"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="32">
+        <v>30</v>
+      </c>
+      <c r="O79" s="51"/>
+      <c r="P79" s="52"/>
+      <c r="Q79" s="52"/>
+      <c r="R79" s="50"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
-      <c r="B80" s="102"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="83"/>
       <c r="C80" s="10">
         <v>852</v>
       </c>
@@ -4857,30 +4866,30 @@
       <c r="E80" s="6">
         <v>2</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="84"/>
-      <c r="H80" s="104" t="s">
+      <c r="G80" s="86"/>
+      <c r="H80" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="I80" s="18" t="s">
+      <c r="I80" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="K80" s="70"/>
-      <c r="L80" s="74"/>
-      <c r="M80" s="74"/>
-      <c r="N80" s="34">
-        <v>30</v>
-      </c>
-      <c r="O80" s="70"/>
-      <c r="P80" s="74"/>
-      <c r="Q80" s="74"/>
-      <c r="R80" s="52"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="32">
+        <v>30</v>
+      </c>
+      <c r="O80" s="51"/>
+      <c r="P80" s="52"/>
+      <c r="Q80" s="52"/>
+      <c r="R80" s="50"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
-      <c r="B81" s="102"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="83"/>
       <c r="C81" s="2">
         <v>853</v>
       </c>
@@ -4890,33 +4899,33 @@
       <c r="E81" s="6">
         <v>4</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="G81" s="85"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="18" t="s">
+      <c r="G81" s="87"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="K81" s="52" t="s">
+      <c r="K81" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="34">
-        <v>30</v>
-      </c>
-      <c r="O81" s="52" t="s">
+      <c r="L81" s="50"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="32">
+        <v>30</v>
+      </c>
+      <c r="O81" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="44"/>
+      <c r="P81" s="50"/>
+      <c r="Q81" s="50"/>
+      <c r="R81" s="38"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="110"/>
-      <c r="B82" s="102"/>
-      <c r="C82" s="98">
+      <c r="A82" s="59"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="54">
         <v>851</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -4925,147 +4934,147 @@
       <c r="E82" s="8">
         <v>1</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F82" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="H82" s="105" t="s">
+      <c r="G82" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="H82" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="I82" s="80" t="s">
+      <c r="I82" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="K82" s="32" t="s">
+      <c r="K82" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L82" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="M82" s="36" t="s">
+      <c r="L82" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M82" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="N82" s="34">
-        <v>30</v>
-      </c>
-      <c r="O82" s="32" t="s">
+      <c r="N82" s="32">
+        <v>30</v>
+      </c>
+      <c r="O82" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P82" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q82" s="36" t="s">
+      <c r="P82" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q82" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="R82" s="26" t="s">
+      <c r="R82" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="110"/>
-      <c r="B83" s="102"/>
-      <c r="C83" s="99"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="55"/>
       <c r="D83" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E83" s="8">
         <v>1</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="87"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="80"/>
-      <c r="K83" s="53">
-        <v>30</v>
-      </c>
-      <c r="L83" s="56">
+      <c r="G83" s="71"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="69"/>
+      <c r="K83" s="60">
+        <v>30</v>
+      </c>
+      <c r="L83" s="63">
         <v>25</v>
       </c>
-      <c r="M83" s="59">
+      <c r="M83" s="66">
         <v>35</v>
       </c>
-      <c r="N83" s="34">
-        <v>30</v>
-      </c>
-      <c r="O83" s="53">
-        <v>30</v>
-      </c>
-      <c r="P83" s="56">
+      <c r="N83" s="32">
+        <v>30</v>
+      </c>
+      <c r="O83" s="60">
+        <v>30</v>
+      </c>
+      <c r="P83" s="63">
         <v>25</v>
       </c>
-      <c r="Q83" s="59">
+      <c r="Q83" s="66">
         <v>35</v>
       </c>
-      <c r="R83" s="62">
+      <c r="R83" s="45">
         <f>SUM(K83:Q83)</f>
         <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="110"/>
-      <c r="B84" s="102"/>
-      <c r="C84" s="99"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="7" t="s">
         <v>143</v>
       </c>
       <c r="E84" s="8">
         <v>1</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="F84" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G84" s="87"/>
-      <c r="H84" s="105" t="s">
+      <c r="G84" s="71"/>
+      <c r="H84" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="I84" s="80" t="s">
+      <c r="I84" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="K84" s="54"/>
-      <c r="L84" s="57"/>
-      <c r="M84" s="60"/>
-      <c r="N84" s="34">
-        <v>30</v>
-      </c>
-      <c r="O84" s="54"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="60"/>
-      <c r="R84" s="63"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="64"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="32">
+        <v>30</v>
+      </c>
+      <c r="O84" s="61"/>
+      <c r="P84" s="64"/>
+      <c r="Q84" s="67"/>
+      <c r="R84" s="46"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
-      <c r="B85" s="102"/>
-      <c r="C85" s="100"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E85" s="8">
         <v>1</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="G85" s="87"/>
-      <c r="H85" s="105"/>
-      <c r="I85" s="80"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="60"/>
-      <c r="N85" s="34">
-        <v>30</v>
-      </c>
-      <c r="O85" s="54"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="63"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="69"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="32">
+        <v>30</v>
+      </c>
+      <c r="O85" s="61"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="67"/>
+      <c r="R85" s="46"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="110"/>
-      <c r="B86" s="102"/>
-      <c r="C86" s="23">
+      <c r="A86" s="59"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="21">
         <v>852</v>
       </c>
       <c r="D86" s="7" t="s">
@@ -5074,30 +5083,30 @@
       <c r="E86" s="8">
         <v>2</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F86" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="G86" s="87"/>
-      <c r="H86" s="105" t="s">
+      <c r="G86" s="71"/>
+      <c r="H86" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="I86" s="19" t="s">
+      <c r="I86" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K86" s="55"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="34">
-        <v>30</v>
-      </c>
-      <c r="O86" s="55"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="64"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="65"/>
+      <c r="M86" s="68"/>
+      <c r="N86" s="32">
+        <v>30</v>
+      </c>
+      <c r="O86" s="62"/>
+      <c r="P86" s="65"/>
+      <c r="Q86" s="68"/>
+      <c r="R86" s="47"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="110"/>
-      <c r="B87" s="103"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="84"/>
       <c r="C87" s="11">
         <v>853</v>
       </c>
@@ -5107,35 +5116,35 @@
       <c r="E87" s="8">
         <v>4</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="F87" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="G87" s="88"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="19" t="s">
+      <c r="G87" s="72"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K87" s="67" t="s">
+      <c r="K87" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="L87" s="68"/>
-      <c r="M87" s="68"/>
-      <c r="N87" s="34">
-        <v>30</v>
-      </c>
-      <c r="O87" s="52" t="s">
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="32">
+        <v>30</v>
+      </c>
+      <c r="O87" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52"/>
-      <c r="R87" s="44"/>
+      <c r="P87" s="50"/>
+      <c r="Q87" s="50"/>
+      <c r="R87" s="38"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="110"/>
-      <c r="B88" s="101" t="s">
+      <c r="A88" s="59"/>
+      <c r="B88" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="62">
+      <c r="C88" s="45">
         <v>861</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5144,138 +5153,138 @@
       <c r="E88" s="6">
         <v>1</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F88" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="89" t="s">
-        <v>191</v>
-      </c>
-      <c r="H88" s="104" t="s">
+      <c r="G88" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="H88" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I88" s="81" t="s">
+      <c r="I88" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="K88" s="32" t="s">
+      <c r="K88" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L88" s="75" t="s">
+      <c r="L88" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="M88" s="75"/>
-      <c r="N88" s="34">
-        <v>30</v>
-      </c>
-      <c r="O88" s="32" t="s">
+      <c r="M88" s="53"/>
+      <c r="N88" s="32">
+        <v>30</v>
+      </c>
+      <c r="O88" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P88" s="75" t="s">
+      <c r="P88" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="26" t="s">
+      <c r="Q88" s="53"/>
+      <c r="R88" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="110"/>
-      <c r="B89" s="102"/>
-      <c r="C89" s="63"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="46"/>
       <c r="D89" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G89" s="90"/>
-      <c r="H89" s="104"/>
-      <c r="I89" s="81"/>
-      <c r="K89" s="70">
-        <v>30</v>
-      </c>
-      <c r="L89" s="74">
+      <c r="G89" s="95"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="74"/>
+      <c r="K89" s="51">
+        <v>30</v>
+      </c>
+      <c r="L89" s="52">
         <v>60</v>
       </c>
-      <c r="M89" s="74"/>
-      <c r="N89" s="34">
-        <v>30</v>
-      </c>
-      <c r="O89" s="70">
-        <v>30</v>
-      </c>
-      <c r="P89" s="74">
+      <c r="M89" s="52"/>
+      <c r="N89" s="32">
+        <v>30</v>
+      </c>
+      <c r="O89" s="51">
+        <v>30</v>
+      </c>
+      <c r="P89" s="52">
         <v>60</v>
       </c>
-      <c r="Q89" s="74"/>
-      <c r="R89" s="52">
+      <c r="Q89" s="52"/>
+      <c r="R89" s="50">
         <f>SUM(K89:Q89)</f>
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="110"/>
-      <c r="B90" s="102"/>
-      <c r="C90" s="63"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="83"/>
+      <c r="C90" s="46"/>
       <c r="D90" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E90" s="6">
         <v>1</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="G90" s="90"/>
-      <c r="H90" s="104" t="s">
+      <c r="G90" s="95"/>
+      <c r="H90" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="I90" s="81" t="s">
+      <c r="I90" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="K90" s="70"/>
-      <c r="L90" s="74"/>
-      <c r="M90" s="74"/>
-      <c r="N90" s="34">
-        <v>30</v>
-      </c>
-      <c r="O90" s="70"/>
-      <c r="P90" s="74"/>
-      <c r="Q90" s="74"/>
-      <c r="R90" s="52"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="32">
+        <v>30</v>
+      </c>
+      <c r="O90" s="51"/>
+      <c r="P90" s="52"/>
+      <c r="Q90" s="52"/>
+      <c r="R90" s="50"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="110"/>
-      <c r="B91" s="102"/>
-      <c r="C91" s="64"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G91" s="90"/>
-      <c r="H91" s="104"/>
-      <c r="I91" s="81"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="74"/>
-      <c r="M91" s="74"/>
-      <c r="N91" s="34">
-        <v>30</v>
-      </c>
-      <c r="O91" s="70"/>
-      <c r="P91" s="74"/>
-      <c r="Q91" s="74"/>
-      <c r="R91" s="52"/>
+      <c r="G91" s="95"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="74"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="52"/>
+      <c r="N91" s="32">
+        <v>30</v>
+      </c>
+      <c r="O91" s="51"/>
+      <c r="P91" s="52"/>
+      <c r="Q91" s="52"/>
+      <c r="R91" s="50"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="110"/>
-      <c r="B92" s="102"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="83"/>
       <c r="C92" s="2">
         <v>862</v>
       </c>
@@ -5285,30 +5294,30 @@
       <c r="E92" s="6">
         <v>2</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="90"/>
-      <c r="H92" s="104" t="s">
+      <c r="G92" s="95"/>
+      <c r="H92" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="I92" s="24" t="s">
+      <c r="I92" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="K92" s="70"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="34">
-        <v>30</v>
-      </c>
-      <c r="O92" s="70"/>
-      <c r="P92" s="74"/>
-      <c r="Q92" s="74"/>
-      <c r="R92" s="52"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="52"/>
+      <c r="N92" s="32">
+        <v>30</v>
+      </c>
+      <c r="O92" s="51"/>
+      <c r="P92" s="52"/>
+      <c r="Q92" s="52"/>
+      <c r="R92" s="50"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="110"/>
-      <c r="B93" s="102"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="83"/>
       <c r="C93" s="2">
         <v>863</v>
       </c>
@@ -5318,33 +5327,33 @@
       <c r="E93" s="6">
         <v>4</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="G93" s="91"/>
-      <c r="H93" s="104"/>
-      <c r="I93" s="24" t="s">
+      <c r="G93" s="96"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="K93" s="52" t="s">
+      <c r="K93" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="L93" s="52"/>
-      <c r="M93" s="52"/>
-      <c r="N93" s="34">
-        <v>30</v>
-      </c>
-      <c r="O93" s="52" t="s">
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="32">
+        <v>30</v>
+      </c>
+      <c r="O93" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="52"/>
-      <c r="R93" s="44"/>
+      <c r="P93" s="50"/>
+      <c r="Q93" s="50"/>
+      <c r="R93" s="38"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="110"/>
-      <c r="B94" s="102"/>
-      <c r="C94" s="98">
+      <c r="A94" s="59"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="54">
         <v>861</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -5353,146 +5362,146 @@
       <c r="E94" s="8">
         <v>1</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="F94" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G94" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="H94" s="105" t="s">
+      <c r="G94" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="H94" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="I94" s="80" t="s">
+      <c r="I94" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="K94" s="32" t="s">
+      <c r="K94" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L94" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="M94" s="36" t="s">
+      <c r="L94" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M94" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="N94" s="34">
-        <v>30</v>
-      </c>
-      <c r="O94" s="32" t="s">
+      <c r="N94" s="32">
+        <v>30</v>
+      </c>
+      <c r="O94" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P94" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q94" s="36" t="s">
+      <c r="P94" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q94" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="R94" s="26" t="s">
+      <c r="R94" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="110"/>
-      <c r="B95" s="102"/>
-      <c r="C95" s="99"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="55"/>
       <c r="D95" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E95" s="8">
         <v>1</v>
       </c>
-      <c r="F95" s="16" t="s">
+      <c r="F95" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="G95" s="93"/>
-      <c r="H95" s="105"/>
-      <c r="I95" s="80"/>
-      <c r="K95" s="53">
-        <v>30</v>
-      </c>
-      <c r="L95" s="56">
+      <c r="G95" s="98"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="69"/>
+      <c r="K95" s="60">
+        <v>30</v>
+      </c>
+      <c r="L95" s="63">
         <v>25</v>
       </c>
-      <c r="M95" s="59">
+      <c r="M95" s="66">
         <v>35</v>
       </c>
-      <c r="N95" s="34">
-        <v>30</v>
-      </c>
-      <c r="O95" s="53">
-        <v>30</v>
-      </c>
-      <c r="P95" s="56">
+      <c r="N95" s="32">
+        <v>30</v>
+      </c>
+      <c r="O95" s="60">
+        <v>30</v>
+      </c>
+      <c r="P95" s="63">
         <v>25</v>
       </c>
-      <c r="Q95" s="59">
+      <c r="Q95" s="66">
         <v>35</v>
       </c>
-      <c r="R95" s="62">
+      <c r="R95" s="45">
         <f>SUM(K95:Q95)</f>
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="110"/>
-      <c r="B96" s="102"/>
-      <c r="C96" s="99"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="55"/>
       <c r="D96" s="7" t="s">
         <v>143</v>
       </c>
       <c r="E96" s="8">
         <v>1</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="F96" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="G96" s="93"/>
-      <c r="H96" s="105" t="s">
+      <c r="G96" s="98"/>
+      <c r="H96" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="I96" s="80" t="s">
+      <c r="I96" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="K96" s="54"/>
-      <c r="L96" s="57"/>
-      <c r="M96" s="60"/>
-      <c r="N96" s="34">
-        <v>30</v>
-      </c>
-      <c r="O96" s="54"/>
-      <c r="P96" s="57"/>
-      <c r="Q96" s="60"/>
-      <c r="R96" s="63"/>
+      <c r="K96" s="61"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="67"/>
+      <c r="N96" s="32">
+        <v>30</v>
+      </c>
+      <c r="O96" s="61"/>
+      <c r="P96" s="64"/>
+      <c r="Q96" s="67"/>
+      <c r="R96" s="46"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="110"/>
-      <c r="B97" s="102"/>
-      <c r="C97" s="100"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="56"/>
       <c r="D97" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E97" s="8">
         <v>1</v>
       </c>
-      <c r="F97" s="16" t="s">
+      <c r="F97" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G97" s="93"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="80"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="57"/>
-      <c r="M97" s="60"/>
-      <c r="N97" s="34">
-        <v>30</v>
-      </c>
-      <c r="O97" s="54"/>
-      <c r="P97" s="57"/>
-      <c r="Q97" s="60"/>
-      <c r="R97" s="63"/>
+      <c r="G97" s="98"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="69"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="64"/>
+      <c r="M97" s="67"/>
+      <c r="N97" s="32">
+        <v>30</v>
+      </c>
+      <c r="O97" s="61"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="67"/>
+      <c r="R97" s="46"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="110"/>
-      <c r="B98" s="102"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="83"/>
       <c r="C98" s="11">
         <v>862</v>
       </c>
@@ -5502,30 +5511,30 @@
       <c r="E98" s="8">
         <v>2</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="F98" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="G98" s="93"/>
-      <c r="H98" s="105" t="s">
+      <c r="G98" s="98"/>
+      <c r="H98" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="I98" s="25" t="s">
+      <c r="I98" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="55"/>
-      <c r="L98" s="58"/>
-      <c r="M98" s="61"/>
-      <c r="N98" s="34">
-        <v>30</v>
-      </c>
-      <c r="O98" s="55"/>
-      <c r="P98" s="58"/>
-      <c r="Q98" s="61"/>
-      <c r="R98" s="64"/>
+      <c r="K98" s="62"/>
+      <c r="L98" s="65"/>
+      <c r="M98" s="68"/>
+      <c r="N98" s="32">
+        <v>30</v>
+      </c>
+      <c r="O98" s="62"/>
+      <c r="P98" s="65"/>
+      <c r="Q98" s="68"/>
+      <c r="R98" s="47"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="110"/>
-      <c r="B99" s="103"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="84"/>
       <c r="C99" s="11">
         <v>863</v>
       </c>
@@ -5535,53 +5544,53 @@
       <c r="E99" s="8">
         <v>4</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="G99" s="94"/>
-      <c r="H99" s="105"/>
-      <c r="I99" s="25" t="s">
+      <c r="G99" s="99"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="K99" s="67" t="s">
+      <c r="K99" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="L99" s="68"/>
-      <c r="M99" s="68"/>
-      <c r="N99" s="34">
-        <v>30</v>
-      </c>
-      <c r="O99" s="52" t="s">
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="32">
+        <v>30</v>
+      </c>
+      <c r="O99" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
-      <c r="R99" s="44"/>
+      <c r="P99" s="50"/>
+      <c r="Q99" s="50"/>
+      <c r="R99" s="38"/>
     </row>
     <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="82"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="17">
+      <c r="B100" s="93"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="15">
         <f>SUM(E2:E99)</f>
         <v>168</v>
       </c>
-      <c r="G100" s="20" t="s">
+      <c r="G100" s="18" t="s">
         <v>138</v>
       </c>
       <c r="H100" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="B102" s="96" t="s">
+      <c r="A102" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="52">
+      <c r="C102" s="50">
         <v>871</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -5590,146 +5599,146 @@
       <c r="E102" s="6">
         <v>1</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="F102" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G102" s="95" t="s">
+      <c r="G102" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H102" s="104" t="s">
+      <c r="H102" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I102" s="115">
+      <c r="I102" s="75">
         <v>871</v>
       </c>
-      <c r="K102" s="32" t="s">
+      <c r="K102" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L102" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="M102" s="36" t="s">
+      <c r="L102" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M102" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="N102" s="34">
-        <v>30</v>
-      </c>
-      <c r="O102" s="32" t="s">
+      <c r="N102" s="32">
+        <v>30</v>
+      </c>
+      <c r="O102" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P102" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q102" s="36" t="s">
+      <c r="P102" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q102" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="R102" s="26" t="s">
+      <c r="R102" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="97"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="52"/>
+      <c r="A103" s="100"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="50"/>
       <c r="D103" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E103" s="6">
         <v>1</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F103" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G103" s="95"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="115"/>
-      <c r="K103" s="53">
-        <v>30</v>
-      </c>
-      <c r="L103" s="56">
+      <c r="G103" s="90"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="75"/>
+      <c r="K103" s="60">
+        <v>30</v>
+      </c>
+      <c r="L103" s="63">
         <v>35</v>
       </c>
-      <c r="M103" s="59">
+      <c r="M103" s="66">
         <v>55</v>
       </c>
-      <c r="N103" s="34">
-        <v>30</v>
-      </c>
-      <c r="O103" s="53">
-        <v>30</v>
-      </c>
-      <c r="P103" s="76">
+      <c r="N103" s="32">
+        <v>30</v>
+      </c>
+      <c r="O103" s="60">
+        <v>30</v>
+      </c>
+      <c r="P103" s="102">
         <v>35</v>
       </c>
-      <c r="Q103" s="59">
+      <c r="Q103" s="66">
         <v>25</v>
       </c>
-      <c r="R103" s="62">
+      <c r="R103" s="45">
         <f>SUM(K103:Q103)</f>
         <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="97"/>
-      <c r="B104" s="96"/>
-      <c r="C104" s="52"/>
+      <c r="A104" s="100"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="50"/>
       <c r="D104" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E104" s="6">
         <v>1</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="G104" s="95"/>
-      <c r="H104" s="104" t="s">
+      <c r="G104" s="90"/>
+      <c r="H104" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="I104" s="115">
+      <c r="I104" s="75">
         <v>871</v>
       </c>
-      <c r="K104" s="54"/>
-      <c r="L104" s="57"/>
-      <c r="M104" s="60"/>
-      <c r="N104" s="34">
-        <v>30</v>
-      </c>
-      <c r="O104" s="54"/>
-      <c r="P104" s="77"/>
-      <c r="Q104" s="60"/>
-      <c r="R104" s="63"/>
+      <c r="K104" s="61"/>
+      <c r="L104" s="64"/>
+      <c r="M104" s="67"/>
+      <c r="N104" s="32">
+        <v>30</v>
+      </c>
+      <c r="O104" s="61"/>
+      <c r="P104" s="103"/>
+      <c r="Q104" s="67"/>
+      <c r="R104" s="46"/>
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="97"/>
-      <c r="B105" s="96"/>
-      <c r="C105" s="52"/>
+      <c r="A105" s="100"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="50"/>
       <c r="D105" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E105" s="6">
         <v>1</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G105" s="95"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="115"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="60"/>
-      <c r="N105" s="34">
-        <v>30</v>
-      </c>
-      <c r="O105" s="54"/>
-      <c r="P105" s="77"/>
-      <c r="Q105" s="60"/>
-      <c r="R105" s="63"/>
+      <c r="G105" s="90"/>
+      <c r="H105" s="73"/>
+      <c r="I105" s="75"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="64"/>
+      <c r="M105" s="67"/>
+      <c r="N105" s="32">
+        <v>30</v>
+      </c>
+      <c r="O105" s="61"/>
+      <c r="P105" s="103"/>
+      <c r="Q105" s="67"/>
+      <c r="R105" s="46"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="97"/>
-      <c r="B106" s="96"/>
+      <c r="A106" s="100"/>
+      <c r="B106" s="81"/>
       <c r="C106" s="2">
         <v>872</v>
       </c>
@@ -5739,30 +5748,30 @@
       <c r="E106" s="6">
         <v>2</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="G106" s="95"/>
-      <c r="H106" s="104" t="s">
+      <c r="G106" s="90"/>
+      <c r="H106" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="I106" s="18">
+      <c r="I106" s="16">
         <v>872</v>
       </c>
-      <c r="K106" s="55"/>
-      <c r="L106" s="58"/>
-      <c r="M106" s="61"/>
-      <c r="N106" s="34">
-        <v>30</v>
-      </c>
-      <c r="O106" s="55"/>
-      <c r="P106" s="78"/>
-      <c r="Q106" s="61"/>
-      <c r="R106" s="64"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="65"/>
+      <c r="M106" s="68"/>
+      <c r="N106" s="32">
+        <v>30</v>
+      </c>
+      <c r="O106" s="62"/>
+      <c r="P106" s="104"/>
+      <c r="Q106" s="68"/>
+      <c r="R106" s="47"/>
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="97"/>
-      <c r="B107" s="96"/>
+      <c r="A107" s="100"/>
+      <c r="B107" s="81"/>
       <c r="C107" s="2">
         <v>873</v>
       </c>
@@ -5772,41 +5781,41 @@
       <c r="E107" s="6">
         <v>4</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="F107" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G107" s="95"/>
-      <c r="H107" s="104"/>
-      <c r="I107" s="18">
+      <c r="G107" s="90"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="16">
         <v>873</v>
       </c>
-      <c r="K107" s="67" t="s">
+      <c r="K107" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="L107" s="68"/>
-      <c r="M107" s="68"/>
-      <c r="N107" s="34">
-        <v>30</v>
-      </c>
-      <c r="O107" s="67" t="s">
+      <c r="L107" s="49"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="32">
+        <v>30</v>
+      </c>
+      <c r="O107" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="P107" s="68"/>
-      <c r="Q107" s="69"/>
-      <c r="R107" s="44"/>
+      <c r="P107" s="49"/>
+      <c r="Q107" s="106"/>
+      <c r="R107" s="38"/>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="82" t="s">
+      <c r="A108" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="82"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="17">
+      <c r="B108" s="93"/>
+      <c r="C108" s="93"/>
+      <c r="D108" s="93"/>
+      <c r="E108" s="15">
         <f>SUM(E102:E107)</f>
         <v>10</v>
       </c>
-      <c r="G108" s="20" t="s">
+      <c r="G108" s="18" t="s">
         <v>139</v>
       </c>
       <c r="H108" s="9"/>
@@ -5869,28 +5878,268 @@
       <c r="A127" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="304">
-    <mergeCell ref="R83:R86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="O65:O68"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="L65:M68"/>
-    <mergeCell ref="P65:Q68"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:M80"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="P77:Q80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="O75:Q75"/>
+  <mergeCells count="306">
+    <mergeCell ref="T27:V30"/>
+    <mergeCell ref="T31:V32"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="K95:K98"/>
+    <mergeCell ref="L95:L98"/>
+    <mergeCell ref="M95:M98"/>
+    <mergeCell ref="O95:O98"/>
+    <mergeCell ref="P95:P98"/>
+    <mergeCell ref="Q95:Q98"/>
+    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="M103:M106"/>
+    <mergeCell ref="O103:O106"/>
+    <mergeCell ref="Q103:Q106"/>
+    <mergeCell ref="R103:R106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L25"/>
+    <mergeCell ref="N19:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O25"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R25"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="L40:M43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:Q43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="Q46:Q49"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="P103:P106"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="P58:P61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="O58:O61"/>
+    <mergeCell ref="Q58:Q61"/>
+    <mergeCell ref="K83:K86"/>
+    <mergeCell ref="L83:L86"/>
+    <mergeCell ref="M83:M86"/>
+    <mergeCell ref="O83:O86"/>
+    <mergeCell ref="P83:P86"/>
+    <mergeCell ref="Q83:Q86"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:M92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:Q92"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="L52:M55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L28:M31"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="G76:G81"/>
+    <mergeCell ref="G82:G87"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A64:A99"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B64:B87"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="A27:A62"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H88:H89"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="P64:Q64"/>
     <mergeCell ref="C57:C60"/>
@@ -5915,265 +6164,27 @@
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="R58:R61"/>
     <mergeCell ref="K52:K55"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A64:A99"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B64:B87"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="A27:A62"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G64:G69"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="G76:G81"/>
-    <mergeCell ref="G82:G87"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="G102:G107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="L52:M55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L28:M31"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="P103:P106"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="P58:P61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="O58:O61"/>
-    <mergeCell ref="Q58:Q61"/>
-    <mergeCell ref="K83:K86"/>
-    <mergeCell ref="L83:L86"/>
-    <mergeCell ref="M83:M86"/>
-    <mergeCell ref="O83:O86"/>
-    <mergeCell ref="P83:P86"/>
-    <mergeCell ref="Q83:Q86"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:M92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:Q92"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="L40:M43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:Q43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R25"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="M103:M106"/>
-    <mergeCell ref="O103:O106"/>
-    <mergeCell ref="Q103:Q106"/>
-    <mergeCell ref="R103:R106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="O107:Q107"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="T15:T17"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L25"/>
-    <mergeCell ref="N19:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O25"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="O95:O98"/>
-    <mergeCell ref="P95:P98"/>
-    <mergeCell ref="Q95:Q98"/>
-    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="R83:R86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="O65:O68"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="L65:M68"/>
+    <mergeCell ref="P65:Q68"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L77:M80"/>
+    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="P77:Q80"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="O75:Q75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
+++ b/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{715586D3-2B4A-4BCF-A05B-4327E3BF2C97}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50A3C7B-F7BC-4A06-A13C-3C2409AAFC49}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1394,6 +1394,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1409,18 +1460,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,179 +1556,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1895,10 +1904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6D2FFF-64FD-4790-BE66-86F2381ADCA2}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28:Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,27 +1961,27 @@
       <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="62">
         <v>811</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1983,7 +1993,7 @@
       <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="81" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1993,24 +2003,24 @@
         <v>8111</v>
       </c>
       <c r="J2" s="19"/>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="88"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="88" t="s">
+      <c r="N2" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="O2" s="88"/>
+      <c r="O2" s="69"/>
       <c r="P2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="88" t="s">
+      <c r="Q2" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="88"/>
+      <c r="R2" s="69"/>
       <c r="S2" s="31" t="s">
         <v>173</v>
       </c>
@@ -2019,9 +2029,9 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2031,7 +2041,7 @@
       <c r="F3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="5" t="s">
         <v>132</v>
       </c>
@@ -2039,35 +2049,35 @@
         <v>8111</v>
       </c>
       <c r="J3" s="19"/>
-      <c r="K3" s="51">
+      <c r="K3" s="68">
         <v>60</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52">
+      <c r="L3" s="68"/>
+      <c r="M3" s="72">
         <v>20</v>
       </c>
-      <c r="N3" s="51">
+      <c r="N3" s="68">
         <v>60</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="52">
+      <c r="O3" s="68"/>
+      <c r="P3" s="72">
         <v>20</v>
       </c>
-      <c r="Q3" s="51">
+      <c r="Q3" s="68">
         <v>60</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="52">
+      <c r="R3" s="68"/>
+      <c r="S3" s="72">
         <v>20</v>
       </c>
-      <c r="T3" s="50">
+      <c r="T3" s="52">
         <f>SUM(K3:S5)</f>
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="10">
         <v>812</v>
       </c>
@@ -2080,28 +2090,28 @@
       <c r="F4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="73" t="s">
+      <c r="G4" s="82"/>
+      <c r="H4" s="102" t="s">
         <v>133</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>69</v>
       </c>
       <c r="J4" s="19"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="50"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="52"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="2">
         <v>813</v>
       </c>
@@ -2114,27 +2124,27 @@
       <c r="F5" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="73"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="22" t="s">
         <v>105</v>
       </c>
       <c r="J5" s="19"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="50"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="52"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="54">
+      <c r="A6" s="108"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="96">
         <v>811</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2146,7 +2156,7 @@
       <c r="F6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="84" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2155,24 +2165,24 @@
       <c r="I6" s="17">
         <v>8112</v>
       </c>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="88"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="O6" s="88"/>
+      <c r="O6" s="69"/>
       <c r="P6" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="88" t="s">
+      <c r="Q6" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="R6" s="88"/>
+      <c r="R6" s="69"/>
       <c r="S6" s="31" t="s">
         <v>173</v>
       </c>
@@ -2181,9 +2191,9 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2193,42 +2203,42 @@
       <c r="F7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="71"/>
+      <c r="G7" s="85"/>
       <c r="H7" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I7" s="17">
         <v>8112</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="68">
         <v>60</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52">
+      <c r="L7" s="68"/>
+      <c r="M7" s="72">
         <v>10</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="68">
         <v>60</v>
       </c>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52">
+      <c r="O7" s="68"/>
+      <c r="P7" s="72">
         <v>10</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="68">
         <v>60</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="52">
+      <c r="R7" s="68"/>
+      <c r="S7" s="72">
         <v>10</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7" s="52">
         <f>SUM(K7:S9)</f>
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="21">
         <v>812</v>
       </c>
@@ -2241,27 +2251,27 @@
       <c r="F8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="57" t="s">
+      <c r="G8" s="85"/>
+      <c r="H8" s="103" t="s">
         <v>133</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="50"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="52"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="11">
         <v>813</v>
       </c>
@@ -2274,26 +2284,26 @@
       <c r="F9" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="57"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="103"/>
       <c r="I9" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="50"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="52"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="45">
+      <c r="A10" s="108"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="62">
         <v>811</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2305,7 +2315,7 @@
       <c r="F10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="85" t="s">
+      <c r="G10" s="81" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2314,24 +2324,24 @@
       <c r="I10" s="16">
         <v>8113</v>
       </c>
-      <c r="K10" s="88" t="s">
+      <c r="K10" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="L10" s="88"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N10" s="88" t="s">
+      <c r="N10" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="88"/>
+      <c r="O10" s="69"/>
       <c r="P10" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" s="88" t="s">
+      <c r="Q10" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="R10" s="88"/>
+      <c r="R10" s="69"/>
       <c r="S10" s="31" t="s">
         <v>173</v>
       </c>
@@ -2340,9 +2350,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="47"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2352,42 +2362,42 @@
       <c r="F11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="86"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="5" t="s">
         <v>132</v>
       </c>
       <c r="I11" s="16">
         <v>8113</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="68">
         <v>60</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52">
+      <c r="L11" s="68"/>
+      <c r="M11" s="72">
         <v>10</v>
       </c>
-      <c r="N11" s="51">
+      <c r="N11" s="68">
         <v>60</v>
       </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52">
+      <c r="O11" s="68"/>
+      <c r="P11" s="72">
         <v>10</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="68">
         <v>60</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="52">
+      <c r="R11" s="68"/>
+      <c r="S11" s="72">
         <v>10</v>
       </c>
-      <c r="T11" s="50">
+      <c r="T11" s="52">
         <f>SUM(K11:S13)</f>
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="10">
         <v>812</v>
       </c>
@@ -2400,27 +2410,27 @@
       <c r="F12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="73" t="s">
+      <c r="G12" s="82"/>
+      <c r="H12" s="102" t="s">
         <v>133</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="50"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="52"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="2">
         <v>813</v>
       </c>
@@ -2433,26 +2443,26 @@
       <c r="F13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="73"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="50"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="54">
+      <c r="A14" s="108"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="96">
         <v>811</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2464,7 +2474,7 @@
       <c r="F14" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="84" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2473,24 +2483,24 @@
       <c r="I14" s="17">
         <v>8114</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="L14" s="88"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="O14" s="88"/>
+      <c r="O14" s="69"/>
       <c r="P14" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q14" s="88" t="s">
+      <c r="Q14" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="R14" s="88"/>
+      <c r="R14" s="69"/>
       <c r="S14" s="31" t="s">
         <v>173</v>
       </c>
@@ -2499,9 +2509,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
@@ -2511,42 +2521,42 @@
       <c r="F15" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="71"/>
+      <c r="G15" s="85"/>
       <c r="H15" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="17">
         <v>8114</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="68">
         <v>60</v>
       </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52">
+      <c r="L15" s="68"/>
+      <c r="M15" s="72">
         <v>5</v>
       </c>
-      <c r="N15" s="51">
+      <c r="N15" s="68">
         <v>60</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52">
+      <c r="O15" s="68"/>
+      <c r="P15" s="72">
         <v>5</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="68">
         <v>60</v>
       </c>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52">
+      <c r="R15" s="68"/>
+      <c r="S15" s="72">
         <v>5</v>
       </c>
-      <c r="T15" s="50">
+      <c r="T15" s="52">
         <f>SUM(K15:S17)</f>
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="21">
         <v>812</v>
       </c>
@@ -2559,27 +2569,27 @@
       <c r="F16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="57" t="s">
+      <c r="G16" s="85"/>
+      <c r="H16" s="103" t="s">
         <v>133</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="50"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="52"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="11">
         <v>813</v>
       </c>
@@ -2592,28 +2602,28 @@
       <c r="F17" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="57"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="50"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="52"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="81" t="s">
+      <c r="A18" s="108"/>
+      <c r="B18" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="62">
         <v>821</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2625,7 +2635,7 @@
       <c r="F18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="81" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -2634,24 +2644,24 @@
       <c r="I18" s="16">
         <v>8211</v>
       </c>
-      <c r="K18" s="88" t="s">
+      <c r="K18" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="88"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N18" s="88" t="s">
+      <c r="N18" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="O18" s="88"/>
+      <c r="O18" s="69"/>
       <c r="P18" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q18" s="88" t="s">
+      <c r="Q18" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="R18" s="88"/>
+      <c r="R18" s="69"/>
       <c r="S18" s="31" t="s">
         <v>173</v>
       </c>
@@ -2660,9 +2670,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="47"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2672,42 +2682,42 @@
       <c r="F19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="86"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="5" t="s">
         <v>132</v>
       </c>
       <c r="I19" s="16">
         <v>8211</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="68">
         <v>60</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52">
+      <c r="L19" s="68"/>
+      <c r="M19" s="72">
         <v>10</v>
       </c>
-      <c r="N19" s="51">
+      <c r="N19" s="68">
         <v>60</v>
       </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52">
+      <c r="O19" s="68"/>
+      <c r="P19" s="72">
         <v>10</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="68">
         <v>60</v>
       </c>
-      <c r="R19" s="51"/>
-      <c r="S19" s="52">
+      <c r="R19" s="68"/>
+      <c r="S19" s="72">
         <v>10</v>
       </c>
-      <c r="T19" s="50">
+      <c r="T19" s="52">
         <f>SUM(K19:S21)</f>
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="2">
         <v>822</v>
       </c>
@@ -2720,27 +2730,27 @@
       <c r="F20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="73" t="s">
+      <c r="G20" s="82"/>
+      <c r="H20" s="102" t="s">
         <v>133</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="50"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="52"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="81"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="2">
         <v>823</v>
       </c>
@@ -2753,26 +2763,26 @@
       <c r="F21" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="87"/>
-      <c r="H21" s="73"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="102"/>
       <c r="I21" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="50"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="52"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="54">
+      <c r="A22" s="108"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="96">
         <v>821</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2784,7 +2794,7 @@
       <c r="F22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="70" t="s">
+      <c r="G22" s="84" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -2793,24 +2803,24 @@
       <c r="I22" s="17">
         <v>8212</v>
       </c>
-      <c r="K22" s="88" t="s">
+      <c r="K22" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="L22" s="88"/>
+      <c r="L22" s="69"/>
       <c r="M22" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N22" s="88" t="s">
+      <c r="N22" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="O22" s="88"/>
+      <c r="O22" s="69"/>
       <c r="P22" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q22" s="88" t="s">
+      <c r="Q22" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="R22" s="88"/>
+      <c r="R22" s="69"/>
       <c r="S22" s="31" t="s">
         <v>173</v>
       </c>
@@ -2819,9 +2829,9 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="56"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
@@ -2831,42 +2841,42 @@
       <c r="F23" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="71"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I23" s="17">
         <v>8212</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="68">
         <v>60</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52">
+      <c r="L23" s="68"/>
+      <c r="M23" s="72">
         <v>5</v>
       </c>
-      <c r="N23" s="51">
+      <c r="N23" s="68">
         <v>60</v>
       </c>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52">
+      <c r="O23" s="68"/>
+      <c r="P23" s="72">
         <v>5</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="68">
         <v>60</v>
       </c>
-      <c r="R23" s="51"/>
-      <c r="S23" s="52">
+      <c r="R23" s="68"/>
+      <c r="S23" s="72">
         <v>5</v>
       </c>
-      <c r="T23" s="50">
+      <c r="T23" s="52">
         <f>SUM(K23:S25)</f>
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="11">
         <v>822</v>
       </c>
@@ -2879,27 +2889,27 @@
       <c r="F24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="71"/>
-      <c r="H24" s="57" t="s">
+      <c r="G24" s="85"/>
+      <c r="H24" s="103" t="s">
         <v>133</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="50"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="52"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="26">
         <v>823</v>
       </c>
@@ -2912,46 +2922,46 @@
       <c r="F25" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="57"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="103"/>
       <c r="I25" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="45"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="62"/>
     </row>
     <row r="26" spans="1:22" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="44"/>
-      <c r="N26" s="113" t="s">
+      <c r="N26" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="O26" s="114" t="s">
+      <c r="O26" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="114"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
     </row>
     <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="62">
         <v>831</v>
       </c>
       <c r="D27" s="28" t="s">
@@ -2963,48 +2973,48 @@
       <c r="F27" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="I27" s="74" t="s">
+      <c r="I27" s="79" t="s">
         <v>31</v>
       </c>
       <c r="K27" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="101" t="s">
+      <c r="L27" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="101"/>
+      <c r="M27" s="77"/>
       <c r="N27" s="43">
         <v>30</v>
       </c>
       <c r="O27" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="P27" s="101" t="s">
+      <c r="P27" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="110" t="s">
+      <c r="Q27" s="77"/>
+      <c r="R27" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="S27" s="107" t="s">
+      <c r="S27" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="T27" s="112" t="s">
+      <c r="T27" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
     </row>
     <row r="28" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="46"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="5" t="s">
         <v>141</v>
       </c>
@@ -3014,40 +3024,40 @@
       <c r="F28" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="86"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="74"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="79"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="51">
-        <v>30</v>
-      </c>
-      <c r="L28" s="52">
+      <c r="K28" s="68">
+        <v>30</v>
+      </c>
+      <c r="L28" s="56">
         <v>60</v>
       </c>
-      <c r="M28" s="52"/>
+      <c r="M28" s="115"/>
       <c r="N28" s="33">
         <v>30</v>
       </c>
-      <c r="O28" s="51">
-        <v>30</v>
-      </c>
-      <c r="P28" s="52">
+      <c r="O28" s="68">
+        <v>30</v>
+      </c>
+      <c r="P28" s="72">
         <v>60</v>
       </c>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="48">
+      <c r="Q28" s="72"/>
+      <c r="R28" s="65">
         <f>SUM(K28:Q28)</f>
         <v>210</v>
       </c>
-      <c r="S28" s="109"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
     </row>
     <row r="29" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="5" t="s">
         <v>143</v>
       </c>
@@ -3057,32 +3067,32 @@
       <c r="F29" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="73" t="s">
+      <c r="G29" s="82"/>
+      <c r="H29" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="74" t="s">
+      <c r="I29" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="116"/>
       <c r="N29" s="33">
         <v>30</v>
       </c>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
     </row>
     <row r="30" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="47"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="5" t="s">
         <v>142</v>
       </c>
@@ -3092,27 +3102,27 @@
       <c r="F30" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="86"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="74"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="79"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="116"/>
       <c r="N30" s="33">
         <v>30</v>
       </c>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
     </row>
     <row r="31" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="83"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="10">
         <v>832</v>
       </c>
@@ -3125,35 +3135,35 @@
       <c r="F31" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="86"/>
-      <c r="H31" s="73" t="s">
+      <c r="G31" s="82"/>
+      <c r="H31" s="102" t="s">
         <v>133</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="117"/>
       <c r="N31" s="32">
         <v>30</v>
       </c>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="108" t="s">
+      <c r="O31" s="68"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="T31" s="111" t="s">
+      <c r="T31" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
     </row>
     <row r="32" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="83"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="2">
         <v>833</v>
       </c>
@@ -3166,34 +3176,34 @@
       <c r="F32" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="73"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="102"/>
       <c r="I32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="50" t="s">
+      <c r="K32" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="32">
         <v>30</v>
       </c>
-      <c r="O32" s="50" t="s">
+      <c r="O32" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="38"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
     </row>
     <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="54">
+      <c r="A33" s="108"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="96">
         <v>831</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3205,13 +3215,13 @@
       <c r="F33" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="89" t="s">
+      <c r="G33" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="69" t="s">
+      <c r="I33" s="78" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="30" t="s">
@@ -3240,9 +3250,9 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="55"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="97"/>
       <c r="D34" s="7" t="s">
         <v>141</v>
       </c>
@@ -3252,39 +3262,39 @@
       <c r="F34" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="89"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="69"/>
-      <c r="K34" s="60">
-        <v>30</v>
-      </c>
-      <c r="L34" s="63">
+      <c r="G34" s="104"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="78"/>
+      <c r="K34" s="53">
+        <v>30</v>
+      </c>
+      <c r="L34" s="56">
         <v>20</v>
       </c>
-      <c r="M34" s="66">
+      <c r="M34" s="59">
         <v>40</v>
       </c>
       <c r="N34" s="32">
         <v>30</v>
       </c>
-      <c r="O34" s="60">
-        <v>30</v>
-      </c>
-      <c r="P34" s="63">
+      <c r="O34" s="53">
+        <v>30</v>
+      </c>
+      <c r="P34" s="56">
         <v>20</v>
       </c>
-      <c r="Q34" s="66">
+      <c r="Q34" s="59">
         <v>40</v>
       </c>
-      <c r="R34" s="45">
+      <c r="R34" s="62">
         <f>SUM(K34:Q34)</f>
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="55"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="7" t="s">
         <v>143</v>
       </c>
@@ -3294,28 +3304,28 @@
       <c r="F35" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="57" t="s">
+      <c r="G35" s="104"/>
+      <c r="H35" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="I35" s="69" t="s">
+      <c r="I35" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="61"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="67"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="60"/>
       <c r="N35" s="32">
         <v>30</v>
       </c>
-      <c r="O35" s="61"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="46"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="63"/>
     </row>
     <row r="36" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="56"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="7" t="s">
         <v>142</v>
       </c>
@@ -3325,23 +3335,23 @@
       <c r="F36" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="69"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="67"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="78"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="60"/>
       <c r="N36" s="32">
         <v>30</v>
       </c>
-      <c r="O36" s="61"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="46"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="63"/>
     </row>
     <row r="37" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="83"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="21">
         <v>832</v>
       </c>
@@ -3354,27 +3364,27 @@
       <c r="F37" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="89"/>
-      <c r="H37" s="57" t="s">
+      <c r="G37" s="104"/>
+      <c r="H37" s="103" t="s">
         <v>133</v>
       </c>
       <c r="I37" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="62"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="68"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="61"/>
       <c r="N37" s="32">
         <v>30</v>
       </c>
-      <c r="O37" s="62"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="47"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="64"/>
     </row>
     <row r="38" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="83"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="11">
         <v>833</v>
       </c>
@@ -3387,30 +3397,30 @@
       <c r="F38" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="89"/>
-      <c r="H38" s="57"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="103"/>
       <c r="I38" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="48" t="s">
+      <c r="K38" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
       <c r="N38" s="32">
         <v>30</v>
       </c>
-      <c r="O38" s="50" t="s">
+      <c r="O38" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
       <c r="R38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="45">
+      <c r="A39" s="108"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="62">
         <v>831</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -3422,40 +3432,40 @@
       <c r="F39" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="90" t="s">
+      <c r="G39" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="73" t="s">
+      <c r="H39" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="74" t="s">
+      <c r="I39" s="79" t="s">
         <v>37</v>
       </c>
       <c r="K39" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L39" s="53" t="s">
+      <c r="L39" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="M39" s="53"/>
+      <c r="M39" s="74"/>
       <c r="N39" s="29">
         <v>30</v>
       </c>
       <c r="O39" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P39" s="53" t="s">
+      <c r="P39" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q39" s="53"/>
+      <c r="Q39" s="74"/>
       <c r="R39" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="46"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="5" t="s">
         <v>141</v>
       </c>
@@ -3465,35 +3475,35 @@
       <c r="F40" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="74"/>
-      <c r="K40" s="51">
-        <v>30</v>
-      </c>
-      <c r="L40" s="52">
+      <c r="G40" s="93"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="79"/>
+      <c r="K40" s="68">
+        <v>30</v>
+      </c>
+      <c r="L40" s="72">
         <v>60</v>
       </c>
-      <c r="M40" s="52"/>
+      <c r="M40" s="72"/>
       <c r="N40" s="33">
         <v>30</v>
       </c>
-      <c r="O40" s="51">
-        <v>30</v>
-      </c>
-      <c r="P40" s="52">
+      <c r="O40" s="68">
+        <v>30</v>
+      </c>
+      <c r="P40" s="72">
         <v>60</v>
       </c>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="50">
+      <c r="Q40" s="72"/>
+      <c r="R40" s="52">
         <f>SUM(K40:Q40)</f>
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="46"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="5" t="s">
         <v>143</v>
       </c>
@@ -3503,28 +3513,28 @@
       <c r="F41" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="73" t="s">
+      <c r="G41" s="93"/>
+      <c r="H41" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="74" t="s">
+      <c r="I41" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="51"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
       <c r="N41" s="33">
         <v>30</v>
       </c>
-      <c r="O41" s="51"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="50"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="52"/>
     </row>
     <row r="42" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="47"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="5" t="s">
         <v>142</v>
       </c>
@@ -3534,23 +3544,23 @@
       <c r="F42" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="74"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="79"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
       <c r="N42" s="33">
         <v>30</v>
       </c>
-      <c r="O42" s="51"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="50"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="52"/>
     </row>
     <row r="43" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="83"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="10">
         <v>832</v>
       </c>
@@ -3563,27 +3573,27 @@
       <c r="F43" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="90"/>
-      <c r="H43" s="73" t="s">
+      <c r="G43" s="93"/>
+      <c r="H43" s="102" t="s">
         <v>133</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="51"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
       <c r="N43" s="32">
         <v>30</v>
       </c>
-      <c r="O43" s="51"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="50"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="52"/>
     </row>
     <row r="44" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="83"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="2">
         <v>833</v>
       </c>
@@ -3596,30 +3606,30 @@
       <c r="F44" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="90"/>
-      <c r="H44" s="73"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="102"/>
       <c r="I44" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="50" t="s">
+      <c r="K44" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
       <c r="N44" s="32">
         <v>30</v>
       </c>
-      <c r="O44" s="50" t="s">
+      <c r="O44" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
       <c r="R44" s="38"/>
     </row>
     <row r="45" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="54">
+      <c r="A45" s="108"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="96">
         <v>831</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -3631,13 +3641,13 @@
       <c r="F45" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="89" t="s">
+      <c r="G45" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="57" t="s">
+      <c r="H45" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="I45" s="69" t="s">
+      <c r="I45" s="78" t="s">
         <v>40</v>
       </c>
       <c r="K45" s="30" t="s">
@@ -3666,9 +3676,9 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="97"/>
       <c r="D46" s="7" t="s">
         <v>141</v>
       </c>
@@ -3678,39 +3688,39 @@
       <c r="F46" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="89"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="69"/>
-      <c r="K46" s="60">
-        <v>30</v>
-      </c>
-      <c r="L46" s="63">
+      <c r="G46" s="104"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="78"/>
+      <c r="K46" s="53">
+        <v>30</v>
+      </c>
+      <c r="L46" s="56">
         <v>25</v>
       </c>
-      <c r="M46" s="66">
+      <c r="M46" s="59">
         <v>35</v>
       </c>
       <c r="N46" s="32">
         <v>30</v>
       </c>
-      <c r="O46" s="60">
-        <v>30</v>
-      </c>
-      <c r="P46" s="63">
+      <c r="O46" s="53">
+        <v>30</v>
+      </c>
+      <c r="P46" s="56">
         <v>25</v>
       </c>
-      <c r="Q46" s="66">
+      <c r="Q46" s="59">
         <v>35</v>
       </c>
-      <c r="R46" s="45">
+      <c r="R46" s="62">
         <f>SUM(K46:Q46)</f>
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="55"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="97"/>
       <c r="D47" s="7" t="s">
         <v>143</v>
       </c>
@@ -3720,28 +3730,28 @@
       <c r="F47" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="89"/>
-      <c r="H47" s="57" t="s">
+      <c r="G47" s="104"/>
+      <c r="H47" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="I47" s="69" t="s">
+      <c r="I47" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="K47" s="61"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="67"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="60"/>
       <c r="N47" s="32">
         <v>30</v>
       </c>
-      <c r="O47" s="61"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="46"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="63"/>
     </row>
     <row r="48" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="56"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="7" t="s">
         <v>142</v>
       </c>
@@ -3751,23 +3761,23 @@
       <c r="F48" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="89"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="69"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="67"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="78"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="60"/>
       <c r="N48" s="32">
         <v>30</v>
       </c>
-      <c r="O48" s="61"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="46"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="63"/>
     </row>
     <row r="49" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="83"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="21">
         <v>832</v>
       </c>
@@ -3780,27 +3790,27 @@
       <c r="F49" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="89"/>
-      <c r="H49" s="57" t="s">
+      <c r="G49" s="104"/>
+      <c r="H49" s="103" t="s">
         <v>133</v>
       </c>
       <c r="I49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K49" s="62"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="68"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="61"/>
       <c r="N49" s="32">
         <v>30</v>
       </c>
-      <c r="O49" s="62"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="47"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="64"/>
     </row>
     <row r="50" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="84"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="101"/>
       <c r="C50" s="11">
         <v>833</v>
       </c>
@@ -3813,32 +3823,32 @@
       <c r="F50" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="89"/>
-      <c r="H50" s="57"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="103"/>
       <c r="I50" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="48" t="s">
+      <c r="K50" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
       <c r="N50" s="32">
         <v>30</v>
       </c>
-      <c r="O50" s="50" t="s">
+      <c r="O50" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
       <c r="R50" s="38"/>
     </row>
     <row r="51" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="78" t="s">
+      <c r="A51" s="108"/>
+      <c r="B51" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="62">
         <v>841</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3850,40 +3860,40 @@
       <c r="F51" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="91" t="s">
+      <c r="G51" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="73" t="s">
+      <c r="H51" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="I51" s="74" t="s">
+      <c r="I51" s="79" t="s">
         <v>43</v>
       </c>
       <c r="K51" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L51" s="53" t="s">
+      <c r="L51" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="M51" s="53"/>
+      <c r="M51" s="74"/>
       <c r="N51" s="32">
         <v>30</v>
       </c>
       <c r="O51" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P51" s="53" t="s">
+      <c r="P51" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q51" s="53"/>
+      <c r="Q51" s="74"/>
       <c r="R51" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="46"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="5" t="s">
         <v>141</v>
       </c>
@@ -3893,35 +3903,35 @@
       <c r="F52" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="91"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="74"/>
-      <c r="K52" s="51">
-        <v>30</v>
-      </c>
-      <c r="L52" s="52">
+      <c r="G52" s="105"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="79"/>
+      <c r="K52" s="68">
+        <v>30</v>
+      </c>
+      <c r="L52" s="72">
         <v>60</v>
       </c>
-      <c r="M52" s="52"/>
+      <c r="M52" s="72"/>
       <c r="N52" s="32">
         <v>30</v>
       </c>
-      <c r="O52" s="51">
-        <v>30</v>
-      </c>
-      <c r="P52" s="52">
+      <c r="O52" s="68">
+        <v>30</v>
+      </c>
+      <c r="P52" s="72">
         <v>60</v>
       </c>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="50">
+      <c r="Q52" s="72"/>
+      <c r="R52" s="52">
         <f>SUM(K52:Q52)</f>
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="46"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="5" t="s">
         <v>143</v>
       </c>
@@ -3931,28 +3941,28 @@
       <c r="F53" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="91"/>
-      <c r="H53" s="73" t="s">
+      <c r="G53" s="105"/>
+      <c r="H53" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="I53" s="74" t="s">
+      <c r="I53" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="K53" s="51"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
       <c r="N53" s="32">
         <v>30</v>
       </c>
-      <c r="O53" s="51"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="50"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="52"/>
     </row>
     <row r="54" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="47"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="5" t="s">
         <v>142</v>
       </c>
@@ -3962,23 +3972,23 @@
       <c r="F54" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G54" s="90"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="74"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="79"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
       <c r="N54" s="32">
         <v>30</v>
       </c>
-      <c r="O54" s="51"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="50"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="52"/>
     </row>
     <row r="55" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="79"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="2">
         <v>842</v>
       </c>
@@ -3991,27 +4001,27 @@
       <c r="F55" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="90"/>
-      <c r="H55" s="73" t="s">
+      <c r="G55" s="93"/>
+      <c r="H55" s="102" t="s">
         <v>133</v>
       </c>
       <c r="I55" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K55" s="51"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
       <c r="N55" s="32">
         <v>30</v>
       </c>
-      <c r="O55" s="51"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="50"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="52"/>
     </row>
     <row r="56" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="79"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="2">
         <v>843</v>
       </c>
@@ -4024,30 +4034,30 @@
       <c r="F56" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="90"/>
-      <c r="H56" s="73"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="102"/>
       <c r="I56" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K56" s="50" t="s">
+      <c r="K56" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
       <c r="N56" s="32">
         <v>30</v>
       </c>
-      <c r="O56" s="50" t="s">
+      <c r="O56" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
       <c r="R56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="54">
+      <c r="A57" s="108"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="96">
         <v>841</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -4059,13 +4069,13 @@
       <c r="F57" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="92" t="s">
+      <c r="G57" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="57" t="s">
+      <c r="H57" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="I57" s="69" t="s">
+      <c r="I57" s="78" t="s">
         <v>46</v>
       </c>
       <c r="K57" s="30" t="s">
@@ -4094,9 +4104,9 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="55"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="7" t="s">
         <v>141</v>
       </c>
@@ -4106,39 +4116,39 @@
       <c r="F58" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="92"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="69"/>
-      <c r="K58" s="60">
-        <v>30</v>
-      </c>
-      <c r="L58" s="63">
+      <c r="G58" s="106"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="78"/>
+      <c r="K58" s="53">
+        <v>30</v>
+      </c>
+      <c r="L58" s="56">
         <v>25</v>
       </c>
-      <c r="M58" s="66">
+      <c r="M58" s="59">
         <v>35</v>
       </c>
       <c r="N58" s="32">
         <v>30</v>
       </c>
-      <c r="O58" s="60">
-        <v>30</v>
-      </c>
-      <c r="P58" s="63">
+      <c r="O58" s="53">
+        <v>30</v>
+      </c>
+      <c r="P58" s="56">
         <v>25</v>
       </c>
-      <c r="Q58" s="66">
+      <c r="Q58" s="59">
         <v>35</v>
       </c>
-      <c r="R58" s="45">
+      <c r="R58" s="62">
         <f>SUM(K58:Q58)</f>
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="55"/>
+      <c r="A59" s="108"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="7" t="s">
         <v>143</v>
       </c>
@@ -4148,28 +4158,28 @@
       <c r="F59" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="92"/>
-      <c r="H59" s="57" t="s">
+      <c r="G59" s="106"/>
+      <c r="H59" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="I59" s="69" t="s">
+      <c r="I59" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="61"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="67"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="60"/>
       <c r="N59" s="32">
         <v>30</v>
       </c>
-      <c r="O59" s="61"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="46"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="63"/>
     </row>
     <row r="60" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="56"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="98"/>
       <c r="D60" s="7" t="s">
         <v>142</v>
       </c>
@@ -4179,23 +4189,23 @@
       <c r="F60" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="89"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="69"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="67"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="78"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="60"/>
       <c r="N60" s="32">
         <v>30</v>
       </c>
-      <c r="O60" s="61"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="46"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="63"/>
     </row>
     <row r="61" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="79"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="11">
         <v>842</v>
       </c>
@@ -4208,27 +4218,27 @@
       <c r="F61" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G61" s="89"/>
-      <c r="H61" s="57" t="s">
+      <c r="G61" s="104"/>
+      <c r="H61" s="103" t="s">
         <v>133</v>
       </c>
       <c r="I61" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K61" s="62"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="68"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="61"/>
       <c r="N61" s="32">
         <v>30</v>
       </c>
-      <c r="O61" s="62"/>
-      <c r="P61" s="65"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="47"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="64"/>
     </row>
     <row r="62" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
-      <c r="B62" s="80"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="112"/>
       <c r="C62" s="11">
         <v>843</v>
       </c>
@@ -4241,56 +4251,56 @@
       <c r="F62" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="89"/>
-      <c r="H62" s="57"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="103"/>
       <c r="I62" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K62" s="48" t="s">
+      <c r="K62" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="66"/>
       <c r="N62" s="32">
         <v>30</v>
       </c>
-      <c r="O62" s="50" t="s">
+      <c r="O62" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P62" s="50"/>
-      <c r="Q62" s="50"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
       <c r="R62" s="38"/>
     </row>
-    <row r="63" spans="1:20" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="58"/>
-      <c r="S63" s="58"/>
-      <c r="T63" s="58"/>
+    <row r="63" spans="1:20" s="108" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="114"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="114"/>
+      <c r="M63" s="114"/>
+      <c r="N63" s="114"/>
+      <c r="O63" s="114"/>
+      <c r="P63" s="114"/>
+      <c r="Q63" s="114"/>
+      <c r="R63" s="114"/>
+      <c r="S63" s="114"/>
+      <c r="T63" s="114"/>
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="45">
+      <c r="C64" s="62">
         <v>851</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4302,40 +4312,40 @@
       <c r="F64" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="85" t="s">
+      <c r="G64" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="H64" s="73" t="s">
+      <c r="H64" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="I64" s="74" t="s">
+      <c r="I64" s="79" t="s">
         <v>124</v>
       </c>
       <c r="K64" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L64" s="53" t="s">
+      <c r="L64" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="M64" s="53"/>
+      <c r="M64" s="74"/>
       <c r="N64" s="32">
         <v>30</v>
       </c>
       <c r="O64" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P64" s="53" t="s">
+      <c r="P64" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q64" s="53"/>
+      <c r="Q64" s="74"/>
       <c r="R64" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="46"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="5" t="s">
         <v>141</v>
       </c>
@@ -4345,35 +4355,35 @@
       <c r="F65" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G65" s="86"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="74"/>
-      <c r="K65" s="51">
-        <v>30</v>
-      </c>
-      <c r="L65" s="52">
+      <c r="G65" s="82"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="79"/>
+      <c r="K65" s="68">
+        <v>30</v>
+      </c>
+      <c r="L65" s="72">
         <v>60</v>
       </c>
-      <c r="M65" s="52"/>
+      <c r="M65" s="72"/>
       <c r="N65" s="32">
         <v>30</v>
       </c>
-      <c r="O65" s="51">
-        <v>30</v>
-      </c>
-      <c r="P65" s="52">
+      <c r="O65" s="68">
+        <v>30</v>
+      </c>
+      <c r="P65" s="72">
         <v>60</v>
       </c>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="50">
+      <c r="Q65" s="72"/>
+      <c r="R65" s="52">
         <f>SUM(K65:Q65)</f>
         <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="46"/>
+      <c r="A66" s="108"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="5" t="s">
         <v>143</v>
       </c>
@@ -4383,28 +4393,28 @@
       <c r="F66" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="G66" s="86"/>
-      <c r="H66" s="73" t="s">
+      <c r="G66" s="82"/>
+      <c r="H66" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="I66" s="74" t="s">
+      <c r="I66" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="K66" s="51"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
       <c r="N66" s="32">
         <v>30</v>
       </c>
-      <c r="O66" s="51"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="50"/>
+      <c r="O66" s="68"/>
+      <c r="P66" s="72"/>
+      <c r="Q66" s="72"/>
+      <c r="R66" s="52"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="47"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="5" t="s">
         <v>142</v>
       </c>
@@ -4414,23 +4424,23 @@
       <c r="F67" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="86"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="74"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="79"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
       <c r="N67" s="32">
         <v>30</v>
       </c>
-      <c r="O67" s="51"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="50"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="52"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="83"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="10">
         <v>852</v>
       </c>
@@ -4443,27 +4453,27 @@
       <c r="F68" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="G68" s="86"/>
-      <c r="H68" s="73" t="s">
+      <c r="G68" s="82"/>
+      <c r="H68" s="102" t="s">
         <v>133</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="K68" s="51"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
       <c r="N68" s="32">
         <v>30</v>
       </c>
-      <c r="O68" s="51"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="50"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="52"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="83"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="100"/>
       <c r="C69" s="2">
         <v>853</v>
       </c>
@@ -4476,30 +4486,30 @@
       <c r="F69" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="87"/>
-      <c r="H69" s="73"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="102"/>
       <c r="I69" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="K69" s="50" t="s">
+      <c r="K69" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
       <c r="N69" s="32">
         <v>30</v>
       </c>
-      <c r="O69" s="50" t="s">
+      <c r="O69" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
       <c r="R69" s="38"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="83"/>
-      <c r="C70" s="54">
+      <c r="A70" s="108"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="96">
         <v>851</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -4511,13 +4521,13 @@
       <c r="F70" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G70" s="70" t="s">
+      <c r="G70" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="H70" s="57" t="s">
+      <c r="H70" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="I70" s="69" t="s">
+      <c r="I70" s="78" t="s">
         <v>125</v>
       </c>
       <c r="K70" s="30" t="s">
@@ -4546,9 +4556,9 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="55"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="97"/>
       <c r="D71" s="7" t="s">
         <v>141</v>
       </c>
@@ -4558,39 +4568,39 @@
       <c r="F71" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G71" s="71"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="69"/>
-      <c r="K71" s="60">
-        <v>30</v>
-      </c>
-      <c r="L71" s="63">
+      <c r="G71" s="85"/>
+      <c r="H71" s="103"/>
+      <c r="I71" s="78"/>
+      <c r="K71" s="53">
+        <v>30</v>
+      </c>
+      <c r="L71" s="56">
         <v>20</v>
       </c>
-      <c r="M71" s="66">
+      <c r="M71" s="59">
         <v>40</v>
       </c>
       <c r="N71" s="32">
         <v>30</v>
       </c>
-      <c r="O71" s="60">
-        <v>30</v>
-      </c>
-      <c r="P71" s="63">
+      <c r="O71" s="53">
+        <v>30</v>
+      </c>
+      <c r="P71" s="56">
         <v>20</v>
       </c>
-      <c r="Q71" s="66">
+      <c r="Q71" s="59">
         <v>40</v>
       </c>
-      <c r="R71" s="45">
+      <c r="R71" s="62">
         <f>SUM(K71:Q71)</f>
         <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="55"/>
+      <c r="A72" s="108"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="97"/>
       <c r="D72" s="7" t="s">
         <v>143</v>
       </c>
@@ -4600,28 +4610,28 @@
       <c r="F72" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G72" s="71"/>
-      <c r="H72" s="57" t="s">
+      <c r="G72" s="85"/>
+      <c r="H72" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="I72" s="69" t="s">
+      <c r="I72" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="K72" s="61"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="67"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="60"/>
       <c r="N72" s="32">
         <v>30</v>
       </c>
-      <c r="O72" s="61"/>
-      <c r="P72" s="64"/>
-      <c r="Q72" s="67"/>
-      <c r="R72" s="46"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="57"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="63"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="56"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="98"/>
       <c r="D73" s="7" t="s">
         <v>142</v>
       </c>
@@ -4631,23 +4641,23 @@
       <c r="F73" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G73" s="71"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="69"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="67"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="78"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="60"/>
       <c r="N73" s="32">
         <v>30</v>
       </c>
-      <c r="O73" s="61"/>
-      <c r="P73" s="64"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="46"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="63"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="83"/>
+      <c r="A74" s="108"/>
+      <c r="B74" s="100"/>
       <c r="C74" s="21">
         <v>852</v>
       </c>
@@ -4660,27 +4670,27 @@
       <c r="F74" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G74" s="71"/>
-      <c r="H74" s="57" t="s">
+      <c r="G74" s="85"/>
+      <c r="H74" s="103" t="s">
         <v>133</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K74" s="62"/>
-      <c r="L74" s="65"/>
-      <c r="M74" s="68"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="61"/>
       <c r="N74" s="32">
         <v>30</v>
       </c>
-      <c r="O74" s="62"/>
-      <c r="P74" s="65"/>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="47"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="58"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="64"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
-      <c r="B75" s="83"/>
+      <c r="A75" s="108"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="11">
         <v>853</v>
       </c>
@@ -4693,30 +4703,30 @@
       <c r="F75" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="72"/>
-      <c r="H75" s="57"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="103"/>
       <c r="I75" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="K75" s="48" t="s">
+      <c r="K75" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
+      <c r="L75" s="66"/>
+      <c r="M75" s="66"/>
       <c r="N75" s="32">
         <v>30</v>
       </c>
-      <c r="O75" s="50" t="s">
+      <c r="O75" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P75" s="50"/>
-      <c r="Q75" s="50"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
       <c r="R75" s="38"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="83"/>
-      <c r="C76" s="45">
+      <c r="A76" s="108"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="62">
         <v>851</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4728,40 +4738,40 @@
       <c r="F76" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="85" t="s">
+      <c r="G76" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="H76" s="73" t="s">
+      <c r="H76" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="I76" s="74" t="s">
+      <c r="I76" s="79" t="s">
         <v>126</v>
       </c>
       <c r="K76" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L76" s="53" t="s">
+      <c r="L76" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="M76" s="53"/>
+      <c r="M76" s="74"/>
       <c r="N76" s="32">
         <v>30</v>
       </c>
       <c r="O76" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P76" s="53" t="s">
+      <c r="P76" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q76" s="53"/>
+      <c r="Q76" s="74"/>
       <c r="R76" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
-      <c r="B77" s="83"/>
-      <c r="C77" s="46"/>
+      <c r="A77" s="108"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="5" t="s">
         <v>141</v>
       </c>
@@ -4771,35 +4781,35 @@
       <c r="F77" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="G77" s="86"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="74"/>
-      <c r="K77" s="51">
-        <v>30</v>
-      </c>
-      <c r="L77" s="52">
+      <c r="G77" s="82"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="79"/>
+      <c r="K77" s="68">
+        <v>30</v>
+      </c>
+      <c r="L77" s="72">
         <v>60</v>
       </c>
-      <c r="M77" s="52"/>
+      <c r="M77" s="72"/>
       <c r="N77" s="32">
         <v>30</v>
       </c>
-      <c r="O77" s="51">
-        <v>30</v>
-      </c>
-      <c r="P77" s="52">
+      <c r="O77" s="68">
+        <v>30</v>
+      </c>
+      <c r="P77" s="72">
         <v>60</v>
       </c>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="50">
+      <c r="Q77" s="72"/>
+      <c r="R77" s="52">
         <f>SUM(K77:Q77)</f>
         <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="83"/>
-      <c r="C78" s="46"/>
+      <c r="A78" s="108"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="5" t="s">
         <v>143</v>
       </c>
@@ -4809,28 +4819,28 @@
       <c r="F78" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="86"/>
-      <c r="H78" s="73" t="s">
+      <c r="G78" s="82"/>
+      <c r="H78" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="I78" s="74" t="s">
+      <c r="I78" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="K78" s="51"/>
-      <c r="L78" s="52"/>
-      <c r="M78" s="52"/>
+      <c r="K78" s="68"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="72"/>
       <c r="N78" s="32">
         <v>30</v>
       </c>
-      <c r="O78" s="51"/>
-      <c r="P78" s="52"/>
-      <c r="Q78" s="52"/>
-      <c r="R78" s="50"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="72"/>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="52"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
-      <c r="B79" s="83"/>
-      <c r="C79" s="47"/>
+      <c r="A79" s="108"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="5" t="s">
         <v>142</v>
       </c>
@@ -4840,23 +4850,23 @@
       <c r="F79" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="G79" s="86"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="74"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="52"/>
-      <c r="M79" s="52"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="79"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="72"/>
+      <c r="M79" s="72"/>
       <c r="N79" s="32">
         <v>30</v>
       </c>
-      <c r="O79" s="51"/>
-      <c r="P79" s="52"/>
-      <c r="Q79" s="52"/>
-      <c r="R79" s="50"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="72"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="52"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
-      <c r="B80" s="83"/>
+      <c r="A80" s="108"/>
+      <c r="B80" s="100"/>
       <c r="C80" s="10">
         <v>852</v>
       </c>
@@ -4869,27 +4879,27 @@
       <c r="F80" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="86"/>
-      <c r="H80" s="73" t="s">
+      <c r="G80" s="82"/>
+      <c r="H80" s="102" t="s">
         <v>133</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="K80" s="51"/>
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
+      <c r="K80" s="68"/>
+      <c r="L80" s="72"/>
+      <c r="M80" s="72"/>
       <c r="N80" s="32">
         <v>30</v>
       </c>
-      <c r="O80" s="51"/>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="52"/>
-      <c r="R80" s="50"/>
+      <c r="O80" s="68"/>
+      <c r="P80" s="72"/>
+      <c r="Q80" s="72"/>
+      <c r="R80" s="52"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
-      <c r="B81" s="83"/>
+      <c r="A81" s="108"/>
+      <c r="B81" s="100"/>
       <c r="C81" s="2">
         <v>853</v>
       </c>
@@ -4902,30 +4912,30 @@
       <c r="F81" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="G81" s="87"/>
-      <c r="H81" s="73"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="102"/>
       <c r="I81" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="K81" s="50" t="s">
+      <c r="K81" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L81" s="50"/>
-      <c r="M81" s="50"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="52"/>
       <c r="N81" s="32">
         <v>30</v>
       </c>
-      <c r="O81" s="50" t="s">
+      <c r="O81" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P81" s="50"/>
-      <c r="Q81" s="50"/>
+      <c r="P81" s="52"/>
+      <c r="Q81" s="52"/>
       <c r="R81" s="38"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
-      <c r="B82" s="83"/>
-      <c r="C82" s="54">
+      <c r="A82" s="108"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="96">
         <v>851</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -4937,13 +4947,13 @@
       <c r="F82" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="70" t="s">
+      <c r="G82" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="H82" s="57" t="s">
+      <c r="H82" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="I82" s="69" t="s">
+      <c r="I82" s="78" t="s">
         <v>127</v>
       </c>
       <c r="K82" s="30" t="s">
@@ -4972,9 +4982,9 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
-      <c r="B83" s="83"/>
-      <c r="C83" s="55"/>
+      <c r="A83" s="108"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="97"/>
       <c r="D83" s="7" t="s">
         <v>141</v>
       </c>
@@ -4984,39 +4994,39 @@
       <c r="F83" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="71"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="69"/>
-      <c r="K83" s="60">
-        <v>30</v>
-      </c>
-      <c r="L83" s="63">
+      <c r="G83" s="85"/>
+      <c r="H83" s="103"/>
+      <c r="I83" s="78"/>
+      <c r="K83" s="53">
+        <v>30</v>
+      </c>
+      <c r="L83" s="56">
         <v>25</v>
       </c>
-      <c r="M83" s="66">
+      <c r="M83" s="59">
         <v>35</v>
       </c>
       <c r="N83" s="32">
         <v>30</v>
       </c>
-      <c r="O83" s="60">
-        <v>30</v>
-      </c>
-      <c r="P83" s="63">
+      <c r="O83" s="53">
+        <v>30</v>
+      </c>
+      <c r="P83" s="56">
         <v>25</v>
       </c>
-      <c r="Q83" s="66">
+      <c r="Q83" s="59">
         <v>35</v>
       </c>
-      <c r="R83" s="45">
+      <c r="R83" s="62">
         <f>SUM(K83:Q83)</f>
         <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
-      <c r="B84" s="83"/>
-      <c r="C84" s="55"/>
+      <c r="A84" s="108"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="97"/>
       <c r="D84" s="7" t="s">
         <v>143</v>
       </c>
@@ -5026,28 +5036,28 @@
       <c r="F84" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G84" s="71"/>
-      <c r="H84" s="57" t="s">
+      <c r="G84" s="85"/>
+      <c r="H84" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="I84" s="69" t="s">
+      <c r="I84" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="K84" s="61"/>
-      <c r="L84" s="64"/>
-      <c r="M84" s="67"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="60"/>
       <c r="N84" s="32">
         <v>30</v>
       </c>
-      <c r="O84" s="61"/>
-      <c r="P84" s="64"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="46"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="63"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
-      <c r="B85" s="83"/>
-      <c r="C85" s="56"/>
+      <c r="A85" s="108"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="98"/>
       <c r="D85" s="7" t="s">
         <v>142</v>
       </c>
@@ -5057,23 +5067,23 @@
       <c r="F85" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="G85" s="71"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="69"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="64"/>
-      <c r="M85" s="67"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="103"/>
+      <c r="I85" s="78"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="60"/>
       <c r="N85" s="32">
         <v>30</v>
       </c>
-      <c r="O85" s="61"/>
-      <c r="P85" s="64"/>
-      <c r="Q85" s="67"/>
-      <c r="R85" s="46"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="63"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="83"/>
+      <c r="A86" s="108"/>
+      <c r="B86" s="100"/>
       <c r="C86" s="21">
         <v>852</v>
       </c>
@@ -5086,27 +5096,27 @@
       <c r="F86" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="G86" s="71"/>
-      <c r="H86" s="57" t="s">
+      <c r="G86" s="85"/>
+      <c r="H86" s="103" t="s">
         <v>133</v>
       </c>
       <c r="I86" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K86" s="62"/>
-      <c r="L86" s="65"/>
-      <c r="M86" s="68"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="61"/>
       <c r="N86" s="32">
         <v>30</v>
       </c>
-      <c r="O86" s="62"/>
-      <c r="P86" s="65"/>
-      <c r="Q86" s="68"/>
-      <c r="R86" s="47"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="64"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
-      <c r="B87" s="84"/>
+      <c r="A87" s="108"/>
+      <c r="B87" s="101"/>
       <c r="C87" s="11">
         <v>853</v>
       </c>
@@ -5119,32 +5129,32 @@
       <c r="F87" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="G87" s="72"/>
-      <c r="H87" s="57"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="103"/>
       <c r="I87" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K87" s="48" t="s">
+      <c r="K87" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="L87" s="49"/>
-      <c r="M87" s="49"/>
+      <c r="L87" s="66"/>
+      <c r="M87" s="66"/>
       <c r="N87" s="32">
         <v>30</v>
       </c>
-      <c r="O87" s="50" t="s">
+      <c r="O87" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P87" s="50"/>
-      <c r="Q87" s="50"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52"/>
       <c r="R87" s="38"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
-      <c r="B88" s="82" t="s">
+      <c r="A88" s="108"/>
+      <c r="B88" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="45">
+      <c r="C88" s="62">
         <v>861</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5156,40 +5166,40 @@
       <c r="F88" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="94" t="s">
+      <c r="G88" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="H88" s="73" t="s">
+      <c r="H88" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="I88" s="74" t="s">
+      <c r="I88" s="79" t="s">
         <v>128</v>
       </c>
       <c r="K88" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L88" s="53" t="s">
+      <c r="L88" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="M88" s="53"/>
+      <c r="M88" s="74"/>
       <c r="N88" s="32">
         <v>30</v>
       </c>
       <c r="O88" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P88" s="53" t="s">
+      <c r="P88" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="Q88" s="53"/>
+      <c r="Q88" s="74"/>
       <c r="R88" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
-      <c r="B89" s="83"/>
-      <c r="C89" s="46"/>
+      <c r="A89" s="108"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="5" t="s">
         <v>141</v>
       </c>
@@ -5199,35 +5209,35 @@
       <c r="F89" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G89" s="95"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="74"/>
-      <c r="K89" s="51">
-        <v>30</v>
-      </c>
-      <c r="L89" s="52">
+      <c r="G89" s="88"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="79"/>
+      <c r="K89" s="68">
+        <v>30</v>
+      </c>
+      <c r="L89" s="72">
         <v>60</v>
       </c>
-      <c r="M89" s="52"/>
+      <c r="M89" s="72"/>
       <c r="N89" s="32">
         <v>30</v>
       </c>
-      <c r="O89" s="51">
-        <v>30</v>
-      </c>
-      <c r="P89" s="52">
+      <c r="O89" s="68">
+        <v>30</v>
+      </c>
+      <c r="P89" s="72">
         <v>60</v>
       </c>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="50">
+      <c r="Q89" s="72"/>
+      <c r="R89" s="52">
         <f>SUM(K89:Q89)</f>
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
-      <c r="B90" s="83"/>
-      <c r="C90" s="46"/>
+      <c r="A90" s="108"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="5" t="s">
         <v>143</v>
       </c>
@@ -5237,28 +5247,28 @@
       <c r="F90" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="G90" s="95"/>
-      <c r="H90" s="73" t="s">
+      <c r="G90" s="88"/>
+      <c r="H90" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="I90" s="74" t="s">
+      <c r="I90" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="K90" s="51"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="52"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="72"/>
       <c r="N90" s="32">
         <v>30</v>
       </c>
-      <c r="O90" s="51"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="52"/>
-      <c r="R90" s="50"/>
+      <c r="O90" s="68"/>
+      <c r="P90" s="72"/>
+      <c r="Q90" s="72"/>
+      <c r="R90" s="52"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
-      <c r="B91" s="83"/>
-      <c r="C91" s="47"/>
+      <c r="A91" s="108"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="5" t="s">
         <v>142</v>
       </c>
@@ -5268,23 +5278,23 @@
       <c r="F91" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G91" s="95"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="74"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="52"/>
-      <c r="M91" s="52"/>
+      <c r="G91" s="88"/>
+      <c r="H91" s="102"/>
+      <c r="I91" s="79"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="72"/>
+      <c r="M91" s="72"/>
       <c r="N91" s="32">
         <v>30</v>
       </c>
-      <c r="O91" s="51"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="52"/>
-      <c r="R91" s="50"/>
+      <c r="O91" s="68"/>
+      <c r="P91" s="72"/>
+      <c r="Q91" s="72"/>
+      <c r="R91" s="52"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
-      <c r="B92" s="83"/>
+      <c r="A92" s="108"/>
+      <c r="B92" s="100"/>
       <c r="C92" s="2">
         <v>862</v>
       </c>
@@ -5297,27 +5307,27 @@
       <c r="F92" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="95"/>
-      <c r="H92" s="73" t="s">
+      <c r="G92" s="88"/>
+      <c r="H92" s="102" t="s">
         <v>133</v>
       </c>
       <c r="I92" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="K92" s="51"/>
-      <c r="L92" s="52"/>
-      <c r="M92" s="52"/>
+      <c r="K92" s="68"/>
+      <c r="L92" s="72"/>
+      <c r="M92" s="72"/>
       <c r="N92" s="32">
         <v>30</v>
       </c>
-      <c r="O92" s="51"/>
-      <c r="P92" s="52"/>
-      <c r="Q92" s="52"/>
-      <c r="R92" s="50"/>
+      <c r="O92" s="68"/>
+      <c r="P92" s="72"/>
+      <c r="Q92" s="72"/>
+      <c r="R92" s="52"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
-      <c r="B93" s="83"/>
+      <c r="A93" s="108"/>
+      <c r="B93" s="100"/>
       <c r="C93" s="2">
         <v>863</v>
       </c>
@@ -5330,30 +5340,30 @@
       <c r="F93" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="G93" s="96"/>
-      <c r="H93" s="73"/>
+      <c r="G93" s="89"/>
+      <c r="H93" s="102"/>
       <c r="I93" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="K93" s="50" t="s">
+      <c r="K93" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="L93" s="50"/>
-      <c r="M93" s="50"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="52"/>
       <c r="N93" s="32">
         <v>30</v>
       </c>
-      <c r="O93" s="50" t="s">
+      <c r="O93" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P93" s="50"/>
-      <c r="Q93" s="50"/>
+      <c r="P93" s="52"/>
+      <c r="Q93" s="52"/>
       <c r="R93" s="38"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
-      <c r="B94" s="83"/>
-      <c r="C94" s="54">
+      <c r="A94" s="108"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="96">
         <v>861</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -5365,13 +5375,13 @@
       <c r="F94" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G94" s="97" t="s">
+      <c r="G94" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="H94" s="57" t="s">
+      <c r="H94" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="I94" s="69" t="s">
+      <c r="I94" s="78" t="s">
         <v>129</v>
       </c>
       <c r="K94" s="30" t="s">
@@ -5400,9 +5410,9 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
-      <c r="B95" s="83"/>
-      <c r="C95" s="55"/>
+      <c r="A95" s="108"/>
+      <c r="B95" s="100"/>
+      <c r="C95" s="97"/>
       <c r="D95" s="7" t="s">
         <v>141</v>
       </c>
@@ -5412,39 +5422,39 @@
       <c r="F95" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="G95" s="98"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="69"/>
-      <c r="K95" s="60">
-        <v>30</v>
-      </c>
-      <c r="L95" s="63">
+      <c r="G95" s="91"/>
+      <c r="H95" s="103"/>
+      <c r="I95" s="78"/>
+      <c r="K95" s="53">
+        <v>30</v>
+      </c>
+      <c r="L95" s="56">
         <v>25</v>
       </c>
-      <c r="M95" s="66">
+      <c r="M95" s="59">
         <v>35</v>
       </c>
       <c r="N95" s="32">
         <v>30</v>
       </c>
-      <c r="O95" s="60">
-        <v>30</v>
-      </c>
-      <c r="P95" s="63">
+      <c r="O95" s="53">
+        <v>30</v>
+      </c>
+      <c r="P95" s="56">
         <v>25</v>
       </c>
-      <c r="Q95" s="66">
+      <c r="Q95" s="59">
         <v>35</v>
       </c>
-      <c r="R95" s="45">
+      <c r="R95" s="62">
         <f>SUM(K95:Q95)</f>
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-      <c r="B96" s="83"/>
-      <c r="C96" s="55"/>
+      <c r="A96" s="108"/>
+      <c r="B96" s="100"/>
+      <c r="C96" s="97"/>
       <c r="D96" s="7" t="s">
         <v>143</v>
       </c>
@@ -5454,28 +5464,28 @@
       <c r="F96" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="G96" s="98"/>
-      <c r="H96" s="57" t="s">
+      <c r="G96" s="91"/>
+      <c r="H96" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="I96" s="69" t="s">
+      <c r="I96" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="K96" s="61"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="67"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="60"/>
       <c r="N96" s="32">
         <v>30</v>
       </c>
-      <c r="O96" s="61"/>
-      <c r="P96" s="64"/>
-      <c r="Q96" s="67"/>
-      <c r="R96" s="46"/>
+      <c r="O96" s="54"/>
+      <c r="P96" s="57"/>
+      <c r="Q96" s="60"/>
+      <c r="R96" s="63"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
-      <c r="B97" s="83"/>
-      <c r="C97" s="56"/>
+      <c r="A97" s="108"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="98"/>
       <c r="D97" s="7" t="s">
         <v>142</v>
       </c>
@@ -5485,23 +5495,23 @@
       <c r="F97" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G97" s="98"/>
-      <c r="H97" s="57"/>
-      <c r="I97" s="69"/>
-      <c r="K97" s="61"/>
-      <c r="L97" s="64"/>
-      <c r="M97" s="67"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="103"/>
+      <c r="I97" s="78"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="57"/>
+      <c r="M97" s="60"/>
       <c r="N97" s="32">
         <v>30</v>
       </c>
-      <c r="O97" s="61"/>
-      <c r="P97" s="64"/>
-      <c r="Q97" s="67"/>
-      <c r="R97" s="46"/>
+      <c r="O97" s="54"/>
+      <c r="P97" s="57"/>
+      <c r="Q97" s="60"/>
+      <c r="R97" s="63"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="59"/>
-      <c r="B98" s="83"/>
+      <c r="A98" s="108"/>
+      <c r="B98" s="100"/>
       <c r="C98" s="11">
         <v>862</v>
       </c>
@@ -5514,27 +5524,27 @@
       <c r="F98" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="G98" s="98"/>
-      <c r="H98" s="57" t="s">
+      <c r="G98" s="91"/>
+      <c r="H98" s="103" t="s">
         <v>133</v>
       </c>
       <c r="I98" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="62"/>
-      <c r="L98" s="65"/>
-      <c r="M98" s="68"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="61"/>
       <c r="N98" s="32">
         <v>30</v>
       </c>
-      <c r="O98" s="62"/>
-      <c r="P98" s="65"/>
-      <c r="Q98" s="68"/>
-      <c r="R98" s="47"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="58"/>
+      <c r="Q98" s="61"/>
+      <c r="R98" s="64"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
-      <c r="B99" s="84"/>
+      <c r="A99" s="108"/>
+      <c r="B99" s="101"/>
       <c r="C99" s="11">
         <v>863</v>
       </c>
@@ -5547,33 +5557,33 @@
       <c r="F99" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="G99" s="99"/>
-      <c r="H99" s="57"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="103"/>
       <c r="I99" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="K99" s="48" t="s">
+      <c r="K99" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="L99" s="49"/>
-      <c r="M99" s="49"/>
+      <c r="L99" s="66"/>
+      <c r="M99" s="66"/>
       <c r="N99" s="32">
         <v>30</v>
       </c>
-      <c r="O99" s="50" t="s">
+      <c r="O99" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="P99" s="50"/>
-      <c r="Q99" s="50"/>
+      <c r="P99" s="52"/>
+      <c r="Q99" s="52"/>
       <c r="R99" s="38"/>
     </row>
     <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="93" t="s">
+      <c r="A100" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
-      <c r="D100" s="93"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="80"/>
       <c r="E100" s="15">
         <f>SUM(E2:E99)</f>
         <v>168</v>
@@ -5584,13 +5594,13 @@
       <c r="H100" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="100" t="s">
+      <c r="A102" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="B102" s="81" t="s">
+      <c r="B102" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="50">
+      <c r="C102" s="52">
         <v>871</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -5602,13 +5612,13 @@
       <c r="F102" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G102" s="90" t="s">
+      <c r="G102" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="H102" s="73" t="s">
+      <c r="H102" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="I102" s="75">
+      <c r="I102" s="113">
         <v>871</v>
       </c>
       <c r="K102" s="30" t="s">
@@ -5637,9 +5647,9 @@
       </c>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="100"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="50"/>
+      <c r="A103" s="95"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="5" t="s">
         <v>141</v>
       </c>
@@ -5649,39 +5659,39 @@
       <c r="F103" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G103" s="90"/>
-      <c r="H103" s="73"/>
-      <c r="I103" s="75"/>
-      <c r="K103" s="60">
-        <v>30</v>
-      </c>
-      <c r="L103" s="63">
+      <c r="G103" s="93"/>
+      <c r="H103" s="102"/>
+      <c r="I103" s="113"/>
+      <c r="K103" s="53">
+        <v>30</v>
+      </c>
+      <c r="L103" s="56">
         <v>35</v>
       </c>
-      <c r="M103" s="66">
+      <c r="M103" s="59">
         <v>55</v>
       </c>
       <c r="N103" s="32">
         <v>30</v>
       </c>
-      <c r="O103" s="60">
-        <v>30</v>
-      </c>
-      <c r="P103" s="102">
+      <c r="O103" s="53">
+        <v>30</v>
+      </c>
+      <c r="P103" s="73">
         <v>35</v>
       </c>
-      <c r="Q103" s="66">
+      <c r="Q103" s="59">
         <v>25</v>
       </c>
-      <c r="R103" s="45">
+      <c r="R103" s="62">
         <f>SUM(K103:Q103)</f>
         <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="100"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="50"/>
+      <c r="A104" s="95"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="52"/>
       <c r="D104" s="5" t="s">
         <v>143</v>
       </c>
@@ -5691,28 +5701,28 @@
       <c r="F104" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="G104" s="90"/>
-      <c r="H104" s="73" t="s">
+      <c r="G104" s="93"/>
+      <c r="H104" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="I104" s="75">
+      <c r="I104" s="113">
         <v>871</v>
       </c>
-      <c r="K104" s="61"/>
-      <c r="L104" s="64"/>
-      <c r="M104" s="67"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="57"/>
+      <c r="M104" s="60"/>
       <c r="N104" s="32">
         <v>30</v>
       </c>
-      <c r="O104" s="61"/>
-      <c r="P104" s="103"/>
-      <c r="Q104" s="67"/>
-      <c r="R104" s="46"/>
+      <c r="O104" s="54"/>
+      <c r="P104" s="75"/>
+      <c r="Q104" s="60"/>
+      <c r="R104" s="63"/>
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="100"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="50"/>
+      <c r="A105" s="95"/>
+      <c r="B105" s="94"/>
+      <c r="C105" s="52"/>
       <c r="D105" s="5" t="s">
         <v>142</v>
       </c>
@@ -5722,23 +5732,23 @@
       <c r="F105" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G105" s="90"/>
-      <c r="H105" s="73"/>
-      <c r="I105" s="75"/>
-      <c r="K105" s="61"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="67"/>
+      <c r="G105" s="93"/>
+      <c r="H105" s="102"/>
+      <c r="I105" s="113"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="60"/>
       <c r="N105" s="32">
         <v>30</v>
       </c>
-      <c r="O105" s="61"/>
-      <c r="P105" s="103"/>
-      <c r="Q105" s="67"/>
-      <c r="R105" s="46"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="75"/>
+      <c r="Q105" s="60"/>
+      <c r="R105" s="63"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="100"/>
-      <c r="B106" s="81"/>
+      <c r="A106" s="95"/>
+      <c r="B106" s="94"/>
       <c r="C106" s="2">
         <v>872</v>
       </c>
@@ -5751,27 +5761,27 @@
       <c r="F106" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="G106" s="90"/>
-      <c r="H106" s="73" t="s">
+      <c r="G106" s="93"/>
+      <c r="H106" s="102" t="s">
         <v>133</v>
       </c>
       <c r="I106" s="16">
         <v>872</v>
       </c>
-      <c r="K106" s="62"/>
-      <c r="L106" s="65"/>
-      <c r="M106" s="68"/>
+      <c r="K106" s="55"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="61"/>
       <c r="N106" s="32">
         <v>30</v>
       </c>
-      <c r="O106" s="62"/>
-      <c r="P106" s="104"/>
-      <c r="Q106" s="68"/>
-      <c r="R106" s="47"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="76"/>
+      <c r="Q106" s="61"/>
+      <c r="R106" s="64"/>
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="100"/>
-      <c r="B107" s="81"/>
+      <c r="A107" s="95"/>
+      <c r="B107" s="94"/>
       <c r="C107" s="2">
         <v>873</v>
       </c>
@@ -5784,33 +5794,33 @@
       <c r="F107" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G107" s="90"/>
-      <c r="H107" s="73"/>
+      <c r="G107" s="93"/>
+      <c r="H107" s="102"/>
       <c r="I107" s="16">
         <v>873</v>
       </c>
-      <c r="K107" s="48" t="s">
+      <c r="K107" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="L107" s="49"/>
-      <c r="M107" s="49"/>
+      <c r="L107" s="66"/>
+      <c r="M107" s="66"/>
       <c r="N107" s="32">
         <v>30</v>
       </c>
-      <c r="O107" s="48" t="s">
+      <c r="O107" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="P107" s="49"/>
-      <c r="Q107" s="106"/>
+      <c r="P107" s="66"/>
+      <c r="Q107" s="67"/>
       <c r="R107" s="38"/>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="93" t="s">
+      <c r="A108" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="93"/>
-      <c r="C108" s="93"/>
-      <c r="D108" s="93"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="80"/>
       <c r="E108" s="15">
         <f>SUM(E102:E107)</f>
         <v>10</v>
@@ -5879,88 +5889,205 @@
     </row>
   </sheetData>
   <mergeCells count="306">
-    <mergeCell ref="T27:V30"/>
-    <mergeCell ref="T31:V32"/>
-    <mergeCell ref="S27:S30"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="O95:O98"/>
-    <mergeCell ref="P95:P98"/>
-    <mergeCell ref="Q95:Q98"/>
-    <mergeCell ref="R95:R98"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="M103:M106"/>
-    <mergeCell ref="O103:O106"/>
-    <mergeCell ref="Q103:Q106"/>
-    <mergeCell ref="R103:R106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="O107:Q107"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="T15:T17"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L25"/>
-    <mergeCell ref="N19:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O25"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R25"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="L40:M43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:Q43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="R34:R37"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="P46:P49"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="R58:R61"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="O65:O68"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="L65:M68"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L77:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A64:A99"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B64:B87"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="A27:A62"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="G76:G81"/>
+    <mergeCell ref="G82:G87"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="P65:Q68"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L28:M31"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q31"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:Q92"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="L52:M55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R83:R86"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="P77:Q80"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="O75:Q75"/>
     <mergeCell ref="O46:O49"/>
     <mergeCell ref="Q46:Q49"/>
     <mergeCell ref="K40:K43"/>
@@ -5985,206 +6112,89 @@
     <mergeCell ref="P88:Q88"/>
     <mergeCell ref="K89:K92"/>
     <mergeCell ref="L89:M92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:Q92"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="L52:M55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="N3:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="P34:P37"/>
     <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L28:M31"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="G76:G81"/>
-    <mergeCell ref="G82:G87"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="G102:G107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G64:G69"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A64:A99"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B64:B87"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="A27:A62"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="R34:R37"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="P46:P49"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="R58:R61"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="R83:R86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="O65:O68"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="L65:M68"/>
-    <mergeCell ref="P65:Q68"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:M80"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="P77:Q80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R25"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="M103:M106"/>
+    <mergeCell ref="O103:O106"/>
+    <mergeCell ref="Q103:Q106"/>
+    <mergeCell ref="R103:R106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L25"/>
+    <mergeCell ref="N19:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O25"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="T27:V30"/>
+    <mergeCell ref="T31:V32"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="K95:K98"/>
+    <mergeCell ref="L95:L98"/>
+    <mergeCell ref="M95:M98"/>
+    <mergeCell ref="O95:O98"/>
+    <mergeCell ref="P95:P98"/>
+    <mergeCell ref="Q95:Q98"/>
+    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="L40:M43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:Q43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="M46:M49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
+++ b/Datasets/GOOSE attack dataset/List of Scenarios.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50A3C7B-F7BC-4A06-A13C-3C2409AAFC49}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D64BFE2-1471-42DA-8FCF-9A0E2D337778}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GOOSE attacks" sheetId="3" r:id="rId1"/>
+    <sheet name="Benign-behaviour-only" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="208">
   <si>
     <t>Attack condition</t>
   </si>
@@ -955,6 +956,51 @@
   </si>
   <si>
     <t>means valid data that systems were recovered from a real/fabricated fault. Data was labelled as 0.</t>
+  </si>
+  <si>
+    <t>Emergency operation</t>
+  </si>
+  <si>
+    <t>No unusual events happen.</t>
+  </si>
+  <si>
+    <t>Scenario type</t>
+  </si>
+  <si>
+    <t>When a short-circuit fault occurs on Fault_66bus1, open CB1_66KV, CB2_66KV and CB_XFMR1; close CB2_22KV</t>
+  </si>
+  <si>
+    <t>When a short-circuit fault occurs on Fault_66bus2, open CB2_66KV, CB3_66KV and CB_XFMR2; close CB2_22KV</t>
+  </si>
+  <si>
+    <t>Fault-free (recovery)</t>
+  </si>
+  <si>
+    <t>All fault-free</t>
+  </si>
+  <si>
+    <t>When a short-circuit fault occurs on Fault_XFMR1, open CB1_66KV, CB2_66KV and CB_XFMR1; close CB2_22KV</t>
+  </si>
+  <si>
+    <t>When a short-circuit fault occurs on Fault_XFMR2, open CB2_66KV, CB3_66KV and CB_XFMR2; close CB2_22KV</t>
+  </si>
+  <si>
+    <t>When a short-circuit fault occurs on Fault_22bus1, open CB1_22KV</t>
+  </si>
+  <si>
+    <t>When a short-circuit fault occurs on Fault_22bus2, open CB3_22KV</t>
+  </si>
+  <si>
+    <t>When a short-circuit fault occurs on Fault_FDR1, open CB_FDR1</t>
+  </si>
+  <si>
+    <t>When a short-circuit fault occurs on Fault_FDR2, open CB_FDR2</t>
+  </si>
+  <si>
+    <t>When a short-circuit fault occurs on Fault_FDR3, open CB_FDR3</t>
+  </si>
+  <si>
+    <t>When a short-circuit fault occurs on Fault_FDR4, open CB_FDR4</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,6 +1446,207 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1415,203 +1662,62 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1907,9 +2013,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28:Q31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1961,27 +2065,27 @@
       <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="51">
         <v>811</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1993,7 +2097,7 @@
       <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="88" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -2003,24 +2107,24 @@
         <v>8111</v>
       </c>
       <c r="J2" s="19"/>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="69"/>
+      <c r="L2" s="103"/>
       <c r="M2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="103"/>
       <c r="P2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="69"/>
+      <c r="R2" s="103"/>
       <c r="S2" s="31" t="s">
         <v>173</v>
       </c>
@@ -2029,9 +2133,9 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2041,7 +2145,7 @@
       <c r="F3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="82"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="5" t="s">
         <v>132</v>
       </c>
@@ -2053,31 +2157,31 @@
         <v>60</v>
       </c>
       <c r="L3" s="68"/>
-      <c r="M3" s="72">
+      <c r="M3" s="73">
         <v>20</v>
       </c>
       <c r="N3" s="68">
         <v>60</v>
       </c>
       <c r="O3" s="68"/>
-      <c r="P3" s="72">
+      <c r="P3" s="73">
         <v>20</v>
       </c>
       <c r="Q3" s="68">
         <v>60</v>
       </c>
       <c r="R3" s="68"/>
-      <c r="S3" s="72">
+      <c r="S3" s="73">
         <v>20</v>
       </c>
-      <c r="T3" s="52">
+      <c r="T3" s="72">
         <f>SUM(K3:S5)</f>
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="10">
         <v>812</v>
       </c>
@@ -2090,8 +2194,8 @@
       <c r="F4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="102" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="69" t="s">
         <v>133</v>
       </c>
       <c r="I4" s="22" t="s">
@@ -2100,18 +2204,18 @@
       <c r="J4" s="19"/>
       <c r="K4" s="68"/>
       <c r="L4" s="68"/>
-      <c r="M4" s="72"/>
+      <c r="M4" s="73"/>
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
-      <c r="P4" s="72"/>
+      <c r="P4" s="73"/>
       <c r="Q4" s="68"/>
       <c r="R4" s="68"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="52"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="72"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="94"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="2">
         <v>813</v>
       </c>
@@ -2124,27 +2228,27 @@
       <c r="F5" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="102"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="22" t="s">
         <v>105</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="68"/>
       <c r="L5" s="68"/>
-      <c r="M5" s="72"/>
+      <c r="M5" s="73"/>
       <c r="N5" s="68"/>
       <c r="O5" s="68"/>
-      <c r="P5" s="72"/>
+      <c r="P5" s="73"/>
       <c r="Q5" s="68"/>
       <c r="R5" s="68"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="52"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="72"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="96">
+      <c r="A6" s="57"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="48">
         <v>811</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2156,7 +2260,7 @@
       <c r="F6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="76" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2165,24 +2269,24 @@
       <c r="I6" s="17">
         <v>8112</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="69"/>
+      <c r="L6" s="103"/>
       <c r="M6" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O6" s="69"/>
+      <c r="O6" s="103"/>
       <c r="P6" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="69" t="s">
+      <c r="Q6" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="R6" s="69"/>
+      <c r="R6" s="103"/>
       <c r="S6" s="31" t="s">
         <v>173</v>
       </c>
@@ -2191,9 +2295,9 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="98"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2307,7 @@
       <c r="F7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="85"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="7" t="s">
         <v>132</v>
       </c>
@@ -2214,31 +2318,31 @@
         <v>60</v>
       </c>
       <c r="L7" s="68"/>
-      <c r="M7" s="72">
+      <c r="M7" s="73">
         <v>10</v>
       </c>
       <c r="N7" s="68">
         <v>60</v>
       </c>
       <c r="O7" s="68"/>
-      <c r="P7" s="72">
+      <c r="P7" s="73">
         <v>10</v>
       </c>
       <c r="Q7" s="68">
         <v>60</v>
       </c>
       <c r="R7" s="68"/>
-      <c r="S7" s="72">
+      <c r="S7" s="73">
         <v>10</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="72">
         <f>SUM(K7:S9)</f>
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="21">
         <v>812</v>
       </c>
@@ -2251,8 +2355,8 @@
       <c r="F8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="103" t="s">
+      <c r="G8" s="77"/>
+      <c r="H8" s="54" t="s">
         <v>133</v>
       </c>
       <c r="I8" s="17" t="s">
@@ -2260,18 +2364,18 @@
       </c>
       <c r="K8" s="68"/>
       <c r="L8" s="68"/>
-      <c r="M8" s="72"/>
+      <c r="M8" s="73"/>
       <c r="N8" s="68"/>
       <c r="O8" s="68"/>
-      <c r="P8" s="72"/>
+      <c r="P8" s="73"/>
       <c r="Q8" s="68"/>
       <c r="R8" s="68"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="52"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="72"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="11">
         <v>813</v>
       </c>
@@ -2284,26 +2388,26 @@
       <c r="F9" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="103"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="17" t="s">
         <v>106</v>
       </c>
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
-      <c r="M9" s="72"/>
+      <c r="M9" s="73"/>
       <c r="N9" s="68"/>
       <c r="O9" s="68"/>
-      <c r="P9" s="72"/>
+      <c r="P9" s="73"/>
       <c r="Q9" s="68"/>
       <c r="R9" s="68"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="52"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="72"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="62">
+      <c r="A10" s="57"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="51">
         <v>811</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2315,7 +2419,7 @@
       <c r="F10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="88" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2324,24 +2428,24 @@
       <c r="I10" s="16">
         <v>8113</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="L10" s="69"/>
+      <c r="L10" s="103"/>
       <c r="M10" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="69"/>
+      <c r="O10" s="103"/>
       <c r="P10" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" s="69" t="s">
+      <c r="Q10" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="R10" s="69"/>
+      <c r="R10" s="103"/>
       <c r="S10" s="31" t="s">
         <v>173</v>
       </c>
@@ -2350,9 +2454,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +2466,7 @@
       <c r="F11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="82"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="5" t="s">
         <v>132</v>
       </c>
@@ -2373,31 +2477,31 @@
         <v>60</v>
       </c>
       <c r="L11" s="68"/>
-      <c r="M11" s="72">
+      <c r="M11" s="73">
         <v>10</v>
       </c>
       <c r="N11" s="68">
         <v>60</v>
       </c>
       <c r="O11" s="68"/>
-      <c r="P11" s="72">
+      <c r="P11" s="73">
         <v>10</v>
       </c>
       <c r="Q11" s="68">
         <v>60</v>
       </c>
       <c r="R11" s="68"/>
-      <c r="S11" s="72">
+      <c r="S11" s="73">
         <v>10</v>
       </c>
-      <c r="T11" s="52">
+      <c r="T11" s="72">
         <f>SUM(K11:S13)</f>
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="10">
         <v>812</v>
       </c>
@@ -2410,8 +2514,8 @@
       <c r="F12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="102" t="s">
+      <c r="G12" s="89"/>
+      <c r="H12" s="69" t="s">
         <v>133</v>
       </c>
       <c r="I12" s="16" t="s">
@@ -2419,18 +2523,18 @@
       </c>
       <c r="K12" s="68"/>
       <c r="L12" s="68"/>
-      <c r="M12" s="72"/>
+      <c r="M12" s="73"/>
       <c r="N12" s="68"/>
       <c r="O12" s="68"/>
-      <c r="P12" s="72"/>
+      <c r="P12" s="73"/>
       <c r="Q12" s="68"/>
       <c r="R12" s="68"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="52"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="72"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="94"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="2">
         <v>813</v>
       </c>
@@ -2443,26 +2547,26 @@
       <c r="F13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="102"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="16" t="s">
         <v>107</v>
       </c>
       <c r="K13" s="68"/>
       <c r="L13" s="68"/>
-      <c r="M13" s="72"/>
+      <c r="M13" s="73"/>
       <c r="N13" s="68"/>
       <c r="O13" s="68"/>
-      <c r="P13" s="72"/>
+      <c r="P13" s="73"/>
       <c r="Q13" s="68"/>
       <c r="R13" s="68"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="52"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="72"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="96">
+      <c r="A14" s="57"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="48">
         <v>811</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2474,7 +2578,7 @@
       <c r="F14" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="G14" s="76" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2483,24 +2587,24 @@
       <c r="I14" s="17">
         <v>8114</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="L14" s="69"/>
+      <c r="L14" s="103"/>
       <c r="M14" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N14" s="69" t="s">
+      <c r="N14" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O14" s="69"/>
+      <c r="O14" s="103"/>
       <c r="P14" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q14" s="69" t="s">
+      <c r="Q14" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="R14" s="69"/>
+      <c r="R14" s="103"/>
       <c r="S14" s="31" t="s">
         <v>173</v>
       </c>
@@ -2509,9 +2613,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="98"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
@@ -2521,7 +2625,7 @@
       <c r="F15" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="85"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="7" t="s">
         <v>132</v>
       </c>
@@ -2532,31 +2636,31 @@
         <v>60</v>
       </c>
       <c r="L15" s="68"/>
-      <c r="M15" s="72">
+      <c r="M15" s="73">
         <v>5</v>
       </c>
       <c r="N15" s="68">
         <v>60</v>
       </c>
       <c r="O15" s="68"/>
-      <c r="P15" s="72">
+      <c r="P15" s="73">
         <v>5</v>
       </c>
       <c r="Q15" s="68">
         <v>60</v>
       </c>
       <c r="R15" s="68"/>
-      <c r="S15" s="72">
+      <c r="S15" s="73">
         <v>5</v>
       </c>
-      <c r="T15" s="52">
+      <c r="T15" s="72">
         <f>SUM(K15:S17)</f>
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="21">
         <v>812</v>
       </c>
@@ -2569,8 +2673,8 @@
       <c r="F16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="103" t="s">
+      <c r="G16" s="77"/>
+      <c r="H16" s="54" t="s">
         <v>133</v>
       </c>
       <c r="I16" s="17" t="s">
@@ -2578,18 +2682,18 @@
       </c>
       <c r="K16" s="68"/>
       <c r="L16" s="68"/>
-      <c r="M16" s="72"/>
+      <c r="M16" s="73"/>
       <c r="N16" s="68"/>
       <c r="O16" s="68"/>
-      <c r="P16" s="72"/>
+      <c r="P16" s="73"/>
       <c r="Q16" s="68"/>
       <c r="R16" s="68"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="52"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="72"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="11">
         <v>813</v>
       </c>
@@ -2602,28 +2706,28 @@
       <c r="F17" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="103"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="17" t="s">
         <v>108</v>
       </c>
       <c r="K17" s="68"/>
       <c r="L17" s="68"/>
-      <c r="M17" s="72"/>
+      <c r="M17" s="73"/>
       <c r="N17" s="68"/>
       <c r="O17" s="68"/>
-      <c r="P17" s="72"/>
+      <c r="P17" s="73"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="52"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="72"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="94" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="51">
         <v>821</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2635,7 +2739,7 @@
       <c r="F18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="88" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -2644,24 +2748,24 @@
       <c r="I18" s="16">
         <v>8211</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="69"/>
+      <c r="L18" s="103"/>
       <c r="M18" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N18" s="69" t="s">
+      <c r="N18" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O18" s="69"/>
+      <c r="O18" s="103"/>
       <c r="P18" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q18" s="69" t="s">
+      <c r="Q18" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="R18" s="69"/>
+      <c r="R18" s="103"/>
       <c r="S18" s="31" t="s">
         <v>173</v>
       </c>
@@ -2670,9 +2774,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="64"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2682,7 +2786,7 @@
       <c r="F19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="82"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="5" t="s">
         <v>132</v>
       </c>
@@ -2693,31 +2797,31 @@
         <v>60</v>
       </c>
       <c r="L19" s="68"/>
-      <c r="M19" s="72">
+      <c r="M19" s="73">
         <v>10</v>
       </c>
       <c r="N19" s="68">
         <v>60</v>
       </c>
       <c r="O19" s="68"/>
-      <c r="P19" s="72">
+      <c r="P19" s="73">
         <v>10</v>
       </c>
       <c r="Q19" s="68">
         <v>60</v>
       </c>
       <c r="R19" s="68"/>
-      <c r="S19" s="72">
+      <c r="S19" s="73">
         <v>10</v>
       </c>
-      <c r="T19" s="52">
+      <c r="T19" s="72">
         <f>SUM(K19:S21)</f>
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="2">
         <v>822</v>
       </c>
@@ -2730,8 +2834,8 @@
       <c r="F20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="102" t="s">
+      <c r="G20" s="89"/>
+      <c r="H20" s="69" t="s">
         <v>133</v>
       </c>
       <c r="I20" s="16" t="s">
@@ -2739,18 +2843,18 @@
       </c>
       <c r="K20" s="68"/>
       <c r="L20" s="68"/>
-      <c r="M20" s="72"/>
+      <c r="M20" s="73"/>
       <c r="N20" s="68"/>
       <c r="O20" s="68"/>
-      <c r="P20" s="72"/>
+      <c r="P20" s="73"/>
       <c r="Q20" s="68"/>
       <c r="R20" s="68"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="52"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="72"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="2">
         <v>823</v>
       </c>
@@ -2763,26 +2867,26 @@
       <c r="F21" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="102"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="16" t="s">
         <v>109</v>
       </c>
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
-      <c r="M21" s="72"/>
+      <c r="M21" s="73"/>
       <c r="N21" s="68"/>
       <c r="O21" s="68"/>
-      <c r="P21" s="72"/>
+      <c r="P21" s="73"/>
       <c r="Q21" s="68"/>
       <c r="R21" s="68"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="52"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="72"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="96">
+      <c r="A22" s="57"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="48">
         <v>821</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2794,7 +2898,7 @@
       <c r="F22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="84" t="s">
+      <c r="G22" s="76" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -2803,24 +2907,24 @@
       <c r="I22" s="17">
         <v>8212</v>
       </c>
-      <c r="K22" s="69" t="s">
+      <c r="K22" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="L22" s="69"/>
+      <c r="L22" s="103"/>
       <c r="M22" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N22" s="69" t="s">
+      <c r="N22" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O22" s="69"/>
+      <c r="O22" s="103"/>
       <c r="P22" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="Q22" s="69" t="s">
+      <c r="Q22" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="R22" s="69"/>
+      <c r="R22" s="103"/>
       <c r="S22" s="31" t="s">
         <v>173</v>
       </c>
@@ -2829,9 +2933,9 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="98"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
@@ -2841,7 +2945,7 @@
       <c r="F23" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="85"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="7" t="s">
         <v>132</v>
       </c>
@@ -2852,31 +2956,31 @@
         <v>60</v>
       </c>
       <c r="L23" s="68"/>
-      <c r="M23" s="72">
+      <c r="M23" s="73">
         <v>5</v>
       </c>
       <c r="N23" s="68">
         <v>60</v>
       </c>
       <c r="O23" s="68"/>
-      <c r="P23" s="72">
+      <c r="P23" s="73">
         <v>5</v>
       </c>
       <c r="Q23" s="68">
         <v>60</v>
       </c>
       <c r="R23" s="68"/>
-      <c r="S23" s="72">
+      <c r="S23" s="73">
         <v>5</v>
       </c>
-      <c r="T23" s="52">
+      <c r="T23" s="72">
         <f>SUM(K23:S25)</f>
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="94"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="11">
         <v>822</v>
       </c>
@@ -2889,8 +2993,8 @@
       <c r="F24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="85"/>
-      <c r="H24" s="103" t="s">
+      <c r="G24" s="77"/>
+      <c r="H24" s="54" t="s">
         <v>133</v>
       </c>
       <c r="I24" s="17" t="s">
@@ -2898,18 +3002,18 @@
       </c>
       <c r="K24" s="68"/>
       <c r="L24" s="68"/>
-      <c r="M24" s="72"/>
+      <c r="M24" s="73"/>
       <c r="N24" s="68"/>
       <c r="O24" s="68"/>
-      <c r="P24" s="72"/>
+      <c r="P24" s="73"/>
       <c r="Q24" s="68"/>
       <c r="R24" s="68"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="52"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="72"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="26">
         <v>823</v>
       </c>
@@ -2922,46 +3026,46 @@
       <c r="F25" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="86"/>
-      <c r="H25" s="103"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="41" t="s">
         <v>110</v>
       </c>
       <c r="K25" s="68"/>
       <c r="L25" s="68"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="62"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="51"/>
     </row>
     <row r="26" spans="1:22" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="44"/>
       <c r="N26" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="O26" s="71" t="s">
+      <c r="O26" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
     </row>
     <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="107" t="s">
+      <c r="A27" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="51">
         <v>831</v>
       </c>
       <c r="D27" s="28" t="s">
@@ -2973,48 +3077,48 @@
       <c r="F27" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="102" t="s">
+      <c r="H27" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I27" s="79" t="s">
+      <c r="I27" s="74" t="s">
         <v>31</v>
       </c>
       <c r="K27" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="77" t="s">
+      <c r="L27" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="77"/>
+      <c r="M27" s="108"/>
       <c r="N27" s="43">
         <v>30</v>
       </c>
       <c r="O27" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="P27" s="77" t="s">
+      <c r="P27" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="77"/>
+      <c r="Q27" s="108"/>
       <c r="R27" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="S27" s="49" t="s">
+      <c r="S27" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="T27" s="47" t="s">
+      <c r="T27" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="114"/>
     </row>
     <row r="28" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="5" t="s">
         <v>141</v>
       </c>
@@ -3024,40 +3128,40 @@
       <c r="F28" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="82"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="79"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="12"/>
       <c r="K28" s="68">
         <v>30</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L28" s="61">
         <v>60</v>
       </c>
-      <c r="M28" s="115"/>
+      <c r="M28" s="105"/>
       <c r="N28" s="33">
         <v>30</v>
       </c>
       <c r="O28" s="68">
         <v>30</v>
       </c>
-      <c r="P28" s="72">
+      <c r="P28" s="73">
         <v>60</v>
       </c>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="65">
+      <c r="Q28" s="73"/>
+      <c r="R28" s="55">
         <f>SUM(K28:Q28)</f>
         <v>210</v>
       </c>
-      <c r="S28" s="50"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
     </row>
     <row r="29" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="5" t="s">
         <v>143</v>
       </c>
@@ -3067,32 +3171,32 @@
       <c r="F29" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="82"/>
-      <c r="H29" s="102" t="s">
+      <c r="G29" s="89"/>
+      <c r="H29" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="79" t="s">
+      <c r="I29" s="74" t="s">
         <v>31</v>
       </c>
       <c r="K29" s="68"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="116"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="106"/>
       <c r="N29" s="33">
         <v>30</v>
       </c>
       <c r="O29" s="68"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="115"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="115"/>
     </row>
     <row r="30" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="5" t="s">
         <v>142</v>
       </c>
@@ -3102,27 +3206,27 @@
       <c r="F30" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="79"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="74"/>
       <c r="K30" s="68"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="116"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="106"/>
       <c r="N30" s="33">
         <v>30</v>
       </c>
       <c r="O30" s="68"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="115"/>
     </row>
     <row r="31" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="10">
         <v>832</v>
       </c>
@@ -3135,35 +3239,35 @@
       <c r="F31" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="82"/>
-      <c r="H31" s="102" t="s">
+      <c r="G31" s="89"/>
+      <c r="H31" s="69" t="s">
         <v>133</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="K31" s="68"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="117"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="107"/>
       <c r="N31" s="32">
         <v>30</v>
       </c>
       <c r="O31" s="68"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="51" t="s">
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="T31" s="48" t="s">
+      <c r="T31" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
     </row>
     <row r="32" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="2">
         <v>833</v>
       </c>
@@ -3176,34 +3280,34 @@
       <c r="F32" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="83"/>
-      <c r="H32" s="102"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="69"/>
       <c r="I32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="52" t="s">
+      <c r="K32" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
       <c r="N32" s="32">
         <v>30</v>
       </c>
-      <c r="O32" s="52" t="s">
+      <c r="O32" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
       <c r="R32" s="38"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="115"/>
     </row>
     <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="96">
+      <c r="A33" s="57"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="48">
         <v>831</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3215,13 +3319,13 @@
       <c r="F33" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="104" t="s">
+      <c r="G33" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="103" t="s">
+      <c r="H33" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="78" t="s">
+      <c r="I33" s="67" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="30" t="s">
@@ -3250,9 +3354,9 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="97"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="7" t="s">
         <v>141</v>
       </c>
@@ -3262,39 +3366,39 @@
       <c r="F34" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="104"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="78"/>
-      <c r="K34" s="53">
-        <v>30</v>
-      </c>
-      <c r="L34" s="56">
+      <c r="G34" s="91"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="67"/>
+      <c r="K34" s="58">
+        <v>30</v>
+      </c>
+      <c r="L34" s="61">
         <v>20</v>
       </c>
-      <c r="M34" s="59">
+      <c r="M34" s="64">
         <v>40</v>
       </c>
       <c r="N34" s="32">
         <v>30</v>
       </c>
-      <c r="O34" s="53">
-        <v>30</v>
-      </c>
-      <c r="P34" s="56">
+      <c r="O34" s="58">
+        <v>30</v>
+      </c>
+      <c r="P34" s="61">
         <v>20</v>
       </c>
-      <c r="Q34" s="59">
+      <c r="Q34" s="64">
         <v>40</v>
       </c>
-      <c r="R34" s="62">
+      <c r="R34" s="51">
         <f>SUM(K34:Q34)</f>
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="97"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="7" t="s">
         <v>143</v>
       </c>
@@ -3304,28 +3408,28 @@
       <c r="F35" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="104"/>
-      <c r="H35" s="103" t="s">
+      <c r="G35" s="91"/>
+      <c r="H35" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="I35" s="78" t="s">
+      <c r="I35" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="54"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="60"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="65"/>
       <c r="N35" s="32">
         <v>30</v>
       </c>
-      <c r="O35" s="54"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="63"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="52"/>
     </row>
     <row r="36" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="98"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="7" t="s">
         <v>142</v>
       </c>
@@ -3335,23 +3439,23 @@
       <c r="F36" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="78"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="60"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="67"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="65"/>
       <c r="N36" s="32">
         <v>30</v>
       </c>
-      <c r="O36" s="54"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="63"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="52"/>
     </row>
     <row r="37" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="21">
         <v>832</v>
       </c>
@@ -3364,27 +3468,27 @@
       <c r="F37" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="104"/>
-      <c r="H37" s="103" t="s">
+      <c r="G37" s="91"/>
+      <c r="H37" s="54" t="s">
         <v>133</v>
       </c>
       <c r="I37" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="55"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="61"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="66"/>
       <c r="N37" s="32">
         <v>30</v>
       </c>
-      <c r="O37" s="55"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="64"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="53"/>
     </row>
     <row r="38" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="11">
         <v>833</v>
       </c>
@@ -3397,30 +3501,30 @@
       <c r="F38" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="104"/>
-      <c r="H38" s="103"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="54"/>
       <c r="I38" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="65" t="s">
+      <c r="K38" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
       <c r="N38" s="32">
         <v>30</v>
       </c>
-      <c r="O38" s="52" t="s">
+      <c r="O38" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
       <c r="R38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="62">
+      <c r="A39" s="57"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="51">
         <v>831</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -3432,40 +3536,40 @@
       <c r="F39" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="93" t="s">
+      <c r="G39" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="102" t="s">
+      <c r="H39" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="79" t="s">
+      <c r="I39" s="74" t="s">
         <v>37</v>
       </c>
       <c r="K39" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L39" s="74" t="s">
+      <c r="L39" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="M39" s="74"/>
+      <c r="M39" s="70"/>
       <c r="N39" s="29">
         <v>30</v>
       </c>
       <c r="O39" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P39" s="74" t="s">
+      <c r="P39" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="Q39" s="74"/>
+      <c r="Q39" s="70"/>
       <c r="R39" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="5" t="s">
         <v>141</v>
       </c>
@@ -3475,35 +3579,35 @@
       <c r="F40" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="93"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="79"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="74"/>
       <c r="K40" s="68">
         <v>30</v>
       </c>
-      <c r="L40" s="72">
+      <c r="L40" s="73">
         <v>60</v>
       </c>
-      <c r="M40" s="72"/>
+      <c r="M40" s="73"/>
       <c r="N40" s="33">
         <v>30</v>
       </c>
       <c r="O40" s="68">
         <v>30</v>
       </c>
-      <c r="P40" s="72">
+      <c r="P40" s="73">
         <v>60</v>
       </c>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="52">
+      <c r="Q40" s="73"/>
+      <c r="R40" s="72">
         <f>SUM(K40:Q40)</f>
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="5" t="s">
         <v>143</v>
       </c>
@@ -3513,28 +3617,28 @@
       <c r="F41" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="93"/>
-      <c r="H41" s="102" t="s">
+      <c r="G41" s="92"/>
+      <c r="H41" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="79" t="s">
+      <c r="I41" s="74" t="s">
         <v>37</v>
       </c>
       <c r="K41" s="68"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
       <c r="N41" s="33">
         <v>30</v>
       </c>
       <c r="O41" s="68"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="52"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="72"/>
     </row>
     <row r="42" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="64"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="5" t="s">
         <v>142</v>
       </c>
@@ -3544,23 +3648,23 @@
       <c r="F42" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="93"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="79"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="74"/>
       <c r="K42" s="68"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
       <c r="N42" s="33">
         <v>30</v>
       </c>
       <c r="O42" s="68"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="52"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="72"/>
     </row>
     <row r="43" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="10">
         <v>832</v>
       </c>
@@ -3573,27 +3677,27 @@
       <c r="F43" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="93"/>
-      <c r="H43" s="102" t="s">
+      <c r="G43" s="92"/>
+      <c r="H43" s="69" t="s">
         <v>133</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>38</v>
       </c>
       <c r="K43" s="68"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
       <c r="N43" s="32">
         <v>30</v>
       </c>
       <c r="O43" s="68"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="52"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="72"/>
     </row>
     <row r="44" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
-      <c r="B44" s="100"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="2">
         <v>833</v>
       </c>
@@ -3606,30 +3710,30 @@
       <c r="F44" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="93"/>
-      <c r="H44" s="102"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="69"/>
       <c r="I44" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="52" t="s">
+      <c r="K44" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
       <c r="N44" s="32">
         <v>30</v>
       </c>
-      <c r="O44" s="52" t="s">
+      <c r="O44" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
       <c r="R44" s="38"/>
     </row>
     <row r="45" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="96">
+      <c r="A45" s="57"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="48">
         <v>831</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -3641,13 +3745,13 @@
       <c r="F45" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="104" t="s">
+      <c r="G45" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="103" t="s">
+      <c r="H45" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I45" s="78" t="s">
+      <c r="I45" s="67" t="s">
         <v>40</v>
       </c>
       <c r="K45" s="30" t="s">
@@ -3676,9 +3780,9 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="97"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="7" t="s">
         <v>141</v>
       </c>
@@ -3688,39 +3792,39 @@
       <c r="F46" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="104"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="78"/>
-      <c r="K46" s="53">
-        <v>30</v>
-      </c>
-      <c r="L46" s="56">
+      <c r="G46" s="91"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="67"/>
+      <c r="K46" s="58">
+        <v>30</v>
+      </c>
+      <c r="L46" s="61">
         <v>25</v>
       </c>
-      <c r="M46" s="59">
+      <c r="M46" s="64">
         <v>35</v>
       </c>
       <c r="N46" s="32">
         <v>30</v>
       </c>
-      <c r="O46" s="53">
-        <v>30</v>
-      </c>
-      <c r="P46" s="56">
+      <c r="O46" s="58">
+        <v>30</v>
+      </c>
+      <c r="P46" s="61">
         <v>25</v>
       </c>
-      <c r="Q46" s="59">
+      <c r="Q46" s="64">
         <v>35</v>
       </c>
-      <c r="R46" s="62">
+      <c r="R46" s="51">
         <f>SUM(K46:Q46)</f>
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="97"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="7" t="s">
         <v>143</v>
       </c>
@@ -3730,28 +3834,28 @@
       <c r="F47" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="104"/>
-      <c r="H47" s="103" t="s">
+      <c r="G47" s="91"/>
+      <c r="H47" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="I47" s="78" t="s">
+      <c r="I47" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="K47" s="54"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="60"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="65"/>
       <c r="N47" s="32">
         <v>30</v>
       </c>
-      <c r="O47" s="54"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="63"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="52"/>
     </row>
     <row r="48" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="98"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="7" t="s">
         <v>142</v>
       </c>
@@ -3761,23 +3865,23 @@
       <c r="F48" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="104"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="78"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="60"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="67"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="65"/>
       <c r="N48" s="32">
         <v>30</v>
       </c>
-      <c r="O48" s="54"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="63"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="52"/>
     </row>
     <row r="49" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
-      <c r="B49" s="100"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="21">
         <v>832</v>
       </c>
@@ -3790,27 +3894,27 @@
       <c r="F49" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="104"/>
-      <c r="H49" s="103" t="s">
+      <c r="G49" s="91"/>
+      <c r="H49" s="54" t="s">
         <v>133</v>
       </c>
       <c r="I49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K49" s="55"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="61"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="66"/>
       <c r="N49" s="32">
         <v>30</v>
       </c>
-      <c r="O49" s="55"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="64"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="53"/>
     </row>
     <row r="50" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="108"/>
-      <c r="B50" s="101"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="11">
         <v>833</v>
       </c>
@@ -3823,32 +3927,32 @@
       <c r="F50" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="104"/>
-      <c r="H50" s="103"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="54"/>
       <c r="I50" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="65" t="s">
+      <c r="K50" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
       <c r="N50" s="32">
         <v>30</v>
       </c>
-      <c r="O50" s="52" t="s">
+      <c r="O50" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
       <c r="R50" s="38"/>
     </row>
     <row r="51" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
-      <c r="B51" s="110" t="s">
+      <c r="A51" s="57"/>
+      <c r="B51" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="62">
+      <c r="C51" s="51">
         <v>841</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3860,40 +3964,40 @@
       <c r="F51" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="105" t="s">
+      <c r="G51" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="102" t="s">
+      <c r="H51" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I51" s="79" t="s">
+      <c r="I51" s="74" t="s">
         <v>43</v>
       </c>
       <c r="K51" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L51" s="74" t="s">
+      <c r="L51" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="M51" s="74"/>
+      <c r="M51" s="70"/>
       <c r="N51" s="32">
         <v>30</v>
       </c>
       <c r="O51" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P51" s="74" t="s">
+      <c r="P51" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="Q51" s="74"/>
+      <c r="Q51" s="70"/>
       <c r="R51" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="5" t="s">
         <v>141</v>
       </c>
@@ -3903,35 +4007,35 @@
       <c r="F52" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="105"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="79"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="74"/>
       <c r="K52" s="68">
         <v>30</v>
       </c>
-      <c r="L52" s="72">
+      <c r="L52" s="73">
         <v>60</v>
       </c>
-      <c r="M52" s="72"/>
+      <c r="M52" s="73"/>
       <c r="N52" s="32">
         <v>30</v>
       </c>
       <c r="O52" s="68">
         <v>30</v>
       </c>
-      <c r="P52" s="72">
+      <c r="P52" s="73">
         <v>60</v>
       </c>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="52">
+      <c r="Q52" s="73"/>
+      <c r="R52" s="72">
         <f>SUM(K52:Q52)</f>
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="5" t="s">
         <v>143</v>
       </c>
@@ -3941,28 +4045,28 @@
       <c r="F53" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="105"/>
-      <c r="H53" s="102" t="s">
+      <c r="G53" s="93"/>
+      <c r="H53" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I53" s="79" t="s">
+      <c r="I53" s="74" t="s">
         <v>43</v>
       </c>
       <c r="K53" s="68"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
       <c r="N53" s="32">
         <v>30</v>
       </c>
       <c r="O53" s="68"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="52"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="72"/>
     </row>
     <row r="54" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="64"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="5" t="s">
         <v>142</v>
       </c>
@@ -3972,23 +4076,23 @@
       <c r="F54" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G54" s="93"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="79"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="74"/>
       <c r="K54" s="68"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
       <c r="N54" s="32">
         <v>30</v>
       </c>
       <c r="O54" s="68"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="52"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="72"/>
     </row>
     <row r="55" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="2">
         <v>842</v>
       </c>
@@ -4001,27 +4105,27 @@
       <c r="F55" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="93"/>
-      <c r="H55" s="102" t="s">
+      <c r="G55" s="92"/>
+      <c r="H55" s="69" t="s">
         <v>133</v>
       </c>
       <c r="I55" s="22" t="s">
         <v>44</v>
       </c>
       <c r="K55" s="68"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
       <c r="N55" s="32">
         <v>30</v>
       </c>
       <c r="O55" s="68"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="52"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="72"/>
     </row>
     <row r="56" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
-      <c r="B56" s="111"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="82"/>
       <c r="C56" s="2">
         <v>843</v>
       </c>
@@ -4034,30 +4138,30 @@
       <c r="F56" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="93"/>
-      <c r="H56" s="102"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="69"/>
       <c r="I56" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K56" s="52" t="s">
+      <c r="K56" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="72"/>
       <c r="N56" s="32">
         <v>30</v>
       </c>
-      <c r="O56" s="52" t="s">
+      <c r="O56" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
       <c r="R56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="96">
+      <c r="A57" s="57"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="48">
         <v>841</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -4069,13 +4173,13 @@
       <c r="F57" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="106" t="s">
+      <c r="G57" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="103" t="s">
+      <c r="H57" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I57" s="78" t="s">
+      <c r="I57" s="67" t="s">
         <v>46</v>
       </c>
       <c r="K57" s="30" t="s">
@@ -4104,9 +4208,9 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="97"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="7" t="s">
         <v>141</v>
       </c>
@@ -4116,39 +4220,39 @@
       <c r="F58" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="106"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="78"/>
-      <c r="K58" s="53">
-        <v>30</v>
-      </c>
-      <c r="L58" s="56">
+      <c r="G58" s="94"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="67"/>
+      <c r="K58" s="58">
+        <v>30</v>
+      </c>
+      <c r="L58" s="61">
         <v>25</v>
       </c>
-      <c r="M58" s="59">
+      <c r="M58" s="64">
         <v>35</v>
       </c>
       <c r="N58" s="32">
         <v>30</v>
       </c>
-      <c r="O58" s="53">
-        <v>30</v>
-      </c>
-      <c r="P58" s="56">
+      <c r="O58" s="58">
+        <v>30</v>
+      </c>
+      <c r="P58" s="61">
         <v>25</v>
       </c>
-      <c r="Q58" s="59">
+      <c r="Q58" s="64">
         <v>35</v>
       </c>
-      <c r="R58" s="62">
+      <c r="R58" s="51">
         <f>SUM(K58:Q58)</f>
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="97"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="7" t="s">
         <v>143</v>
       </c>
@@ -4158,28 +4262,28 @@
       <c r="F59" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="106"/>
-      <c r="H59" s="103" t="s">
+      <c r="G59" s="94"/>
+      <c r="H59" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="I59" s="78" t="s">
+      <c r="I59" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="54"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="60"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="65"/>
       <c r="N59" s="32">
         <v>30</v>
       </c>
-      <c r="O59" s="54"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="63"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="52"/>
     </row>
     <row r="60" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="98"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="7" t="s">
         <v>142</v>
       </c>
@@ -4189,23 +4293,23 @@
       <c r="F60" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="104"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="78"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="60"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="67"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="65"/>
       <c r="N60" s="32">
         <v>30</v>
       </c>
-      <c r="O60" s="54"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="63"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="52"/>
     </row>
     <row r="61" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
-      <c r="B61" s="111"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="82"/>
       <c r="C61" s="11">
         <v>842</v>
       </c>
@@ -4218,27 +4322,27 @@
       <c r="F61" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G61" s="104"/>
-      <c r="H61" s="103" t="s">
+      <c r="G61" s="91"/>
+      <c r="H61" s="54" t="s">
         <v>133</v>
       </c>
       <c r="I61" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K61" s="55"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="61"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="66"/>
       <c r="N61" s="32">
         <v>30</v>
       </c>
-      <c r="O61" s="55"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="64"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="53"/>
     </row>
     <row r="62" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
-      <c r="B62" s="112"/>
+      <c r="A62" s="80"/>
+      <c r="B62" s="83"/>
       <c r="C62" s="11">
         <v>843</v>
       </c>
@@ -4251,56 +4355,56 @@
       <c r="F62" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="104"/>
-      <c r="H62" s="103"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="54"/>
       <c r="I62" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K62" s="65" t="s">
+      <c r="K62" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L62" s="66"/>
-      <c r="M62" s="66"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
       <c r="N62" s="32">
         <v>30</v>
       </c>
-      <c r="O62" s="52" t="s">
+      <c r="O62" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
       <c r="R62" s="38"/>
     </row>
-    <row r="63" spans="1:20" s="108" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="114"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="114"/>
-      <c r="K63" s="114"/>
-      <c r="L63" s="114"/>
-      <c r="M63" s="114"/>
-      <c r="N63" s="114"/>
-      <c r="O63" s="114"/>
-      <c r="P63" s="114"/>
-      <c r="Q63" s="114"/>
-      <c r="R63" s="114"/>
-      <c r="S63" s="114"/>
-      <c r="T63" s="114"/>
+    <row r="63" spans="1:20" s="57" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="107" t="s">
+      <c r="A64" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="B64" s="99" t="s">
+      <c r="B64" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C64" s="51">
         <v>851</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4312,40 +4416,40 @@
       <c r="F64" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="81" t="s">
+      <c r="G64" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="H64" s="102" t="s">
+      <c r="H64" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I64" s="79" t="s">
+      <c r="I64" s="74" t="s">
         <v>124</v>
       </c>
       <c r="K64" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L64" s="74" t="s">
+      <c r="L64" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="M64" s="74"/>
+      <c r="M64" s="70"/>
       <c r="N64" s="32">
         <v>30</v>
       </c>
       <c r="O64" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P64" s="74" t="s">
+      <c r="P64" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="Q64" s="74"/>
+      <c r="Q64" s="70"/>
       <c r="R64" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="63"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="5" t="s">
         <v>141</v>
       </c>
@@ -4355,35 +4459,35 @@
       <c r="F65" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G65" s="82"/>
-      <c r="H65" s="102"/>
-      <c r="I65" s="79"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="74"/>
       <c r="K65" s="68">
         <v>30</v>
       </c>
-      <c r="L65" s="72">
+      <c r="L65" s="73">
         <v>60</v>
       </c>
-      <c r="M65" s="72"/>
+      <c r="M65" s="73"/>
       <c r="N65" s="32">
         <v>30</v>
       </c>
       <c r="O65" s="68">
         <v>30</v>
       </c>
-      <c r="P65" s="72">
+      <c r="P65" s="73">
         <v>60</v>
       </c>
-      <c r="Q65" s="72"/>
-      <c r="R65" s="52">
+      <c r="Q65" s="73"/>
+      <c r="R65" s="72">
         <f>SUM(K65:Q65)</f>
         <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="63"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="5" t="s">
         <v>143</v>
       </c>
@@ -4393,28 +4497,28 @@
       <c r="F66" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="G66" s="82"/>
-      <c r="H66" s="102" t="s">
+      <c r="G66" s="89"/>
+      <c r="H66" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I66" s="79" t="s">
+      <c r="I66" s="74" t="s">
         <v>124</v>
       </c>
       <c r="K66" s="68"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="72"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
       <c r="N66" s="32">
         <v>30</v>
       </c>
       <c r="O66" s="68"/>
-      <c r="P66" s="72"/>
-      <c r="Q66" s="72"/>
-      <c r="R66" s="52"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="73"/>
+      <c r="R66" s="72"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="64"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="5" t="s">
         <v>142</v>
       </c>
@@ -4424,23 +4528,23 @@
       <c r="F67" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="82"/>
-      <c r="H67" s="102"/>
-      <c r="I67" s="79"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="74"/>
       <c r="K67" s="68"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
       <c r="N67" s="32">
         <v>30</v>
       </c>
       <c r="O67" s="68"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="52"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="73"/>
+      <c r="R67" s="72"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="86"/>
       <c r="C68" s="10">
         <v>852</v>
       </c>
@@ -4453,27 +4557,27 @@
       <c r="F68" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="G68" s="82"/>
-      <c r="H68" s="102" t="s">
+      <c r="G68" s="89"/>
+      <c r="H68" s="69" t="s">
         <v>133</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>93</v>
       </c>
       <c r="K68" s="68"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="73"/>
       <c r="N68" s="32">
         <v>30</v>
       </c>
       <c r="O68" s="68"/>
-      <c r="P68" s="72"/>
-      <c r="Q68" s="72"/>
-      <c r="R68" s="52"/>
+      <c r="P68" s="73"/>
+      <c r="Q68" s="73"/>
+      <c r="R68" s="72"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
-      <c r="B69" s="100"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="86"/>
       <c r="C69" s="2">
         <v>853</v>
       </c>
@@ -4486,30 +4590,30 @@
       <c r="F69" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="83"/>
-      <c r="H69" s="102"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="69"/>
       <c r="I69" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="K69" s="52" t="s">
+      <c r="K69" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
+      <c r="L69" s="72"/>
+      <c r="M69" s="72"/>
       <c r="N69" s="32">
         <v>30</v>
       </c>
-      <c r="O69" s="52" t="s">
+      <c r="O69" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
+      <c r="P69" s="72"/>
+      <c r="Q69" s="72"/>
       <c r="R69" s="38"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="96">
+      <c r="A70" s="57"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="48">
         <v>851</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -4521,13 +4625,13 @@
       <c r="F70" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G70" s="84" t="s">
+      <c r="G70" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="H70" s="103" t="s">
+      <c r="H70" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I70" s="78" t="s">
+      <c r="I70" s="67" t="s">
         <v>125</v>
       </c>
       <c r="K70" s="30" t="s">
@@ -4556,9 +4660,9 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="97"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="7" t="s">
         <v>141</v>
       </c>
@@ -4568,39 +4672,39 @@
       <c r="F71" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G71" s="85"/>
-      <c r="H71" s="103"/>
-      <c r="I71" s="78"/>
-      <c r="K71" s="53">
-        <v>30</v>
-      </c>
-      <c r="L71" s="56">
+      <c r="G71" s="77"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="67"/>
+      <c r="K71" s="58">
+        <v>30</v>
+      </c>
+      <c r="L71" s="61">
         <v>20</v>
       </c>
-      <c r="M71" s="59">
+      <c r="M71" s="64">
         <v>40</v>
       </c>
       <c r="N71" s="32">
         <v>30</v>
       </c>
-      <c r="O71" s="53">
-        <v>30</v>
-      </c>
-      <c r="P71" s="56">
+      <c r="O71" s="58">
+        <v>30</v>
+      </c>
+      <c r="P71" s="61">
         <v>20</v>
       </c>
-      <c r="Q71" s="59">
+      <c r="Q71" s="64">
         <v>40</v>
       </c>
-      <c r="R71" s="62">
+      <c r="R71" s="51">
         <f>SUM(K71:Q71)</f>
         <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="97"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="7" t="s">
         <v>143</v>
       </c>
@@ -4610,28 +4714,28 @@
       <c r="F72" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G72" s="85"/>
-      <c r="H72" s="103" t="s">
+      <c r="G72" s="77"/>
+      <c r="H72" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="I72" s="78" t="s">
+      <c r="I72" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="K72" s="54"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="60"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="65"/>
       <c r="N72" s="32">
         <v>30</v>
       </c>
-      <c r="O72" s="54"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="63"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="65"/>
+      <c r="R72" s="52"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="98"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="50"/>
       <c r="D73" s="7" t="s">
         <v>142</v>
       </c>
@@ -4641,23 +4745,23 @@
       <c r="F73" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G73" s="85"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="78"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="60"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="67"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="65"/>
       <c r="N73" s="32">
         <v>30</v>
       </c>
-      <c r="O73" s="54"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="63"/>
+      <c r="O73" s="59"/>
+      <c r="P73" s="62"/>
+      <c r="Q73" s="65"/>
+      <c r="R73" s="52"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
-      <c r="B74" s="100"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="86"/>
       <c r="C74" s="21">
         <v>852</v>
       </c>
@@ -4670,27 +4774,27 @@
       <c r="F74" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G74" s="85"/>
-      <c r="H74" s="103" t="s">
+      <c r="G74" s="77"/>
+      <c r="H74" s="54" t="s">
         <v>133</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K74" s="55"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="61"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="66"/>
       <c r="N74" s="32">
         <v>30</v>
       </c>
-      <c r="O74" s="55"/>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="64"/>
+      <c r="O74" s="60"/>
+      <c r="P74" s="63"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="53"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
-      <c r="B75" s="100"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="86"/>
       <c r="C75" s="11">
         <v>853</v>
       </c>
@@ -4703,30 +4807,30 @@
       <c r="F75" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="86"/>
-      <c r="H75" s="103"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="54"/>
       <c r="I75" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="K75" s="65" t="s">
+      <c r="K75" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L75" s="66"/>
-      <c r="M75" s="66"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
       <c r="N75" s="32">
         <v>30</v>
       </c>
-      <c r="O75" s="52" t="s">
+      <c r="O75" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
       <c r="R75" s="38"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="62">
+      <c r="A76" s="57"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="51">
         <v>851</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4738,40 +4842,40 @@
       <c r="F76" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="81" t="s">
+      <c r="G76" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="H76" s="102" t="s">
+      <c r="H76" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I76" s="79" t="s">
+      <c r="I76" s="74" t="s">
         <v>126</v>
       </c>
       <c r="K76" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L76" s="74" t="s">
+      <c r="L76" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="M76" s="74"/>
+      <c r="M76" s="70"/>
       <c r="N76" s="32">
         <v>30</v>
       </c>
       <c r="O76" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P76" s="74" t="s">
+      <c r="P76" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="Q76" s="74"/>
+      <c r="Q76" s="70"/>
       <c r="R76" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="108"/>
-      <c r="B77" s="100"/>
-      <c r="C77" s="63"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="5" t="s">
         <v>141</v>
       </c>
@@ -4781,35 +4885,35 @@
       <c r="F77" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="G77" s="82"/>
-      <c r="H77" s="102"/>
-      <c r="I77" s="79"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="74"/>
       <c r="K77" s="68">
         <v>30</v>
       </c>
-      <c r="L77" s="72">
+      <c r="L77" s="73">
         <v>60</v>
       </c>
-      <c r="M77" s="72"/>
+      <c r="M77" s="73"/>
       <c r="N77" s="32">
         <v>30</v>
       </c>
       <c r="O77" s="68">
         <v>30</v>
       </c>
-      <c r="P77" s="72">
+      <c r="P77" s="73">
         <v>60</v>
       </c>
-      <c r="Q77" s="72"/>
-      <c r="R77" s="52">
+      <c r="Q77" s="73"/>
+      <c r="R77" s="72">
         <f>SUM(K77:Q77)</f>
         <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="108"/>
-      <c r="B78" s="100"/>
-      <c r="C78" s="63"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="5" t="s">
         <v>143</v>
       </c>
@@ -4819,28 +4923,28 @@
       <c r="F78" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="82"/>
-      <c r="H78" s="102" t="s">
+      <c r="G78" s="89"/>
+      <c r="H78" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I78" s="79" t="s">
+      <c r="I78" s="74" t="s">
         <v>126</v>
       </c>
       <c r="K78" s="68"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="72"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
       <c r="N78" s="32">
         <v>30</v>
       </c>
       <c r="O78" s="68"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="52"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="73"/>
+      <c r="R78" s="72"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
-      <c r="B79" s="100"/>
-      <c r="C79" s="64"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="5" t="s">
         <v>142</v>
       </c>
@@ -4850,23 +4954,23 @@
       <c r="F79" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="G79" s="82"/>
-      <c r="H79" s="102"/>
-      <c r="I79" s="79"/>
+      <c r="G79" s="89"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="74"/>
       <c r="K79" s="68"/>
-      <c r="L79" s="72"/>
-      <c r="M79" s="72"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="73"/>
       <c r="N79" s="32">
         <v>30</v>
       </c>
       <c r="O79" s="68"/>
-      <c r="P79" s="72"/>
-      <c r="Q79" s="72"/>
-      <c r="R79" s="52"/>
+      <c r="P79" s="73"/>
+      <c r="Q79" s="73"/>
+      <c r="R79" s="72"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="108"/>
-      <c r="B80" s="100"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="86"/>
       <c r="C80" s="10">
         <v>852</v>
       </c>
@@ -4879,27 +4983,27 @@
       <c r="F80" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="82"/>
-      <c r="H80" s="102" t="s">
+      <c r="G80" s="89"/>
+      <c r="H80" s="69" t="s">
         <v>133</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>97</v>
       </c>
       <c r="K80" s="68"/>
-      <c r="L80" s="72"/>
-      <c r="M80" s="72"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
       <c r="N80" s="32">
         <v>30</v>
       </c>
       <c r="O80" s="68"/>
-      <c r="P80" s="72"/>
-      <c r="Q80" s="72"/>
-      <c r="R80" s="52"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="72"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
-      <c r="B81" s="100"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="86"/>
       <c r="C81" s="2">
         <v>853</v>
       </c>
@@ -4912,30 +5016,30 @@
       <c r="F81" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="G81" s="83"/>
-      <c r="H81" s="102"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="69"/>
       <c r="I81" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="K81" s="52" t="s">
+      <c r="K81" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
+      <c r="L81" s="72"/>
+      <c r="M81" s="72"/>
       <c r="N81" s="32">
         <v>30</v>
       </c>
-      <c r="O81" s="52" t="s">
+      <c r="O81" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
+      <c r="P81" s="72"/>
+      <c r="Q81" s="72"/>
       <c r="R81" s="38"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="108"/>
-      <c r="B82" s="100"/>
-      <c r="C82" s="96">
+      <c r="A82" s="57"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="48">
         <v>851</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -4947,13 +5051,13 @@
       <c r="F82" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="84" t="s">
+      <c r="G82" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="H82" s="103" t="s">
+      <c r="H82" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I82" s="78" t="s">
+      <c r="I82" s="67" t="s">
         <v>127</v>
       </c>
       <c r="K82" s="30" t="s">
@@ -4982,9 +5086,9 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="108"/>
-      <c r="B83" s="100"/>
-      <c r="C83" s="97"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="7" t="s">
         <v>141</v>
       </c>
@@ -4994,39 +5098,39 @@
       <c r="F83" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="85"/>
-      <c r="H83" s="103"/>
-      <c r="I83" s="78"/>
-      <c r="K83" s="53">
-        <v>30</v>
-      </c>
-      <c r="L83" s="56">
+      <c r="G83" s="77"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="67"/>
+      <c r="K83" s="58">
+        <v>30</v>
+      </c>
+      <c r="L83" s="61">
         <v>25</v>
       </c>
-      <c r="M83" s="59">
+      <c r="M83" s="64">
         <v>35</v>
       </c>
       <c r="N83" s="32">
         <v>30</v>
       </c>
-      <c r="O83" s="53">
-        <v>30</v>
-      </c>
-      <c r="P83" s="56">
+      <c r="O83" s="58">
+        <v>30</v>
+      </c>
+      <c r="P83" s="61">
         <v>25</v>
       </c>
-      <c r="Q83" s="59">
+      <c r="Q83" s="64">
         <v>35</v>
       </c>
-      <c r="R83" s="62">
+      <c r="R83" s="51">
         <f>SUM(K83:Q83)</f>
         <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="108"/>
-      <c r="B84" s="100"/>
-      <c r="C84" s="97"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="49"/>
       <c r="D84" s="7" t="s">
         <v>143</v>
       </c>
@@ -5036,28 +5140,28 @@
       <c r="F84" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G84" s="85"/>
-      <c r="H84" s="103" t="s">
+      <c r="G84" s="77"/>
+      <c r="H84" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="I84" s="78" t="s">
+      <c r="I84" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="K84" s="54"/>
-      <c r="L84" s="57"/>
-      <c r="M84" s="60"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="65"/>
       <c r="N84" s="32">
         <v>30</v>
       </c>
-      <c r="O84" s="54"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="60"/>
-      <c r="R84" s="63"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="65"/>
+      <c r="R84" s="52"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
-      <c r="B85" s="100"/>
-      <c r="C85" s="98"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="50"/>
       <c r="D85" s="7" t="s">
         <v>142</v>
       </c>
@@ -5067,23 +5171,23 @@
       <c r="F85" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="G85" s="85"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="78"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="60"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="67"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="62"/>
+      <c r="M85" s="65"/>
       <c r="N85" s="32">
         <v>30</v>
       </c>
-      <c r="O85" s="54"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="63"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="62"/>
+      <c r="Q85" s="65"/>
+      <c r="R85" s="52"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
-      <c r="B86" s="100"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="86"/>
       <c r="C86" s="21">
         <v>852</v>
       </c>
@@ -5096,27 +5200,27 @@
       <c r="F86" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="G86" s="85"/>
-      <c r="H86" s="103" t="s">
+      <c r="G86" s="77"/>
+      <c r="H86" s="54" t="s">
         <v>133</v>
       </c>
       <c r="I86" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K86" s="55"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="61"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="66"/>
       <c r="N86" s="32">
         <v>30</v>
       </c>
-      <c r="O86" s="55"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="64"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="63"/>
+      <c r="Q86" s="66"/>
+      <c r="R86" s="53"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="108"/>
-      <c r="B87" s="101"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="87"/>
       <c r="C87" s="11">
         <v>853</v>
       </c>
@@ -5129,32 +5233,32 @@
       <c r="F87" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="G87" s="86"/>
-      <c r="H87" s="103"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="54"/>
       <c r="I87" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K87" s="65" t="s">
+      <c r="K87" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L87" s="66"/>
-      <c r="M87" s="66"/>
+      <c r="L87" s="71"/>
+      <c r="M87" s="71"/>
       <c r="N87" s="32">
         <v>30</v>
       </c>
-      <c r="O87" s="52" t="s">
+      <c r="O87" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52"/>
+      <c r="P87" s="72"/>
+      <c r="Q87" s="72"/>
       <c r="R87" s="38"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="108"/>
-      <c r="B88" s="99" t="s">
+      <c r="A88" s="57"/>
+      <c r="B88" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="62">
+      <c r="C88" s="51">
         <v>861</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5166,40 +5270,40 @@
       <c r="F88" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="87" t="s">
+      <c r="G88" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="H88" s="102" t="s">
+      <c r="H88" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I88" s="79" t="s">
+      <c r="I88" s="74" t="s">
         <v>128</v>
       </c>
       <c r="K88" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L88" s="74" t="s">
+      <c r="L88" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="M88" s="74"/>
+      <c r="M88" s="70"/>
       <c r="N88" s="32">
         <v>30</v>
       </c>
       <c r="O88" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P88" s="74" t="s">
+      <c r="P88" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="Q88" s="74"/>
+      <c r="Q88" s="70"/>
       <c r="R88" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="108"/>
-      <c r="B89" s="100"/>
-      <c r="C89" s="63"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="5" t="s">
         <v>141</v>
       </c>
@@ -5209,35 +5313,35 @@
       <c r="F89" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G89" s="88"/>
-      <c r="H89" s="102"/>
-      <c r="I89" s="79"/>
+      <c r="G89" s="97"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="74"/>
       <c r="K89" s="68">
         <v>30</v>
       </c>
-      <c r="L89" s="72">
+      <c r="L89" s="73">
         <v>60</v>
       </c>
-      <c r="M89" s="72"/>
+      <c r="M89" s="73"/>
       <c r="N89" s="32">
         <v>30</v>
       </c>
       <c r="O89" s="68">
         <v>30</v>
       </c>
-      <c r="P89" s="72">
+      <c r="P89" s="73">
         <v>60</v>
       </c>
-      <c r="Q89" s="72"/>
-      <c r="R89" s="52">
+      <c r="Q89" s="73"/>
+      <c r="R89" s="72">
         <f>SUM(K89:Q89)</f>
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
-      <c r="B90" s="100"/>
-      <c r="C90" s="63"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="52"/>
       <c r="D90" s="5" t="s">
         <v>143</v>
       </c>
@@ -5247,28 +5351,28 @@
       <c r="F90" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="G90" s="88"/>
-      <c r="H90" s="102" t="s">
+      <c r="G90" s="97"/>
+      <c r="H90" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I90" s="79" t="s">
+      <c r="I90" s="74" t="s">
         <v>128</v>
       </c>
       <c r="K90" s="68"/>
-      <c r="L90" s="72"/>
-      <c r="M90" s="72"/>
+      <c r="L90" s="73"/>
+      <c r="M90" s="73"/>
       <c r="N90" s="32">
         <v>30</v>
       </c>
       <c r="O90" s="68"/>
-      <c r="P90" s="72"/>
-      <c r="Q90" s="72"/>
-      <c r="R90" s="52"/>
+      <c r="P90" s="73"/>
+      <c r="Q90" s="73"/>
+      <c r="R90" s="72"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
-      <c r="B91" s="100"/>
-      <c r="C91" s="64"/>
+      <c r="A91" s="57"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="53"/>
       <c r="D91" s="5" t="s">
         <v>142</v>
       </c>
@@ -5278,23 +5382,23 @@
       <c r="F91" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G91" s="88"/>
-      <c r="H91" s="102"/>
-      <c r="I91" s="79"/>
+      <c r="G91" s="97"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="74"/>
       <c r="K91" s="68"/>
-      <c r="L91" s="72"/>
-      <c r="M91" s="72"/>
+      <c r="L91" s="73"/>
+      <c r="M91" s="73"/>
       <c r="N91" s="32">
         <v>30</v>
       </c>
       <c r="O91" s="68"/>
-      <c r="P91" s="72"/>
-      <c r="Q91" s="72"/>
-      <c r="R91" s="52"/>
+      <c r="P91" s="73"/>
+      <c r="Q91" s="73"/>
+      <c r="R91" s="72"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
-      <c r="B92" s="100"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="86"/>
       <c r="C92" s="2">
         <v>862</v>
       </c>
@@ -5307,27 +5411,27 @@
       <c r="F92" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="88"/>
-      <c r="H92" s="102" t="s">
+      <c r="G92" s="97"/>
+      <c r="H92" s="69" t="s">
         <v>133</v>
       </c>
       <c r="I92" s="22" t="s">
         <v>134</v>
       </c>
       <c r="K92" s="68"/>
-      <c r="L92" s="72"/>
-      <c r="M92" s="72"/>
+      <c r="L92" s="73"/>
+      <c r="M92" s="73"/>
       <c r="N92" s="32">
         <v>30</v>
       </c>
       <c r="O92" s="68"/>
-      <c r="P92" s="72"/>
-      <c r="Q92" s="72"/>
-      <c r="R92" s="52"/>
+      <c r="P92" s="73"/>
+      <c r="Q92" s="73"/>
+      <c r="R92" s="72"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
-      <c r="B93" s="100"/>
+      <c r="A93" s="57"/>
+      <c r="B93" s="86"/>
       <c r="C93" s="2">
         <v>863</v>
       </c>
@@ -5340,30 +5444,30 @@
       <c r="F93" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="G93" s="89"/>
-      <c r="H93" s="102"/>
+      <c r="G93" s="98"/>
+      <c r="H93" s="69"/>
       <c r="I93" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="K93" s="52" t="s">
+      <c r="K93" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="L93" s="52"/>
-      <c r="M93" s="52"/>
+      <c r="L93" s="72"/>
+      <c r="M93" s="72"/>
       <c r="N93" s="32">
         <v>30</v>
       </c>
-      <c r="O93" s="52" t="s">
+      <c r="O93" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="52"/>
+      <c r="P93" s="72"/>
+      <c r="Q93" s="72"/>
       <c r="R93" s="38"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="108"/>
-      <c r="B94" s="100"/>
-      <c r="C94" s="96">
+      <c r="A94" s="57"/>
+      <c r="B94" s="86"/>
+      <c r="C94" s="48">
         <v>861</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -5375,13 +5479,13 @@
       <c r="F94" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G94" s="90" t="s">
+      <c r="G94" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="H94" s="103" t="s">
+      <c r="H94" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I94" s="78" t="s">
+      <c r="I94" s="67" t="s">
         <v>129</v>
       </c>
       <c r="K94" s="30" t="s">
@@ -5410,9 +5514,9 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
-      <c r="B95" s="100"/>
-      <c r="C95" s="97"/>
+      <c r="A95" s="57"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="7" t="s">
         <v>141</v>
       </c>
@@ -5422,39 +5526,39 @@
       <c r="F95" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="G95" s="91"/>
-      <c r="H95" s="103"/>
-      <c r="I95" s="78"/>
-      <c r="K95" s="53">
-        <v>30</v>
-      </c>
-      <c r="L95" s="56">
+      <c r="G95" s="100"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="67"/>
+      <c r="K95" s="58">
+        <v>30</v>
+      </c>
+      <c r="L95" s="61">
         <v>25</v>
       </c>
-      <c r="M95" s="59">
+      <c r="M95" s="64">
         <v>35</v>
       </c>
       <c r="N95" s="32">
         <v>30</v>
       </c>
-      <c r="O95" s="53">
-        <v>30</v>
-      </c>
-      <c r="P95" s="56">
+      <c r="O95" s="58">
+        <v>30</v>
+      </c>
+      <c r="P95" s="61">
         <v>25</v>
       </c>
-      <c r="Q95" s="59">
+      <c r="Q95" s="64">
         <v>35</v>
       </c>
-      <c r="R95" s="62">
+      <c r="R95" s="51">
         <f>SUM(K95:Q95)</f>
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="108"/>
-      <c r="B96" s="100"/>
-      <c r="C96" s="97"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="7" t="s">
         <v>143</v>
       </c>
@@ -5464,28 +5568,28 @@
       <c r="F96" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="G96" s="91"/>
-      <c r="H96" s="103" t="s">
+      <c r="G96" s="100"/>
+      <c r="H96" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="I96" s="78" t="s">
+      <c r="I96" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="K96" s="54"/>
-      <c r="L96" s="57"/>
-      <c r="M96" s="60"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="62"/>
+      <c r="M96" s="65"/>
       <c r="N96" s="32">
         <v>30</v>
       </c>
-      <c r="O96" s="54"/>
-      <c r="P96" s="57"/>
-      <c r="Q96" s="60"/>
-      <c r="R96" s="63"/>
+      <c r="O96" s="59"/>
+      <c r="P96" s="62"/>
+      <c r="Q96" s="65"/>
+      <c r="R96" s="52"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="108"/>
-      <c r="B97" s="100"/>
-      <c r="C97" s="98"/>
+      <c r="A97" s="57"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="50"/>
       <c r="D97" s="7" t="s">
         <v>142</v>
       </c>
@@ -5495,23 +5599,23 @@
       <c r="F97" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G97" s="91"/>
-      <c r="H97" s="103"/>
-      <c r="I97" s="78"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="57"/>
-      <c r="M97" s="60"/>
+      <c r="G97" s="100"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="67"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="62"/>
+      <c r="M97" s="65"/>
       <c r="N97" s="32">
         <v>30</v>
       </c>
-      <c r="O97" s="54"/>
-      <c r="P97" s="57"/>
-      <c r="Q97" s="60"/>
-      <c r="R97" s="63"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="62"/>
+      <c r="Q97" s="65"/>
+      <c r="R97" s="52"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="108"/>
-      <c r="B98" s="100"/>
+      <c r="A98" s="57"/>
+      <c r="B98" s="86"/>
       <c r="C98" s="11">
         <v>862</v>
       </c>
@@ -5524,27 +5628,27 @@
       <c r="F98" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="G98" s="91"/>
-      <c r="H98" s="103" t="s">
+      <c r="G98" s="100"/>
+      <c r="H98" s="54" t="s">
         <v>133</v>
       </c>
       <c r="I98" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="55"/>
-      <c r="L98" s="58"/>
-      <c r="M98" s="61"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="63"/>
+      <c r="M98" s="66"/>
       <c r="N98" s="32">
         <v>30</v>
       </c>
-      <c r="O98" s="55"/>
-      <c r="P98" s="58"/>
-      <c r="Q98" s="61"/>
-      <c r="R98" s="64"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="63"/>
+      <c r="Q98" s="66"/>
+      <c r="R98" s="53"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="108"/>
-      <c r="B99" s="101"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="87"/>
       <c r="C99" s="11">
         <v>863</v>
       </c>
@@ -5557,33 +5661,33 @@
       <c r="F99" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="G99" s="92"/>
-      <c r="H99" s="103"/>
+      <c r="G99" s="101"/>
+      <c r="H99" s="54"/>
       <c r="I99" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="K99" s="65" t="s">
+      <c r="K99" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L99" s="66"/>
-      <c r="M99" s="66"/>
+      <c r="L99" s="71"/>
+      <c r="M99" s="71"/>
       <c r="N99" s="32">
         <v>30</v>
       </c>
-      <c r="O99" s="52" t="s">
+      <c r="O99" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
+      <c r="P99" s="72"/>
+      <c r="Q99" s="72"/>
       <c r="R99" s="38"/>
     </row>
     <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="80" t="s">
+      <c r="A100" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="80"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="80"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="95"/>
       <c r="E100" s="15">
         <f>SUM(E2:E99)</f>
         <v>168</v>
@@ -5594,13 +5698,13 @@
       <c r="H100" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="95" t="s">
+      <c r="A102" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="B102" s="94" t="s">
+      <c r="B102" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="52">
+      <c r="C102" s="72">
         <v>871</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -5612,13 +5716,13 @@
       <c r="F102" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G102" s="93" t="s">
+      <c r="G102" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="H102" s="102" t="s">
+      <c r="H102" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I102" s="113">
+      <c r="I102" s="75">
         <v>871</v>
       </c>
       <c r="K102" s="30" t="s">
@@ -5647,9 +5751,9 @@
       </c>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="95"/>
-      <c r="B103" s="94"/>
-      <c r="C103" s="52"/>
+      <c r="A103" s="102"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="72"/>
       <c r="D103" s="5" t="s">
         <v>141</v>
       </c>
@@ -5659,39 +5763,39 @@
       <c r="F103" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G103" s="93"/>
-      <c r="H103" s="102"/>
-      <c r="I103" s="113"/>
-      <c r="K103" s="53">
-        <v>30</v>
-      </c>
-      <c r="L103" s="56">
+      <c r="G103" s="92"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="75"/>
+      <c r="K103" s="58">
+        <v>30</v>
+      </c>
+      <c r="L103" s="61">
         <v>35</v>
       </c>
-      <c r="M103" s="59">
+      <c r="M103" s="64">
         <v>55</v>
       </c>
       <c r="N103" s="32">
         <v>30</v>
       </c>
-      <c r="O103" s="53">
-        <v>30</v>
-      </c>
-      <c r="P103" s="73">
+      <c r="O103" s="58">
+        <v>30</v>
+      </c>
+      <c r="P103" s="104">
         <v>35</v>
       </c>
-      <c r="Q103" s="59">
+      <c r="Q103" s="64">
         <v>25</v>
       </c>
-      <c r="R103" s="62">
+      <c r="R103" s="51">
         <f>SUM(K103:Q103)</f>
         <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="95"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="52"/>
+      <c r="A104" s="102"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="72"/>
       <c r="D104" s="5" t="s">
         <v>143</v>
       </c>
@@ -5701,28 +5805,28 @@
       <c r="F104" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="G104" s="93"/>
-      <c r="H104" s="102" t="s">
+      <c r="G104" s="92"/>
+      <c r="H104" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I104" s="113">
+      <c r="I104" s="75">
         <v>871</v>
       </c>
-      <c r="K104" s="54"/>
-      <c r="L104" s="57"/>
-      <c r="M104" s="60"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="62"/>
+      <c r="M104" s="65"/>
       <c r="N104" s="32">
         <v>30</v>
       </c>
-      <c r="O104" s="54"/>
-      <c r="P104" s="75"/>
-      <c r="Q104" s="60"/>
-      <c r="R104" s="63"/>
+      <c r="O104" s="59"/>
+      <c r="P104" s="109"/>
+      <c r="Q104" s="65"/>
+      <c r="R104" s="52"/>
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="95"/>
-      <c r="B105" s="94"/>
-      <c r="C105" s="52"/>
+      <c r="A105" s="102"/>
+      <c r="B105" s="84"/>
+      <c r="C105" s="72"/>
       <c r="D105" s="5" t="s">
         <v>142</v>
       </c>
@@ -5732,23 +5836,23 @@
       <c r="F105" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G105" s="93"/>
-      <c r="H105" s="102"/>
-      <c r="I105" s="113"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="60"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="75"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="65"/>
       <c r="N105" s="32">
         <v>30</v>
       </c>
-      <c r="O105" s="54"/>
-      <c r="P105" s="75"/>
-      <c r="Q105" s="60"/>
-      <c r="R105" s="63"/>
+      <c r="O105" s="59"/>
+      <c r="P105" s="109"/>
+      <c r="Q105" s="65"/>
+      <c r="R105" s="52"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="95"/>
-      <c r="B106" s="94"/>
+      <c r="A106" s="102"/>
+      <c r="B106" s="84"/>
       <c r="C106" s="2">
         <v>872</v>
       </c>
@@ -5761,27 +5865,27 @@
       <c r="F106" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="G106" s="93"/>
-      <c r="H106" s="102" t="s">
+      <c r="G106" s="92"/>
+      <c r="H106" s="69" t="s">
         <v>133</v>
       </c>
       <c r="I106" s="16">
         <v>872</v>
       </c>
-      <c r="K106" s="55"/>
-      <c r="L106" s="58"/>
-      <c r="M106" s="61"/>
+      <c r="K106" s="60"/>
+      <c r="L106" s="63"/>
+      <c r="M106" s="66"/>
       <c r="N106" s="32">
         <v>30</v>
       </c>
-      <c r="O106" s="55"/>
-      <c r="P106" s="76"/>
-      <c r="Q106" s="61"/>
-      <c r="R106" s="64"/>
+      <c r="O106" s="60"/>
+      <c r="P106" s="110"/>
+      <c r="Q106" s="66"/>
+      <c r="R106" s="53"/>
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="95"/>
-      <c r="B107" s="94"/>
+      <c r="A107" s="102"/>
+      <c r="B107" s="84"/>
       <c r="C107" s="2">
         <v>873</v>
       </c>
@@ -5794,33 +5898,33 @@
       <c r="F107" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G107" s="93"/>
-      <c r="H107" s="102"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="69"/>
       <c r="I107" s="16">
         <v>873</v>
       </c>
-      <c r="K107" s="65" t="s">
+      <c r="K107" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L107" s="66"/>
-      <c r="M107" s="66"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="71"/>
       <c r="N107" s="32">
         <v>30</v>
       </c>
-      <c r="O107" s="65" t="s">
+      <c r="O107" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="P107" s="66"/>
-      <c r="Q107" s="67"/>
+      <c r="P107" s="71"/>
+      <c r="Q107" s="113"/>
       <c r="R107" s="38"/>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="80" t="s">
+      <c r="A108" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="80"/>
-      <c r="C108" s="80"/>
-      <c r="D108" s="80"/>
+      <c r="B108" s="95"/>
+      <c r="C108" s="95"/>
+      <c r="D108" s="95"/>
       <c r="E108" s="15">
         <f>SUM(E102:E107)</f>
         <v>10</v>
@@ -5889,6 +5993,288 @@
     </row>
   </sheetData>
   <mergeCells count="306">
+    <mergeCell ref="T31:V32"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="K95:K98"/>
+    <mergeCell ref="L95:L98"/>
+    <mergeCell ref="M95:M98"/>
+    <mergeCell ref="O95:O98"/>
+    <mergeCell ref="P95:P98"/>
+    <mergeCell ref="Q95:Q98"/>
+    <mergeCell ref="R95:R98"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="L40:M43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:Q43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="M103:M106"/>
+    <mergeCell ref="O103:O106"/>
+    <mergeCell ref="Q103:Q106"/>
+    <mergeCell ref="R103:R106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L25"/>
+    <mergeCell ref="N19:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O25"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="T27:V30"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R25"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q46:Q49"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="P103:P106"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="P58:P61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="O58:O61"/>
+    <mergeCell ref="Q58:Q61"/>
+    <mergeCell ref="K83:K86"/>
+    <mergeCell ref="L83:L86"/>
+    <mergeCell ref="M83:M86"/>
+    <mergeCell ref="O83:O86"/>
+    <mergeCell ref="P83:P86"/>
+    <mergeCell ref="Q83:Q86"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:M92"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:Q92"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="L52:M55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R83:R86"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="P77:Q80"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L28:M31"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q31"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="P65:Q68"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="G76:G81"/>
+    <mergeCell ref="G82:G87"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A64:A99"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B64:B87"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="A27:A62"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="L65:M68"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L77:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
     <mergeCell ref="C57:C60"/>
     <mergeCell ref="C70:C73"/>
     <mergeCell ref="C64:C67"/>
@@ -5913,288 +6299,6 @@
     <mergeCell ref="K52:K55"/>
     <mergeCell ref="K65:K68"/>
     <mergeCell ref="O65:O68"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="L65:M68"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A64:A99"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B64:B87"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="A27:A62"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G64:G69"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="G76:G81"/>
-    <mergeCell ref="G82:G87"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="G102:G107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="P65:Q68"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L28:M31"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q31"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:Q92"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="L52:M55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R83:R86"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="P77:Q80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="P103:P106"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="P58:P61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="O58:O61"/>
-    <mergeCell ref="Q58:Q61"/>
-    <mergeCell ref="K83:K86"/>
-    <mergeCell ref="L83:L86"/>
-    <mergeCell ref="M83:M86"/>
-    <mergeCell ref="O83:O86"/>
-    <mergeCell ref="P83:P86"/>
-    <mergeCell ref="Q83:Q86"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:M92"/>
-    <mergeCell ref="N3:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R25"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L103:L106"/>
-    <mergeCell ref="M103:M106"/>
-    <mergeCell ref="O103:O106"/>
-    <mergeCell ref="Q103:Q106"/>
-    <mergeCell ref="R103:R106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="O107:Q107"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="T15:T17"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L25"/>
-    <mergeCell ref="N19:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O25"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="T27:V30"/>
-    <mergeCell ref="T31:V32"/>
-    <mergeCell ref="S27:S30"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="O95:O98"/>
-    <mergeCell ref="P95:P98"/>
-    <mergeCell ref="Q95:Q98"/>
-    <mergeCell ref="R95:R98"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="L40:M43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:Q43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="M46:M49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6202,4 +6306,480 @@
     <ignoredError sqref="H34 H40 H46 H52 H33 H36 H35 H39 H42 H41 H44 H43 H45 H48 H47 H50 H49 H51 H54 H53 H56 H55 I64:I92 I94:I98 I27:I62" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDB1118-ABE5-48D0-B2A1-00CF7B648B64}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="6" max="13" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="129" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="120">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="136">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="103"/>
+      <c r="L3" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="136"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="120">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="131">
+        <v>30</v>
+      </c>
+      <c r="G4" s="133">
+        <v>90</v>
+      </c>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="125">
+        <v>60</v>
+      </c>
+      <c r="K4" s="126"/>
+      <c r="L4" s="133">
+        <v>90</v>
+      </c>
+      <c r="M4" s="134"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="102"/>
+      <c r="B5" s="120">
+        <v>102</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="131">
+        <v>30</v>
+      </c>
+      <c r="G5" s="133">
+        <v>90</v>
+      </c>
+      <c r="H5" s="134"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="125">
+        <v>60</v>
+      </c>
+      <c r="K5" s="126"/>
+      <c r="L5" s="133">
+        <v>90</v>
+      </c>
+      <c r="M5" s="134"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="136">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="102"/>
+      <c r="B6" s="120">
+        <v>103</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="131">
+        <v>30</v>
+      </c>
+      <c r="G6" s="133">
+        <v>90</v>
+      </c>
+      <c r="H6" s="134"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="125">
+        <v>60</v>
+      </c>
+      <c r="K6" s="126"/>
+      <c r="L6" s="133">
+        <v>90</v>
+      </c>
+      <c r="M6" s="134"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="136">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="102"/>
+      <c r="B7" s="120">
+        <v>104</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="131">
+        <v>30</v>
+      </c>
+      <c r="G7" s="133">
+        <v>90</v>
+      </c>
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="125">
+        <v>60</v>
+      </c>
+      <c r="K7" s="126"/>
+      <c r="L7" s="133">
+        <v>90</v>
+      </c>
+      <c r="M7" s="134"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="136">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102"/>
+      <c r="B8" s="120">
+        <v>105</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="131">
+        <v>30</v>
+      </c>
+      <c r="G8" s="133">
+        <v>90</v>
+      </c>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="125">
+        <v>60</v>
+      </c>
+      <c r="K8" s="126"/>
+      <c r="L8" s="133">
+        <v>90</v>
+      </c>
+      <c r="M8" s="134"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="136">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="102"/>
+      <c r="B9" s="120">
+        <v>106</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="131">
+        <v>30</v>
+      </c>
+      <c r="G9" s="133">
+        <v>90</v>
+      </c>
+      <c r="H9" s="134"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="125">
+        <v>60</v>
+      </c>
+      <c r="K9" s="126"/>
+      <c r="L9" s="133">
+        <v>90</v>
+      </c>
+      <c r="M9" s="134"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="136">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="102"/>
+      <c r="B10" s="120">
+        <v>107</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="131">
+        <v>30</v>
+      </c>
+      <c r="G10" s="133">
+        <v>90</v>
+      </c>
+      <c r="H10" s="134"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="125">
+        <v>60</v>
+      </c>
+      <c r="K10" s="126"/>
+      <c r="L10" s="133">
+        <v>90</v>
+      </c>
+      <c r="M10" s="134"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="136">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="102"/>
+      <c r="B11" s="120">
+        <v>108</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="131">
+        <v>30</v>
+      </c>
+      <c r="G11" s="133">
+        <v>90</v>
+      </c>
+      <c r="H11" s="134"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="125">
+        <v>60</v>
+      </c>
+      <c r="K11" s="126"/>
+      <c r="L11" s="133">
+        <v>90</v>
+      </c>
+      <c r="M11" s="134"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="136">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="102"/>
+      <c r="B12" s="120">
+        <v>109</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="131">
+        <v>30</v>
+      </c>
+      <c r="G12" s="133">
+        <v>90</v>
+      </c>
+      <c r="H12" s="134"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="125">
+        <v>60</v>
+      </c>
+      <c r="K12" s="126"/>
+      <c r="L12" s="133">
+        <v>90</v>
+      </c>
+      <c r="M12" s="134"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="136">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="102"/>
+      <c r="B13" s="120">
+        <v>110</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="131">
+        <v>30</v>
+      </c>
+      <c r="G13" s="133">
+        <v>90</v>
+      </c>
+      <c r="H13" s="134"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="125">
+        <v>60</v>
+      </c>
+      <c r="K13" s="126"/>
+      <c r="L13" s="133">
+        <v>90</v>
+      </c>
+      <c r="M13" s="134"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="136">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>